--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrsubra\PycharmProjects\newpull\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="872">
   <si>
     <t>Region</t>
   </si>
@@ -6819,7 +6819,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6859,6 +6859,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7097,7 +7103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7224,8 +7230,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7374,6 +7378,14 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7768,14 +7780,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="167.08984375" style="47" customWidth="1"/>
+    <col min="1" max="1" width="167.109375" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="90" t="s">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:1" ht="58.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="88" t="s">
         <v>543</v>
       </c>
     </row>
@@ -7793,33 +7805,33 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="47" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="25.08984375" style="47" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="47" customWidth="1"/>
     <col min="5" max="5" width="16" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.81640625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="16.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" style="47" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" customWidth="1"/>
+    <col min="6" max="6" width="31.77734375" style="47" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="47" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7865,40 +7877,40 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="47" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="47" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="47" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" style="47" customWidth="1"/>
-    <col min="17" max="17" width="11.6328125" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="47" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" style="47" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="47" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>515</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7967,26 +7979,1526 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.453125" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="47" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" style="47" customWidth="1"/>
     <col min="11" max="11" width="19" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.08984375" style="47" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:20" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>524</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="80" t="s">
+        <v>495</v>
+      </c>
+      <c r="T2" s="80" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+    </row>
+    <row r="4" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="46" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>423</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>425</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48">
+        <v>22</v>
+      </c>
+      <c r="O5" s="48">
+        <v>22</v>
+      </c>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48">
+        <v>53</v>
+      </c>
+      <c r="O7" s="48">
+        <v>53</v>
+      </c>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+    </row>
+    <row r="2" spans="1:7" s="55" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G6" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" style="47" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="47" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" style="47" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" style="47" customWidth="1"/>
+    <col min="11" max="11" width="26.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="47" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="47" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="99" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="92" t="s">
+        <v>653</v>
+      </c>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="94"/>
+    </row>
+    <row r="2" spans="1:16" s="55" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>520</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="N2" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P2" s="40" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="48"/>
+    </row>
+    <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="G4" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>521</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>652</v>
+      </c>
+      <c r="M4" s="57" t="s">
+        <v>398</v>
+      </c>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="K5" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="L5" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="48"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="G6" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="57"/>
+      <c r="I6" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="J6" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="57"/>
+      <c r="I7" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.21875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="23" style="47" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.21875" style="47" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
+    </row>
+    <row r="2" spans="1:10" s="55" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+    </row>
+    <row r="4" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4" s="48">
+        <v>150</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>432</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>652</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>398</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5" s="48">
+        <v>150</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>433</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="I5" s="57"/>
+      <c r="J5" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView zoomScale="89" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.44140625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="47" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="47" customWidth="1"/>
+    <col min="7" max="7" width="15" style="47" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="47" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" style="47" customWidth="1"/>
+    <col min="10" max="10" width="16" style="47" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" style="47" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" style="47" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" style="47" customWidth="1"/>
+    <col min="14" max="14" width="17.109375" style="47" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" style="47" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="102" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="105" t="s">
+        <v>526</v>
+      </c>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+    </row>
+    <row r="4" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K6" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+    </row>
+    <row r="7" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+    </row>
+    <row r="8" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q8" s="48"/>
+    </row>
+    <row r="9" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+    </row>
+    <row r="10" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.6640625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="47" customWidth="1"/>
+    <col min="8" max="8" width="25" style="47" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" style="47" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" style="47" customWidth="1"/>
+    <col min="13" max="13" width="28.21875" style="47" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+    </row>
+    <row r="2" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+    </row>
+    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>436</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="F4" s="48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>490</v>
+      </c>
+      <c r="O4" s="78" t="s">
+        <v>492</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+    </row>
+    <row r="6" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>429</v>
+      </c>
+      <c r="F6" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="L6" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.21875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="11" style="47" customWidth="1"/>
+    <col min="4" max="5" width="10.88671875" style="47" customWidth="1"/>
+    <col min="6" max="6" width="18" style="47" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" style="47" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="47" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="47" customWidth="1"/>
+    <col min="10" max="11" width="14.6640625" style="47" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="47" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" style="47" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="47" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" style="47" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
+        <v>539</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -8007,1509 +9519,9 @@
       <c r="R1" s="93"/>
       <c r="S1" s="93"/>
       <c r="T1" s="93"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="82" t="s">
-        <v>495</v>
-      </c>
-      <c r="T2" s="82" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-    </row>
-    <row r="4" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>422</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="46" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>423</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>424</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>425</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>422</v>
-      </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48">
-        <v>22</v>
-      </c>
-      <c r="O5" s="48">
-        <v>22</v>
-      </c>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>405</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>407</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>499</v>
-      </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48">
-        <v>53</v>
-      </c>
-      <c r="O7" s="48">
-        <v>53</v>
-      </c>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:T1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="19.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
-        <v>525</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-    </row>
-    <row r="2" spans="1:7" s="55" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" s="48"/>
-    </row>
-    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>390</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="G6" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
-  <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.1796875" style="47" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" style="47" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" style="47" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.81640625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="22.08984375" style="47" customWidth="1"/>
-    <col min="11" max="11" width="26.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="47" customWidth="1"/>
-    <col min="14" max="14" width="19.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.36328125" style="47" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
-        <v>542</v>
-      </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="94" t="s">
-        <v>653</v>
-      </c>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="96"/>
-    </row>
-    <row r="2" spans="1:16" s="55" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>520</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="L2" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="N2" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" s="40" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="48"/>
-    </row>
-    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>428</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="G4" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="48" t="s">
-        <v>409</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>521</v>
-      </c>
-      <c r="J4" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" s="57" t="s">
-        <v>652</v>
-      </c>
-      <c r="M4" s="57" t="s">
-        <v>398</v>
-      </c>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="46" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="G5" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="K5" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="L5" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="P5" s="48"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>344</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>432</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="G6" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="J6" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>433</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="G7" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="J7" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:P1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9.1796875" style="47" customWidth="1"/>
-    <col min="2" max="2" width="23" style="47" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" style="47" customWidth="1"/>
-    <col min="7" max="7" width="26.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.453125" style="47" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="114.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
-        <v>654</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="96"/>
-    </row>
-    <row r="2" spans="1:10" s="55" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>651</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-    </row>
-    <row r="4" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>434</v>
-      </c>
-      <c r="D4" s="48">
-        <v>150</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>432</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>652</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>398</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>357</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>435</v>
-      </c>
-      <c r="D5" s="48">
-        <v>150</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>433</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>430</v>
-      </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
-  <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.453125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="47" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="15" style="47" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" style="47" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="47" customWidth="1"/>
-    <col min="10" max="10" width="16" style="47" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" style="47" customWidth="1"/>
-    <col min="12" max="12" width="7.81640625" style="47" customWidth="1"/>
-    <col min="13" max="13" width="8.453125" style="47" customWidth="1"/>
-    <col min="14" max="14" width="17.08984375" style="47" customWidth="1"/>
-    <col min="15" max="15" width="15.6328125" style="47" customWidth="1"/>
-    <col min="16" max="16" width="18.90625" customWidth="1"/>
-    <col min="17" max="17" width="12.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="104" t="s">
-        <v>532</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="107" t="s">
-        <v>526</v>
-      </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-    </row>
-    <row r="4" spans="1:17" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>429</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="46" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q4" s="46" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="30"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-    </row>
-    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>429</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-    </row>
-    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>429</v>
-      </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="I8" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="48" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q8" s="48"/>
-    </row>
-    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>429</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="I9" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-    </row>
-    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>429</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:Q1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="17.6328125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" style="47" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="47" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="25" style="47" customWidth="1"/>
-    <col min="9" max="9" width="31.08984375" style="47" customWidth="1"/>
-    <col min="11" max="11" width="7.453125" style="47" customWidth="1"/>
-    <col min="13" max="13" width="28.1796875" style="47" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
-        <v>516</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-    </row>
-    <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="P2" s="41" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-    </row>
-    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>436</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>429</v>
-      </c>
-      <c r="F4" s="48" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="M4" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="N4" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="O4" s="80" t="s">
-        <v>492</v>
-      </c>
-      <c r="P4" s="46" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-    </row>
-    <row r="6" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>429</v>
-      </c>
-      <c r="F6" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>422</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U6"/>
-  <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.1796875" style="47" customWidth="1"/>
-    <col min="3" max="3" width="11" style="47" customWidth="1"/>
-    <col min="4" max="5" width="10.90625" style="47" customWidth="1"/>
-    <col min="6" max="6" width="18" style="47" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="47" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" style="47" customWidth="1"/>
-    <col min="10" max="11" width="14.6328125" style="47" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" style="47" customWidth="1"/>
-    <col min="14" max="14" width="23.6328125" style="47" customWidth="1"/>
-    <col min="16" max="16" width="12.6328125" style="47" customWidth="1"/>
-    <col min="17" max="17" width="14.81640625" style="47" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="87.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
-        <v>539</v>
-      </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="96"/>
-    </row>
-    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U1" s="94"/>
+    </row>
+    <row r="2" spans="1:21" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
@@ -9574,7 +9586,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>4</v>
       </c>
@@ -9599,7 +9611,7 @@
       <c r="T3" s="48"/>
       <c r="U3" s="48"/>
     </row>
-    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>5</v>
       </c>
@@ -9652,7 +9664,7 @@
       <c r="R4" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="79" t="s">
         <v>491</v>
       </c>
       <c r="T4" s="48">
@@ -9662,7 +9674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -9705,7 +9717,7 @@
       <c r="T5" s="48"/>
       <c r="U5" s="48"/>
     </row>
-    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
@@ -9769,49 +9781,49 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.81640625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="47" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" style="47" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" style="47" customWidth="1"/>
-    <col min="8" max="8" width="19.1796875" style="47" customWidth="1"/>
-    <col min="9" max="9" width="13.6328125" style="47" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" style="47" customWidth="1"/>
-    <col min="11" max="11" width="13.1796875" style="47" customWidth="1"/>
-    <col min="13" max="13" width="15.1796875" style="47" customWidth="1"/>
-    <col min="14" max="16" width="13.81640625" style="47" customWidth="1"/>
-    <col min="17" max="17" width="21.08984375" style="47" customWidth="1"/>
-    <col min="18" max="18" width="17.1796875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="47" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" style="47" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="47" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="47" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="47" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" style="47" customWidth="1"/>
+    <col min="14" max="16" width="13.77734375" style="47" customWidth="1"/>
+    <col min="17" max="17" width="21.109375" style="47" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:19" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>507</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="97" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="95" t="s">
         <v>535</v>
       </c>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="109"/>
-    </row>
-    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="107"/>
+    </row>
+    <row r="2" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -9870,7 +9882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>4</v>
       </c>
@@ -9893,7 +9905,7 @@
       <c r="R3" s="48"/>
       <c r="S3" s="48"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>5</v>
       </c>
@@ -9926,7 +9938,7 @@
       </c>
       <c r="S4" s="48"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -9949,7 +9961,7 @@
       <c r="R5" s="48"/>
       <c r="S5" s="48"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="48"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
@@ -9972,7 +9984,7 @@
       <c r="R6" s="48"/>
       <c r="S6" s="48"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="48"/>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
@@ -9995,7 +10007,7 @@
       <c r="R7" s="48"/>
       <c r="S7" s="48"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="48"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -10018,7 +10030,7 @@
       <c r="R8" s="48"/>
       <c r="S8" s="48"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
@@ -10045,7 +10057,7 @@
       <c r="R9" s="48"/>
       <c r="S9" s="48"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -10074,7 +10086,7 @@
       <c r="R10" s="48"/>
       <c r="S10" s="48"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
@@ -10109,7 +10121,7 @@
       <c r="R11" s="48"/>
       <c r="S11" s="48"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="48"/>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -10144,7 +10156,7 @@
       <c r="R12" s="48"/>
       <c r="S12" s="48"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -10171,7 +10183,7 @@
       <c r="R13" s="48"/>
       <c r="S13" s="48"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="48"/>
       <c r="B14" s="48"/>
       <c r="C14" s="48"/>
@@ -10198,7 +10210,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="48"/>
       <c r="B15" s="48"/>
       <c r="C15" s="48"/>
@@ -10223,7 +10235,7 @@
       <c r="R15" s="48"/>
       <c r="S15" s="48"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="48"/>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -10250,7 +10262,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="48"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48"/>
@@ -10275,7 +10287,7 @@
       <c r="R17" s="48"/>
       <c r="S17" s="48"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="48"/>
       <c r="B18" s="48"/>
       <c r="C18" s="48"/>
@@ -10302,7 +10314,7 @@
       <c r="R18" s="48"/>
       <c r="S18" s="48"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="48"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48"/>
@@ -10323,7 +10335,7 @@
       <c r="R19" s="48"/>
       <c r="S19" s="48"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="48"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
@@ -10350,7 +10362,7 @@
       <c r="R20" s="48"/>
       <c r="S20" s="48"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="48"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48"/>
@@ -10373,7 +10385,7 @@
       <c r="R21" s="48"/>
       <c r="S21" s="48"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>5</v>
       </c>
@@ -10404,7 +10416,7 @@
       <c r="R22" s="48"/>
       <c r="S22" s="48"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48"/>
@@ -10462,28 +10474,28 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="47" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="40.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.54296875" style="47" customWidth="1"/>
-    <col min="5" max="5" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" style="47" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="55" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:5" s="55" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -10500,7 +10512,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>5</v>
       </c>
@@ -10515,7 +10527,7 @@
       </c>
       <c r="E3" s="48"/>
     </row>
-    <row r="4" spans="1:5" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -10530,7 +10542,7 @@
       </c>
       <c r="E4" s="48"/>
     </row>
-    <row r="5" spans="1:5" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="47" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -10545,7 +10557,7 @@
       </c>
       <c r="E5" s="48"/>
     </row>
-    <row r="6" spans="1:5" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="47" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
@@ -10560,7 +10572,7 @@
       </c>
       <c r="E6" s="48"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>4</v>
       </c>
@@ -10569,121 +10581,121 @@
       <c r="D7" s="46"/>
       <c r="E7" s="48"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="112" t="s">
         <v>385</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48" t="s">
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="112" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="112" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="E9" s="48"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="48" t="s">
+      <c r="E9" s="112"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="112" t="s">
         <v>388</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="112" t="s">
         <v>389</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="E10" s="48"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="48" t="s">
+      <c r="E10" s="112"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="112" t="s">
         <v>390</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="112" t="s">
         <v>391</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="48" t="s">
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="112" t="s">
         <v>386</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="112" t="s">
         <v>392</v>
       </c>
-      <c r="D12" s="48" t="s">
+      <c r="D12" s="112" t="s">
         <v>390</v>
       </c>
-      <c r="E12" s="48"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="48" t="s">
+      <c r="E12" s="112"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="112" t="s">
         <v>344</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="112" t="s">
         <v>393</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="112" t="s">
         <v>394</v>
       </c>
-      <c r="E13" s="48"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="48" t="s">
+      <c r="E13" s="112"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="112" t="s">
         <v>388</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="112" t="s">
         <v>395</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="112" t="s">
         <v>390</v>
       </c>
-      <c r="E14" s="48"/>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="48" t="s">
+      <c r="E14" s="112"/>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="112" t="s">
         <v>396</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="112" t="s">
         <v>397</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="112" t="s">
         <v>398</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="113" t="s">
         <v>517</v>
       </c>
     </row>
@@ -10704,25 +10716,25 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.36328125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="26.08984375" style="47" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="47" customWidth="1"/>
-    <col min="6" max="6" width="28.6328125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="47" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="55" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="110" t="s">
+    <row r="1" spans="1:6" s="55" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="108" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="112"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="110"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -10742,7 +10754,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>4</v>
       </c>
@@ -10752,7 +10764,7 @@
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>5</v>
       </c>
@@ -10772,7 +10784,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48"/>
@@ -10786,7 +10798,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="48"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48" t="s">
@@ -10802,7 +10814,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>5</v>
       </c>
@@ -10843,40 +10855,40 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.54296875" style="47" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" style="47" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="47" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="47" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="47" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="47" customWidth="1"/>
     <col min="9" max="9" width="15" style="47" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" style="47" customWidth="1"/>
-    <col min="16" max="16" width="11.6328125" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="47" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:16" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>538</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-    </row>
-    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+    </row>
+    <row r="2" spans="1:16" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -10926,7 +10938,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>4</v>
       </c>
@@ -10946,7 +10958,7 @@
       <c r="O3" s="48"/>
       <c r="P3" s="48"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>5</v>
       </c>
@@ -10978,7 +10990,7 @@
       <c r="M4" s="48" t="s">
         <v>490</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="79" t="s">
         <v>491</v>
       </c>
       <c r="O4" s="48">
@@ -10988,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="48"/>
       <c r="B5" s="48"/>
       <c r="C5" s="48" t="s">
@@ -11016,7 +11028,7 @@
       <c r="O5" s="48"/>
       <c r="P5" s="48"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
@@ -11075,17 +11087,17 @@
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.453125" style="47" customWidth="1"/>
-    <col min="2" max="2" width="35.08984375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.81640625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" style="47" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="47" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" style="47" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" style="47" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>263</v>
       </c>
@@ -11105,7 +11117,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>228</v>
       </c>
@@ -11125,7 +11137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>232</v>
       </c>
@@ -11145,7 +11157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>212</v>
       </c>
@@ -11165,7 +11177,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>205</v>
       </c>
@@ -11183,7 +11195,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>225</v>
       </c>
@@ -11196,7 +11208,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>237</v>
       </c>
@@ -11205,7 +11217,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>211</v>
       </c>
@@ -11213,7 +11225,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>216</v>
       </c>
@@ -11221,7 +11233,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>230</v>
       </c>
@@ -11229,7 +11241,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>235</v>
       </c>
@@ -11237,153 +11249,153 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="34" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="34" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="34" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="34" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="34" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="34" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="34" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="34" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="34" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="34" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="34" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="34" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="34" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="34" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="34" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="34" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="34" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="34" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="34" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="34" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="34" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="34" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="34" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="34" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="34" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -11400,34 +11412,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.90625" style="47"/>
+    <col min="3" max="3" width="16.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="47"/>
     <col min="8" max="8" width="11" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" style="47" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="47"/>
+    <col min="9" max="9" width="13.88671875" style="47" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="113" t="s">
+    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="111" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -11440,7 +11452,7 @@
       <c r="D2" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="82" t="s">
         <v>330</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -11456,20 +11468,20 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
-      <c r="E3" s="64"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
     </row>
-    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>334</v>
       </c>
@@ -11482,7 +11494,7 @@
       <c r="D4" s="48" t="s">
         <v>335</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="62" t="s">
         <v>336</v>
       </c>
       <c r="F4" s="48">
@@ -11494,12 +11506,12 @@
       <c r="H4" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="83" t="s">
         <v>517</v>
       </c>
-      <c r="J4" s="62"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J4" s="60"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>334</v>
       </c>
@@ -11512,7 +11524,7 @@
       <c r="D5" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="62" t="s">
         <v>336</v>
       </c>
       <c r="F5" s="48">
@@ -11525,7 +11537,7 @@
         <v>339</v>
       </c>
       <c r="I5" s="57"/>
-      <c r="J5" s="62"/>
+      <c r="J5" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11544,134 +11556,134 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1796875" style="47" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="47" customWidth="1"/>
     <col min="2" max="2" width="14" style="47" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" style="47" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" style="47" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="47" customWidth="1"/>
-    <col min="8" max="8" width="27.54296875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="47" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="47" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="47" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" style="47" customWidth="1"/>
     <col min="9" max="9" width="13" style="47" customWidth="1"/>
-    <col min="10" max="10" width="16.54296875" style="47" customWidth="1"/>
-    <col min="11" max="11" width="14.36328125" style="70" customWidth="1"/>
-    <col min="12" max="13" width="20.54296875" style="47"/>
-    <col min="14" max="14" width="20.54296875" style="3"/>
-    <col min="15" max="17" width="20.54296875" style="47"/>
+    <col min="10" max="10" width="16.5546875" style="47" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="68" customWidth="1"/>
+    <col min="12" max="13" width="20.5546875" style="47"/>
+    <col min="14" max="14" width="20.5546875" style="3"/>
+    <col min="15" max="17" width="20.5546875" style="47"/>
     <col min="18" max="18" width="23" style="47" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.54296875" style="47"/>
-    <col min="22" max="22" width="23.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="47" customWidth="1"/>
-    <col min="24" max="24" width="20.54296875" style="47"/>
-    <col min="25" max="25" width="23.08984375" style="47" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.54296875" style="47"/>
+    <col min="19" max="21" width="20.5546875" style="47"/>
+    <col min="22" max="22" width="23.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="47" customWidth="1"/>
+    <col min="24" max="24" width="20.5546875" style="47"/>
+    <col min="25" max="25" width="23.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.5546875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="67" customFormat="1" ht="135.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>659</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="96"/>
-    </row>
-    <row r="2" spans="1:24" s="83" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="94"/>
+    </row>
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="85" t="s">
         <v>448</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="84" t="s">
         <v>449</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="84" t="s">
         <v>450</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="84" t="s">
         <v>451</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="84" t="s">
         <v>452</v>
       </c>
-      <c r="K2" s="87" t="s">
+      <c r="K2" s="85" t="s">
         <v>453</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="84" t="s">
         <v>454</v>
       </c>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="84" t="s">
         <v>455</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="84" t="s">
         <v>456</v>
       </c>
-      <c r="O2" s="86" t="s">
+      <c r="O2" s="84" t="s">
         <v>457</v>
       </c>
-      <c r="P2" s="86" t="s">
+      <c r="P2" s="84" t="s">
         <v>458</v>
       </c>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="84" t="s">
         <v>459</v>
       </c>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="S2" s="86" t="s">
+      <c r="S2" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="T2" s="86" t="s">
+      <c r="T2" s="84" t="s">
         <v>342</v>
       </c>
-      <c r="U2" s="86" t="s">
+      <c r="U2" s="84" t="s">
         <v>343</v>
       </c>
-      <c r="V2" s="86" t="s">
+      <c r="V2" s="84" t="s">
         <v>461</v>
       </c>
-      <c r="W2" s="86" t="s">
+      <c r="W2" s="84" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="86" t="s">
+      <c r="X2" s="84" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
@@ -11681,7 +11693,7 @@
       <c r="E3" s="48"/>
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
-      <c r="H3" s="71"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
       <c r="K3" s="48"/>
@@ -11699,8 +11711,8 @@
       <c r="W3" s="48"/>
       <c r="X3" s="48"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
         <v>334</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -11709,52 +11721,52 @@
       <c r="C4" s="48" t="s">
         <v>497</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="66" t="s">
         <v>462</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="66" t="s">
         <v>362</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="66">
         <v>2</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="66" t="s">
         <v>347</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="66">
         <v>256</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="L4" s="68" t="s">
+      <c r="L4" s="66" t="s">
         <v>463</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="R4" s="68" t="b">
+      <c r="R4" s="66" t="b">
         <v>1</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="66" t="s">
         <v>107</v>
       </c>
       <c r="T4" s="48" t="s">
@@ -11773,8 +11785,8 @@
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="68" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="66" t="s">
         <v>334</v>
       </c>
       <c r="B5" s="33" t="s">
@@ -11783,52 +11795,52 @@
       <c r="C5" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="66" t="s">
         <v>465</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="66" t="s">
         <v>361</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="66">
         <v>1</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="66">
         <v>256</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="66" t="s">
         <v>466</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="66" t="s">
         <v>467</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="66" t="s">
         <v>367</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="67" t="s">
         <v>468</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="O5" s="66" t="s">
         <v>368</v>
       </c>
-      <c r="P5" s="68" t="s">
+      <c r="P5" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="R5" s="68" t="b">
+      <c r="R5" s="66" t="b">
         <v>0</v>
       </c>
-      <c r="S5" s="68" t="s">
+      <c r="S5" s="66" t="s">
         <v>107</v>
       </c>
       <c r="T5" s="48" t="s">
@@ -11887,141 +11899,141 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.54296875" style="47" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.81640625" style="70" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" style="47" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" style="68" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" style="47" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="47" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="47" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.90625" style="47" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.08984375" style="47" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="47" customWidth="1"/>
-    <col min="24" max="24" width="15.1796875" style="47" customWidth="1"/>
-    <col min="25" max="25" width="14.90625" style="47" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="47" customWidth="1"/>
+    <col min="24" max="24" width="15.21875" style="47" customWidth="1"/>
+    <col min="25" max="25" width="14.88671875" style="47" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42" style="47" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.81640625" style="47"/>
+    <col min="27" max="27" width="15.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="67" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>660</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="96"/>
-    </row>
-    <row r="2" spans="1:24" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="94"/>
+    </row>
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="85" t="s">
         <v>448</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="84" t="s">
         <v>450</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="84" t="s">
         <v>451</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="84" t="s">
         <v>452</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="86" t="s">
         <v>453</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="84" t="s">
         <v>454</v>
       </c>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="84" t="s">
         <v>455</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="84" t="s">
         <v>456</v>
       </c>
-      <c r="O2" s="86" t="s">
+      <c r="O2" s="84" t="s">
         <v>457</v>
       </c>
-      <c r="P2" s="86" t="s">
+      <c r="P2" s="84" t="s">
         <v>458</v>
       </c>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="84" t="s">
         <v>459</v>
       </c>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="S2" s="86" t="s">
+      <c r="S2" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="T2" s="86" t="s">
+      <c r="T2" s="84" t="s">
         <v>342</v>
       </c>
-      <c r="U2" s="86" t="s">
+      <c r="U2" s="84" t="s">
         <v>343</v>
       </c>
-      <c r="V2" s="86" t="s">
+      <c r="V2" s="84" t="s">
         <v>461</v>
       </c>
-      <c r="W2" s="86" t="s">
+      <c r="W2" s="84" t="s">
         <v>655</v>
       </c>
-      <c r="X2" s="89" t="s">
+      <c r="X2" s="87" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
@@ -12049,8 +12061,8 @@
       <c r="W3" s="48"/>
       <c r="X3" s="48"/>
     </row>
-    <row r="4" spans="1:24" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
         <v>334</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -12059,52 +12071,52 @@
       <c r="C4" s="48" t="s">
         <v>497</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="66" t="s">
         <v>469</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="66">
         <v>2</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="66" t="s">
         <v>347</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="66">
         <v>256</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="L4" s="68" t="s">
+      <c r="L4" s="66" t="s">
         <v>470</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="66" t="s">
         <v>370</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="66" t="s">
         <v>371</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="R4" s="68" t="b">
+      <c r="R4" s="66" t="b">
         <v>0</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="66" t="s">
         <v>107</v>
       </c>
       <c r="T4" s="48" t="s">
@@ -12123,8 +12135,8 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="68" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="66" t="s">
         <v>334</v>
       </c>
       <c r="B5" s="33" t="s">
@@ -12133,52 +12145,52 @@
       <c r="C5" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="66" t="s">
         <v>471</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="66" t="s">
         <v>369</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="66">
         <v>2</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="66" t="s">
         <v>472</v>
       </c>
-      <c r="I5" s="68">
+      <c r="I5" s="66">
         <v>256</v>
       </c>
-      <c r="J5" s="68" t="s">
+      <c r="J5" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="K5" s="68" t="s">
+      <c r="K5" s="66" t="s">
         <v>466</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="66" t="s">
         <v>473</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="66" t="s">
         <v>474</v>
       </c>
-      <c r="N5" s="68" t="s">
+      <c r="N5" s="66" t="s">
         <v>475</v>
       </c>
-      <c r="O5" s="68" t="s">
+      <c r="O5" s="66" t="s">
         <v>476</v>
       </c>
-      <c r="P5" s="68" t="s">
+      <c r="P5" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="Q5" s="68" t="s">
+      <c r="Q5" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="R5" s="68" t="b">
+      <c r="R5" s="66" t="b">
         <v>1</v>
       </c>
-      <c r="S5" s="68" t="s">
+      <c r="S5" s="66" t="s">
         <v>107</v>
       </c>
       <c r="T5" s="48" t="s">
@@ -12190,7 +12202,7 @@
       <c r="V5" s="48">
         <v>15</v>
       </c>
-      <c r="W5" s="92" t="s">
+      <c r="W5" s="90" t="s">
         <v>656</v>
       </c>
       <c r="X5" s="48"/>
@@ -12238,167 +12250,167 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.453125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.54296875" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.453125" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.54296875" style="47" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.81640625" style="70" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.36328125" style="47" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" style="68" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.21875" style="47" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="47" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.453125" style="47" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.90625" style="47" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.08984375" style="47" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1796875" style="47" customWidth="1"/>
-    <col min="24" max="25" width="14.54296875" style="47" customWidth="1"/>
-    <col min="26" max="26" width="15.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.81640625" style="47"/>
+    <col min="19" max="19" width="13.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.21875" style="47" customWidth="1"/>
+    <col min="24" max="25" width="14.5546875" style="47" customWidth="1"/>
+    <col min="26" max="26" width="15.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.77734375" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="67" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:24" s="65" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>661</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="96"/>
-    </row>
-    <row r="2" spans="1:24" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="86" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="94"/>
+    </row>
+    <row r="2" spans="1:24" s="81" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="84" t="s">
         <v>373</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="85" t="s">
         <v>448</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="84" t="s">
         <v>451</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="84" t="s">
         <v>452</v>
       </c>
-      <c r="K2" s="87" t="s">
+      <c r="K2" s="85" t="s">
         <v>453</v>
       </c>
-      <c r="L2" s="86" t="s">
+      <c r="L2" s="84" t="s">
         <v>454</v>
       </c>
-      <c r="M2" s="86" t="s">
+      <c r="M2" s="84" t="s">
         <v>329</v>
       </c>
-      <c r="N2" s="86" t="s">
+      <c r="N2" s="84" t="s">
         <v>456</v>
       </c>
-      <c r="O2" s="86" t="s">
+      <c r="O2" s="84" t="s">
         <v>457</v>
       </c>
-      <c r="P2" s="86" t="s">
+      <c r="P2" s="84" t="s">
         <v>458</v>
       </c>
-      <c r="Q2" s="86" t="s">
+      <c r="Q2" s="84" t="s">
         <v>459</v>
       </c>
-      <c r="R2" s="86" t="s">
+      <c r="R2" s="84" t="s">
         <v>460</v>
       </c>
-      <c r="S2" s="86" t="s">
+      <c r="S2" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="T2" s="86" t="s">
+      <c r="T2" s="84" t="s">
         <v>342</v>
       </c>
-      <c r="U2" s="86" t="s">
+      <c r="U2" s="84" t="s">
         <v>343</v>
       </c>
-      <c r="V2" s="86" t="s">
+      <c r="V2" s="84" t="s">
         <v>461</v>
       </c>
-      <c r="W2" s="86" t="s">
+      <c r="W2" s="84" t="s">
         <v>655</v>
       </c>
       <c r="X2" s="21" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="77" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:24" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="66"/>
-    </row>
-    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="64"/>
+    </row>
+    <row r="4" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -12407,52 +12419,52 @@
       <c r="C4" s="33" t="s">
         <v>497</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="66" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="48" t="s">
         <v>345</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="66" t="s">
         <v>477</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="66" t="s">
         <v>375</v>
       </c>
-      <c r="H4" s="68">
+      <c r="H4" s="66">
         <v>2</v>
       </c>
-      <c r="I4" s="68">
+      <c r="I4" s="66">
         <v>256</v>
       </c>
-      <c r="J4" s="68" t="s">
+      <c r="J4" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="L4" s="68" t="s">
+      <c r="L4" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="N4" s="68" t="s">
+      <c r="N4" s="66" t="s">
         <v>351</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="66" t="s">
         <v>352</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="P4" s="66" t="s">
         <v>353</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="66" t="s">
         <v>354</v>
       </c>
-      <c r="R4" s="68" t="b">
+      <c r="R4" s="66" t="b">
         <v>1</v>
       </c>
-      <c r="S4" s="68" t="s">
+      <c r="S4" s="66" t="s">
         <v>107</v>
       </c>
       <c r="T4" s="48" t="s">
@@ -12464,17 +12476,17 @@
       <c r="V4" s="48">
         <v>10</v>
       </c>
-      <c r="W4" s="92" t="s">
+      <c r="W4" s="90" t="s">
         <v>656</v>
       </c>
       <c r="X4" s="46" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A5" s="65"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="72"/>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="63"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="70"/>
       <c r="K5" s="47"/>
     </row>
   </sheetData>
@@ -12514,53 +12526,53 @@
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" style="47" customWidth="1"/>
-    <col min="9" max="9" width="15.90625" style="47" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="47"/>
+    <col min="3" max="3" width="9.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="47" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="47" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="61" t="s">
         <v>478</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="76" t="s">
         <v>479</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="76" t="s">
         <v>340</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="61" t="s">
         <v>376</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="77" t="s">
         <v>453</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="77" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="77" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="66" t="s">
         <v>347</v>
       </c>
       <c r="C2" s="48" t="s">
@@ -12575,21 +12587,21 @@
       <c r="F2" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="66" t="s">
         <v>349</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="89" t="s">
         <v>356</v>
       </c>
       <c r="I2" s="48" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="48" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>481</v>
       </c>
       <c r="C3" s="48" t="s">
@@ -12607,14 +12619,14 @@
       <c r="G3" s="57" t="s">
         <v>466</v>
       </c>
-      <c r="H3" s="91" t="s">
+      <c r="H3" s="89" t="s">
         <v>625</v>
       </c>
       <c r="I3" s="48" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>362</v>
       </c>
@@ -12634,7 +12646,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>359</v>
       </c>
@@ -12654,7 +12666,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>363</v>
       </c>
@@ -12672,7 +12684,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>346</v>
       </c>
@@ -12690,7 +12702,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="48"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48" t="s">
@@ -12706,7 +12718,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="B9" s="48"/>
       <c r="C9" s="48" t="s">
@@ -12722,7 +12734,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="48"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48" t="s">
@@ -12738,7 +12750,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="48"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48" t="s">
@@ -12754,7 +12766,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="48"/>
       <c r="B12" s="48"/>
       <c r="C12" s="48" t="s">
@@ -12768,7 +12780,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="48"/>
       <c r="B13" s="48"/>
       <c r="C13" s="48" t="s">
@@ -12782,7 +12794,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="48"/>
       <c r="B14" s="48"/>
       <c r="C14" s="48" t="s">
@@ -12796,472 +12808,472 @@
         <v>556</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I15" s="48" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I16" s="48" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I17" s="48" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I18" s="48" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I19" s="48" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I20" s="48" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I21" s="48" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I22" s="48" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I23" s="48" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I24" s="48" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I25" s="48" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I26" s="48" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I27" s="48" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I28" s="48" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I29" s="48" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I30" s="48" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I31" s="48" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I32" s="48" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I33" s="48" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I34" s="48" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I35" s="48" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I36" s="48" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I37" s="48" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I38" s="48" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I39" s="48" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I40" s="48" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I41" s="48" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I42" s="48" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I43" s="48" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I44" s="48" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I45" s="48" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I46" s="48" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I47" s="48" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I48" s="48" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I49" s="48" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I50" s="48" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I51" s="48" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I52" s="48" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I53" s="48" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I54" s="48" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I55" s="48" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I56" s="48" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I57" s="48" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I58" s="48" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I59" s="48" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I60" s="48" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I61" s="48" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I62" s="48" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I63" s="48" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I64" s="48" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I65" s="48" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I66" s="48" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I67" s="48" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I68" s="48" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I69" s="48" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I70" s="48" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I71" s="48" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I72" s="48" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I73" s="48" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I74" s="48" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I75" s="48" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I76" s="48" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I77" s="48" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I78" s="48" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I79" s="48" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I80" s="48" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I81" s="48" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I82" s="48" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I83" s="48" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I84" s="48" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I85" s="48" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I86" s="48" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I87" s="48" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I88" s="48" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I89" s="48" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I90" s="48" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I91" s="48" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I92" s="48" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I93" s="48" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I94" s="48" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I95" s="48" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I96" s="48" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I97" s="48" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I98" s="48" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I99" s="48" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I100" s="48" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I101" s="48" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I102" s="48" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I103" s="48" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I104" s="48" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I105" s="48" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I106" s="48" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I107" s="48" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I108" s="48" t="s">
         <v>650</v>
       </c>
@@ -13274,31 +13286,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="47" customWidth="1"/>
-    <col min="2" max="2" width="16.54296875" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="47" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="55" customFormat="1" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:5" s="55" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -13315,7 +13327,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="47" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>5</v>
       </c>
@@ -13328,7 +13340,7 @@
       <c r="D3" s="46"/>
       <c r="E3" s="48"/>
     </row>
-    <row r="4" spans="1:5" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -13341,7 +13353,7 @@
       <c r="D4" s="46"/>
       <c r="E4" s="48"/>
     </row>
-    <row r="5" spans="1:5" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -13354,7 +13366,7 @@
       <c r="D5" s="46"/>
       <c r="E5" s="48"/>
     </row>
-    <row r="6" spans="1:5" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
@@ -13367,20 +13379,20 @@
       <c r="D6" s="46"/>
       <c r="E6" s="48"/>
     </row>
-    <row r="7" spans="1:5" s="47" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:5" s="47" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="114" t="s">
         <v>677</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="114" t="s">
         <v>678</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" s="48" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="60" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46" t="s">
         <v>5</v>
       </c>
@@ -13393,42 +13405,10 @@
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
     </row>
-    <row r="9" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="57"/>
-      <c r="C9" s="46"/>
-    </row>
-    <row r="10" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="57"/>
-      <c r="C10" s="46"/>
-    </row>
-    <row r="11" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="57"/>
-      <c r="C11" s="46"/>
-    </row>
-    <row r="12" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="57"/>
-      <c r="C12" s="46"/>
-    </row>
-    <row r="13" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="48"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-    </row>
-    <row r="14" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="48"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-    </row>
-    <row r="15" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="83" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13444,33 +13424,33 @@
   <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="47" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.36328125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="47" customWidth="1"/>
     <col min="4" max="4" width="16" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.36328125" style="47" customWidth="1"/>
-    <col min="6" max="7" width="28.453125" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6328125" customWidth="1"/>
+    <col min="5" max="5" width="49.33203125" style="47" customWidth="1"/>
+    <col min="6" max="7" width="28.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="55" customFormat="1" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:8" s="55" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>511</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-    </row>
-    <row r="2" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+    </row>
+    <row r="2" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -13496,7 +13476,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="47" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="47" customFormat="1" ht="61.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="46" t="s">
         <v>5</v>
       </c>
@@ -13516,7 +13496,7 @@
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
     </row>
-    <row r="4" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
@@ -13528,7 +13508,7 @@
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
     </row>
-    <row r="5" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -13540,7 +13520,7 @@
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
     </row>
-    <row r="6" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
@@ -13552,7 +13532,7 @@
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
     </row>
-    <row r="7" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -13564,7 +13544,7 @@
       <c r="G7" s="46"/>
       <c r="H7" s="46"/>
     </row>
-    <row r="8" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
@@ -13576,7 +13556,7 @@
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
     </row>
-    <row r="9" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -13588,7 +13568,7 @@
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
     </row>
-    <row r="10" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -13600,7 +13580,7 @@
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
     </row>
-    <row r="11" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -13612,7 +13592,7 @@
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
     </row>
-    <row r="12" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -13624,7 +13604,7 @@
       <c r="G12" s="46"/>
       <c r="H12" s="46"/>
     </row>
-    <row r="13" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -13636,7 +13616,7 @@
       <c r="G13" s="46"/>
       <c r="H13" s="46"/>
     </row>
-    <row r="14" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="46"/>
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
@@ -13648,7 +13628,7 @@
       <c r="G14" s="46"/>
       <c r="H14" s="46"/>
     </row>
-    <row r="15" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
@@ -13660,7 +13640,7 @@
       <c r="G15" s="46"/>
       <c r="H15" s="46"/>
     </row>
-    <row r="16" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
@@ -13672,7 +13652,7 @@
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
     </row>
-    <row r="17" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -13684,7 +13664,7 @@
       <c r="G17" s="46"/>
       <c r="H17" s="46"/>
     </row>
-    <row r="18" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -13696,7 +13676,7 @@
       <c r="G18" s="46"/>
       <c r="H18" s="46"/>
     </row>
-    <row r="19" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -13708,7 +13688,7 @@
       <c r="G19" s="46"/>
       <c r="H19" s="46"/>
     </row>
-    <row r="20" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
@@ -13720,7 +13700,7 @@
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
     </row>
-    <row r="21" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -13732,7 +13712,7 @@
       <c r="G21" s="46"/>
       <c r="H21" s="46"/>
     </row>
-    <row r="22" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -13744,7 +13724,7 @@
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
     </row>
-    <row r="23" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -13756,7 +13736,7 @@
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
     </row>
-    <row r="24" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -13768,7 +13748,7 @@
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
     </row>
-    <row r="25" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -13780,7 +13760,7 @@
       <c r="G25" s="46"/>
       <c r="H25" s="46"/>
     </row>
-    <row r="26" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -13792,7 +13772,7 @@
       <c r="G26" s="46"/>
       <c r="H26" s="46"/>
     </row>
-    <row r="27" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
@@ -13804,7 +13784,7 @@
       <c r="G27" s="46"/>
       <c r="H27" s="46"/>
     </row>
-    <row r="28" spans="1:8" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="s">
         <v>5</v>
       </c>
@@ -13824,7 +13804,7 @@
       <c r="G28" s="46"/>
       <c r="H28" s="46"/>
     </row>
-    <row r="29" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
@@ -13836,7 +13816,7 @@
       <c r="G29" s="46"/>
       <c r="H29" s="46"/>
     </row>
-    <row r="30" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
@@ -13848,7 +13828,7 @@
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
     </row>
-    <row r="31" spans="1:8" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
@@ -13860,7 +13840,7 @@
       <c r="G31" s="46"/>
       <c r="H31" s="46"/>
     </row>
-    <row r="32" spans="1:8" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
@@ -13872,7 +13852,7 @@
       <c r="G32" s="46"/>
       <c r="H32" s="46"/>
     </row>
-    <row r="33" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
@@ -13884,7 +13864,7 @@
       <c r="G33" s="46"/>
       <c r="H33" s="46"/>
     </row>
-    <row r="34" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="46"/>
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
@@ -13896,7 +13876,7 @@
       <c r="G34" s="46"/>
       <c r="H34" s="46"/>
     </row>
-    <row r="35" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="46"/>
       <c r="B35" s="46"/>
       <c r="C35" s="46"/>
@@ -13908,7 +13888,7 @@
       <c r="G35" s="46"/>
       <c r="H35" s="46"/>
     </row>
-    <row r="36" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="46"/>
       <c r="B36" s="46"/>
       <c r="C36" s="46"/>
@@ -13920,7 +13900,7 @@
       <c r="G36" s="46"/>
       <c r="H36" s="46"/>
     </row>
-    <row r="37" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="46"/>
       <c r="B37" s="46"/>
       <c r="C37" s="46"/>
@@ -13932,7 +13912,7 @@
       <c r="G37" s="46"/>
       <c r="H37" s="46"/>
     </row>
-    <row r="38" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="46"/>
       <c r="B38" s="46"/>
       <c r="C38" s="46"/>
@@ -13944,7 +13924,7 @@
       <c r="G38" s="46"/>
       <c r="H38" s="46"/>
     </row>
-    <row r="39" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="46" t="s">
         <v>5</v>
       </c>
@@ -13964,7 +13944,7 @@
       <c r="G39" s="46"/>
       <c r="H39" s="46"/>
     </row>
-    <row r="40" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="46"/>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
@@ -13976,7 +13956,7 @@
       <c r="G40" s="46"/>
       <c r="H40" s="46"/>
     </row>
-    <row r="41" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
@@ -13988,7 +13968,7 @@
       <c r="G41" s="46"/>
       <c r="H41" s="46"/>
     </row>
-    <row r="42" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="46"/>
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
@@ -14000,7 +13980,7 @@
       <c r="G42" s="46"/>
       <c r="H42" s="46"/>
     </row>
-    <row r="43" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46"/>
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
@@ -14012,7 +13992,7 @@
       <c r="G43" s="46"/>
       <c r="H43" s="46"/>
     </row>
-    <row r="44" spans="1:8" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="46"/>
       <c r="B44" s="46"/>
       <c r="C44" s="46"/>
@@ -14024,7 +14004,7 @@
       <c r="G44" s="46"/>
       <c r="H44" s="46"/>
     </row>
-    <row r="45" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="46"/>
       <c r="B45" s="46"/>
       <c r="C45" s="46"/>
@@ -14036,7 +14016,7 @@
       <c r="G45" s="46"/>
       <c r="H45" s="46"/>
     </row>
-    <row r="46" spans="1:8" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46"/>
       <c r="B46" s="46"/>
       <c r="C46" s="46"/>
@@ -14048,7 +14028,7 @@
       <c r="G46" s="46"/>
       <c r="H46" s="46"/>
     </row>
-    <row r="47" spans="1:8" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="46"/>
       <c r="B47" s="46"/>
       <c r="C47" s="46"/>
@@ -14060,7 +14040,7 @@
       <c r="G47" s="46"/>
       <c r="H47" s="46"/>
     </row>
-    <row r="48" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="46"/>
       <c r="B48" s="46"/>
       <c r="C48" s="46"/>
@@ -14072,7 +14052,7 @@
       <c r="G48" s="46"/>
       <c r="H48" s="46"/>
     </row>
-    <row r="49" spans="1:8" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="46"/>
       <c r="B49" s="46"/>
       <c r="C49" s="46"/>
@@ -14084,7 +14064,7 @@
       <c r="G49" s="46"/>
       <c r="H49" s="46"/>
     </row>
-    <row r="50" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="46"/>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
@@ -14096,7 +14076,7 @@
       <c r="G50" s="46"/>
       <c r="H50" s="46"/>
     </row>
-    <row r="51" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="46"/>
       <c r="B51" s="46"/>
       <c r="C51" s="46"/>
@@ -14108,7 +14088,7 @@
       <c r="G51" s="46"/>
       <c r="H51" s="46"/>
     </row>
-    <row r="52" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="46"/>
       <c r="B52" s="46"/>
       <c r="C52" s="46"/>
@@ -14120,7 +14100,7 @@
       <c r="G52" s="46"/>
       <c r="H52" s="46"/>
     </row>
-    <row r="53" spans="1:8" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="46"/>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
@@ -14132,7 +14112,7 @@
       <c r="G53" s="46"/>
       <c r="H53" s="46"/>
     </row>
-    <row r="54" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="46"/>
       <c r="B54" s="46"/>
       <c r="C54" s="46"/>
@@ -14144,7 +14124,7 @@
       <c r="G54" s="46"/>
       <c r="H54" s="46"/>
     </row>
-    <row r="55" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="46"/>
       <c r="B55" s="46"/>
       <c r="C55" s="46"/>
@@ -14156,7 +14136,7 @@
       <c r="G55" s="46"/>
       <c r="H55" s="46"/>
     </row>
-    <row r="56" spans="1:8" s="47" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" s="47" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="46" t="s">
         <v>5</v>
       </c>
@@ -14176,7 +14156,7 @@
       <c r="G56" s="46"/>
       <c r="H56" s="46"/>
     </row>
-    <row r="57" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="46"/>
       <c r="B57" s="46"/>
       <c r="C57" s="46"/>
@@ -14188,7 +14168,7 @@
       <c r="G57" s="46"/>
       <c r="H57" s="46"/>
     </row>
-    <row r="58" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="46"/>
       <c r="B58" s="46"/>
       <c r="C58" s="46"/>
@@ -14200,7 +14180,7 @@
       <c r="G58" s="46"/>
       <c r="H58" s="46"/>
     </row>
-    <row r="59" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="46"/>
       <c r="B59" s="46"/>
       <c r="C59" s="46"/>
@@ -14212,7 +14192,7 @@
       <c r="G59" s="46"/>
       <c r="H59" s="46"/>
     </row>
-    <row r="60" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="46"/>
       <c r="B60" s="46"/>
       <c r="C60" s="46"/>
@@ -14224,7 +14204,7 @@
       <c r="G60" s="46"/>
       <c r="H60" s="46"/>
     </row>
-    <row r="61" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="46"/>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
@@ -14236,7 +14216,7 @@
       <c r="G61" s="46"/>
       <c r="H61" s="46"/>
     </row>
-    <row r="62" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="46"/>
       <c r="B62" s="46"/>
       <c r="C62" s="46"/>
@@ -14248,7 +14228,7 @@
       <c r="G62" s="46"/>
       <c r="H62" s="46"/>
     </row>
-    <row r="63" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="46"/>
       <c r="B63" s="46"/>
       <c r="C63" s="46"/>
@@ -14260,7 +14240,7 @@
       <c r="G63" s="46"/>
       <c r="H63" s="46"/>
     </row>
-    <row r="64" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="46"/>
       <c r="B64" s="46"/>
       <c r="C64" s="46"/>
@@ -14272,7 +14252,7 @@
       <c r="G64" s="46"/>
       <c r="H64" s="46"/>
     </row>
-    <row r="65" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="46"/>
       <c r="B65" s="46"/>
       <c r="C65" s="46"/>
@@ -14284,7 +14264,7 @@
       <c r="G65" s="46"/>
       <c r="H65" s="46"/>
     </row>
-    <row r="66" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="46"/>
       <c r="B66" s="46"/>
       <c r="C66" s="46"/>
@@ -14296,7 +14276,7 @@
       <c r="G66" s="46"/>
       <c r="H66" s="46"/>
     </row>
-    <row r="67" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="46"/>
       <c r="B67" s="46"/>
       <c r="C67" s="46"/>
@@ -14308,7 +14288,7 @@
       <c r="G67" s="46"/>
       <c r="H67" s="46"/>
     </row>
-    <row r="68" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="46"/>
       <c r="B68" s="46"/>
       <c r="C68" s="46"/>
@@ -14320,7 +14300,7 @@
       <c r="G68" s="46"/>
       <c r="H68" s="46"/>
     </row>
-    <row r="69" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="46"/>
       <c r="B69" s="46"/>
       <c r="C69" s="46"/>
@@ -14332,7 +14312,7 @@
       <c r="G69" s="46"/>
       <c r="H69" s="46"/>
     </row>
-    <row r="70" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="46"/>
       <c r="B70" s="46"/>
       <c r="C70" s="46"/>
@@ -14344,7 +14324,7 @@
       <c r="G70" s="46"/>
       <c r="H70" s="46"/>
     </row>
-    <row r="71" spans="1:8" s="47" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" s="47" customFormat="1" ht="101.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="46" t="s">
         <v>5</v>
       </c>
@@ -14364,7 +14344,7 @@
       <c r="G71" s="46"/>
       <c r="H71" s="46"/>
     </row>
-    <row r="72" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="46"/>
       <c r="B72" s="46"/>
       <c r="C72" s="46"/>
@@ -14376,7 +14356,7 @@
       <c r="G72" s="46"/>
       <c r="H72" s="46"/>
     </row>
-    <row r="73" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="46"/>
       <c r="B73" s="46"/>
       <c r="C73" s="46"/>
@@ -14388,7 +14368,7 @@
       <c r="G73" s="46"/>
       <c r="H73" s="46"/>
     </row>
-    <row r="74" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="46"/>
       <c r="B74" s="46"/>
       <c r="C74" s="46"/>
@@ -14400,7 +14380,7 @@
       <c r="G74" s="46"/>
       <c r="H74" s="46"/>
     </row>
-    <row r="75" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="46"/>
       <c r="B75" s="46"/>
       <c r="C75" s="46"/>
@@ -14412,7 +14392,7 @@
       <c r="G75" s="46"/>
       <c r="H75" s="46"/>
     </row>
-    <row r="76" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="46"/>
       <c r="B76" s="46"/>
       <c r="C76" s="46"/>
@@ -14424,7 +14404,7 @@
       <c r="G76" s="46"/>
       <c r="H76" s="46"/>
     </row>
-    <row r="77" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="46"/>
       <c r="B77" s="46"/>
       <c r="C77" s="46"/>
@@ -14436,7 +14416,7 @@
       <c r="G77" s="46"/>
       <c r="H77" s="46"/>
     </row>
-    <row r="78" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="46"/>
       <c r="B78" s="46"/>
       <c r="C78" s="46"/>
@@ -14448,7 +14428,7 @@
       <c r="G78" s="46"/>
       <c r="H78" s="46"/>
     </row>
-    <row r="79" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="46"/>
       <c r="B79" s="46"/>
       <c r="C79" s="46"/>
@@ -14460,7 +14440,7 @@
       <c r="G79" s="46"/>
       <c r="H79" s="46"/>
     </row>
-    <row r="80" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="46"/>
       <c r="B80" s="46"/>
       <c r="C80" s="46"/>
@@ -14472,7 +14452,7 @@
       <c r="G80" s="46"/>
       <c r="H80" s="46"/>
     </row>
-    <row r="81" spans="1:8" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="46"/>
       <c r="B81" s="46"/>
       <c r="C81" s="46"/>
@@ -14484,7 +14464,7 @@
       <c r="G81" s="46"/>
       <c r="H81" s="46"/>
     </row>
-    <row r="82" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="46"/>
       <c r="B82" s="46"/>
       <c r="C82" s="46"/>
@@ -14496,7 +14476,7 @@
       <c r="G82" s="46"/>
       <c r="H82" s="46"/>
     </row>
-    <row r="83" spans="1:8" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="46"/>
       <c r="B83" s="46"/>
       <c r="C83" s="46"/>
@@ -14508,7 +14488,7 @@
       <c r="G83" s="46"/>
       <c r="H83" s="46"/>
     </row>
-    <row r="84" spans="1:8" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="46"/>
       <c r="B84" s="46"/>
       <c r="C84" s="46"/>
@@ -14520,7 +14500,7 @@
       <c r="G84" s="46"/>
       <c r="H84" s="46"/>
     </row>
-    <row r="85" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="46"/>
       <c r="B85" s="46"/>
       <c r="C85" s="46"/>
@@ -14532,7 +14512,7 @@
       <c r="G85" s="46"/>
       <c r="H85" s="46"/>
     </row>
-    <row r="86" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="46"/>
       <c r="B86" s="46"/>
       <c r="C86" s="46"/>
@@ -14544,7 +14524,7 @@
       <c r="G86" s="46"/>
       <c r="H86" s="46"/>
     </row>
-    <row r="87" spans="1:8" s="47" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" s="47" customFormat="1" ht="101.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="46" t="s">
         <v>5</v>
       </c>
@@ -14564,7 +14544,7 @@
       <c r="G87" s="46"/>
       <c r="H87" s="46"/>
     </row>
-    <row r="88" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="46"/>
       <c r="B88" s="46"/>
       <c r="C88" s="46"/>
@@ -14576,7 +14556,7 @@
       <c r="G88" s="46"/>
       <c r="H88" s="46"/>
     </row>
-    <row r="89" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="46"/>
       <c r="B89" s="46"/>
       <c r="C89" s="46"/>
@@ -14588,7 +14568,7 @@
       <c r="G89" s="46"/>
       <c r="H89" s="46"/>
     </row>
-    <row r="90" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="46"/>
       <c r="B90" s="46"/>
       <c r="C90" s="46"/>
@@ -14600,7 +14580,7 @@
       <c r="G90" s="46"/>
       <c r="H90" s="46"/>
     </row>
-    <row r="91" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="46"/>
       <c r="B91" s="46"/>
       <c r="C91" s="46"/>
@@ -14612,7 +14592,7 @@
       <c r="G91" s="46"/>
       <c r="H91" s="46"/>
     </row>
-    <row r="92" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="46"/>
       <c r="B92" s="46"/>
       <c r="C92" s="46"/>
@@ -14624,7 +14604,7 @@
       <c r="G92" s="46"/>
       <c r="H92" s="46"/>
     </row>
-    <row r="93" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="46"/>
       <c r="B93" s="46"/>
       <c r="C93" s="46"/>
@@ -14636,7 +14616,7 @@
       <c r="G93" s="46"/>
       <c r="H93" s="46"/>
     </row>
-    <row r="94" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="46"/>
       <c r="B94" s="46"/>
       <c r="C94" s="46"/>
@@ -14648,7 +14628,7 @@
       <c r="G94" s="46"/>
       <c r="H94" s="46"/>
     </row>
-    <row r="95" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="46"/>
       <c r="B95" s="46"/>
       <c r="C95" s="46"/>
@@ -14660,7 +14640,7 @@
       <c r="G95" s="46"/>
       <c r="H95" s="46"/>
     </row>
-    <row r="96" spans="1:8" s="47" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" s="47" customFormat="1" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="46" t="s">
         <v>5</v>
       </c>
@@ -14680,7 +14660,7 @@
       <c r="G96" s="46"/>
       <c r="H96" s="46"/>
     </row>
-    <row r="97" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="46"/>
       <c r="B97" s="46"/>
       <c r="C97" s="46"/>
@@ -14692,7 +14672,7 @@
       <c r="G97" s="46"/>
       <c r="H97" s="46"/>
     </row>
-    <row r="98" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="46"/>
       <c r="B98" s="46"/>
       <c r="C98" s="46"/>
@@ -14704,7 +14684,7 @@
       <c r="G98" s="46"/>
       <c r="H98" s="46"/>
     </row>
-    <row r="99" spans="1:8" s="47" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" s="47" customFormat="1" ht="101.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="46" t="s">
         <v>5</v>
       </c>
@@ -14724,7 +14704,7 @@
       <c r="G99" s="46"/>
       <c r="H99" s="46"/>
     </row>
-    <row r="100" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="46"/>
       <c r="B100" s="46"/>
       <c r="C100" s="46"/>
@@ -14736,7 +14716,7 @@
       <c r="G100" s="46"/>
       <c r="H100" s="46"/>
     </row>
-    <row r="101" spans="1:8" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="46"/>
       <c r="B101" s="46"/>
       <c r="C101" s="46"/>
@@ -14748,7 +14728,7 @@
       <c r="G101" s="46"/>
       <c r="H101" s="46"/>
     </row>
-    <row r="102" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="46"/>
       <c r="B102" s="46"/>
       <c r="C102" s="46"/>
@@ -14760,7 +14740,7 @@
       <c r="G102" s="46"/>
       <c r="H102" s="46"/>
     </row>
-    <row r="103" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="46"/>
       <c r="B103" s="46"/>
       <c r="C103" s="46"/>
@@ -14772,7 +14752,7 @@
       <c r="G103" s="46"/>
       <c r="H103" s="46"/>
     </row>
-    <row r="104" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="46"/>
       <c r="B104" s="46"/>
       <c r="C104" s="46"/>
@@ -14784,7 +14764,7 @@
       <c r="G104" s="46"/>
       <c r="H104" s="46"/>
     </row>
-    <row r="105" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="46"/>
       <c r="B105" s="46"/>
       <c r="C105" s="46"/>
@@ -14796,7 +14776,7 @@
       <c r="G105" s="46"/>
       <c r="H105" s="46"/>
     </row>
-    <row r="106" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="46"/>
       <c r="B106" s="46"/>
       <c r="C106" s="46"/>
@@ -14808,7 +14788,7 @@
       <c r="G106" s="46"/>
       <c r="H106" s="46"/>
     </row>
-    <row r="107" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="46"/>
       <c r="B107" s="46"/>
       <c r="C107" s="46"/>
@@ -14820,7 +14800,7 @@
       <c r="G107" s="46"/>
       <c r="H107" s="46"/>
     </row>
-    <row r="108" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="46"/>
       <c r="B108" s="46"/>
       <c r="C108" s="46"/>
@@ -14832,7 +14812,7 @@
       <c r="G108" s="46"/>
       <c r="H108" s="46"/>
     </row>
-    <row r="109" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="46"/>
       <c r="B109" s="46"/>
       <c r="C109" s="46"/>
@@ -14844,7 +14824,7 @@
       <c r="G109" s="46"/>
       <c r="H109" s="46"/>
     </row>
-    <row r="110" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="46"/>
       <c r="B110" s="46"/>
       <c r="C110" s="46"/>
@@ -14856,7 +14836,7 @@
       <c r="G110" s="46"/>
       <c r="H110" s="46"/>
     </row>
-    <row r="111" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="46"/>
       <c r="B111" s="46"/>
       <c r="C111" s="46"/>
@@ -14868,7 +14848,7 @@
       <c r="G111" s="46"/>
       <c r="H111" s="46"/>
     </row>
-    <row r="112" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="46"/>
       <c r="B112" s="46"/>
       <c r="C112" s="46"/>
@@ -14880,7 +14860,7 @@
       <c r="G112" s="46"/>
       <c r="H112" s="46"/>
     </row>
-    <row r="113" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="46"/>
       <c r="B113" s="46"/>
       <c r="C113" s="46"/>
@@ -14892,7 +14872,7 @@
       <c r="G113" s="46"/>
       <c r="H113" s="46"/>
     </row>
-    <row r="114" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="46"/>
       <c r="B114" s="46"/>
       <c r="C114" s="46"/>
@@ -14904,7 +14884,7 @@
       <c r="G114" s="46"/>
       <c r="H114" s="46"/>
     </row>
-    <row r="115" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="46"/>
       <c r="B115" s="46"/>
       <c r="C115" s="46"/>
@@ -14916,7 +14896,7 @@
       <c r="G115" s="46"/>
       <c r="H115" s="46"/>
     </row>
-    <row r="116" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="46"/>
       <c r="B116" s="46"/>
       <c r="C116" s="46"/>
@@ -14928,7 +14908,7 @@
       <c r="G116" s="46"/>
       <c r="H116" s="46"/>
     </row>
-    <row r="117" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="46"/>
       <c r="B117" s="46"/>
       <c r="C117" s="46"/>
@@ -14940,7 +14920,7 @@
       <c r="G117" s="46"/>
       <c r="H117" s="46"/>
     </row>
-    <row r="118" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="46"/>
       <c r="B118" s="46"/>
       <c r="C118" s="46"/>
@@ -14952,7 +14932,7 @@
       <c r="G118" s="46"/>
       <c r="H118" s="46"/>
     </row>
-    <row r="119" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="46"/>
       <c r="B119" s="46"/>
       <c r="C119" s="46"/>
@@ -14964,7 +14944,7 @@
       <c r="G119" s="46"/>
       <c r="H119" s="46"/>
     </row>
-    <row r="120" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="46"/>
       <c r="B120" s="46"/>
       <c r="C120" s="46"/>
@@ -14976,7 +14956,7 @@
       <c r="G120" s="46"/>
       <c r="H120" s="46"/>
     </row>
-    <row r="121" spans="1:8" s="47" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" s="47" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="46"/>
       <c r="B121" s="46"/>
       <c r="C121" s="46"/>
@@ -14988,7 +14968,7 @@
       <c r="G121" s="46"/>
       <c r="H121" s="46"/>
     </row>
-    <row r="122" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="46"/>
       <c r="B122" s="46"/>
       <c r="C122" s="46"/>
@@ -15000,7 +14980,7 @@
       <c r="G122" s="46"/>
       <c r="H122" s="46"/>
     </row>
-    <row r="123" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="46"/>
       <c r="B123" s="46"/>
       <c r="C123" s="46"/>
@@ -15012,7 +14992,7 @@
       <c r="G123" s="46"/>
       <c r="H123" s="46"/>
     </row>
-    <row r="124" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="46"/>
       <c r="B124" s="46"/>
       <c r="C124" s="46"/>
@@ -15024,7 +15004,7 @@
       <c r="G124" s="46"/>
       <c r="H124" s="46"/>
     </row>
-    <row r="125" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="46"/>
       <c r="B125" s="46"/>
       <c r="C125" s="46"/>
@@ -15036,7 +15016,7 @@
       <c r="G125" s="46"/>
       <c r="H125" s="46"/>
     </row>
-    <row r="126" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="46"/>
       <c r="B126" s="46"/>
       <c r="C126" s="46"/>
@@ -15048,7 +15028,7 @@
       <c r="G126" s="46"/>
       <c r="H126" s="46"/>
     </row>
-    <row r="127" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="46"/>
       <c r="B127" s="46"/>
       <c r="C127" s="46"/>
@@ -15060,7 +15040,7 @@
       <c r="G127" s="46"/>
       <c r="H127" s="46"/>
     </row>
-    <row r="128" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="46"/>
       <c r="B128" s="46"/>
       <c r="C128" s="46"/>
@@ -15072,7 +15052,7 @@
       <c r="G128" s="46"/>
       <c r="H128" s="46"/>
     </row>
-    <row r="129" spans="1:8" s="47" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" s="47" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="46"/>
       <c r="B129" s="46"/>
       <c r="C129" s="46"/>
@@ -15084,7 +15064,7 @@
       <c r="G129" s="46"/>
       <c r="H129" s="46"/>
     </row>
-    <row r="130" spans="1:8" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" s="47" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="46" t="s">
         <v>5</v>
       </c>
@@ -15120,37 +15100,37 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="4"/>
-    <col min="2" max="2" width="19.1796875" style="47" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="47" customWidth="1"/>
-    <col min="5" max="5" width="9.90625" style="47" customWidth="1"/>
-    <col min="6" max="6" width="21.90625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="21.6328125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="19.21875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="47" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="47" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="47" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="47" customWidth="1"/>
     <col min="8" max="8" width="21" style="47" customWidth="1"/>
-    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>544</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="95" t="s">
         <v>541</v>
       </c>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="99"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
@@ -15182,7 +15162,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
@@ -15196,8 +15176,8 @@
       <c r="I3" s="53"/>
       <c r="J3" s="54"/>
     </row>
-    <row r="4" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="61" t="s">
+    <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -15226,8 +15206,8 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="61"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="59"/>
       <c r="B5" s="35"/>
       <c r="C5" s="36"/>
       <c r="D5" s="31"/>
@@ -15246,8 +15226,8 @@
       </c>
       <c r="J5" s="38"/>
     </row>
-    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="61" t="s">
+    <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="33" t="s">
@@ -15263,11 +15243,11 @@
       <c r="F6" s="32"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31"/>
-      <c r="I6" s="61"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="61" t="s">
+    <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="33" t="s">
@@ -15288,8 +15268,8 @@
       <c r="I7" s="33"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="61"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="59"/>
       <c r="B8" s="35"/>
       <c r="C8" s="36"/>
       <c r="D8" s="31"/>
@@ -15302,8 +15282,8 @@
       <c r="I8" s="37"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61" t="s">
+    <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -15330,7 +15310,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="38"/>
       <c r="B10" s="35"/>
       <c r="C10" s="36"/>
@@ -15344,8 +15324,8 @@
       <c r="I10" s="37"/>
       <c r="J10" s="38"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="61"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="59"/>
       <c r="B11" s="35"/>
       <c r="C11" s="39"/>
       <c r="D11" s="31"/>
@@ -15358,8 +15338,8 @@
       <c r="I11" s="37"/>
       <c r="J11" s="38"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="61"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="59"/>
       <c r="B12" s="35"/>
       <c r="C12" s="39"/>
       <c r="D12" s="31"/>
@@ -15389,43 +15369,43 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="47" customWidth="1"/>
-    <col min="2" max="3" width="16.453125" style="47" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" style="47" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" style="47" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" style="47" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="47" customWidth="1"/>
-    <col min="8" max="8" width="14.453125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="47" customWidth="1"/>
+    <col min="2" max="3" width="16.44140625" style="47" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="47" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="47" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="47" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="47" customWidth="1"/>
     <col min="9" max="9" width="14" style="47" customWidth="1"/>
-    <col min="10" max="10" width="22.54296875" style="47" customWidth="1"/>
-    <col min="11" max="11" width="26.453125" style="47" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" style="47" customWidth="1"/>
+    <col min="11" max="11" width="26.44140625" style="47" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="47" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:12" s="47" customFormat="1" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>527</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="94" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="92" t="s">
         <v>528</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="96"/>
-    </row>
-    <row r="2" spans="1:12" s="55" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="94"/>
+    </row>
+    <row r="2" spans="1:12" s="55" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -15463,7 +15443,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="47" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>827</v>
       </c>
@@ -15497,7 +15477,7 @@
       <c r="K3" s="48"/>
       <c r="L3" s="46"/>
     </row>
-    <row r="4" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>827</v>
       </c>
@@ -15531,7 +15511,7 @@
       <c r="K4" s="48"/>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>827</v>
       </c>
@@ -15565,7 +15545,7 @@
       <c r="K5" s="48"/>
       <c r="L5" s="42"/>
     </row>
-    <row r="6" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>4</v>
       </c>
@@ -15581,111 +15561,111 @@
       <c r="K6" s="48"/>
       <c r="L6" s="42"/>
     </row>
-    <row r="7" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="112" t="s">
         <v>402</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="112" t="s">
         <v>403</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="112" t="s">
         <v>404</v>
       </c>
-      <c r="L7" s="46" t="s">
+      <c r="L7" s="113" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="112" t="s">
         <v>400</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="112" t="s">
         <v>405</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="112" t="s">
         <v>406</v>
       </c>
-      <c r="J8" s="48" t="s">
+      <c r="J8" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="42"/>
-    </row>
-    <row r="9" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48" t="s">
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+    </row>
+    <row r="9" spans="1:12" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="112" t="s">
         <v>401</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="112" t="s">
         <v>408</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="42"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15705,21 +15685,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.1796875" style="47" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="47" customWidth="1"/>
-    <col min="3" max="10" width="9.1796875" style="47" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="47"/>
+    <col min="1" max="1" width="32.21875" style="47" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="47" customWidth="1"/>
+    <col min="3" max="10" width="9.21875" style="47" customWidth="1"/>
+    <col min="11" max="16384" width="9.21875" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="55" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:2" s="55" customFormat="1" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>505</v>
       </c>
-      <c r="B1" s="99"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="97"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
@@ -15727,7 +15707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -15735,13 +15715,13 @@
         <v>835</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="48"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -15749,7 +15729,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -15771,34 +15751,34 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="27.453125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.453125" style="47" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.54296875" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="47" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5546875" style="47" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:8" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
         <v>512</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-    </row>
-    <row r="2" spans="1:8" s="55" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+    </row>
+    <row r="2" spans="1:8" s="55" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -15824,7 +15804,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="47" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>827</v>
       </c>
@@ -15846,7 +15826,7 @@
       <c r="G3" s="48"/>
       <c r="H3" s="46"/>
     </row>
-    <row r="4" spans="1:8" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="47" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>827</v>
       </c>
@@ -15868,7 +15848,7 @@
       <c r="G4" s="48"/>
       <c r="H4" s="48"/>
     </row>
-    <row r="5" spans="1:8" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="47" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>827</v>
       </c>
@@ -15890,7 +15870,7 @@
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>4</v>
       </c>
@@ -15902,75 +15882,75 @@
       <c r="G6" s="48"/>
       <c r="H6" s="48"/>
     </row>
-    <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="112" t="s">
         <v>409</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H7" s="113" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
+    <row r="8" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="112" t="s">
         <v>400</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="112" t="s">
         <v>405</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48" t="s">
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="112" t="s">
         <v>401</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="112" t="s">
         <v>410</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15985,56 +15965,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A6" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="47" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="47" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.81640625" style="47" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1796875" style="47" customWidth="1"/>
-    <col min="7" max="7" width="18.1796875" style="47" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.453125" style="47" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" style="47" customWidth="1"/>
-    <col min="12" max="12" width="14.36328125" style="47" customWidth="1"/>
-    <col min="13" max="13" width="15.81640625" style="47" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" style="47" customWidth="1"/>
-    <col min="15" max="15" width="11.90625" style="47" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" style="47" customWidth="1"/>
+    <col min="1" max="1" width="8.77734375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" style="47" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="47" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.44140625" style="47" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" style="47" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="47" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="47" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="47" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" style="47" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="47" customWidth="1"/>
     <col min="17" max="17" width="10" style="47" customWidth="1"/>
-    <col min="18" max="18" width="24.1796875" customWidth="1"/>
+    <col min="18" max="18" width="24.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="100" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="98" t="s">
         <v>513</v>
       </c>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-    </row>
-    <row r="2" spans="1:18" s="55" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+    </row>
+    <row r="2" spans="1:18" s="55" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -16090,7 +16070,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="44" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="44" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="48" t="s">
         <v>827</v>
       </c>
@@ -16142,7 +16122,7 @@
       <c r="Q3" s="48"/>
       <c r="R3" s="42"/>
     </row>
-    <row r="4" spans="1:18" s="44" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" s="44" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
         <v>827</v>
       </c>
@@ -16194,7 +16174,7 @@
       <c r="Q4" s="48"/>
       <c r="R4" s="42"/>
     </row>
-    <row r="5" spans="1:18" s="47" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" s="47" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="48" t="s">
         <v>827</v>
       </c>
@@ -16246,7 +16226,7 @@
       <c r="Q5" s="48"/>
       <c r="R5" s="48"/>
     </row>
-    <row r="6" spans="1:18" s="47" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" s="47" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="48" t="s">
         <v>827</v>
       </c>
@@ -16298,7 +16278,7 @@
       <c r="Q6" s="48"/>
       <c r="R6" s="48"/>
     </row>
-    <row r="7" spans="1:18" s="47" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" s="47" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>827</v>
       </c>
@@ -16350,7 +16330,7 @@
       <c r="Q7" s="48"/>
       <c r="R7" s="48"/>
     </row>
-    <row r="8" spans="1:18" s="47" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" s="47" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>827</v>
       </c>
@@ -16402,7 +16382,7 @@
       <c r="Q8" s="48"/>
       <c r="R8" s="48"/>
     </row>
-    <row r="9" spans="1:18" s="47" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" s="47" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>827</v>
       </c>
@@ -16454,7 +16434,7 @@
       <c r="Q9" s="48"/>
       <c r="R9" s="48"/>
     </row>
-    <row r="10" spans="1:18" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" s="47" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>827</v>
       </c>
@@ -16506,7 +16486,7 @@
       <c r="Q10" s="48"/>
       <c r="R10" s="48"/>
     </row>
-    <row r="11" spans="1:18" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" s="47" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>827</v>
       </c>
@@ -16558,7 +16538,7 @@
       <c r="Q11" s="48"/>
       <c r="R11" s="48"/>
     </row>
-    <row r="12" spans="1:18" s="47" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" s="47" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>827</v>
       </c>
@@ -16610,7 +16590,7 @@
       <c r="Q12" s="48"/>
       <c r="R12" s="48"/>
     </row>
-    <row r="13" spans="1:18" s="44" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" s="44" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>4</v>
       </c>
@@ -16631,303 +16611,303 @@
       <c r="Q13" s="43"/>
       <c r="R13" s="42"/>
     </row>
-    <row r="14" spans="1:18" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="48" t="s">
+    <row r="14" spans="1:18" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="112" t="s">
         <v>411</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="57" t="s">
+      <c r="J14" s="112"/>
+      <c r="K14" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="58" t="s">
+      <c r="L14" s="115" t="s">
         <v>412</v>
       </c>
-      <c r="M14" s="58" t="s">
+      <c r="M14" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="58" t="s">
+      <c r="N14" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="58" t="s">
+      <c r="O14" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="58" t="s">
+      <c r="P14" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="46" t="s">
+      <c r="Q14" s="115"/>
+      <c r="R14" s="113" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48" t="s">
+    <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="112" t="s">
         <v>400</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="112" t="s">
         <v>405</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="112" t="s">
         <v>413</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="112" t="s">
         <v>414</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48" t="s">
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="58" t="s">
+      <c r="L15" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="58" t="s">
+      <c r="M15" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="58" t="s">
+      <c r="N15" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="58" t="s">
+      <c r="O15" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="58" t="s">
+      <c r="P15" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="48"/>
-    </row>
-    <row r="16" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="48" t="s">
+      <c r="Q15" s="115"/>
+      <c r="R15" s="112"/>
+    </row>
+    <row r="16" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="112" t="s">
         <v>400</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="112" t="s">
         <v>405</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="112" t="s">
         <v>415</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G16" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48" t="s">
+      <c r="I16" s="112"/>
+      <c r="J16" s="112"/>
+      <c r="K16" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="58" t="s">
+      <c r="L16" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="58" t="s">
+      <c r="M16" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="58" t="s">
+      <c r="N16" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="58" t="s">
+      <c r="O16" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="58" t="s">
+      <c r="P16" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="48"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A17" s="48" t="s">
+      <c r="Q16" s="115"/>
+      <c r="R16" s="112"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="112" t="s">
         <v>401</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="112" t="s">
         <v>413</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="112" t="s">
         <v>416</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G17" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="48" t="s">
+      <c r="H17" s="112" t="s">
         <v>410</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48" t="s">
+      <c r="I17" s="112"/>
+      <c r="J17" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="48" t="s">
+      <c r="K17" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="58" t="s">
+      <c r="L17" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="58" t="s">
+      <c r="M17" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="58" t="s">
+      <c r="N17" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="58" t="s">
+      <c r="O17" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="P17" s="58" t="s">
+      <c r="P17" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="48"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A18" s="48" t="s">
+      <c r="Q17" s="115"/>
+      <c r="R17" s="112"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="112" t="s">
         <v>401</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="112" t="s">
         <v>415</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="112" t="s">
         <v>417</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="48" t="s">
+      <c r="H18" s="112" t="s">
         <v>410</v>
       </c>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48" t="s">
+      <c r="I18" s="112"/>
+      <c r="J18" s="112" t="s">
         <v>418</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="58" t="s">
+      <c r="L18" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="58" t="s">
+      <c r="M18" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="58" t="s">
+      <c r="N18" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="58" t="s">
+      <c r="O18" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="P18" s="58" t="s">
+      <c r="P18" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="48"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A19" s="48" t="s">
+      <c r="Q18" s="115"/>
+      <c r="R18" s="112"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="112" t="s">
         <v>401</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="112" t="s">
         <v>407</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="112" t="s">
         <v>419</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="112" t="s">
         <v>420</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="48" t="s">
+      <c r="G19" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="112" t="s">
         <v>410</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48" t="s">
+      <c r="I19" s="112"/>
+      <c r="J19" s="112" t="s">
         <v>421</v>
       </c>
-      <c r="K19" s="48" t="s">
+      <c r="K19" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="58" t="s">
+      <c r="L19" s="115" t="s">
         <v>412</v>
       </c>
-      <c r="M19" s="58" t="s">
+      <c r="M19" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="58" t="s">
+      <c r="N19" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="58" t="s">
+      <c r="O19" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="58" t="s">
+      <c r="P19" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="48"/>
+      <c r="Q19" s="115"/>
+      <c r="R19" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrsubra\PycharmProjects\newpull\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_master\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="898">
   <si>
     <t>Region</t>
   </si>
@@ -6603,6 +6603,84 @@
   </si>
   <si>
     <t>nonprod-db-sl,nonprod-common-sl</t>
+  </si>
+  <si>
+    <t>VCN</t>
+  </si>
+  <si>
+    <t>NSG-LBR</t>
+  </si>
+  <si>
+    <t>EGRESS</t>
+  </si>
+  <si>
+    <t>NSG-App</t>
+  </si>
+  <si>
+    <t>HTTP egress rule for NSG-App.</t>
+  </si>
+  <si>
+    <t>INGRESS</t>
+  </si>
+  <si>
+    <t>CIDR_BLOCK</t>
+  </si>
+  <si>
+    <t>HTTPS ingress rule for 0.0.0.0/0.</t>
+  </si>
+  <si>
+    <t>20.0.0.0/8</t>
+  </si>
+  <si>
+    <t>HTTPS ingress rule for 20.0.0.0/8.</t>
+  </si>
+  <si>
+    <t>NSG-Bastion</t>
+  </si>
+  <si>
+    <t>SSH egress rule for NSG-App.</t>
+  </si>
+  <si>
+    <t>SSH ingress rule for 20.0.0.0/8.</t>
+  </si>
+  <si>
+    <t>30.0.0.0/8</t>
+  </si>
+  <si>
+    <t>SSH ingress rule for 30.0.0.0/8.</t>
+  </si>
+  <si>
+    <t>NSG-DB</t>
+  </si>
+  <si>
+    <t>SSH egress rule for NSG-DB.</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>oci-phx-objectstorage</t>
+  </si>
+  <si>
+    <t>OSN egress rule for oci-phx-objectstorage.</t>
+  </si>
+  <si>
+    <t>CISTEST.CreatedBy=oracleidentitycloudservice/suruchi.singla@oracle.com</t>
+  </si>
+  <si>
+    <t>NETWORK_SECURITY_GROUP</t>
+  </si>
+  <si>
+    <t>DB ingress rule for NSG-App.</t>
+  </si>
+  <si>
+    <t>SSH ingress rule for NSG-Bastion.</t>
+  </si>
+  <si>
+    <t>DB egress rule for NSG-DB.</t>
+  </si>
+  <si>
+    <t>HTTP ingress rule for NSG-LBR.</t>
   </si>
 </sst>
 </file>
@@ -7774,13 +7852,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="167.109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="167.08984375" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:1" ht="58.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="86" t="s">
         <v>543</v>
       </c>
@@ -7799,20 +7877,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" style="45" customWidth="1"/>
     <col min="5" max="5" width="16" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>514</v>
       </c>
@@ -7825,7 +7903,7 @@
       <c r="H1" s="93"/>
       <c r="I1" s="93"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7871,19 +7949,19 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="45" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" style="45" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>515</v>
       </c>
@@ -7904,7 +7982,7 @@
       <c r="P1" s="93"/>
       <c r="Q1" s="93"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7967,30 +8045,30 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A9" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="45" customWidth="1"/>
     <col min="11" max="11" width="19" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.08984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>524</v>
       </c>
@@ -8014,7 +8092,7 @@
       <c r="S1" s="93"/>
       <c r="T1" s="93"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -8076,197 +8154,842 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:20" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>873</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>874</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44">
+        <v>80</v>
+      </c>
+      <c r="O3" s="44">
+        <v>80</v>
+      </c>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44" t="s">
+        <v>876</v>
+      </c>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+    </row>
+    <row r="4" spans="1:20" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>873</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>878</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44">
+        <v>443</v>
+      </c>
+      <c r="O4" s="44">
+        <v>443</v>
+      </c>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44" t="s">
+        <v>879</v>
+      </c>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+    </row>
+    <row r="5" spans="1:20" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>873</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>878</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>880</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44">
+        <v>443</v>
+      </c>
+      <c r="O5" s="44">
+        <v>443</v>
+      </c>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44" t="s">
+        <v>881</v>
+      </c>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+    </row>
+    <row r="6" spans="1:20" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>874</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44">
+        <v>22</v>
+      </c>
+      <c r="O6" s="44">
+        <v>22</v>
+      </c>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44" t="s">
+        <v>883</v>
+      </c>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+    </row>
+    <row r="7" spans="1:20" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>878</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>880</v>
+      </c>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <v>22</v>
+      </c>
+      <c r="O7" s="44">
+        <v>22</v>
+      </c>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44" t="s">
+        <v>884</v>
+      </c>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+    </row>
+    <row r="8" spans="1:20" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>878</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>885</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44">
+        <v>22</v>
+      </c>
+      <c r="O8" s="44">
+        <v>22</v>
+      </c>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44" t="s">
+        <v>886</v>
+      </c>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+    </row>
+    <row r="9" spans="1:20" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>874</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>887</v>
+      </c>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44">
+        <v>22</v>
+      </c>
+      <c r="O9" s="44">
+        <v>22</v>
+      </c>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44" t="s">
+        <v>888</v>
+      </c>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+    </row>
+    <row r="10" spans="1:20" s="45" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>887</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>874</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44" t="s">
+        <v>889</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>890</v>
+      </c>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44">
+        <v>443</v>
+      </c>
+      <c r="O10" s="44">
+        <v>443</v>
+      </c>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44" t="s">
+        <v>891</v>
+      </c>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="45" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>887</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>893</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44">
+        <v>1521</v>
+      </c>
+      <c r="O11" s="44">
+        <v>1522</v>
+      </c>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44" t="s">
+        <v>894</v>
+      </c>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="45" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>887</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>893</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44">
+        <v>22</v>
+      </c>
+      <c r="O12" s="44">
+        <v>22</v>
+      </c>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44" t="s">
+        <v>895</v>
+      </c>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>874</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>887</v>
+      </c>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44">
+        <v>1521</v>
+      </c>
+      <c r="O13" s="44">
+        <v>1521</v>
+      </c>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44" t="s">
+        <v>896</v>
+      </c>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+    </row>
+    <row r="14" spans="1:20" s="45" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>874</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44" t="s">
+        <v>889</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>890</v>
+      </c>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44">
+        <v>443</v>
+      </c>
+      <c r="O14" s="44">
+        <v>443</v>
+      </c>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44" t="s">
+        <v>891</v>
+      </c>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+    </row>
+    <row r="15" spans="1:20" s="45" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>893</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>873</v>
+      </c>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44">
+        <v>80</v>
+      </c>
+      <c r="O15" s="44">
+        <v>80</v>
+      </c>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44" t="s">
+        <v>897</v>
+      </c>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+    </row>
+    <row r="16" spans="1:20" s="45" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>893</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44">
+        <v>22</v>
+      </c>
+      <c r="O16" s="44">
+        <v>22</v>
+      </c>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44" t="s">
+        <v>895</v>
+      </c>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+    </row>
+    <row r="17" spans="1:20" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-    </row>
-    <row r="4" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+    </row>
+    <row r="18" spans="1:20" s="45" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B18" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C18" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D18" s="89" t="s">
         <v>422</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E18" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F18" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G18" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="46" t="s">
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K18" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="44" t="s">
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="90"/>
+      <c r="T18" s="45" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+    <row r="19" spans="1:20" s="45" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B19" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C19" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D19" s="89" t="s">
         <v>423</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E19" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F19" s="89" t="s">
         <v>424</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G19" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H19" s="89" t="s">
         <v>425</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I19" s="89" t="s">
         <v>422</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46">
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92">
         <v>22</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O19" s="92">
         <v>22</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="90"/>
+    </row>
+    <row r="20" spans="1:20" s="45" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B20" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C20" s="89" t="s">
         <v>405</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D20" s="89" t="s">
         <v>426</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E20" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F20" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G20" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K20" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="90"/>
+    </row>
+    <row r="21" spans="1:20" s="45" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B21" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C21" s="89" t="s">
         <v>407</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D21" s="89" t="s">
         <v>427</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E21" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F21" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G21" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H21" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I21" s="89" t="s">
         <v>499</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92">
         <v>53</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O21" s="92">
         <v>53</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8285,17 +9008,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>525</v>
       </c>
@@ -8306,7 +9029,7 @@
       <c r="F1" s="93"/>
       <c r="G1" s="93"/>
     </row>
-    <row r="2" spans="1:7" s="53" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="53" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -8329,7 +9052,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -8340,7 +9063,7 @@
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -8363,7 +9086,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -8384,7 +9107,7 @@
       </c>
       <c r="G5" s="46"/>
     </row>
-    <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
@@ -8421,27 +9144,27 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" style="45" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" style="45" customWidth="1"/>
-    <col min="11" max="11" width="26.77734375" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="22.08984375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="26.81640625" style="45" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="45" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="45" customWidth="1"/>
-    <col min="14" max="14" width="19.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="45" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" style="45" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="101" t="s">
         <v>542</v>
       </c>
@@ -8463,7 +9186,7 @@
       <c r="O1" s="95"/>
       <c r="P1" s="96"/>
     </row>
-    <row r="2" spans="1:16" s="53" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="53" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -8513,7 +9236,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -8533,7 +9256,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="46"/>
     </row>
-    <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -8581,7 +9304,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -8623,7 +9346,7 @@
       </c>
       <c r="P5" s="46"/>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="55" t="s">
         <v>5</v>
       </c>
@@ -8665,7 +9388,7 @@
       <c r="O6" s="46"/>
       <c r="P6" s="46"/>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="55" t="s">
         <v>5</v>
       </c>
@@ -8725,20 +9448,20 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
     <col min="2" max="2" width="23" style="45" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="114.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="94" t="s">
         <v>654</v>
       </c>
@@ -8752,7 +9475,7 @@
       <c r="I1" s="95"/>
       <c r="J1" s="96"/>
     </row>
-    <row r="2" spans="1:10" s="53" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="53" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -8784,7 +9507,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -8798,7 +9521,7 @@
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
     </row>
-    <row r="4" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -8830,7 +9553,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -8875,27 +9598,27 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="45" customWidth="1"/>
     <col min="7" max="7" width="15" style="45" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="45" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="45" customWidth="1"/>
     <col min="10" max="10" width="16" style="45" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" style="45" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" style="45" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" style="45" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="45" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="45" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="45" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="45" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="45" customWidth="1"/>
+    <col min="14" max="14" width="17.08984375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="45" customWidth="1"/>
+    <col min="16" max="16" width="18.90625" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="104" t="s">
         <v>532</v>
       </c>
@@ -8918,7 +9641,7 @@
       <c r="P1" s="107"/>
       <c r="Q1" s="107"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -8971,7 +9694,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -8992,7 +9715,7 @@
       <c r="P3" s="46"/>
       <c r="Q3" s="46"/>
     </row>
-    <row r="4" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -9031,7 +9754,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="46"/>
       <c r="C5" s="30"/>
@@ -9056,7 +9779,7 @@
       <c r="P5" s="46"/>
       <c r="Q5" s="46"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -9080,7 +9803,7 @@
       <c r="P6" s="46"/>
       <c r="Q6" s="46"/>
     </row>
-    <row r="7" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
@@ -9113,7 +9836,7 @@
       <c r="P7" s="46"/>
       <c r="Q7" s="46"/>
     </row>
-    <row r="8" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
@@ -9152,7 +9875,7 @@
       </c>
       <c r="Q8" s="46"/>
     </row>
-    <row r="9" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
@@ -9189,7 +9912,7 @@
       <c r="P9" s="46"/>
       <c r="Q9" s="46"/>
     </row>
-    <row r="10" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
@@ -9240,21 +9963,21 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" style="45" customWidth="1"/>
     <col min="8" max="8" width="25" style="45" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" style="45" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" style="45" customWidth="1"/>
-    <col min="13" max="13" width="28.21875" style="45" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.08984375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="28.1796875" style="45" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>516</v>
       </c>
@@ -9274,7 +9997,7 @@
       <c r="O1" s="93"/>
       <c r="P1" s="93"/>
     </row>
-    <row r="2" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -9324,7 +10047,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
@@ -9344,7 +10067,7 @@
       <c r="O3" s="46"/>
       <c r="P3" s="46"/>
     </row>
-    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -9388,7 +10111,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -9412,7 +10135,7 @@
       <c r="O5" s="46"/>
       <c r="P5" s="46"/>
     </row>
-    <row r="6" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
@@ -9473,24 +10196,24 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.21875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="45" customWidth="1"/>
     <col min="3" max="3" width="11" style="45" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="45" customWidth="1"/>
+    <col min="4" max="5" width="10.90625" style="45" customWidth="1"/>
     <col min="6" max="6" width="18" style="45" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="45" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="45" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="45" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="45" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="45" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="45" customWidth="1"/>
-    <col min="17" max="17" width="14.77734375" style="45" customWidth="1"/>
-    <col min="21" max="21" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="45" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" style="45" customWidth="1"/>
+    <col min="10" max="11" width="14.6328125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="45" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" style="45" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="45" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="45" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="87.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="94" t="s">
         <v>539</v>
       </c>
@@ -9515,7 +10238,7 @@
       <c r="T1" s="95"/>
       <c r="U1" s="96"/>
     </row>
-    <row r="2" spans="1:21" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
@@ -9580,7 +10303,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -9605,7 +10328,7 @@
       <c r="T3" s="46"/>
       <c r="U3" s="46"/>
     </row>
-    <row r="4" spans="1:21" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -9668,7 +10391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -9711,7 +10434,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="46"/>
     </row>
-    <row r="6" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
@@ -9775,24 +10498,24 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.77734375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="45" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="45" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="45" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" style="45" customWidth="1"/>
-    <col min="14" max="16" width="13.77734375" style="45" customWidth="1"/>
-    <col min="17" max="17" width="21.109375" style="45" customWidth="1"/>
-    <col min="18" max="18" width="17.21875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="45" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" style="45" customWidth="1"/>
+    <col min="14" max="16" width="13.81640625" style="45" customWidth="1"/>
+    <col min="17" max="17" width="21.08984375" style="45" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="94" t="s">
         <v>507</v>
       </c>
@@ -9817,7 +10540,7 @@
       <c r="R1" s="108"/>
       <c r="S1" s="109"/>
     </row>
-    <row r="2" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -9876,7 +10599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -9899,7 +10622,7 @@
       <c r="R3" s="46"/>
       <c r="S3" s="46"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -9932,7 +10655,7 @@
       </c>
       <c r="S4" s="46"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -9955,7 +10678,7 @@
       <c r="R5" s="46"/>
       <c r="S5" s="46"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
@@ -9978,7 +10701,7 @@
       <c r="R6" s="46"/>
       <c r="S6" s="46"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -10001,7 +10724,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="46"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
@@ -10024,7 +10747,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="46"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -10051,7 +10774,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="46"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="46"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -10080,7 +10803,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="46"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -10115,7 +10838,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="46"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -10150,7 +10873,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="46"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -10177,7 +10900,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="46"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="46"/>
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
@@ -10204,7 +10927,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
@@ -10229,7 +10952,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="46"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
@@ -10256,7 +10979,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -10281,7 +11004,7 @@
       <c r="R17" s="46"/>
       <c r="S17" s="46"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -10308,7 +11031,7 @@
       <c r="R18" s="46"/>
       <c r="S18" s="46"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -10329,7 +11052,7 @@
       <c r="R19" s="46"/>
       <c r="S19" s="46"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46" t="s">
@@ -10356,7 +11079,7 @@
       <c r="R20" s="46"/>
       <c r="S20" s="46"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -10379,7 +11102,7 @@
       <c r="R21" s="46"/>
       <c r="S21" s="46"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="46" t="s">
         <v>5</v>
       </c>
@@ -10410,7 +11133,7 @@
       <c r="R22" s="46"/>
       <c r="S22" s="46"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -10471,16 +11194,16 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="45" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="25.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="53" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="53" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>509</v>
       </c>
@@ -10489,7 +11212,7 @@
       <c r="D1" s="93"/>
       <c r="E1" s="93"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -10506,7 +11229,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
@@ -10521,7 +11244,7 @@
       </c>
       <c r="E3" s="46"/>
     </row>
-    <row r="4" spans="1:5" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
         <v>5</v>
       </c>
@@ -10536,7 +11259,7 @@
       </c>
       <c r="E4" s="46"/>
     </row>
-    <row r="5" spans="1:5" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>5</v>
       </c>
@@ -10551,7 +11274,7 @@
       </c>
       <c r="E5" s="46"/>
     </row>
-    <row r="6" spans="1:5" s="45" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="45" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
@@ -10566,7 +11289,7 @@
       </c>
       <c r="E6" s="46"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>4</v>
       </c>
@@ -10575,7 +11298,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="46"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="89" t="s">
         <v>5</v>
       </c>
@@ -10588,7 +11311,7 @@
       <c r="D8" s="89"/>
       <c r="E8" s="89"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="89" t="s">
         <v>5</v>
       </c>
@@ -10603,7 +11326,7 @@
       </c>
       <c r="E9" s="89"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="89" t="s">
         <v>5</v>
       </c>
@@ -10618,7 +11341,7 @@
       </c>
       <c r="E10" s="89"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="89" t="s">
         <v>5</v>
       </c>
@@ -10631,7 +11354,7 @@
       <c r="D11" s="89"/>
       <c r="E11" s="89"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="89" t="s">
         <v>5</v>
       </c>
@@ -10646,7 +11369,7 @@
       </c>
       <c r="E12" s="89"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="89" t="s">
         <v>5</v>
       </c>
@@ -10661,7 +11384,7 @@
       </c>
       <c r="E13" s="89"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="89" t="s">
         <v>5</v>
       </c>
@@ -10676,7 +11399,7 @@
       </c>
       <c r="E14" s="89"/>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="89" t="s">
         <v>5</v>
       </c>
@@ -10710,15 +11433,15 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="53" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="53" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="110" t="s">
         <v>508</v>
       </c>
@@ -10728,7 +11451,7 @@
       <c r="E1" s="111"/>
       <c r="F1" s="112"/>
     </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -10748,7 +11471,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -10758,7 +11481,7 @@
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -10778,7 +11501,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -10792,7 +11515,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46" t="s">
@@ -10808,7 +11531,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>5</v>
       </c>
@@ -10849,20 +11572,20 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="45" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="45" customWidth="1"/>
     <col min="9" max="9" width="15" style="45" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="45" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="45" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>538</v>
       </c>
@@ -10882,7 +11605,7 @@
       <c r="O1" s="93"/>
       <c r="P1" s="93"/>
     </row>
-    <row r="2" spans="1:16" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -10932,7 +11655,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -10952,7 +11675,7 @@
       <c r="O3" s="46"/>
       <c r="P3" s="46"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -10994,7 +11717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46" t="s">
@@ -11022,7 +11745,7 @@
       <c r="O5" s="46"/>
       <c r="P5" s="46"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
@@ -11081,17 +11804,17 @@
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="45" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>263</v>
       </c>
@@ -11111,7 +11834,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>228</v>
       </c>
@@ -11131,7 +11854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>232</v>
       </c>
@@ -11151,7 +11874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>212</v>
       </c>
@@ -11171,7 +11894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>205</v>
       </c>
@@ -11189,7 +11912,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>225</v>
       </c>
@@ -11202,7 +11925,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>237</v>
       </c>
@@ -11211,7 +11934,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>211</v>
       </c>
@@ -11219,7 +11942,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>216</v>
       </c>
@@ -11227,7 +11950,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>230</v>
       </c>
@@ -11235,7 +11958,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>235</v>
       </c>
@@ -11243,153 +11966,153 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="34" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="34" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="34" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="34" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="34" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="34" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="34" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="34" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="34" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="34" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="34" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="34" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="34" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="34" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="34" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="34" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="34" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="34" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="34" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="34" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="34" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="34" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="34" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="34" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="34" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="34" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -11406,21 +12129,21 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="45"/>
+    <col min="3" max="3" width="16.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="45"/>
     <col min="8" max="8" width="11" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="45"/>
+    <col min="9" max="9" width="13.90625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="113" t="s">
         <v>533</v>
       </c>
@@ -11433,7 +12156,7 @@
       <c r="H1" s="113"/>
       <c r="I1" s="113"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -11462,7 +12185,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="62" t="s">
         <v>4</v>
       </c>
@@ -11475,7 +12198,7 @@
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>334</v>
       </c>
@@ -11505,7 +12228,7 @@
       </c>
       <c r="J4" s="58"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>334</v>
       </c>
@@ -11550,32 +12273,32 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="45" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="45" customWidth="1"/>
     <col min="2" max="2" width="14" style="45" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="45" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="27.54296875" style="45" customWidth="1"/>
     <col min="9" max="9" width="13" style="45" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="45" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="66" customWidth="1"/>
-    <col min="12" max="13" width="20.5546875" style="45"/>
-    <col min="14" max="14" width="20.5546875" style="3"/>
-    <col min="15" max="17" width="20.5546875" style="45"/>
+    <col min="10" max="10" width="16.54296875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="66" customWidth="1"/>
+    <col min="12" max="13" width="20.54296875" style="45"/>
+    <col min="14" max="14" width="20.54296875" style="3"/>
+    <col min="15" max="17" width="20.54296875" style="45"/>
     <col min="18" max="18" width="23" style="45" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.5546875" style="45"/>
-    <col min="22" max="22" width="23.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="45" customWidth="1"/>
-    <col min="24" max="24" width="20.5546875" style="45"/>
-    <col min="25" max="25" width="23.109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.5546875" style="45"/>
+    <col min="19" max="21" width="20.54296875" style="45"/>
+    <col min="22" max="22" width="23.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="45" customWidth="1"/>
+    <col min="24" max="24" width="20.54296875" style="45"/>
+    <col min="25" max="25" width="23.08984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.54296875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="63" customFormat="1" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="63" customFormat="1" ht="135.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="94" t="s">
         <v>659</v>
       </c>
@@ -11603,7 +12326,7 @@
       <c r="W1" s="95"/>
       <c r="X1" s="96"/>
     </row>
-    <row r="2" spans="1:24" s="79" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="79" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
@@ -11677,7 +12400,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="55" t="s">
         <v>4</v>
       </c>
@@ -11705,7 +12428,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="46"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>334</v>
       </c>
@@ -11779,7 +12502,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
         <v>334</v>
       </c>
@@ -11893,39 +12616,39 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" style="66" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" style="66" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="45" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="45" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="45" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="45" customWidth="1"/>
-    <col min="24" max="24" width="15.21875" style="45" customWidth="1"/>
-    <col min="25" max="25" width="14.88671875" style="45" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.90625" style="45" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.08984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="45" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" style="45" customWidth="1"/>
+    <col min="25" max="25" width="14.90625" style="45" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42" style="45" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="45"/>
+    <col min="27" max="27" width="15.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="63" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="63" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="94" t="s">
         <v>660</v>
       </c>
@@ -11953,7 +12676,7 @@
       <c r="W1" s="95"/>
       <c r="X1" s="96"/>
     </row>
-    <row r="2" spans="1:24" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
@@ -12027,7 +12750,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="55" t="s">
         <v>4</v>
       </c>
@@ -12055,7 +12778,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="46"/>
     </row>
-    <row r="4" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>334</v>
       </c>
@@ -12129,7 +12852,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
         <v>334</v>
       </c>
@@ -12244,37 +12967,37 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="45" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="45" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="45" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="45" customWidth="1"/>
-    <col min="24" max="25" width="14.5546875" style="45" customWidth="1"/>
-    <col min="26" max="26" width="15.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.77734375" style="45"/>
+    <col min="19" max="19" width="13.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.90625" style="45" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.08984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="45" customWidth="1"/>
+    <col min="24" max="25" width="14.54296875" style="45" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="63" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="63" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="94" t="s">
         <v>661</v>
       </c>
@@ -12302,7 +13025,7 @@
       <c r="W1" s="95"/>
       <c r="X1" s="96"/>
     </row>
-    <row r="2" spans="1:24" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
@@ -12376,7 +13099,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="70" t="s">
         <v>4</v>
       </c>
@@ -12403,7 +13126,7 @@
       <c r="W3" s="69"/>
       <c r="X3" s="62"/>
     </row>
-    <row r="4" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>5</v>
       </c>
@@ -12477,7 +13200,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="61"/>
       <c r="B5" s="58"/>
       <c r="C5" s="68"/>
@@ -12520,20 +13243,20 @@
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="45"/>
+    <col min="3" max="3" width="9.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" style="45" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>360</v>
       </c>
@@ -12562,7 +13285,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.45">
       <c r="A2" s="46" t="s">
         <v>106</v>
       </c>
@@ -12591,7 +13314,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="46" t="s">
         <v>361</v>
       </c>
@@ -12620,7 +13343,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>362</v>
       </c>
@@ -12640,7 +13363,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>359</v>
       </c>
@@ -12660,7 +13383,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>363</v>
       </c>
@@ -12678,7 +13401,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>346</v>
       </c>
@@ -12696,7 +13419,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46" t="s">
@@ -12712,7 +13435,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46" t="s">
@@ -12728,7 +13451,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="46"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46" t="s">
@@ -12744,7 +13467,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46" t="s">
@@ -12760,7 +13483,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46" t="s">
@@ -12774,7 +13497,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46" t="s">
@@ -12788,7 +13511,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="46"/>
       <c r="B14" s="46"/>
       <c r="C14" s="46" t="s">
@@ -12802,472 +13525,472 @@
         <v>556</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I15" s="46" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I16" s="46" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I17" s="46" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I18" s="46" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19" s="46" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I20" s="46" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I21" s="46" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I22" s="46" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I23" s="46" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I24" s="46" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I25" s="46" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I26" s="46" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I27" s="46" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I28" s="46" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I29" s="46" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I30" s="46" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I31" s="46" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I32" s="46" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I33" s="46" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I34" s="46" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I35" s="46" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I36" s="46" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I37" s="46" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I38" s="46" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I39" s="46" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I40" s="46" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I41" s="46" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I42" s="46" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I43" s="46" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I44" s="46" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I45" s="46" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I46" s="46" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I47" s="46" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I48" s="46" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I49" s="46" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I50" s="46" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I51" s="46" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I52" s="46" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I53" s="46" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I54" s="46" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I55" s="46" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I56" s="46" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I57" s="46" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I58" s="46" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I59" s="46" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I60" s="46" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I61" s="46" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I62" s="46" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I63" s="46" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I64" s="46" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I65" s="46" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I66" s="46" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67" s="46" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I68" s="46" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I69" s="46" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I70" s="46" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I71" s="46" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I72" s="46" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I73" s="46" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I74" s="46" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I75" s="46" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I76" s="46" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I77" s="46" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I78" s="46" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I79" s="46" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I80" s="46" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I81" s="46" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I82" s="46" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I83" s="46" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I84" s="46" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I85" s="46" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I86" s="46" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I87" s="46" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I88" s="46" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I89" s="46" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I90" s="46" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I91" s="46" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I92" s="46" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I93" s="46" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I94" s="46" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I95" s="46" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I96" s="46" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I97" s="46" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I98" s="46" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I99" s="46" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I100" s="46" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I101" s="46" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I102" s="46" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I103" s="46" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I104" s="46" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I105" s="46" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I106" s="46" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I107" s="46" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I108" s="46" t="s">
         <v>650</v>
       </c>
@@ -13286,16 +14009,16 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="45" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="53" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="53" customFormat="1" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>510</v>
       </c>
@@ -13304,7 +14027,7 @@
       <c r="D1" s="93"/>
       <c r="E1" s="93"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -13321,7 +14044,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="45" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="45" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
@@ -13334,7 +14057,7 @@
       <c r="D3" s="44"/>
       <c r="E3" s="46"/>
     </row>
-    <row r="4" spans="1:5" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
         <v>5</v>
       </c>
@@ -13347,7 +14070,7 @@
       <c r="D4" s="44"/>
       <c r="E4" s="46"/>
     </row>
-    <row r="5" spans="1:5" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>5</v>
       </c>
@@ -13360,7 +14083,7 @@
       <c r="D5" s="44"/>
       <c r="E5" s="46"/>
     </row>
-    <row r="6" spans="1:5" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
@@ -13373,7 +14096,7 @@
       <c r="D6" s="44"/>
       <c r="E6" s="46"/>
     </row>
-    <row r="7" spans="1:5" s="45" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="45" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="91" t="s">
         <v>5</v>
       </c>
@@ -13386,7 +14109,7 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" s="58" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="58" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
         <v>5</v>
       </c>
@@ -13399,7 +14122,7 @@
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="81" t="s">
         <v>4</v>
       </c>
@@ -13421,18 +14144,18 @@
       <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="45" customWidth="1"/>
     <col min="4" max="4" width="16" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="45" customWidth="1"/>
-    <col min="6" max="7" width="28.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.36328125" style="45" customWidth="1"/>
+    <col min="6" max="7" width="28.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="53" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="53" customFormat="1" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>511</v>
       </c>
@@ -13444,7 +14167,7 @@
       <c r="G1" s="93"/>
       <c r="H1" s="93"/>
     </row>
-    <row r="2" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -13470,7 +14193,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="45" customFormat="1" ht="61.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="45" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
@@ -13490,7 +14213,7 @@
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -13502,7 +14225,7 @@
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -13514,7 +14237,7 @@
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
     </row>
-    <row r="6" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -13526,7 +14249,7 @@
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
     </row>
-    <row r="7" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -13538,7 +14261,7 @@
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
     </row>
-    <row r="8" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -13550,7 +14273,7 @@
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
     </row>
-    <row r="9" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -13562,7 +14285,7 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -13574,7 +14297,7 @@
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
     </row>
-    <row r="11" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -13586,7 +14309,7 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
     </row>
-    <row r="12" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -13598,7 +14321,7 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -13610,7 +14333,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -13622,7 +14345,7 @@
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
     </row>
-    <row r="15" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -13634,7 +14357,7 @@
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
     </row>
-    <row r="16" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -13646,7 +14369,7 @@
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
     </row>
-    <row r="17" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -13658,7 +14381,7 @@
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
     </row>
-    <row r="18" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -13670,7 +14393,7 @@
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
     </row>
-    <row r="19" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -13682,7 +14405,7 @@
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
     </row>
-    <row r="20" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -13694,7 +14417,7 @@
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
     </row>
-    <row r="21" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -13706,7 +14429,7 @@
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -13718,7 +14441,7 @@
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -13730,7 +14453,7 @@
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -13742,7 +14465,7 @@
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
     </row>
-    <row r="25" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -13754,7 +14477,7 @@
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
     </row>
-    <row r="26" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -13766,7 +14489,7 @@
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
     </row>
-    <row r="27" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -13778,7 +14501,7 @@
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
     </row>
-    <row r="28" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44" t="s">
         <v>5</v>
       </c>
@@ -13798,7 +14521,7 @@
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -13810,7 +14533,7 @@
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -13822,7 +14545,7 @@
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="44"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
@@ -13834,7 +14557,7 @@
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
     </row>
-    <row r="32" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
@@ -13846,7 +14569,7 @@
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
     </row>
-    <row r="33" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
@@ -13858,7 +14581,7 @@
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
     </row>
-    <row r="34" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="44"/>
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
@@ -13870,7 +14593,7 @@
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
     </row>
-    <row r="35" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="44"/>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -13882,7 +14605,7 @@
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
     </row>
-    <row r="36" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="44"/>
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
@@ -13894,7 +14617,7 @@
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
     </row>
-    <row r="37" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="44"/>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
@@ -13906,7 +14629,7 @@
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
     </row>
-    <row r="38" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="44"/>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -13918,7 +14641,7 @@
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
     </row>
-    <row r="39" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="44" t="s">
         <v>5</v>
       </c>
@@ -13938,7 +14661,7 @@
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
     </row>
-    <row r="40" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="44"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
@@ -13950,7 +14673,7 @@
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
     </row>
-    <row r="41" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="44"/>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -13962,7 +14685,7 @@
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
     </row>
-    <row r="42" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="44"/>
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
@@ -13974,7 +14697,7 @@
       <c r="G42" s="44"/>
       <c r="H42" s="44"/>
     </row>
-    <row r="43" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="44"/>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
@@ -13986,7 +14709,7 @@
       <c r="G43" s="44"/>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:8" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="44"/>
       <c r="B44" s="44"/>
       <c r="C44" s="44"/>
@@ -13998,7 +14721,7 @@
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
     </row>
-    <row r="45" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
@@ -14010,7 +14733,7 @@
       <c r="G45" s="44"/>
       <c r="H45" s="44"/>
     </row>
-    <row r="46" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="44"/>
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
@@ -14022,7 +14745,7 @@
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
     </row>
-    <row r="47" spans="1:8" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="44"/>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -14034,7 +14757,7 @@
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
     </row>
-    <row r="48" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="44"/>
       <c r="B48" s="44"/>
       <c r="C48" s="44"/>
@@ -14046,7 +14769,7 @@
       <c r="G48" s="44"/>
       <c r="H48" s="44"/>
     </row>
-    <row r="49" spans="1:8" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="44"/>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
@@ -14058,7 +14781,7 @@
       <c r="G49" s="44"/>
       <c r="H49" s="44"/>
     </row>
-    <row r="50" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="44"/>
       <c r="B50" s="44"/>
       <c r="C50" s="44"/>
@@ -14070,7 +14793,7 @@
       <c r="G50" s="44"/>
       <c r="H50" s="44"/>
     </row>
-    <row r="51" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="44"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -14082,7 +14805,7 @@
       <c r="G51" s="44"/>
       <c r="H51" s="44"/>
     </row>
-    <row r="52" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -14094,7 +14817,7 @@
       <c r="G52" s="44"/>
       <c r="H52" s="44"/>
     </row>
-    <row r="53" spans="1:8" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -14106,7 +14829,7 @@
       <c r="G53" s="44"/>
       <c r="H53" s="44"/>
     </row>
-    <row r="54" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -14118,7 +14841,7 @@
       <c r="G54" s="44"/>
       <c r="H54" s="44"/>
     </row>
-    <row r="55" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -14130,7 +14853,7 @@
       <c r="G55" s="44"/>
       <c r="H55" s="44"/>
     </row>
-    <row r="56" spans="1:8" s="45" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="45" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="44" t="s">
         <v>5</v>
       </c>
@@ -14150,7 +14873,7 @@
       <c r="G56" s="44"/>
       <c r="H56" s="44"/>
     </row>
-    <row r="57" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -14162,7 +14885,7 @@
       <c r="G57" s="44"/>
       <c r="H57" s="44"/>
     </row>
-    <row r="58" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -14174,7 +14897,7 @@
       <c r="G58" s="44"/>
       <c r="H58" s="44"/>
     </row>
-    <row r="59" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -14186,7 +14909,7 @@
       <c r="G59" s="44"/>
       <c r="H59" s="44"/>
     </row>
-    <row r="60" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -14198,7 +14921,7 @@
       <c r="G60" s="44"/>
       <c r="H60" s="44"/>
     </row>
-    <row r="61" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -14210,7 +14933,7 @@
       <c r="G61" s="44"/>
       <c r="H61" s="44"/>
     </row>
-    <row r="62" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -14222,7 +14945,7 @@
       <c r="G62" s="44"/>
       <c r="H62" s="44"/>
     </row>
-    <row r="63" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -14234,7 +14957,7 @@
       <c r="G63" s="44"/>
       <c r="H63" s="44"/>
     </row>
-    <row r="64" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -14246,7 +14969,7 @@
       <c r="G64" s="44"/>
       <c r="H64" s="44"/>
     </row>
-    <row r="65" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -14258,7 +14981,7 @@
       <c r="G65" s="44"/>
       <c r="H65" s="44"/>
     </row>
-    <row r="66" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -14270,7 +14993,7 @@
       <c r="G66" s="44"/>
       <c r="H66" s="44"/>
     </row>
-    <row r="67" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -14282,7 +15005,7 @@
       <c r="G67" s="44"/>
       <c r="H67" s="44"/>
     </row>
-    <row r="68" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -14294,7 +15017,7 @@
       <c r="G68" s="44"/>
       <c r="H68" s="44"/>
     </row>
-    <row r="69" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -14306,7 +15029,7 @@
       <c r="G69" s="44"/>
       <c r="H69" s="44"/>
     </row>
-    <row r="70" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -14318,7 +15041,7 @@
       <c r="G70" s="44"/>
       <c r="H70" s="44"/>
     </row>
-    <row r="71" spans="1:8" s="45" customFormat="1" ht="101.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="45" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="44" t="s">
         <v>5</v>
       </c>
@@ -14338,7 +15061,7 @@
       <c r="G71" s="44"/>
       <c r="H71" s="44"/>
     </row>
-    <row r="72" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -14350,7 +15073,7 @@
       <c r="G72" s="44"/>
       <c r="H72" s="44"/>
     </row>
-    <row r="73" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -14362,7 +15085,7 @@
       <c r="G73" s="44"/>
       <c r="H73" s="44"/>
     </row>
-    <row r="74" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -14374,7 +15097,7 @@
       <c r="G74" s="44"/>
       <c r="H74" s="44"/>
     </row>
-    <row r="75" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -14386,7 +15109,7 @@
       <c r="G75" s="44"/>
       <c r="H75" s="44"/>
     </row>
-    <row r="76" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -14398,7 +15121,7 @@
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
     </row>
-    <row r="77" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -14410,7 +15133,7 @@
       <c r="G77" s="44"/>
       <c r="H77" s="44"/>
     </row>
-    <row r="78" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -14422,7 +15145,7 @@
       <c r="G78" s="44"/>
       <c r="H78" s="44"/>
     </row>
-    <row r="79" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -14434,7 +15157,7 @@
       <c r="G79" s="44"/>
       <c r="H79" s="44"/>
     </row>
-    <row r="80" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -14446,7 +15169,7 @@
       <c r="G80" s="44"/>
       <c r="H80" s="44"/>
     </row>
-    <row r="81" spans="1:8" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -14458,7 +15181,7 @@
       <c r="G81" s="44"/>
       <c r="H81" s="44"/>
     </row>
-    <row r="82" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -14470,7 +15193,7 @@
       <c r="G82" s="44"/>
       <c r="H82" s="44"/>
     </row>
-    <row r="83" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -14482,7 +15205,7 @@
       <c r="G83" s="44"/>
       <c r="H83" s="44"/>
     </row>
-    <row r="84" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -14494,7 +15217,7 @@
       <c r="G84" s="44"/>
       <c r="H84" s="44"/>
     </row>
-    <row r="85" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -14506,7 +15229,7 @@
       <c r="G85" s="44"/>
       <c r="H85" s="44"/>
     </row>
-    <row r="86" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -14518,7 +15241,7 @@
       <c r="G86" s="44"/>
       <c r="H86" s="44"/>
     </row>
-    <row r="87" spans="1:8" s="45" customFormat="1" ht="101.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="45" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="44" t="s">
         <v>5</v>
       </c>
@@ -14538,7 +15261,7 @@
       <c r="G87" s="44"/>
       <c r="H87" s="44"/>
     </row>
-    <row r="88" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -14550,7 +15273,7 @@
       <c r="G88" s="44"/>
       <c r="H88" s="44"/>
     </row>
-    <row r="89" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -14562,7 +15285,7 @@
       <c r="G89" s="44"/>
       <c r="H89" s="44"/>
     </row>
-    <row r="90" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -14574,7 +15297,7 @@
       <c r="G90" s="44"/>
       <c r="H90" s="44"/>
     </row>
-    <row r="91" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -14586,7 +15309,7 @@
       <c r="G91" s="44"/>
       <c r="H91" s="44"/>
     </row>
-    <row r="92" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -14598,7 +15321,7 @@
       <c r="G92" s="44"/>
       <c r="H92" s="44"/>
     </row>
-    <row r="93" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -14610,7 +15333,7 @@
       <c r="G93" s="44"/>
       <c r="H93" s="44"/>
     </row>
-    <row r="94" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -14622,7 +15345,7 @@
       <c r="G94" s="44"/>
       <c r="H94" s="44"/>
     </row>
-    <row r="95" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -14634,7 +15357,7 @@
       <c r="G95" s="44"/>
       <c r="H95" s="44"/>
     </row>
-    <row r="96" spans="1:8" s="45" customFormat="1" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="45" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="44" t="s">
         <v>5</v>
       </c>
@@ -14654,7 +15377,7 @@
       <c r="G96" s="44"/>
       <c r="H96" s="44"/>
     </row>
-    <row r="97" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -14666,7 +15389,7 @@
       <c r="G97" s="44"/>
       <c r="H97" s="44"/>
     </row>
-    <row r="98" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -14678,7 +15401,7 @@
       <c r="G98" s="44"/>
       <c r="H98" s="44"/>
     </row>
-    <row r="99" spans="1:8" s="45" customFormat="1" ht="101.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="45" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="44" t="s">
         <v>5</v>
       </c>
@@ -14698,7 +15421,7 @@
       <c r="G99" s="44"/>
       <c r="H99" s="44"/>
     </row>
-    <row r="100" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -14710,7 +15433,7 @@
       <c r="G100" s="44"/>
       <c r="H100" s="44"/>
     </row>
-    <row r="101" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -14722,7 +15445,7 @@
       <c r="G101" s="44"/>
       <c r="H101" s="44"/>
     </row>
-    <row r="102" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -14734,7 +15457,7 @@
       <c r="G102" s="44"/>
       <c r="H102" s="44"/>
     </row>
-    <row r="103" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -14746,7 +15469,7 @@
       <c r="G103" s="44"/>
       <c r="H103" s="44"/>
     </row>
-    <row r="104" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -14758,7 +15481,7 @@
       <c r="G104" s="44"/>
       <c r="H104" s="44"/>
     </row>
-    <row r="105" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -14770,7 +15493,7 @@
       <c r="G105" s="44"/>
       <c r="H105" s="44"/>
     </row>
-    <row r="106" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -14782,7 +15505,7 @@
       <c r="G106" s="44"/>
       <c r="H106" s="44"/>
     </row>
-    <row r="107" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -14794,7 +15517,7 @@
       <c r="G107" s="44"/>
       <c r="H107" s="44"/>
     </row>
-    <row r="108" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -14806,7 +15529,7 @@
       <c r="G108" s="44"/>
       <c r="H108" s="44"/>
     </row>
-    <row r="109" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -14818,7 +15541,7 @@
       <c r="G109" s="44"/>
       <c r="H109" s="44"/>
     </row>
-    <row r="110" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -14830,7 +15553,7 @@
       <c r="G110" s="44"/>
       <c r="H110" s="44"/>
     </row>
-    <row r="111" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -14842,7 +15565,7 @@
       <c r="G111" s="44"/>
       <c r="H111" s="44"/>
     </row>
-    <row r="112" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -14854,7 +15577,7 @@
       <c r="G112" s="44"/>
       <c r="H112" s="44"/>
     </row>
-    <row r="113" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -14866,7 +15589,7 @@
       <c r="G113" s="44"/>
       <c r="H113" s="44"/>
     </row>
-    <row r="114" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -14878,7 +15601,7 @@
       <c r="G114" s="44"/>
       <c r="H114" s="44"/>
     </row>
-    <row r="115" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -14890,7 +15613,7 @@
       <c r="G115" s="44"/>
       <c r="H115" s="44"/>
     </row>
-    <row r="116" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -14902,7 +15625,7 @@
       <c r="G116" s="44"/>
       <c r="H116" s="44"/>
     </row>
-    <row r="117" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -14914,7 +15637,7 @@
       <c r="G117" s="44"/>
       <c r="H117" s="44"/>
     </row>
-    <row r="118" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -14926,7 +15649,7 @@
       <c r="G118" s="44"/>
       <c r="H118" s="44"/>
     </row>
-    <row r="119" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -14938,7 +15661,7 @@
       <c r="G119" s="44"/>
       <c r="H119" s="44"/>
     </row>
-    <row r="120" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -14950,7 +15673,7 @@
       <c r="G120" s="44"/>
       <c r="H120" s="44"/>
     </row>
-    <row r="121" spans="1:8" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -14962,7 +15685,7 @@
       <c r="G121" s="44"/>
       <c r="H121" s="44"/>
     </row>
-    <row r="122" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -14974,7 +15697,7 @@
       <c r="G122" s="44"/>
       <c r="H122" s="44"/>
     </row>
-    <row r="123" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -14986,7 +15709,7 @@
       <c r="G123" s="44"/>
       <c r="H123" s="44"/>
     </row>
-    <row r="124" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -14998,7 +15721,7 @@
       <c r="G124" s="44"/>
       <c r="H124" s="44"/>
     </row>
-    <row r="125" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -15010,7 +15733,7 @@
       <c r="G125" s="44"/>
       <c r="H125" s="44"/>
     </row>
-    <row r="126" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -15022,7 +15745,7 @@
       <c r="G126" s="44"/>
       <c r="H126" s="44"/>
     </row>
-    <row r="127" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -15034,7 +15757,7 @@
       <c r="G127" s="44"/>
       <c r="H127" s="44"/>
     </row>
-    <row r="128" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -15046,7 +15769,7 @@
       <c r="G128" s="44"/>
       <c r="H128" s="44"/>
     </row>
-    <row r="129" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -15058,7 +15781,7 @@
       <c r="G129" s="44"/>
       <c r="H129" s="44"/>
     </row>
-    <row r="130" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="44" t="s">
         <v>5</v>
       </c>
@@ -15094,21 +15817,21 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="19.21875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="4"/>
+    <col min="2" max="2" width="19.1796875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="21.90625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" style="45" customWidth="1"/>
     <col min="8" max="8" width="21" style="45" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="94" t="s">
         <v>544</v>
       </c>
@@ -15124,7 +15847,7 @@
       <c r="I1" s="98"/>
       <c r="J1" s="99"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
@@ -15156,7 +15879,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="52" t="s">
         <v>4</v>
       </c>
@@ -15170,7 +15893,7 @@
       <c r="I3" s="51"/>
       <c r="J3" s="52"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
         <v>5</v>
       </c>
@@ -15200,7 +15923,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>5</v>
       </c>
@@ -15228,7 +15951,7 @@
       </c>
       <c r="J5" s="37"/>
     </row>
-    <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57" t="s">
         <v>5</v>
       </c>
@@ -15250,7 +15973,7 @@
       <c r="I6" s="57"/>
       <c r="J6" s="37"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
         <v>5</v>
       </c>
@@ -15274,7 +15997,7 @@
       <c r="I7" s="33"/>
       <c r="J7" s="37"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
         <v>5</v>
       </c>
@@ -15298,7 +16021,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="57" t="s">
         <v>5</v>
       </c>
@@ -15326,7 +16049,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="57" t="s">
         <v>5</v>
       </c>
@@ -15348,7 +16071,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="57" t="s">
         <v>5</v>
       </c>
@@ -15370,7 +16093,7 @@
       <c r="I11" s="36"/>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="57" t="s">
         <v>5</v>
       </c>
@@ -15412,22 +16135,22 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
-    <col min="2" max="3" width="16.44140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="45" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="45" customWidth="1"/>
     <col min="9" max="9" width="14" style="45" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" style="45" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="22.54296875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" style="45" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="45" customFormat="1" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="45" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="94" t="s">
         <v>527</v>
       </c>
@@ -15445,7 +16168,7 @@
       <c r="K1" s="95"/>
       <c r="L1" s="96"/>
     </row>
-    <row r="2" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -15483,7 +16206,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>827</v>
       </c>
@@ -15517,7 +16240,7 @@
       <c r="K3" s="46"/>
       <c r="L3" s="44"/>
     </row>
-    <row r="4" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>827</v>
       </c>
@@ -15551,7 +16274,7 @@
       <c r="K4" s="46"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>827</v>
       </c>
@@ -15585,7 +16308,7 @@
       <c r="K5" s="46"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>4</v>
       </c>
@@ -15601,7 +16324,7 @@
       <c r="K6" s="46"/>
       <c r="L6" s="40"/>
     </row>
-    <row r="7" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="89" t="s">
         <v>5</v>
       </c>
@@ -15639,7 +16362,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="89" t="s">
         <v>5</v>
       </c>
@@ -15673,7 +16396,7 @@
       <c r="K8" s="89"/>
       <c r="L8" s="89"/>
     </row>
-    <row r="9" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="89" t="s">
         <v>5</v>
       </c>
@@ -15725,21 +16448,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.21875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="45" customWidth="1"/>
-    <col min="3" max="10" width="9.21875" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="9.21875" style="45"/>
+    <col min="1" max="1" width="32.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="45" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="53" customFormat="1" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="53" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>505</v>
       </c>
       <c r="B1" s="99"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
@@ -15747,7 +16470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -15755,13 +16478,13 @@
         <v>835</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="46"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -15769,7 +16492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -15794,19 +16517,19 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="45" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" style="45" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="93" t="s">
         <v>512</v>
       </c>
@@ -15818,7 +16541,7 @@
       <c r="G1" s="93"/>
       <c r="H1" s="93"/>
     </row>
-    <row r="2" spans="1:8" s="53" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="53" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -15844,7 +16567,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>827</v>
       </c>
@@ -15866,7 +16589,7 @@
       <c r="G3" s="46"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:8" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>827</v>
       </c>
@@ -15888,7 +16611,7 @@
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
     </row>
-    <row r="5" spans="1:8" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>827</v>
       </c>
@@ -15910,7 +16633,7 @@
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
     </row>
-    <row r="6" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>4</v>
       </c>
@@ -15922,7 +16645,7 @@
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
     </row>
-    <row r="7" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="89" t="s">
         <v>5</v>
       </c>
@@ -15948,7 +16671,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="89" t="s">
         <v>5</v>
       </c>
@@ -15970,7 +16693,7 @@
       <c r="G8" s="89"/>
       <c r="H8" s="89"/>
     </row>
-    <row r="9" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="89" t="s">
         <v>5</v>
       </c>
@@ -16006,31 +16729,31 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="45" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="45" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.44140625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="45" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="45" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" style="45" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="45" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="45" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" style="45" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" style="45" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" style="45" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" style="45" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" style="45" customWidth="1"/>
     <col min="17" max="17" width="10" style="45" customWidth="1"/>
-    <col min="18" max="18" width="24.21875" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="94" t="s">
         <v>506</v>
       </c>
@@ -16054,7 +16777,7 @@
       <c r="Q1" s="100"/>
       <c r="R1" s="100"/>
     </row>
-    <row r="2" spans="1:18" s="53" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="53" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -16110,7 +16833,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="42" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="42" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>827</v>
       </c>
@@ -16162,7 +16885,7 @@
       <c r="Q3" s="46"/>
       <c r="R3" s="40"/>
     </row>
-    <row r="4" spans="1:18" s="42" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="42" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>827</v>
       </c>
@@ -16214,7 +16937,7 @@
       <c r="Q4" s="46"/>
       <c r="R4" s="40"/>
     </row>
-    <row r="5" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>827</v>
       </c>
@@ -16266,7 +16989,7 @@
       <c r="Q5" s="46"/>
       <c r="R5" s="46"/>
     </row>
-    <row r="6" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>827</v>
       </c>
@@ -16318,7 +17041,7 @@
       <c r="Q6" s="46"/>
       <c r="R6" s="46"/>
     </row>
-    <row r="7" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>827</v>
       </c>
@@ -16370,7 +17093,7 @@
       <c r="Q7" s="46"/>
       <c r="R7" s="46"/>
     </row>
-    <row r="8" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>827</v>
       </c>
@@ -16422,7 +17145,7 @@
       <c r="Q8" s="46"/>
       <c r="R8" s="46"/>
     </row>
-    <row r="9" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="46" t="s">
         <v>827</v>
       </c>
@@ -16474,7 +17197,7 @@
       <c r="Q9" s="46"/>
       <c r="R9" s="46"/>
     </row>
-    <row r="10" spans="1:18" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>827</v>
       </c>
@@ -16526,7 +17249,7 @@
       <c r="Q10" s="46"/>
       <c r="R10" s="46"/>
     </row>
-    <row r="11" spans="1:18" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
         <v>827</v>
       </c>
@@ -16578,7 +17301,7 @@
       <c r="Q11" s="46"/>
       <c r="R11" s="46"/>
     </row>
-    <row r="12" spans="1:18" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="46" t="s">
         <v>827</v>
       </c>
@@ -16630,7 +17353,7 @@
       <c r="Q12" s="46"/>
       <c r="R12" s="46"/>
     </row>
-    <row r="13" spans="1:18" s="42" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="42" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>4</v>
       </c>
@@ -16651,7 +17374,7 @@
       <c r="Q13" s="41"/>
       <c r="R13" s="40"/>
     </row>
-    <row r="14" spans="1:18" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="89" t="s">
         <v>5</v>
       </c>
@@ -16703,7 +17426,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="89" t="s">
         <v>5</v>
       </c>
@@ -16751,7 +17474,7 @@
       <c r="Q15" s="92"/>
       <c r="R15" s="89"/>
     </row>
-    <row r="16" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="89" t="s">
         <v>5</v>
       </c>
@@ -16799,7 +17522,7 @@
       <c r="Q16" s="92"/>
       <c r="R16" s="89"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="89" t="s">
         <v>5</v>
       </c>
@@ -16849,7 +17572,7 @@
       <c r="Q17" s="92"/>
       <c r="R17" s="89"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="89" t="s">
         <v>5</v>
       </c>
@@ -16899,7 +17622,7 @@
       <c r="Q18" s="92"/>
       <c r="R18" s="89"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="89" t="s">
         <v>5</v>
       </c>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrsubra\PycharmProjects\newpull\oci_tenancy\SetUpOCI_Via_TF\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_master\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="898">
   <si>
     <t>Region</t>
   </si>
@@ -6603,6 +6603,84 @@
   </si>
   <si>
     <t>nonprod-db-sl,nonprod-common-sl</t>
+  </si>
+  <si>
+    <t>VCN</t>
+  </si>
+  <si>
+    <t>NSG-LBR</t>
+  </si>
+  <si>
+    <t>EGRESS</t>
+  </si>
+  <si>
+    <t>NSG-App</t>
+  </si>
+  <si>
+    <t>HTTP egress rule for NSG-App.</t>
+  </si>
+  <si>
+    <t>INGRESS</t>
+  </si>
+  <si>
+    <t>CIDR_BLOCK</t>
+  </si>
+  <si>
+    <t>HTTPS ingress rule for 0.0.0.0/0.</t>
+  </si>
+  <si>
+    <t>20.0.0.0/8</t>
+  </si>
+  <si>
+    <t>HTTPS ingress rule for 20.0.0.0/8.</t>
+  </si>
+  <si>
+    <t>NSG-Bastion</t>
+  </si>
+  <si>
+    <t>SSH egress rule for NSG-App.</t>
+  </si>
+  <si>
+    <t>SSH ingress rule for 20.0.0.0/8.</t>
+  </si>
+  <si>
+    <t>30.0.0.0/8</t>
+  </si>
+  <si>
+    <t>SSH ingress rule for 30.0.0.0/8.</t>
+  </si>
+  <si>
+    <t>NSG-DB</t>
+  </si>
+  <si>
+    <t>SSH egress rule for NSG-DB.</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>oci-phx-objectstorage</t>
+  </si>
+  <si>
+    <t>OSN egress rule for oci-phx-objectstorage.</t>
+  </si>
+  <si>
+    <t>CISTEST.CreatedBy=oracleidentitycloudservice/suruchi.singla@oracle.com</t>
+  </si>
+  <si>
+    <t>NETWORK_SECURITY_GROUP</t>
+  </si>
+  <si>
+    <t>DB ingress rule for NSG-App.</t>
+  </si>
+  <si>
+    <t>SSH ingress rule for NSG-Bastion.</t>
+  </si>
+  <si>
+    <t>DB egress rule for NSG-DB.</t>
+  </si>
+  <si>
+    <t>HTTP ingress rule for NSG-LBR.</t>
   </si>
 </sst>
 </file>
@@ -7103,7 +7181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7311,6 +7389,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -7771,13 +7852,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="167.109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="167.08984375" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:1" ht="58.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="86" t="s">
         <v>543</v>
       </c>
@@ -7796,33 +7877,33 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" style="45" customWidth="1"/>
     <col min="5" max="5" width="16" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.77734375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="93" t="s">
         <v>514</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7868,40 +7949,40 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="45" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" style="45" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="93" t="s">
         <v>515</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -7964,54 +8045,54 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A9" zoomScale="91" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.08984375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="45" customWidth="1"/>
     <col min="11" max="11" width="19" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.08984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="93" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -8073,197 +8154,842 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:20" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>873</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>874</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44">
+        <v>80</v>
+      </c>
+      <c r="O3" s="44">
+        <v>80</v>
+      </c>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44" t="s">
+        <v>876</v>
+      </c>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+    </row>
+    <row r="4" spans="1:20" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>873</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>878</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44">
+        <v>443</v>
+      </c>
+      <c r="O4" s="44">
+        <v>443</v>
+      </c>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44" t="s">
+        <v>879</v>
+      </c>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+    </row>
+    <row r="5" spans="1:20" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>873</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="44" t="s">
+        <v>878</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>880</v>
+      </c>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44">
+        <v>443</v>
+      </c>
+      <c r="O5" s="44">
+        <v>443</v>
+      </c>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44" t="s">
+        <v>881</v>
+      </c>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+    </row>
+    <row r="6" spans="1:20" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>874</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44">
+        <v>22</v>
+      </c>
+      <c r="O6" s="44">
+        <v>22</v>
+      </c>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44" t="s">
+        <v>883</v>
+      </c>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+    </row>
+    <row r="7" spans="1:20" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>878</v>
+      </c>
+      <c r="I7" s="44" t="s">
+        <v>880</v>
+      </c>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44">
+        <v>22</v>
+      </c>
+      <c r="O7" s="44">
+        <v>22</v>
+      </c>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44" t="s">
+        <v>884</v>
+      </c>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+    </row>
+    <row r="8" spans="1:20" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>878</v>
+      </c>
+      <c r="I8" s="44" t="s">
+        <v>885</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44">
+        <v>22</v>
+      </c>
+      <c r="O8" s="44">
+        <v>22</v>
+      </c>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44" t="s">
+        <v>886</v>
+      </c>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+    </row>
+    <row r="9" spans="1:20" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>874</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>887</v>
+      </c>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44">
+        <v>22</v>
+      </c>
+      <c r="O9" s="44">
+        <v>22</v>
+      </c>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44" t="s">
+        <v>888</v>
+      </c>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+    </row>
+    <row r="10" spans="1:20" s="45" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>887</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>874</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44" t="s">
+        <v>889</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>890</v>
+      </c>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44">
+        <v>443</v>
+      </c>
+      <c r="O10" s="44">
+        <v>443</v>
+      </c>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44" t="s">
+        <v>891</v>
+      </c>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="45" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>887</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>893</v>
+      </c>
+      <c r="I11" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44">
+        <v>1521</v>
+      </c>
+      <c r="O11" s="44">
+        <v>1522</v>
+      </c>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44" t="s">
+        <v>894</v>
+      </c>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="45" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>887</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>893</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44">
+        <v>22</v>
+      </c>
+      <c r="O12" s="44">
+        <v>22</v>
+      </c>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44" t="s">
+        <v>895</v>
+      </c>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>874</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>887</v>
+      </c>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44">
+        <v>1521</v>
+      </c>
+      <c r="O13" s="44">
+        <v>1521</v>
+      </c>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44" t="s">
+        <v>896</v>
+      </c>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+    </row>
+    <row r="14" spans="1:20" s="45" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>874</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44" t="s">
+        <v>889</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>890</v>
+      </c>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44">
+        <v>443</v>
+      </c>
+      <c r="O14" s="44">
+        <v>443</v>
+      </c>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44" t="s">
+        <v>891</v>
+      </c>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+    </row>
+    <row r="15" spans="1:20" s="45" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>893</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>873</v>
+      </c>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44">
+        <v>80</v>
+      </c>
+      <c r="O15" s="44">
+        <v>80</v>
+      </c>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44" t="s">
+        <v>897</v>
+      </c>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+    </row>
+    <row r="16" spans="1:20" s="45" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>872</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>875</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>877</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>893</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>882</v>
+      </c>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44">
+        <v>22</v>
+      </c>
+      <c r="O16" s="44">
+        <v>22</v>
+      </c>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44" t="s">
+        <v>895</v>
+      </c>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+    </row>
+    <row r="17" spans="1:20" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
-    </row>
-    <row r="4" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+    </row>
+    <row r="18" spans="1:20" s="45" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B18" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C18" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D18" s="89" t="s">
         <v>422</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E18" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F18" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G18" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="46"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="46" t="s">
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="46" t="s">
+      <c r="K18" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="44" t="s">
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="90"/>
+      <c r="T18" s="45" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+    <row r="19" spans="1:20" s="45" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B19" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C19" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D19" s="89" t="s">
         <v>423</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E19" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F19" s="89" t="s">
         <v>424</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G19" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H19" s="89" t="s">
         <v>425</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I19" s="89" t="s">
         <v>422</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46">
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92">
         <v>22</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O19" s="92">
         <v>22</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="46"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="90"/>
+    </row>
+    <row r="20" spans="1:20" s="45" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B20" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C20" s="89" t="s">
         <v>405</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D20" s="89" t="s">
         <v>426</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E20" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F20" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G20" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="K6" s="43" t="s">
+      <c r="K20" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="46"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="92"/>
+      <c r="R20" s="90"/>
+    </row>
+    <row r="21" spans="1:20" s="45" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B21" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C21" s="89" t="s">
         <v>407</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D21" s="89" t="s">
         <v>427</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E21" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F21" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G21" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="H21" s="89" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I21" s="89" t="s">
         <v>499</v>
       </c>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46">
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92">
         <v>53</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O21" s="92">
         <v>53</v>
       </c>
-      <c r="P7" s="46"/>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8282,28 +9008,28 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="45" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:7" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="93" t="s">
         <v>525</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-    </row>
-    <row r="2" spans="1:7" s="53" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+    </row>
+    <row r="2" spans="1:7" s="53" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -8326,7 +9052,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -8337,7 +9063,7 @@
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -8360,7 +9086,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -8381,7 +9107,7 @@
       </c>
       <c r="G5" s="46"/>
     </row>
-    <row r="6" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
@@ -8418,49 +9144,49 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.77734375" style="45" customWidth="1"/>
-    <col min="10" max="10" width="22.109375" style="45" customWidth="1"/>
-    <col min="11" max="11" width="26.77734375" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="22.08984375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="26.81640625" style="45" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="45" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="45" customWidth="1"/>
-    <col min="14" max="14" width="19.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="45" customWidth="1"/>
-    <col min="16" max="16" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" style="45" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="101" t="s">
         <v>542</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="93" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="94" t="s">
         <v>653</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95"/>
-    </row>
-    <row r="2" spans="1:16" s="53" customFormat="1" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="96"/>
+    </row>
+    <row r="2" spans="1:16" s="53" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -8510,7 +9236,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -8530,7 +9256,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="46"/>
     </row>
-    <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -8578,7 +9304,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -8620,7 +9346,7 @@
       </c>
       <c r="P5" s="46"/>
     </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="55" t="s">
         <v>5</v>
       </c>
@@ -8662,7 +9388,7 @@
       <c r="O6" s="46"/>
       <c r="P6" s="46"/>
     </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="55" t="s">
         <v>5</v>
       </c>
@@ -8722,34 +9448,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
     <col min="2" max="2" width="23" style="45" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:10" ht="114.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>654</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="95"/>
-    </row>
-    <row r="2" spans="1:10" s="53" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="96"/>
+    </row>
+    <row r="2" spans="1:10" s="53" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -8781,7 +9507,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -8795,7 +9521,7 @@
       <c r="I3" s="46"/>
       <c r="J3" s="46"/>
     </row>
-    <row r="4" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -8827,7 +9553,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
@@ -8872,50 +9598,50 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="45" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="45" customWidth="1"/>
     <col min="7" max="7" width="15" style="45" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="45" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" style="45" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="45" customWidth="1"/>
     <col min="10" max="10" width="16" style="45" customWidth="1"/>
-    <col min="11" max="11" width="19.21875" style="45" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" style="45" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" style="45" customWidth="1"/>
-    <col min="14" max="14" width="17.109375" style="45" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="45" customWidth="1"/>
-    <col min="16" max="16" width="18.88671875" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="45" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="45" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="45" customWidth="1"/>
+    <col min="14" max="14" width="17.08984375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="45" customWidth="1"/>
+    <col min="16" max="16" width="18.90625" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="104" t="s">
         <v>532</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="107" t="s">
         <v>526</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-    </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -8968,7 +9694,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -8989,7 +9715,7 @@
       <c r="P3" s="46"/>
       <c r="Q3" s="46"/>
     </row>
-    <row r="4" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="57.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -9028,7 +9754,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="46"/>
       <c r="C5" s="30"/>
@@ -9053,7 +9779,7 @@
       <c r="P5" s="46"/>
       <c r="Q5" s="46"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -9077,7 +9803,7 @@
       <c r="P6" s="46"/>
       <c r="Q6" s="46"/>
     </row>
-    <row r="7" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
@@ -9110,7 +9836,7 @@
       <c r="P7" s="46"/>
       <c r="Q7" s="46"/>
     </row>
-    <row r="8" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
@@ -9149,7 +9875,7 @@
       </c>
       <c r="Q8" s="46"/>
     </row>
-    <row r="9" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
@@ -9186,7 +9912,7 @@
       <c r="P9" s="46"/>
       <c r="Q9" s="46"/>
     </row>
-    <row r="10" spans="1:17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
@@ -9237,41 +9963,41 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" style="45" customWidth="1"/>
     <col min="8" max="8" width="25" style="45" customWidth="1"/>
-    <col min="9" max="9" width="31.109375" style="45" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" style="45" customWidth="1"/>
-    <col min="13" max="13" width="28.21875" style="45" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.08984375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="28.1796875" style="45" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="93" t="s">
         <v>516</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-    </row>
-    <row r="2" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+    </row>
+    <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -9321,7 +10047,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>4</v>
       </c>
@@ -9341,7 +10067,7 @@
       <c r="O3" s="46"/>
       <c r="P3" s="46"/>
     </row>
-    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -9385,7 +10111,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -9409,7 +10135,7 @@
       <c r="O5" s="46"/>
       <c r="P5" s="46"/>
     </row>
-    <row r="6" spans="1:16" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
@@ -9470,49 +10196,49 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.21875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="45" customWidth="1"/>
     <col min="3" max="3" width="11" style="45" customWidth="1"/>
-    <col min="4" max="5" width="10.88671875" style="45" customWidth="1"/>
+    <col min="4" max="5" width="10.90625" style="45" customWidth="1"/>
     <col min="6" max="6" width="18" style="45" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" style="45" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="45" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="45" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="45" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="45" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="45" customWidth="1"/>
-    <col min="17" max="17" width="14.77734375" style="45" customWidth="1"/>
-    <col min="21" max="21" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="45" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" style="45" customWidth="1"/>
+    <col min="10" max="11" width="14.6328125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="45" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" style="45" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="45" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="45" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:21" ht="87.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>539</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="95"/>
-    </row>
-    <row r="2" spans="1:21" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="96"/>
+    </row>
+    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
@@ -9577,7 +10303,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -9602,7 +10328,7 @@
       <c r="T3" s="46"/>
       <c r="U3" s="46"/>
     </row>
-    <row r="4" spans="1:21" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -9665,7 +10391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -9708,7 +10434,7 @@
       <c r="T5" s="46"/>
       <c r="U5" s="46"/>
     </row>
-    <row r="6" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
@@ -9772,49 +10498,49 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.77734375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" style="45" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="45" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="45" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" style="45" customWidth="1"/>
-    <col min="14" max="16" width="13.77734375" style="45" customWidth="1"/>
-    <col min="17" max="17" width="21.109375" style="45" customWidth="1"/>
-    <col min="18" max="18" width="17.21875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="45" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="45" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" style="45" customWidth="1"/>
+    <col min="14" max="16" width="13.81640625" style="45" customWidth="1"/>
+    <col min="17" max="17" width="21.08984375" style="45" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>507</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="96" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="97" t="s">
         <v>535</v>
       </c>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="108"/>
-    </row>
-    <row r="2" spans="1:19" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="109"/>
+    </row>
+    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -9873,7 +10599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -9896,7 +10622,7 @@
       <c r="R3" s="46"/>
       <c r="S3" s="46"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -9929,7 +10655,7 @@
       </c>
       <c r="S4" s="46"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -9952,7 +10678,7 @@
       <c r="R5" s="46"/>
       <c r="S5" s="46"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
@@ -9975,7 +10701,7 @@
       <c r="R6" s="46"/>
       <c r="S6" s="46"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -9998,7 +10724,7 @@
       <c r="R7" s="46"/>
       <c r="S7" s="46"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
@@ -10021,7 +10747,7 @@
       <c r="R8" s="46"/>
       <c r="S8" s="46"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -10048,7 +10774,7 @@
       <c r="R9" s="46"/>
       <c r="S9" s="46"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="46"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -10077,7 +10803,7 @@
       <c r="R10" s="46"/>
       <c r="S10" s="46"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -10112,7 +10838,7 @@
       <c r="R11" s="46"/>
       <c r="S11" s="46"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -10147,7 +10873,7 @@
       <c r="R12" s="46"/>
       <c r="S12" s="46"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -10174,7 +10900,7 @@
       <c r="R13" s="46"/>
       <c r="S13" s="46"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="46"/>
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
@@ -10201,7 +10927,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
@@ -10226,7 +10952,7 @@
       <c r="R15" s="46"/>
       <c r="S15" s="46"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
@@ -10253,7 +10979,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -10278,7 +11004,7 @@
       <c r="R17" s="46"/>
       <c r="S17" s="46"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -10305,7 +11031,7 @@
       <c r="R18" s="46"/>
       <c r="S18" s="46"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -10326,7 +11052,7 @@
       <c r="R19" s="46"/>
       <c r="S19" s="46"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46" t="s">
@@ -10353,7 +11079,7 @@
       <c r="R20" s="46"/>
       <c r="S20" s="46"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -10376,7 +11102,7 @@
       <c r="R21" s="46"/>
       <c r="S21" s="46"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="46" t="s">
         <v>5</v>
       </c>
@@ -10407,7 +11133,7 @@
       <c r="R22" s="46"/>
       <c r="S22" s="46"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -10464,29 +11190,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" style="45" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="25.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="53" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:5" s="53" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="93" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
@@ -10503,7 +11229,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
@@ -10518,7 +11244,7 @@
       </c>
       <c r="E3" s="46"/>
     </row>
-    <row r="4" spans="1:5" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
         <v>5</v>
       </c>
@@ -10533,7 +11259,7 @@
       </c>
       <c r="E4" s="46"/>
     </row>
-    <row r="5" spans="1:5" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="45" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>5</v>
       </c>
@@ -10548,7 +11274,7 @@
       </c>
       <c r="E5" s="46"/>
     </row>
-    <row r="6" spans="1:5" s="45" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="45" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
@@ -10563,7 +11289,7 @@
       </c>
       <c r="E6" s="46"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>4</v>
       </c>
@@ -10572,7 +11298,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="46"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="89" t="s">
         <v>5</v>
       </c>
@@ -10585,7 +11311,7 @@
       <c r="D8" s="89"/>
       <c r="E8" s="89"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="89" t="s">
         <v>5</v>
       </c>
@@ -10600,7 +11326,7 @@
       </c>
       <c r="E9" s="89"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="89" t="s">
         <v>5</v>
       </c>
@@ -10615,7 +11341,7 @@
       </c>
       <c r="E10" s="89"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="89" t="s">
         <v>5</v>
       </c>
@@ -10628,7 +11354,7 @@
       <c r="D11" s="89"/>
       <c r="E11" s="89"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="89" t="s">
         <v>5</v>
       </c>
@@ -10643,7 +11369,7 @@
       </c>
       <c r="E12" s="89"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="89" t="s">
         <v>5</v>
       </c>
@@ -10658,7 +11384,7 @@
       </c>
       <c r="E13" s="89"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="89" t="s">
         <v>5</v>
       </c>
@@ -10673,7 +11399,7 @@
       </c>
       <c r="E14" s="89"/>
     </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="89" t="s">
         <v>5</v>
       </c>
@@ -10707,25 +11433,25 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" style="45" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="26.08984375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" style="45" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="53" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:6" s="53" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="110" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="111"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="112"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -10745,7 +11471,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -10755,7 +11481,7 @@
       <c r="E3" s="46"/>
       <c r="F3" s="46"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -10775,7 +11501,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
@@ -10789,7 +11515,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46" t="s">
@@ -10805,7 +11531,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>5</v>
       </c>
@@ -10846,40 +11572,40 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="45" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" style="45" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="45" customWidth="1"/>
     <col min="9" max="9" width="15" style="45" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="45" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="45" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="93" t="s">
         <v>538</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-    </row>
-    <row r="2" spans="1:16" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+    </row>
+    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -10929,7 +11655,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>4</v>
       </c>
@@ -10949,7 +11675,7 @@
       <c r="O3" s="46"/>
       <c r="P3" s="46"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
@@ -10991,7 +11717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46" t="s">
@@ -11019,7 +11745,7 @@
       <c r="O5" s="46"/>
       <c r="P5" s="46"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
@@ -11078,17 +11804,17 @@
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="35.109375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" style="45" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" style="45" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="35.08984375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>263</v>
       </c>
@@ -11108,7 +11834,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>228</v>
       </c>
@@ -11128,7 +11854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>232</v>
       </c>
@@ -11148,7 +11874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>212</v>
       </c>
@@ -11168,7 +11894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>205</v>
       </c>
@@ -11186,7 +11912,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>225</v>
       </c>
@@ -11199,7 +11925,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>237</v>
       </c>
@@ -11208,7 +11934,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>211</v>
       </c>
@@ -11216,7 +11942,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>216</v>
       </c>
@@ -11224,7 +11950,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>230</v>
       </c>
@@ -11232,7 +11958,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>235</v>
       </c>
@@ -11240,153 +11966,153 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="34" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="34" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="34" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="34" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="34" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="34" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="34" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="34" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="34" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="34" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="34" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="34" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="34" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="34" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="34" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="34" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="34" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="34" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="34" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="34" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="34" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="34" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="34" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="34" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="34" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="34" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="34" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="34" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="34" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -11403,34 +12129,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="45"/>
+    <col min="3" max="3" width="16.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="45"/>
     <col min="8" max="8" width="11" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="45"/>
+    <col min="9" max="9" width="13.90625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="113" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -11459,7 +12185,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="62" t="s">
         <v>4</v>
       </c>
@@ -11472,7 +12198,7 @@
       <c r="H3" s="46"/>
       <c r="I3" s="46"/>
     </row>
-    <row r="4" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>334</v>
       </c>
@@ -11502,7 +12228,7 @@
       </c>
       <c r="J4" s="58"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>334</v>
       </c>
@@ -11547,60 +12273,60 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="45" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="45" customWidth="1"/>
     <col min="2" max="2" width="14" style="45" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="45" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="45" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="45" customWidth="1"/>
-    <col min="8" max="8" width="27.5546875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="27.54296875" style="45" customWidth="1"/>
     <col min="9" max="9" width="13" style="45" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="45" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="66" customWidth="1"/>
-    <col min="12" max="13" width="20.5546875" style="45"/>
-    <col min="14" max="14" width="20.5546875" style="3"/>
-    <col min="15" max="17" width="20.5546875" style="45"/>
+    <col min="10" max="10" width="16.54296875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="66" customWidth="1"/>
+    <col min="12" max="13" width="20.54296875" style="45"/>
+    <col min="14" max="14" width="20.54296875" style="3"/>
+    <col min="15" max="17" width="20.54296875" style="45"/>
     <col min="18" max="18" width="23" style="45" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.5546875" style="45"/>
-    <col min="22" max="22" width="23.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="45" customWidth="1"/>
-    <col min="24" max="24" width="20.5546875" style="45"/>
-    <col min="25" max="25" width="23.109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.5546875" style="45"/>
+    <col min="19" max="21" width="20.54296875" style="45"/>
+    <col min="22" max="22" width="23.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="45" customWidth="1"/>
+    <col min="24" max="24" width="20.54296875" style="45"/>
+    <col min="25" max="25" width="23.08984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.54296875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="63" customFormat="1" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:24" s="63" customFormat="1" ht="135.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>659</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
-    </row>
-    <row r="2" spans="1:24" s="79" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="96"/>
+    </row>
+    <row r="2" spans="1:24" s="79" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
@@ -11674,7 +12400,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="55" t="s">
         <v>4</v>
       </c>
@@ -11702,7 +12428,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="46"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>334</v>
       </c>
@@ -11776,7 +12502,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
         <v>334</v>
       </c>
@@ -11890,67 +12616,67 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" style="66" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" style="66" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="45" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="45" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="45" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="45" customWidth="1"/>
-    <col min="24" max="24" width="15.21875" style="45" customWidth="1"/>
-    <col min="25" max="25" width="14.88671875" style="45" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.90625" style="45" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.08984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="45" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" style="45" customWidth="1"/>
+    <col min="25" max="25" width="14.90625" style="45" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42" style="45" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="45"/>
+    <col min="27" max="27" width="15.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="63" customFormat="1" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:24" s="63" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>660</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
-    </row>
-    <row r="2" spans="1:24" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="96"/>
+    </row>
+    <row r="2" spans="1:24" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
@@ -12024,7 +12750,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="55" t="s">
         <v>4</v>
       </c>
@@ -12052,7 +12778,7 @@
       <c r="W3" s="46"/>
       <c r="X3" s="46"/>
     </row>
-    <row r="4" spans="1:24" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>334</v>
       </c>
@@ -12126,7 +12852,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="64" t="s">
         <v>334</v>
       </c>
@@ -12241,65 +12967,65 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" style="66" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.90625" style="45" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="45" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="45" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="45" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.21875" style="45" customWidth="1"/>
-    <col min="24" max="25" width="14.5546875" style="45" customWidth="1"/>
-    <col min="26" max="26" width="15.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.77734375" style="45"/>
+    <col min="19" max="19" width="13.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.90625" style="45" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.08984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="45" customWidth="1"/>
+    <col min="24" max="25" width="14.54296875" style="45" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="63" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:24" s="63" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>661</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
-    </row>
-    <row r="2" spans="1:24" s="79" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="95"/>
+      <c r="V1" s="95"/>
+      <c r="W1" s="95"/>
+      <c r="X1" s="96"/>
+    </row>
+    <row r="2" spans="1:24" s="79" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="82" t="s">
         <v>0</v>
       </c>
@@ -12373,7 +13099,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="73" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="70" t="s">
         <v>4</v>
       </c>
@@ -12400,7 +13126,7 @@
       <c r="W3" s="69"/>
       <c r="X3" s="62"/>
     </row>
-    <row r="4" spans="1:24" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>5</v>
       </c>
@@ -12474,7 +13200,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="61"/>
       <c r="B5" s="58"/>
       <c r="C5" s="68"/>
@@ -12517,20 +13243,20 @@
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="45" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="45"/>
+    <col min="3" max="3" width="9.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.90625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" style="45" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" style="45" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="59" t="s">
         <v>360</v>
       </c>
@@ -12559,7 +13285,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.45">
       <c r="A2" s="46" t="s">
         <v>106</v>
       </c>
@@ -12588,7 +13314,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="46" t="s">
         <v>361</v>
       </c>
@@ -12617,7 +13343,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>362</v>
       </c>
@@ -12637,7 +13363,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>359</v>
       </c>
@@ -12657,7 +13383,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>363</v>
       </c>
@@ -12675,7 +13401,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>346</v>
       </c>
@@ -12693,7 +13419,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46" t="s">
@@ -12709,7 +13435,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46" t="s">
@@ -12725,7 +13451,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="46"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46" t="s">
@@ -12741,7 +13467,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46" t="s">
@@ -12757,7 +13483,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46" t="s">
@@ -12771,7 +13497,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46" t="s">
@@ -12785,7 +13511,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="46"/>
       <c r="B14" s="46"/>
       <c r="C14" s="46" t="s">
@@ -12799,472 +13525,472 @@
         <v>556</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I15" s="46" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I16" s="46" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I17" s="46" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I18" s="46" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19" s="46" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I20" s="46" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I21" s="46" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I22" s="46" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I23" s="46" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I24" s="46" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I25" s="46" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I26" s="46" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I27" s="46" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I28" s="46" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I29" s="46" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I30" s="46" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I31" s="46" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I32" s="46" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I33" s="46" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I34" s="46" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I35" s="46" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I36" s="46" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I37" s="46" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I38" s="46" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I39" s="46" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I40" s="46" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I41" s="46" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I42" s="46" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I43" s="46" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I44" s="46" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I45" s="46" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I46" s="46" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I47" s="46" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I48" s="46" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I49" s="46" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I50" s="46" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I51" s="46" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I52" s="46" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I53" s="46" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I54" s="46" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I55" s="46" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I56" s="46" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I57" s="46" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I58" s="46" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I59" s="46" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I60" s="46" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I61" s="46" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I62" s="46" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I63" s="46" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I64" s="46" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I65" s="46" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I66" s="46" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67" s="46" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I68" s="46" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I69" s="46" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I70" s="46" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I71" s="46" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I72" s="46" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I73" s="46" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I74" s="46" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I75" s="46" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I76" s="46" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I77" s="46" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I78" s="46" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I79" s="46" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I80" s="46" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I81" s="46" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I82" s="46" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I83" s="46" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I84" s="46" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I85" s="46" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I86" s="46" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I87" s="46" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I88" s="46" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I89" s="46" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I90" s="46" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I91" s="46" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I92" s="46" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I93" s="46" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I94" s="46" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I95" s="46" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I96" s="46" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I97" s="46" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I98" s="46" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I99" s="46" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I100" s="46" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I101" s="46" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I102" s="46" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I103" s="46" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I104" s="46" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I105" s="46" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I106" s="46" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I107" s="46" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I108" s="46" t="s">
         <v>650</v>
       </c>
@@ -13277,31 +14003,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" style="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="45" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="53" customFormat="1" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:5" s="53" customFormat="1" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="93" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -13318,7 +14044,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="45" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="45" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
@@ -13331,7 +14057,7 @@
       <c r="D3" s="44"/>
       <c r="E3" s="46"/>
     </row>
-    <row r="4" spans="1:5" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
         <v>5</v>
       </c>
@@ -13344,7 +14070,7 @@
       <c r="D4" s="44"/>
       <c r="E4" s="46"/>
     </row>
-    <row r="5" spans="1:5" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>5</v>
       </c>
@@ -13357,7 +14083,7 @@
       <c r="D5" s="44"/>
       <c r="E5" s="46"/>
     </row>
-    <row r="6" spans="1:5" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
@@ -13370,20 +14096,20 @@
       <c r="D6" s="44"/>
       <c r="E6" s="46"/>
     </row>
-    <row r="7" spans="1:5" s="45" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:5" s="45" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="91" t="s">
         <v>677</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="91" t="s">
         <v>678</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="58" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
         <v>5</v>
       </c>
@@ -13395,6 +14121,11 @@
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="81" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13409,34 +14140,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H130"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="45" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="45" customWidth="1"/>
     <col min="4" max="4" width="16" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="45" customWidth="1"/>
-    <col min="6" max="7" width="28.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.36328125" style="45" customWidth="1"/>
+    <col min="6" max="7" width="28.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="53" customFormat="1" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:8" s="53" customFormat="1" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="93" t="s">
         <v>511</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-    </row>
-    <row r="2" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+    </row>
+    <row r="2" spans="1:8" s="53" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -13462,7 +14193,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="45" customFormat="1" ht="61.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="45" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
@@ -13482,7 +14213,7 @@
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="44"/>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -13494,7 +14225,7 @@
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
     </row>
-    <row r="5" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44"/>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -13506,7 +14237,7 @@
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
     </row>
-    <row r="6" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
@@ -13518,7 +14249,7 @@
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
     </row>
-    <row r="7" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44"/>
       <c r="B7" s="44"/>
       <c r="C7" s="44"/>
@@ -13530,7 +14261,7 @@
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
     </row>
-    <row r="8" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="44"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
@@ -13542,7 +14273,7 @@
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
     </row>
-    <row r="9" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="44"/>
       <c r="B9" s="44"/>
       <c r="C9" s="44"/>
@@ -13554,7 +14285,7 @@
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="44"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
@@ -13566,7 +14297,7 @@
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
     </row>
-    <row r="11" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -13578,7 +14309,7 @@
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
     </row>
-    <row r="12" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="44"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -13590,7 +14321,7 @@
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
     </row>
-    <row r="13" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
@@ -13602,7 +14333,7 @@
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
     </row>
-    <row r="14" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
@@ -13614,7 +14345,7 @@
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
     </row>
-    <row r="15" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -13626,7 +14357,7 @@
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
     </row>
-    <row r="16" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -13638,7 +14369,7 @@
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
     </row>
-    <row r="17" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -13650,7 +14381,7 @@
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
     </row>
-    <row r="18" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -13662,7 +14393,7 @@
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
     </row>
-    <row r="19" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -13674,7 +14405,7 @@
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
     </row>
-    <row r="20" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
@@ -13686,7 +14417,7 @@
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
     </row>
-    <row r="21" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
@@ -13698,7 +14429,7 @@
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
     </row>
-    <row r="22" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="44"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
@@ -13710,7 +14441,7 @@
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
     </row>
-    <row r="23" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="44"/>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -13722,7 +14453,7 @@
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
     </row>
-    <row r="24" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
@@ -13734,7 +14465,7 @@
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
     </row>
-    <row r="25" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -13746,7 +14477,7 @@
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
     </row>
-    <row r="26" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
@@ -13758,7 +14489,7 @@
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
     </row>
-    <row r="27" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -13770,7 +14501,7 @@
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
     </row>
-    <row r="28" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="44" t="s">
         <v>5</v>
       </c>
@@ -13790,7 +14521,7 @@
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44"/>
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
@@ -13802,7 +14533,7 @@
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="44"/>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
@@ -13814,7 +14545,7 @@
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="44"/>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
@@ -13826,7 +14557,7 @@
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
     </row>
-    <row r="32" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="44"/>
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
@@ -13838,7 +14569,7 @@
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
     </row>
-    <row r="33" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
@@ -13850,7 +14581,7 @@
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
     </row>
-    <row r="34" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="44"/>
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
@@ -13862,7 +14593,7 @@
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
     </row>
-    <row r="35" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="44"/>
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
@@ -13874,7 +14605,7 @@
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
     </row>
-    <row r="36" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="44"/>
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
@@ -13886,7 +14617,7 @@
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
     </row>
-    <row r="37" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="44"/>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
@@ -13898,7 +14629,7 @@
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
     </row>
-    <row r="38" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="44"/>
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
@@ -13910,7 +14641,7 @@
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
     </row>
-    <row r="39" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="44" t="s">
         <v>5</v>
       </c>
@@ -13930,7 +14661,7 @@
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
     </row>
-    <row r="40" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="44"/>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
@@ -13942,7 +14673,7 @@
       <c r="G40" s="44"/>
       <c r="H40" s="44"/>
     </row>
-    <row r="41" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="44"/>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
@@ -13954,7 +14685,7 @@
       <c r="G41" s="44"/>
       <c r="H41" s="44"/>
     </row>
-    <row r="42" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="44"/>
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
@@ -13966,7 +14697,7 @@
       <c r="G42" s="44"/>
       <c r="H42" s="44"/>
     </row>
-    <row r="43" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="44"/>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
@@ -13978,7 +14709,7 @@
       <c r="G43" s="44"/>
       <c r="H43" s="44"/>
     </row>
-    <row r="44" spans="1:8" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="44"/>
       <c r="B44" s="44"/>
       <c r="C44" s="44"/>
@@ -13990,7 +14721,7 @@
       <c r="G44" s="44"/>
       <c r="H44" s="44"/>
     </row>
-    <row r="45" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="44"/>
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
@@ -14002,7 +14733,7 @@
       <c r="G45" s="44"/>
       <c r="H45" s="44"/>
     </row>
-    <row r="46" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="44"/>
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
@@ -14014,7 +14745,7 @@
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
     </row>
-    <row r="47" spans="1:8" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="44"/>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -14026,7 +14757,7 @@
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
     </row>
-    <row r="48" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="44"/>
       <c r="B48" s="44"/>
       <c r="C48" s="44"/>
@@ -14038,7 +14769,7 @@
       <c r="G48" s="44"/>
       <c r="H48" s="44"/>
     </row>
-    <row r="49" spans="1:8" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="44"/>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
@@ -14050,7 +14781,7 @@
       <c r="G49" s="44"/>
       <c r="H49" s="44"/>
     </row>
-    <row r="50" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="44"/>
       <c r="B50" s="44"/>
       <c r="C50" s="44"/>
@@ -14062,7 +14793,7 @@
       <c r="G50" s="44"/>
       <c r="H50" s="44"/>
     </row>
-    <row r="51" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="44"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -14074,7 +14805,7 @@
       <c r="G51" s="44"/>
       <c r="H51" s="44"/>
     </row>
-    <row r="52" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -14086,7 +14817,7 @@
       <c r="G52" s="44"/>
       <c r="H52" s="44"/>
     </row>
-    <row r="53" spans="1:8" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -14098,7 +14829,7 @@
       <c r="G53" s="44"/>
       <c r="H53" s="44"/>
     </row>
-    <row r="54" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -14110,7 +14841,7 @@
       <c r="G54" s="44"/>
       <c r="H54" s="44"/>
     </row>
-    <row r="55" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -14122,7 +14853,7 @@
       <c r="G55" s="44"/>
       <c r="H55" s="44"/>
     </row>
-    <row r="56" spans="1:8" s="45" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" s="45" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="44" t="s">
         <v>5</v>
       </c>
@@ -14142,7 +14873,7 @@
       <c r="G56" s="44"/>
       <c r="H56" s="44"/>
     </row>
-    <row r="57" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -14154,7 +14885,7 @@
       <c r="G57" s="44"/>
       <c r="H57" s="44"/>
     </row>
-    <row r="58" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -14166,7 +14897,7 @@
       <c r="G58" s="44"/>
       <c r="H58" s="44"/>
     </row>
-    <row r="59" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -14178,7 +14909,7 @@
       <c r="G59" s="44"/>
       <c r="H59" s="44"/>
     </row>
-    <row r="60" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -14190,7 +14921,7 @@
       <c r="G60" s="44"/>
       <c r="H60" s="44"/>
     </row>
-    <row r="61" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -14202,7 +14933,7 @@
       <c r="G61" s="44"/>
       <c r="H61" s="44"/>
     </row>
-    <row r="62" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -14214,7 +14945,7 @@
       <c r="G62" s="44"/>
       <c r="H62" s="44"/>
     </row>
-    <row r="63" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -14226,7 +14957,7 @@
       <c r="G63" s="44"/>
       <c r="H63" s="44"/>
     </row>
-    <row r="64" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -14238,7 +14969,7 @@
       <c r="G64" s="44"/>
       <c r="H64" s="44"/>
     </row>
-    <row r="65" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -14250,7 +14981,7 @@
       <c r="G65" s="44"/>
       <c r="H65" s="44"/>
     </row>
-    <row r="66" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -14262,7 +14993,7 @@
       <c r="G66" s="44"/>
       <c r="H66" s="44"/>
     </row>
-    <row r="67" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -14274,7 +15005,7 @@
       <c r="G67" s="44"/>
       <c r="H67" s="44"/>
     </row>
-    <row r="68" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -14286,7 +15017,7 @@
       <c r="G68" s="44"/>
       <c r="H68" s="44"/>
     </row>
-    <row r="69" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -14298,7 +15029,7 @@
       <c r="G69" s="44"/>
       <c r="H69" s="44"/>
     </row>
-    <row r="70" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -14310,7 +15041,7 @@
       <c r="G70" s="44"/>
       <c r="H70" s="44"/>
     </row>
-    <row r="71" spans="1:8" s="45" customFormat="1" ht="101.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="45" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="44" t="s">
         <v>5</v>
       </c>
@@ -14330,7 +15061,7 @@
       <c r="G71" s="44"/>
       <c r="H71" s="44"/>
     </row>
-    <row r="72" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -14342,7 +15073,7 @@
       <c r="G72" s="44"/>
       <c r="H72" s="44"/>
     </row>
-    <row r="73" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -14354,7 +15085,7 @@
       <c r="G73" s="44"/>
       <c r="H73" s="44"/>
     </row>
-    <row r="74" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -14366,7 +15097,7 @@
       <c r="G74" s="44"/>
       <c r="H74" s="44"/>
     </row>
-    <row r="75" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -14378,7 +15109,7 @@
       <c r="G75" s="44"/>
       <c r="H75" s="44"/>
     </row>
-    <row r="76" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -14390,7 +15121,7 @@
       <c r="G76" s="44"/>
       <c r="H76" s="44"/>
     </row>
-    <row r="77" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -14402,7 +15133,7 @@
       <c r="G77" s="44"/>
       <c r="H77" s="44"/>
     </row>
-    <row r="78" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -14414,7 +15145,7 @@
       <c r="G78" s="44"/>
       <c r="H78" s="44"/>
     </row>
-    <row r="79" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -14426,7 +15157,7 @@
       <c r="G79" s="44"/>
       <c r="H79" s="44"/>
     </row>
-    <row r="80" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -14438,7 +15169,7 @@
       <c r="G80" s="44"/>
       <c r="H80" s="44"/>
     </row>
-    <row r="81" spans="1:8" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -14450,7 +15181,7 @@
       <c r="G81" s="44"/>
       <c r="H81" s="44"/>
     </row>
-    <row r="82" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -14462,7 +15193,7 @@
       <c r="G82" s="44"/>
       <c r="H82" s="44"/>
     </row>
-    <row r="83" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -14474,7 +15205,7 @@
       <c r="G83" s="44"/>
       <c r="H83" s="44"/>
     </row>
-    <row r="84" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -14486,7 +15217,7 @@
       <c r="G84" s="44"/>
       <c r="H84" s="44"/>
     </row>
-    <row r="85" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -14498,7 +15229,7 @@
       <c r="G85" s="44"/>
       <c r="H85" s="44"/>
     </row>
-    <row r="86" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -14510,7 +15241,7 @@
       <c r="G86" s="44"/>
       <c r="H86" s="44"/>
     </row>
-    <row r="87" spans="1:8" s="45" customFormat="1" ht="101.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="45" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="44" t="s">
         <v>5</v>
       </c>
@@ -14530,7 +15261,7 @@
       <c r="G87" s="44"/>
       <c r="H87" s="44"/>
     </row>
-    <row r="88" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -14542,7 +15273,7 @@
       <c r="G88" s="44"/>
       <c r="H88" s="44"/>
     </row>
-    <row r="89" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -14554,7 +15285,7 @@
       <c r="G89" s="44"/>
       <c r="H89" s="44"/>
     </row>
-    <row r="90" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -14566,7 +15297,7 @@
       <c r="G90" s="44"/>
       <c r="H90" s="44"/>
     </row>
-    <row r="91" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -14578,7 +15309,7 @@
       <c r="G91" s="44"/>
       <c r="H91" s="44"/>
     </row>
-    <row r="92" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -14590,7 +15321,7 @@
       <c r="G92" s="44"/>
       <c r="H92" s="44"/>
     </row>
-    <row r="93" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -14602,7 +15333,7 @@
       <c r="G93" s="44"/>
       <c r="H93" s="44"/>
     </row>
-    <row r="94" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -14614,7 +15345,7 @@
       <c r="G94" s="44"/>
       <c r="H94" s="44"/>
     </row>
-    <row r="95" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -14626,7 +15357,7 @@
       <c r="G95" s="44"/>
       <c r="H95" s="44"/>
     </row>
-    <row r="96" spans="1:8" s="45" customFormat="1" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="45" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="44" t="s">
         <v>5</v>
       </c>
@@ -14646,7 +15377,7 @@
       <c r="G96" s="44"/>
       <c r="H96" s="44"/>
     </row>
-    <row r="97" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -14658,7 +15389,7 @@
       <c r="G97" s="44"/>
       <c r="H97" s="44"/>
     </row>
-    <row r="98" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -14670,7 +15401,7 @@
       <c r="G98" s="44"/>
       <c r="H98" s="44"/>
     </row>
-    <row r="99" spans="1:8" s="45" customFormat="1" ht="101.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="45" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="44" t="s">
         <v>5</v>
       </c>
@@ -14690,7 +15421,7 @@
       <c r="G99" s="44"/>
       <c r="H99" s="44"/>
     </row>
-    <row r="100" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -14702,7 +15433,7 @@
       <c r="G100" s="44"/>
       <c r="H100" s="44"/>
     </row>
-    <row r="101" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -14714,7 +15445,7 @@
       <c r="G101" s="44"/>
       <c r="H101" s="44"/>
     </row>
-    <row r="102" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -14726,7 +15457,7 @@
       <c r="G102" s="44"/>
       <c r="H102" s="44"/>
     </row>
-    <row r="103" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -14738,7 +15469,7 @@
       <c r="G103" s="44"/>
       <c r="H103" s="44"/>
     </row>
-    <row r="104" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -14750,7 +15481,7 @@
       <c r="G104" s="44"/>
       <c r="H104" s="44"/>
     </row>
-    <row r="105" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -14762,7 +15493,7 @@
       <c r="G105" s="44"/>
       <c r="H105" s="44"/>
     </row>
-    <row r="106" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -14774,7 +15505,7 @@
       <c r="G106" s="44"/>
       <c r="H106" s="44"/>
     </row>
-    <row r="107" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -14786,7 +15517,7 @@
       <c r="G107" s="44"/>
       <c r="H107" s="44"/>
     </row>
-    <row r="108" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -14798,7 +15529,7 @@
       <c r="G108" s="44"/>
       <c r="H108" s="44"/>
     </row>
-    <row r="109" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -14810,7 +15541,7 @@
       <c r="G109" s="44"/>
       <c r="H109" s="44"/>
     </row>
-    <row r="110" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -14822,7 +15553,7 @@
       <c r="G110" s="44"/>
       <c r="H110" s="44"/>
     </row>
-    <row r="111" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -14834,7 +15565,7 @@
       <c r="G111" s="44"/>
       <c r="H111" s="44"/>
     </row>
-    <row r="112" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -14846,7 +15577,7 @@
       <c r="G112" s="44"/>
       <c r="H112" s="44"/>
     </row>
-    <row r="113" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -14858,7 +15589,7 @@
       <c r="G113" s="44"/>
       <c r="H113" s="44"/>
     </row>
-    <row r="114" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -14870,7 +15601,7 @@
       <c r="G114" s="44"/>
       <c r="H114" s="44"/>
     </row>
-    <row r="115" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -14882,7 +15613,7 @@
       <c r="G115" s="44"/>
       <c r="H115" s="44"/>
     </row>
-    <row r="116" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -14894,7 +15625,7 @@
       <c r="G116" s="44"/>
       <c r="H116" s="44"/>
     </row>
-    <row r="117" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -14906,7 +15637,7 @@
       <c r="G117" s="44"/>
       <c r="H117" s="44"/>
     </row>
-    <row r="118" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -14918,7 +15649,7 @@
       <c r="G118" s="44"/>
       <c r="H118" s="44"/>
     </row>
-    <row r="119" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -14930,7 +15661,7 @@
       <c r="G119" s="44"/>
       <c r="H119" s="44"/>
     </row>
-    <row r="120" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -14942,7 +15673,7 @@
       <c r="G120" s="44"/>
       <c r="H120" s="44"/>
     </row>
-    <row r="121" spans="1:8" s="45" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -14954,7 +15685,7 @@
       <c r="G121" s="44"/>
       <c r="H121" s="44"/>
     </row>
-    <row r="122" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -14966,7 +15697,7 @@
       <c r="G122" s="44"/>
       <c r="H122" s="44"/>
     </row>
-    <row r="123" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -14978,7 +15709,7 @@
       <c r="G123" s="44"/>
       <c r="H123" s="44"/>
     </row>
-    <row r="124" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -14990,7 +15721,7 @@
       <c r="G124" s="44"/>
       <c r="H124" s="44"/>
     </row>
-    <row r="125" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -15002,7 +15733,7 @@
       <c r="G125" s="44"/>
       <c r="H125" s="44"/>
     </row>
-    <row r="126" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -15014,7 +15745,7 @@
       <c r="G126" s="44"/>
       <c r="H126" s="44"/>
     </row>
-    <row r="127" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -15026,7 +15757,7 @@
       <c r="G127" s="44"/>
       <c r="H127" s="44"/>
     </row>
-    <row r="128" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -15038,7 +15769,7 @@
       <c r="G128" s="44"/>
       <c r="H128" s="44"/>
     </row>
-    <row r="129" spans="1:8" s="45" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" s="45" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -15050,7 +15781,7 @@
       <c r="G129" s="44"/>
       <c r="H129" s="44"/>
     </row>
-    <row r="130" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" s="45" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="44" t="s">
         <v>5</v>
       </c>
@@ -15086,37 +15817,37 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="19.21875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="45" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" style="4"/>
+    <col min="2" max="2" width="19.1796875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="21.90625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" style="45" customWidth="1"/>
     <col min="8" max="8" width="21" style="45" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>544</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="97" t="s">
         <v>541</v>
       </c>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="98"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="99"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
@@ -15148,7 +15879,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="52" t="s">
         <v>4</v>
       </c>
@@ -15162,7 +15893,7 @@
       <c r="I3" s="51"/>
       <c r="J3" s="52"/>
     </row>
-    <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
         <v>5</v>
       </c>
@@ -15192,7 +15923,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>5</v>
       </c>
@@ -15220,7 +15951,7 @@
       </c>
       <c r="J5" s="37"/>
     </row>
-    <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57" t="s">
         <v>5</v>
       </c>
@@ -15242,7 +15973,7 @@
       <c r="I6" s="57"/>
       <c r="J6" s="37"/>
     </row>
-    <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
         <v>5</v>
       </c>
@@ -15266,7 +15997,7 @@
       <c r="I7" s="33"/>
       <c r="J7" s="37"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
         <v>5</v>
       </c>
@@ -15290,7 +16021,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="37"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="57" t="s">
         <v>5</v>
       </c>
@@ -15318,7 +16049,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="57" t="s">
         <v>5</v>
       </c>
@@ -15340,7 +16071,7 @@
       <c r="I10" s="36"/>
       <c r="J10" s="37"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="57" t="s">
         <v>5</v>
       </c>
@@ -15362,7 +16093,7 @@
       <c r="I11" s="36"/>
       <c r="J11" s="37"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="57" t="s">
         <v>5</v>
       </c>
@@ -15404,40 +16135,40 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="45" customWidth="1"/>
-    <col min="2" max="3" width="16.44140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" style="45" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="45" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="45" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="21.54296875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="45" customWidth="1"/>
     <col min="9" max="9" width="14" style="45" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" style="45" customWidth="1"/>
-    <col min="11" max="11" width="26.44140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="22.54296875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" style="45" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="45" customFormat="1" ht="187.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:12" s="45" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>527</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="93" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="94" t="s">
         <v>528</v>
       </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="95"/>
-    </row>
-    <row r="2" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="96"/>
+    </row>
+    <row r="2" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -15475,7 +16206,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>827</v>
       </c>
@@ -15509,7 +16240,7 @@
       <c r="K3" s="46"/>
       <c r="L3" s="44"/>
     </row>
-    <row r="4" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>827</v>
       </c>
@@ -15543,7 +16274,7 @@
       <c r="K4" s="46"/>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>827</v>
       </c>
@@ -15577,7 +16308,7 @@
       <c r="K5" s="46"/>
       <c r="L5" s="40"/>
     </row>
-    <row r="6" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>4</v>
       </c>
@@ -15593,7 +16324,7 @@
       <c r="K6" s="46"/>
       <c r="L6" s="40"/>
     </row>
-    <row r="7" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="89" t="s">
         <v>5</v>
       </c>
@@ -15631,7 +16362,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="89" t="s">
         <v>5</v>
       </c>
@@ -15665,7 +16396,7 @@
       <c r="K8" s="89"/>
       <c r="L8" s="89"/>
     </row>
-    <row r="9" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="89" t="s">
         <v>5</v>
       </c>
@@ -15714,24 +16445,24 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.21875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="45" customWidth="1"/>
-    <col min="3" max="10" width="9.21875" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="9.21875" style="45"/>
+    <col min="1" max="1" width="32.1796875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="45" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="45" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="53" customFormat="1" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:2" s="53" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="93" t="s">
         <v>505</v>
       </c>
-      <c r="B1" s="98"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="99"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
@@ -15739,7 +16470,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -15747,13 +16478,13 @@
         <v>835</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="46"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -15761,7 +16492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -15786,31 +16517,31 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="45" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="45" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.54296875" style="45" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="93" t="s">
         <v>512</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-    </row>
-    <row r="2" spans="1:8" s="53" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+    </row>
+    <row r="2" spans="1:8" s="53" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -15836,7 +16567,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>827</v>
       </c>
@@ -15858,7 +16589,7 @@
       <c r="G3" s="46"/>
       <c r="H3" s="44"/>
     </row>
-    <row r="4" spans="1:8" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>827</v>
       </c>
@@ -15880,7 +16611,7 @@
       <c r="G4" s="46"/>
       <c r="H4" s="46"/>
     </row>
-    <row r="5" spans="1:8" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>827</v>
       </c>
@@ -15902,7 +16633,7 @@
       <c r="G5" s="46"/>
       <c r="H5" s="46"/>
     </row>
-    <row r="6" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>4</v>
       </c>
@@ -15914,75 +16645,75 @@
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
     </row>
-    <row r="7" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="89" t="s">
         <v>409</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="90" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="89" t="s">
         <v>400</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="89" t="s">
         <v>405</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-    </row>
-    <row r="9" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+    </row>
+    <row r="9" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="89" t="s">
         <v>401</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="89" t="s">
         <v>407</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="89" t="s">
         <v>410</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15997,56 +16728,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A6" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="45" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" style="45" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="45" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.44140625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="45" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="45" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" style="45" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="45" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" style="45" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="45" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" style="45" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" style="45" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" style="45" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" style="45" customWidth="1"/>
+    <col min="16" max="16" width="14.08984375" style="45" customWidth="1"/>
     <col min="17" max="17" width="10" style="45" customWidth="1"/>
-    <col min="18" max="18" width="24.21875" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="100" t="s">
         <v>513</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-    </row>
-    <row r="2" spans="1:18" s="53" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+    </row>
+    <row r="2" spans="1:18" s="53" customFormat="1" ht="59.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -16102,7 +16833,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="42" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" s="42" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>827</v>
       </c>
@@ -16154,7 +16885,7 @@
       <c r="Q3" s="46"/>
       <c r="R3" s="40"/>
     </row>
-    <row r="4" spans="1:18" s="42" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" s="42" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="46" t="s">
         <v>827</v>
       </c>
@@ -16206,7 +16937,7 @@
       <c r="Q4" s="46"/>
       <c r="R4" s="40"/>
     </row>
-    <row r="5" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
         <v>827</v>
       </c>
@@ -16258,7 +16989,7 @@
       <c r="Q5" s="46"/>
       <c r="R5" s="46"/>
     </row>
-    <row r="6" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>827</v>
       </c>
@@ -16310,7 +17041,7 @@
       <c r="Q6" s="46"/>
       <c r="R6" s="46"/>
     </row>
-    <row r="7" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="46" t="s">
         <v>827</v>
       </c>
@@ -16362,7 +17093,7 @@
       <c r="Q7" s="46"/>
       <c r="R7" s="46"/>
     </row>
-    <row r="8" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="46" t="s">
         <v>827</v>
       </c>
@@ -16414,7 +17145,7 @@
       <c r="Q8" s="46"/>
       <c r="R8" s="46"/>
     </row>
-    <row r="9" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="45" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="46" t="s">
         <v>827</v>
       </c>
@@ -16466,7 +17197,7 @@
       <c r="Q9" s="46"/>
       <c r="R9" s="46"/>
     </row>
-    <row r="10" spans="1:18" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>827</v>
       </c>
@@ -16518,7 +17249,7 @@
       <c r="Q10" s="46"/>
       <c r="R10" s="46"/>
     </row>
-    <row r="11" spans="1:18" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="46" t="s">
         <v>827</v>
       </c>
@@ -16570,7 +17301,7 @@
       <c r="Q11" s="46"/>
       <c r="R11" s="46"/>
     </row>
-    <row r="12" spans="1:18" s="45" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="45" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="46" t="s">
         <v>827</v>
       </c>
@@ -16622,7 +17353,7 @@
       <c r="Q12" s="46"/>
       <c r="R12" s="46"/>
     </row>
-    <row r="13" spans="1:18" s="42" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="42" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="40" t="s">
         <v>4</v>
       </c>
@@ -16643,7 +17374,7 @@
       <c r="Q13" s="41"/>
       <c r="R13" s="40"/>
     </row>
-    <row r="14" spans="1:18" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="89" t="s">
         <v>5</v>
       </c>
@@ -16675,27 +17406,27 @@
       <c r="K14" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="91" t="s">
+      <c r="L14" s="92" t="s">
         <v>412</v>
       </c>
-      <c r="M14" s="91" t="s">
+      <c r="M14" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="91" t="s">
+      <c r="N14" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="91" t="s">
+      <c r="O14" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="91" t="s">
+      <c r="P14" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="Q14" s="91"/>
+      <c r="Q14" s="92"/>
       <c r="R14" s="90" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="89" t="s">
         <v>5</v>
       </c>
@@ -16725,25 +17456,25 @@
       <c r="K15" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="91" t="s">
+      <c r="L15" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="M15" s="91" t="s">
+      <c r="M15" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="91" t="s">
+      <c r="N15" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="91" t="s">
+      <c r="O15" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="91" t="s">
+      <c r="P15" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="Q15" s="91"/>
+      <c r="Q15" s="92"/>
       <c r="R15" s="89"/>
     </row>
-    <row r="16" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="89" t="s">
         <v>5</v>
       </c>
@@ -16773,25 +17504,25 @@
       <c r="K16" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="91" t="s">
+      <c r="M16" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="N16" s="91" t="s">
+      <c r="N16" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="91" t="s">
+      <c r="O16" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="Q16" s="91"/>
+      <c r="Q16" s="92"/>
       <c r="R16" s="89"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="89" t="s">
         <v>5</v>
       </c>
@@ -16823,25 +17554,25 @@
       <c r="K17" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="91" t="s">
+      <c r="L17" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="91" t="s">
+      <c r="M17" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="91" t="s">
+      <c r="N17" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="91" t="s">
+      <c r="O17" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="P17" s="91" t="s">
+      <c r="P17" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="Q17" s="91"/>
+      <c r="Q17" s="92"/>
       <c r="R17" s="89"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="89" t="s">
         <v>5</v>
       </c>
@@ -16873,25 +17604,25 @@
       <c r="K18" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="91" t="s">
+      <c r="L18" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="91" t="s">
+      <c r="M18" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="91" t="s">
+      <c r="N18" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="91" t="s">
+      <c r="O18" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="P18" s="91" t="s">
+      <c r="P18" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="Q18" s="91"/>
+      <c r="Q18" s="92"/>
       <c r="R18" s="89"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="89" t="s">
         <v>5</v>
       </c>
@@ -16923,22 +17654,22 @@
       <c r="K19" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="91" t="s">
+      <c r="L19" s="92" t="s">
         <v>412</v>
       </c>
-      <c r="M19" s="91" t="s">
+      <c r="M19" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="N19" s="91" t="s">
+      <c r="N19" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="91" t="s">
+      <c r="O19" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="91" t="s">
+      <c r="P19" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="91"/>
+      <c r="Q19" s="92"/>
       <c r="R19" s="89"/>
     </row>
   </sheetData>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22990" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1833" uniqueCount="917">
   <si>
     <t>Region</t>
   </si>
@@ -6642,9 +6642,6 @@
   </si>
   <si>
     <t>OSN egress rule for oci-phx-objectstorage.</t>
-  </si>
-  <si>
-    <t>CISTEST.CreatedBy=oracleidentitycloudservice/suruchi.singla@oracle.com</t>
   </si>
   <si>
     <t>NETWORK_SECURITY_GROUP</t>
@@ -7898,7 +7895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8097,8 +8094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C16"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8526,7 +8523,7 @@
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
     </row>
-    <row r="10" spans="1:20" s="40" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>5</v>
       </c>
@@ -8570,11 +8567,9 @@
         <v>884</v>
       </c>
       <c r="S10" s="39"/>
-      <c r="T10" s="39" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" s="40" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="T10" s="39"/>
+    </row>
+    <row r="11" spans="1:20" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>5</v>
       </c>
@@ -8597,7 +8592,7 @@
         <v>82</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I11" s="39" t="s">
         <v>868</v>
@@ -8615,14 +8610,12 @@
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="S11" s="39"/>
-      <c r="T11" s="39" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" s="40" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="T11" s="39"/>
+    </row>
+    <row r="12" spans="1:20" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>5</v>
       </c>
@@ -8645,7 +8638,7 @@
         <v>82</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I12" s="39" t="s">
         <v>875</v>
@@ -8663,12 +8656,10 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="39" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="S12" s="39"/>
-      <c r="T12" s="39" t="s">
-        <v>885</v>
-      </c>
+      <c r="T12" s="39"/>
     </row>
     <row r="13" spans="1:20" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
@@ -8711,7 +8702,7 @@
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
       <c r="R13" s="39" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="S13" s="39"/>
       <c r="T13" s="39"/>
@@ -8785,7 +8776,7 @@
         <v>82</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I15" s="39" t="s">
         <v>866</v>
@@ -8803,7 +8794,7 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
       <c r="R15" s="39" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
@@ -8831,7 +8822,7 @@
         <v>82</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I16" s="39" t="s">
         <v>875</v>
@@ -8849,7 +8840,7 @@
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="39" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="S16" s="39"/>
       <c r="T16" s="39"/>
@@ -14177,10 +14168,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="39" t="s">
+        <v>890</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>891</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>892</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
@@ -14261,16 +14252,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>441</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>893</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>894</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>895</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -14494,7 +14485,7 @@
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
@@ -14506,7 +14497,7 @@
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
@@ -14614,7 +14605,7 @@
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
@@ -14766,7 +14757,7 @@
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
       <c r="E43" s="39" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39"/>
@@ -15058,7 +15049,7 @@
       <c r="C66" s="39"/>
       <c r="D66" s="39"/>
       <c r="E66" s="39" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
@@ -15190,7 +15181,7 @@
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
       <c r="E77" s="39" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F77" s="39"/>
       <c r="G77" s="39"/>
@@ -15402,7 +15393,7 @@
       <c r="C94" s="39"/>
       <c r="D94" s="39"/>
       <c r="E94" s="39" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F94" s="39"/>
       <c r="G94" s="39"/>
@@ -15530,7 +15521,7 @@
       <c r="C104" s="39"/>
       <c r="D104" s="39"/>
       <c r="E104" s="39" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F104" s="39"/>
       <c r="G104" s="39"/>
@@ -15541,16 +15532,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="39" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C105" s="39" t="s">
         <v>441</v>
       </c>
       <c r="D105" s="39" t="s">
+        <v>904</v>
+      </c>
+      <c r="E105" s="39" t="s">
         <v>905</v>
-      </c>
-      <c r="E105" s="39" t="s">
-        <v>906</v>
       </c>
       <c r="F105" s="39"/>
       <c r="G105" s="39"/>
@@ -16042,16 +16033,16 @@
         <v>441</v>
       </c>
       <c r="C3" s="88" t="s">
+        <v>906</v>
+      </c>
+      <c r="D3" s="39" t="s">
         <v>907</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="E3" s="39" t="s">
         <v>908</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="39" t="s">
         <v>909</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>910</v>
       </c>
       <c r="G3" s="39" t="b">
         <v>1</v>
@@ -16061,7 +16052,7 @@
         <v>441</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -16072,16 +16063,16 @@
         <v>441</v>
       </c>
       <c r="C4" s="88" t="s">
+        <v>906</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>907</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>908</v>
-      </c>
       <c r="E4" s="39" t="s">
+        <v>911</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>912</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>913</v>
       </c>
       <c r="G4" s="39" t="b">
         <v>0</v>
@@ -16091,7 +16082,7 @@
         <v>441</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -16799,7 +16790,7 @@
         <v>41</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="39"/>
@@ -16821,7 +16812,7 @@
         <v>41</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
@@ -16843,7 +16834,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUSINGLA\Desktop\Misc\CD3aaS\CD3 Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -466,9 +466,6 @@
     <t>FSS1</t>
   </si>
   <si>
-    <t>/fss1/</t>
-  </si>
-  <si>
     <t>20.20.20.20/32</t>
   </si>
   <si>
@@ -484,18 +481,12 @@
     <t>FSS2</t>
   </si>
   <si>
-    <t>/fss2/</t>
-  </si>
-  <si>
     <t>MT3</t>
   </si>
   <si>
     <t>FSS3</t>
   </si>
   <si>
-    <t>/fss3/</t>
-  </si>
-  <si>
     <t>11.0.0.0/8</t>
   </si>
   <si>
@@ -509,9 +500,6 @@
   </si>
   <si>
     <t>FSS4</t>
-  </si>
-  <si>
-    <t>/fss4/</t>
   </si>
   <si>
     <t>LBR Name</t>
@@ -6707,9 +6695,6 @@
     <t>Allow service osms to read instances in tenancy</t>
   </si>
   <si>
-    <t>Oracle Tags</t>
-  </si>
-  <si>
     <t>CIS compliant tag namespace</t>
   </si>
   <si>
@@ -6738,6 +6723,21 @@
   </si>
   <si>
     <t>nonprod-vcn.com</t>
+  </si>
+  <si>
+    <t>OracleTags</t>
+  </si>
+  <si>
+    <t>/fss1</t>
+  </si>
+  <si>
+    <t>/fss2</t>
+  </si>
+  <si>
+    <t>/fss3</t>
+  </si>
+  <si>
+    <t>/fss4</t>
   </si>
 </sst>
 </file>
@@ -7907,7 +7907,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="80" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -7939,7 +7939,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -7976,7 +7976,7 @@
         <v>64</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -8010,7 +8010,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -8079,7 +8079,7 @@
         <v>64</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -8117,7 +8117,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -8195,10 +8195,10 @@
         <v>64</v>
       </c>
       <c r="S2" s="72" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="T2" s="72" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
@@ -8206,19 +8206,19 @@
         <v>5</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G3" s="39" t="s">
         <v>82</v>
@@ -8226,10 +8226,10 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
@@ -8242,7 +8242,7 @@
       <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
       <c r="R3" s="39" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="S3" s="39"/>
       <c r="T3" s="39"/>
@@ -8252,25 +8252,25 @@
         <v>5</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D4" s="39" t="s">
+        <v>862</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>866</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>870</v>
-      </c>
       <c r="F4" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G4" s="39" t="s">
         <v>82</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="I4" s="39" t="s">
         <v>31</v>
@@ -8288,7 +8288,7 @@
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
       <c r="R4" s="39" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="S4" s="39"/>
       <c r="T4" s="39"/>
@@ -8298,28 +8298,28 @@
         <v>5</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D5" s="39" t="s">
+        <v>862</v>
+      </c>
+      <c r="E5" s="39" t="s">
         <v>866</v>
       </c>
-      <c r="E5" s="39" t="s">
-        <v>870</v>
-      </c>
       <c r="F5" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G5" s="39" t="s">
         <v>82</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
@@ -8334,7 +8334,7 @@
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
       <c r="R5" s="39" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="S5" s="39"/>
       <c r="T5" s="39"/>
@@ -8344,19 +8344,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>82</v>
@@ -8364,10 +8364,10 @@
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
       <c r="J6" s="39" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -8380,7 +8380,7 @@
       <c r="P6" s="39"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="39" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="S6" s="39"/>
       <c r="T6" s="39"/>
@@ -8390,28 +8390,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G7" s="39" t="s">
         <v>82</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
@@ -8426,7 +8426,7 @@
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
       <c r="R7" s="39" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="S7" s="39"/>
       <c r="T7" s="39"/>
@@ -8436,28 +8436,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G8" s="39" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
@@ -8472,7 +8472,7 @@
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="39" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
@@ -8482,19 +8482,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G9" s="39" t="s">
         <v>82</v>
@@ -8502,10 +8502,10 @@
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
       <c r="J9" s="39" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -8518,7 +8518,7 @@
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
       <c r="R9" s="39" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
@@ -8528,19 +8528,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G10" s="39" t="s">
         <v>82</v>
@@ -8548,10 +8548,10 @@
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
       <c r="J10" s="39" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
@@ -8564,7 +8564,7 @@
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
       <c r="R10" s="39" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
@@ -8574,28 +8574,28 @@
         <v>5</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>82</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
@@ -8610,7 +8610,7 @@
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
@@ -8620,28 +8620,28 @@
         <v>5</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G12" s="39" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
@@ -8656,7 +8656,7 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="39" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
@@ -8666,19 +8666,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G13" s="39" t="s">
         <v>82</v>
@@ -8686,10 +8686,10 @@
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
       <c r="J13" s="39" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
@@ -8702,7 +8702,7 @@
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
       <c r="R13" s="39" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="S13" s="39"/>
       <c r="T13" s="39"/>
@@ -8712,19 +8712,19 @@
         <v>5</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="F14" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G14" s="39" t="s">
         <v>82</v>
@@ -8732,10 +8732,10 @@
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
@@ -8748,7 +8748,7 @@
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
       <c r="R14" s="39" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
@@ -8758,28 +8758,28 @@
         <v>5</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="F15" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G15" s="39" t="s">
         <v>82</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
@@ -8794,7 +8794,7 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
       <c r="R15" s="39" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
@@ -8804,28 +8804,28 @@
         <v>5</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>82</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
@@ -8840,7 +8840,7 @@
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="39" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="S16" s="39"/>
       <c r="T16" s="39"/>
@@ -8874,13 +8874,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C18" s="83" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E18" s="83" t="s">
         <v>80</v>
@@ -8907,7 +8907,7 @@
       <c r="Q18" s="86"/>
       <c r="R18" s="84"/>
       <c r="T18" s="40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -8915,28 +8915,28 @@
         <v>5</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C19" s="83" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E19" s="83" t="s">
         <v>85</v>
       </c>
       <c r="F19" s="83" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G19" s="83" t="s">
         <v>82</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="I19" s="83" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J19" s="83"/>
       <c r="K19" s="83"/>
@@ -8957,13 +8957,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C20" s="83" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E20" s="83" t="s">
         <v>80</v>
@@ -8995,13 +8995,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C21" s="83" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E21" s="83" t="s">
         <v>85</v>
@@ -9016,7 +9016,7 @@
         <v>83</v>
       </c>
       <c r="I21" s="83" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J21" s="83"/>
       <c r="K21" s="83"/>
@@ -9061,7 +9061,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -9090,7 +9090,7 @@
         <v>90</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9109,7 +9109,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>91</v>
@@ -9124,7 +9124,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9132,7 +9132,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>93</v>
@@ -9153,7 +9153,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>95</v>
@@ -9165,7 +9165,7 @@
         <v>92</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G6" s="41"/>
     </row>
@@ -9207,7 +9207,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="97" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B1" s="98"/>
       <c r="C1" s="98"/>
@@ -9217,7 +9217,7 @@
       <c r="G1" s="98"/>
       <c r="H1" s="99"/>
       <c r="I1" s="90" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="J1" s="91"/>
       <c r="K1" s="91"/>
@@ -9238,7 +9238,7 @@
         <v>88</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>90</v>
@@ -9253,7 +9253,7 @@
         <v>97</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>89</v>
@@ -9265,7 +9265,7 @@
         <v>100</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>101</v>
@@ -9274,7 +9274,7 @@
         <v>102</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9302,47 +9302,47 @@
         <v>5</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" s="41" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G4" s="41" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K4" s="41" t="s">
         <v>107</v>
       </c>
       <c r="L4" s="50" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="M4" s="50" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="N4" s="41"/>
       <c r="O4" s="41" t="s">
         <v>95</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -9350,35 +9350,35 @@
         <v>5</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C5" s="41" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>108</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G5" s="41" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="41" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>107</v>
       </c>
       <c r="L5" s="41" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M5" s="41"/>
       <c r="N5" s="41"/>
@@ -9392,26 +9392,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G6" s="41" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="50"/>
       <c r="I6" s="41" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="J6" s="51" t="s">
         <v>109</v>
@@ -9420,11 +9420,11 @@
         <v>107</v>
       </c>
       <c r="L6" s="41" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M6" s="41"/>
       <c r="N6" s="41" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
@@ -9434,26 +9434,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>59</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E7" s="41" t="s">
         <v>108</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G7" s="41" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="41" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J7" s="51" t="s">
         <v>109</v>
@@ -9462,11 +9462,11 @@
         <v>107</v>
       </c>
       <c r="L7" s="41" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M7" s="41"/>
       <c r="N7" s="41" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="O7" s="41"/>
       <c r="P7" s="41"/>
@@ -9504,7 +9504,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -9542,10 +9542,10 @@
         <v>100</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9567,10 +9567,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D4" s="41">
         <v>150</v>
@@ -9579,19 +9579,19 @@
         <v>59</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>114</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -9599,10 +9599,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D5" s="41">
         <v>150</v>
@@ -9611,13 +9611,13 @@
         <v>59</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>114</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I5" s="50"/>
       <c r="J5" s="41"/>
@@ -9636,7 +9636,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9661,7 +9661,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="100" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -9671,7 +9671,7 @@
       <c r="G1" s="101"/>
       <c r="H1" s="102"/>
       <c r="I1" s="103" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J1" s="103"/>
       <c r="K1" s="103"/>
@@ -9732,7 +9732,7 @@
         <v>101</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
@@ -9761,7 +9761,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>94</v>
@@ -9770,7 +9770,7 @@
         <v>127</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30" t="s">
@@ -9780,7 +9780,7 @@
         <v>129</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>130</v>
+        <v>913</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -9789,10 +9789,10 @@
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="39" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q4" s="39" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -9805,13 +9805,13 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
+        <v>913</v>
+      </c>
+      <c r="J5" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="K5" s="30" t="s">
         <v>131</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>132</v>
       </c>
       <c r="L5" s="30"/>
       <c r="M5" s="30"/>
@@ -9829,13 +9829,13 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>130</v>
+        <v>913</v>
       </c>
       <c r="J6" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="30" t="s">
         <v>133</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>134</v>
       </c>
       <c r="L6" s="30"/>
       <c r="M6" s="30"/>
@@ -9849,7 +9849,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>94</v>
@@ -9858,15 +9858,15 @@
         <v>127</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>136</v>
+        <v>914</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -9882,37 +9882,37 @@
         <v>5</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>139</v>
+        <v>915</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="41" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="Q8" s="41"/>
     </row>
@@ -9921,30 +9921,30 @@
         <v>5</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>103</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I9" s="30" t="s">
+        <v>915</v>
+      </c>
+      <c r="J9" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>142</v>
-      </c>
       <c r="K9" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
@@ -9958,24 +9958,24 @@
         <v>5</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>145</v>
+        <v>916</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -10020,7 +10020,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="122.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -10046,46 +10046,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>101</v>
       </c>
       <c r="H2" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>155</v>
-      </c>
       <c r="N2" s="21" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -10113,43 +10113,43 @@
         <v>5</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F4" s="41" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
       <c r="L4" s="41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M4" s="39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N4" s="41" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="O4" s="70" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -10162,15 +10162,15 @@
       <c r="G5" s="41"/>
       <c r="H5" s="39"/>
       <c r="I5" s="41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
       <c r="L5" s="41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M5" s="39" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N5" s="41"/>
       <c r="O5" s="41"/>
@@ -10181,40 +10181,40 @@
         <v>5</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F6" s="41" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L6" s="41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M6" s="41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="41"/>
@@ -10256,7 +10256,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="87.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -10287,61 +10287,61 @@
         <v>6</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E2" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="J2" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="K2" s="42" t="s">
+        <v>536</v>
+      </c>
+      <c r="L2" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="M2" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="N2" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="O2" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="K2" s="42" t="s">
-        <v>540</v>
-      </c>
-      <c r="L2" s="42" t="s">
+      <c r="P2" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="Q2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="O2" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="P2" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>177</v>
-      </c>
       <c r="R2" s="34" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="S2" s="34" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="T2" s="34" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="U2" s="34" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -10374,44 +10374,44 @@
         <v>5</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="41" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I4" s="41">
         <v>80</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K4" s="41">
         <v>10000</v>
       </c>
       <c r="L4" s="41" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N4" s="41" t="b">
         <v>1</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P4" s="41" t="s">
         <v>24</v>
@@ -10420,10 +10420,10 @@
         <v>104</v>
       </c>
       <c r="R4" s="41" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="S4" s="71" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="T4" s="41">
         <v>2</v>
@@ -10437,19 +10437,19 @@
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I5" s="41">
         <v>443</v>
@@ -10457,10 +10457,10 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
       <c r="L5" s="41" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N5" s="41" t="b">
         <v>1</v>
@@ -10480,29 +10480,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G6" s="41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I6" s="41">
         <v>80</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K6" s="41"/>
       <c r="L6" s="41" t="s">
@@ -10558,7 +10558,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -10569,7 +10569,7 @@
       <c r="H1" s="91"/>
       <c r="I1" s="91"/>
       <c r="J1" s="93" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="K1" s="104"/>
       <c r="L1" s="104"/>
@@ -10586,55 +10586,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="O2" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="P2" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="R2" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="O2" s="34" t="s">
-        <v>534</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>28</v>
@@ -10668,16 +10668,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
@@ -10702,7 +10702,7 @@
       <c r="C5" s="41"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
@@ -10725,7 +10725,7 @@
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
       <c r="E6" s="41" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
@@ -10748,7 +10748,7 @@
       <c r="C7" s="41"/>
       <c r="D7" s="41"/>
       <c r="E7" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
@@ -10771,7 +10771,7 @@
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
       <c r="E8" s="41" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
@@ -10793,7 +10793,7 @@
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
       <c r="D9" s="41" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41" t="b">
@@ -10820,19 +10820,19 @@
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="41" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="H10" s="41" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="J10" s="41" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
@@ -10849,27 +10849,27 @@
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
       <c r="D11" s="41" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="H11" s="41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J11" s="41"/>
       <c r="K11" s="41" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L11" s="41"/>
       <c r="M11" s="41" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N11" s="41" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O11" s="41"/>
       <c r="P11" s="41">
@@ -10884,27 +10884,27 @@
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
       <c r="D12" s="41" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J12" s="41"/>
       <c r="K12" s="41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L12" s="41"/>
       <c r="M12" s="41" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N12" s="41" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O12" s="41"/>
       <c r="P12" s="41">
@@ -10919,7 +10919,7 @@
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
       <c r="D13" s="41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -10929,14 +10929,14 @@
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
       <c r="L13" s="41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="41" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="R13" s="41"/>
       <c r="S13" s="41"/>
@@ -10946,7 +10946,7 @@
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -10956,7 +10956,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="41"/>
       <c r="L14" s="41" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M14" s="41"/>
       <c r="N14" s="41"/>
@@ -10965,7 +10965,7 @@
       <c r="Q14" s="41"/>
       <c r="R14" s="41"/>
       <c r="S14" s="41" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -10973,7 +10973,7 @@
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
       <c r="D15" s="41" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
@@ -10983,7 +10983,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
       <c r="L15" s="41" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M15" s="41"/>
       <c r="N15" s="41"/>
@@ -10998,7 +10998,7 @@
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
@@ -11008,7 +11008,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="41"/>
       <c r="L16" s="41" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
@@ -11017,7 +11017,7 @@
       <c r="Q16" s="41"/>
       <c r="R16" s="41"/>
       <c r="S16" s="41" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -11025,7 +11025,7 @@
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
       <c r="D17" s="41" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -11035,7 +11035,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
       <c r="L17" s="41" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M17" s="41"/>
       <c r="N17" s="41"/>
@@ -11050,7 +11050,7 @@
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="41" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -11060,14 +11060,14 @@
       <c r="J18" s="41"/>
       <c r="K18" s="41"/>
       <c r="L18" s="41" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
       <c r="P18" s="41"/>
       <c r="Q18" s="41" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R18" s="41"/>
       <c r="S18" s="41"/>
@@ -11097,13 +11097,13 @@
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
@@ -11126,7 +11126,7 @@
       <c r="C21" s="41"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
@@ -11148,16 +11148,16 @@
         <v>5</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
@@ -11180,7 +11180,7 @@
       <c r="C23" s="41"/>
       <c r="D23" s="41"/>
       <c r="E23" s="41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
@@ -11246,7 +11246,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="48" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -11267,7 +11267,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11275,13 +11275,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E3" s="41"/>
     </row>
@@ -11290,13 +11290,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E4" s="41"/>
     </row>
@@ -11305,13 +11305,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E5" s="41"/>
     </row>
@@ -11320,13 +11320,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E6" s="41"/>
     </row>
@@ -11344,10 +11344,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D8" s="83"/>
       <c r="E8" s="83"/>
@@ -11357,13 +11357,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E9" s="83"/>
     </row>
@@ -11372,13 +11372,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C10" s="83" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E10" s="83"/>
     </row>
@@ -11387,10 +11387,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D11" s="83"/>
       <c r="E11" s="83"/>
@@ -11400,13 +11400,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>388</v>
+      </c>
+      <c r="D12" s="83" t="s">
         <v>386</v>
-      </c>
-      <c r="C12" s="83" t="s">
-        <v>392</v>
-      </c>
-      <c r="D12" s="83" t="s">
-        <v>390</v>
       </c>
       <c r="E12" s="83"/>
     </row>
@@ -11415,13 +11415,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E13" s="83"/>
     </row>
@@ -11430,13 +11430,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E14" s="83"/>
     </row>
@@ -11445,16 +11445,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D15" s="83" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E15" s="84" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -11484,7 +11484,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="48" customFormat="1" ht="44.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="106" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -11497,19 +11497,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -11527,19 +11527,19 @@
         <v>5</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -11547,29 +11547,29 @@
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
       <c r="D5" s="41" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -11577,19 +11577,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -11628,7 +11628,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -11651,49 +11651,49 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="L2" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>258</v>
-      </c>
       <c r="M2" s="34" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="O2" s="34" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="P2" s="34" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -11721,35 +11721,35 @@
         <v>5</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="41"/>
       <c r="I4" s="41" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
       <c r="L4" s="41"/>
       <c r="M4" s="41" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="N4" s="71" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="O4" s="41">
         <v>2</v>
@@ -11762,21 +11762,21 @@
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>24</v>
       </c>
       <c r="H5" s="41"/>
       <c r="I5" s="41" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
@@ -11791,31 +11791,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="J6" s="41" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K6" s="41">
         <v>80</v>
@@ -11857,36 +11857,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="F1" s="26" t="s">
         <v>264</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E2" s="25">
         <v>301</v>
@@ -11897,16 +11897,16 @@
     </row>
     <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E3" s="32">
         <v>302</v>
@@ -11917,16 +11917,16 @@
     </row>
     <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E4" s="32">
         <v>303</v>
@@ -11937,13 +11937,13 @@
     </row>
     <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5" s="32">
@@ -11955,10 +11955,10 @@
     </row>
     <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C6" s="24"/>
       <c r="E6" s="32">
@@ -11968,189 +11968,189 @@
     </row>
     <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="32" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="32" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="32" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="32" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="32" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="32" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="32" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="32" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="32" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="32" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="32" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="32" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="32" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="32" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="32" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="32" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="32" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="32" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="32" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="32" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="32" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="32" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="32" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="32" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="32" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="32" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="32" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12186,7 +12186,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="109" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B1" s="109"/>
       <c r="C1" s="109"/>
@@ -12205,25 +12205,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E2" s="74" t="s">
-        <v>330</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>333</v>
-      </c>
       <c r="I2" s="33" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -12241,19 +12241,19 @@
     </row>
     <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F4" s="41">
         <v>1</v>
@@ -12262,28 +12262,28 @@
         <v>1</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I4" s="75" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>443</v>
+      </c>
+      <c r="D5" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>384</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>447</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>338</v>
-      </c>
       <c r="E5" s="54" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F5" s="41">
         <v>1</v>
@@ -12292,7 +12292,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I5" s="50"/>
       <c r="J5" s="52"/>
@@ -12341,7 +12341,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="57" customFormat="1" ht="135.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -12381,64 +12381,64 @@
         <v>88</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F2" s="76" t="s">
         <v>89</v>
       </c>
       <c r="G2" s="76" t="s">
+        <v>445</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>447</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>448</v>
+      </c>
+      <c r="K2" s="77" t="s">
         <v>449</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="L2" s="76" t="s">
         <v>450</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="M2" s="76" t="s">
         <v>451</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="N2" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="O2" s="76" t="s">
         <v>453</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="P2" s="76" t="s">
         <v>454</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="Q2" s="76" t="s">
         <v>455</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="R2" s="76" t="s">
         <v>456</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="S2" s="76" t="s">
+        <v>337</v>
+      </c>
+      <c r="T2" s="76" t="s">
+        <v>338</v>
+      </c>
+      <c r="U2" s="76" t="s">
+        <v>339</v>
+      </c>
+      <c r="V2" s="76" t="s">
         <v>457</v>
       </c>
-      <c r="P2" s="76" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q2" s="76" t="s">
-        <v>459</v>
-      </c>
-      <c r="R2" s="76" t="s">
-        <v>460</v>
-      </c>
-      <c r="S2" s="76" t="s">
-        <v>341</v>
-      </c>
-      <c r="T2" s="76" t="s">
-        <v>342</v>
-      </c>
-      <c r="U2" s="76" t="s">
-        <v>343</v>
-      </c>
-      <c r="V2" s="76" t="s">
-        <v>461</v>
-      </c>
       <c r="W2" s="76" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X2" s="76" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -12471,55 +12471,55 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D4" s="58" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G4" s="58">
         <v>2</v>
       </c>
       <c r="H4" s="58" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I4" s="58">
         <v>256</v>
       </c>
       <c r="J4" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>460</v>
+      </c>
+      <c r="O4" s="58" t="s">
         <v>348</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="P4" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="L4" s="58" t="s">
-        <v>463</v>
-      </c>
-      <c r="M4" s="58" t="s">
+      <c r="Q4" s="58" t="s">
         <v>350</v>
-      </c>
-      <c r="N4" s="59" t="s">
-        <v>464</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q4" s="58" t="s">
-        <v>354</v>
       </c>
       <c r="R4" s="58" t="b">
         <v>1</v>
@@ -12528,72 +12528,72 @@
         <v>107</v>
       </c>
       <c r="T4" s="41" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="U4" s="41" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="V4" s="41">
         <v>15</v>
       </c>
       <c r="W4" s="41" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="X4" s="41" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="58" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G5" s="58">
         <v>1</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I5" s="58">
         <v>256</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K5" s="58" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L5" s="58" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="M5" s="58" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N5" s="59" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="O5" s="58" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="P5" s="58" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="58" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="R5" s="58" t="b">
         <v>0</v>
@@ -12602,19 +12602,19 @@
         <v>107</v>
       </c>
       <c r="T5" s="41" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="U5" s="41" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="V5" s="41">
         <v>15</v>
       </c>
       <c r="W5" s="41" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="X5" s="41" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -12691,7 +12691,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="57" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -12731,64 +12731,64 @@
         <v>88</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F2" s="76" t="s">
         <v>89</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H2" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>447</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>448</v>
+      </c>
+      <c r="K2" s="78" t="s">
+        <v>449</v>
+      </c>
+      <c r="L2" s="76" t="s">
         <v>450</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="M2" s="76" t="s">
         <v>451</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="N2" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="O2" s="76" t="s">
         <v>453</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="P2" s="76" t="s">
         <v>454</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="Q2" s="76" t="s">
         <v>455</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="R2" s="76" t="s">
         <v>456</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="S2" s="76" t="s">
+        <v>337</v>
+      </c>
+      <c r="T2" s="76" t="s">
+        <v>338</v>
+      </c>
+      <c r="U2" s="76" t="s">
+        <v>339</v>
+      </c>
+      <c r="V2" s="76" t="s">
         <v>457</v>
       </c>
-      <c r="P2" s="76" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q2" s="76" t="s">
-        <v>459</v>
-      </c>
-      <c r="R2" s="76" t="s">
-        <v>460</v>
-      </c>
-      <c r="S2" s="76" t="s">
-        <v>341</v>
-      </c>
-      <c r="T2" s="76" t="s">
-        <v>342</v>
-      </c>
-      <c r="U2" s="76" t="s">
-        <v>343</v>
-      </c>
-      <c r="V2" s="76" t="s">
-        <v>461</v>
-      </c>
       <c r="W2" s="76" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X2" s="79" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -12821,55 +12821,55 @@
     </row>
     <row r="4" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D4" s="58" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="58" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G4" s="58">
         <v>2</v>
       </c>
       <c r="H4" s="58" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I4" s="58">
         <v>256</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K4" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>466</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>366</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>367</v>
+      </c>
+      <c r="P4" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="L4" s="58" t="s">
-        <v>470</v>
-      </c>
-      <c r="M4" s="58" t="s">
-        <v>370</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>371</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>353</v>
-      </c>
       <c r="Q4" s="58" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="R4" s="58" t="b">
         <v>0</v>
@@ -12878,72 +12878,72 @@
         <v>107</v>
       </c>
       <c r="T4" s="41" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="U4" s="41" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="V4" s="41">
         <v>15</v>
       </c>
       <c r="W4" s="41" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="X4" s="39" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="58" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D5" s="58" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="58" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G5" s="58">
         <v>2</v>
       </c>
       <c r="H5" s="58" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="I5" s="58">
         <v>256</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K5" s="58" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L5" s="58" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M5" s="58" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N5" s="58" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="O5" s="58" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="P5" s="58" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="58" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="R5" s="58" t="b">
         <v>1</v>
@@ -12952,16 +12952,16 @@
         <v>107</v>
       </c>
       <c r="T5" s="41" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="U5" s="41" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="V5" s="41">
         <v>15</v>
       </c>
       <c r="W5" s="82" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="X5" s="41"/>
     </row>
@@ -13040,7 +13040,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="57" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -13080,64 +13080,64 @@
         <v>88</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F2" s="77" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G2" s="76" t="s">
         <v>89</v>
       </c>
       <c r="H2" s="76" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="I2" s="76" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J2" s="76" t="s">
+        <v>448</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>449</v>
+      </c>
+      <c r="L2" s="76" t="s">
+        <v>450</v>
+      </c>
+      <c r="M2" s="76" t="s">
+        <v>325</v>
+      </c>
+      <c r="N2" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="K2" s="77" t="s">
+      <c r="O2" s="76" t="s">
         <v>453</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="P2" s="76" t="s">
         <v>454</v>
       </c>
-      <c r="M2" s="76" t="s">
-        <v>329</v>
-      </c>
-      <c r="N2" s="76" t="s">
+      <c r="Q2" s="76" t="s">
+        <v>455</v>
+      </c>
+      <c r="R2" s="76" t="s">
         <v>456</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="S2" s="76" t="s">
+        <v>337</v>
+      </c>
+      <c r="T2" s="76" t="s">
+        <v>338</v>
+      </c>
+      <c r="U2" s="76" t="s">
+        <v>339</v>
+      </c>
+      <c r="V2" s="76" t="s">
         <v>457</v>
       </c>
-      <c r="P2" s="76" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q2" s="76" t="s">
-        <v>459</v>
-      </c>
-      <c r="R2" s="76" t="s">
-        <v>460</v>
-      </c>
-      <c r="S2" s="76" t="s">
-        <v>341</v>
-      </c>
-      <c r="T2" s="76" t="s">
-        <v>342</v>
-      </c>
-      <c r="U2" s="76" t="s">
-        <v>343</v>
-      </c>
-      <c r="V2" s="76" t="s">
-        <v>461</v>
-      </c>
       <c r="W2" s="76" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="X2" s="21" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="67" customFormat="1" x14ac:dyDescent="0.35">
@@ -13172,22 +13172,22 @@
         <v>5</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D4" s="58" t="s">
         <v>59</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H4" s="58">
         <v>2</v>
@@ -13196,28 +13196,28 @@
         <v>256</v>
       </c>
       <c r="J4" s="58" t="s">
+        <v>344</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>345</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>370</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>346</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>347</v>
+      </c>
+      <c r="O4" s="58" t="s">
         <v>348</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="P4" s="58" t="s">
         <v>349</v>
       </c>
-      <c r="L4" s="58" t="s">
-        <v>374</v>
-      </c>
-      <c r="M4" s="58" t="s">
+      <c r="Q4" s="58" t="s">
         <v>350</v>
-      </c>
-      <c r="N4" s="58" t="s">
-        <v>351</v>
-      </c>
-      <c r="O4" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="P4" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q4" s="58" t="s">
-        <v>354</v>
       </c>
       <c r="R4" s="58" t="b">
         <v>1</v>
@@ -13226,19 +13226,19 @@
         <v>107</v>
       </c>
       <c r="T4" s="41" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="U4" s="41" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="V4" s="41">
         <v>10</v>
       </c>
       <c r="W4" s="82" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="X4" s="39" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -13299,31 +13299,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E1" s="53" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G1" s="69" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H1" s="69" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I1" s="69" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.45">
@@ -13331,709 +13331,709 @@
         <v>106</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G2" s="58" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H2" s="81" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="41" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H3" s="81" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>366</v>
-      </c>
       <c r="C4" s="41" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D4" s="41"/>
       <c r="E4" s="41" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="I4" s="41" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D5" s="41"/>
       <c r="E5" s="41" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
       <c r="I5" s="41" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="41" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D6" s="41"/>
       <c r="E6" s="41" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
       <c r="I6" s="41" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B7" s="41"/>
       <c r="C7" s="41" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="I7" s="41" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D8" s="41"/>
       <c r="E8" s="41" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
       <c r="I8" s="41" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D9" s="41"/>
       <c r="E9" s="41" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="I9" s="41" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D10" s="41"/>
       <c r="E10" s="41" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="I10" s="41" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D11" s="41"/>
       <c r="E11" s="41" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="I11" s="41" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="I12" s="41" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="I13" s="41" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="I14" s="41" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I15" s="41" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I16" s="41" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I17" s="41" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I18" s="41" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19" s="41" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I20" s="41" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I21" s="41" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I22" s="41" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I23" s="41" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I24" s="41" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I25" s="41" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I26" s="41" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I27" s="41" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I28" s="41" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I29" s="41" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I30" s="41" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I31" s="41" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I32" s="41" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I33" s="41" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I34" s="41" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I35" s="41" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I36" s="41" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I37" s="41" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I38" s="41" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I39" s="41" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I40" s="41" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I41" s="41" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I42" s="41" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="43" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I43" s="41" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I44" s="41" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="45" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I45" s="41" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I46" s="41" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I47" s="41" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I48" s="41" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I49" s="41" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I50" s="41" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I51" s="41" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I52" s="41" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I53" s="41" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I54" s="41" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I55" s="41" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I56" s="41" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I57" s="41" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I58" s="41" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I59" s="41" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I60" s="41" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I61" s="41" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I62" s="41" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I63" s="41" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I64" s="41" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I65" s="41" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I66" s="41" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67" s="41" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I68" s="41" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I69" s="41" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I70" s="41" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I71" s="41" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I72" s="41" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I73" s="41" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I74" s="41" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I75" s="41" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I76" s="41" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I77" s="41" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I78" s="41" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I79" s="41" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I80" s="41" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I81" s="41" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I82" s="41" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I83" s="41" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I84" s="41" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I85" s="41" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I86" s="41" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I87" s="41" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I88" s="41" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I89" s="41" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I90" s="41" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I91" s="41" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I92" s="41" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I93" s="41" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I94" s="41" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I95" s="41" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I96" s="41" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I97" s="41" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I98" s="41" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I99" s="41" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I100" s="41" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I101" s="41" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I102" s="41" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I103" s="41" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I104" s="41" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I105" s="41" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I106" s="41" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I107" s="41" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I108" s="41" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -14061,7 +14061,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="48" customFormat="1" ht="105.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -14079,10 +14079,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -14090,10 +14090,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="41"/>
@@ -14103,10 +14103,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="41"/>
@@ -14116,10 +14116,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="41"/>
@@ -14129,10 +14129,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="41"/>
@@ -14142,10 +14142,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -14155,10 +14155,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
@@ -14168,10 +14168,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
@@ -14211,7 +14211,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="48" customFormat="1" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -14244,7 +14244,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="40" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.35">
@@ -14252,16 +14252,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -14272,16 +14272,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -14293,7 +14293,7 @@
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
       <c r="E5" s="39" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -14305,7 +14305,7 @@
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="39" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -14317,7 +14317,7 @@
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -14329,7 +14329,7 @@
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
@@ -14341,7 +14341,7 @@
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="39" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
@@ -14353,7 +14353,7 @@
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="39" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
@@ -14365,7 +14365,7 @@
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
@@ -14377,7 +14377,7 @@
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
@@ -14389,7 +14389,7 @@
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
@@ -14401,7 +14401,7 @@
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
@@ -14413,7 +14413,7 @@
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -14425,7 +14425,7 @@
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -14437,7 +14437,7 @@
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -14449,7 +14449,7 @@
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
@@ -14461,7 +14461,7 @@
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
@@ -14473,7 +14473,7 @@
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
@@ -14485,7 +14485,7 @@
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
@@ -14497,7 +14497,7 @@
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
@@ -14509,7 +14509,7 @@
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
@@ -14521,7 +14521,7 @@
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
@@ -14533,7 +14533,7 @@
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
@@ -14545,7 +14545,7 @@
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
@@ -14557,7 +14557,7 @@
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -14569,7 +14569,7 @@
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
@@ -14581,7 +14581,7 @@
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="39" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -14593,7 +14593,7 @@
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="39" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
@@ -14605,7 +14605,7 @@
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
@@ -14616,16 +14616,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
@@ -14637,7 +14637,7 @@
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
@@ -14649,7 +14649,7 @@
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
@@ -14661,7 +14661,7 @@
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="39" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
@@ -14673,7 +14673,7 @@
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
@@ -14685,7 +14685,7 @@
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
@@ -14697,7 +14697,7 @@
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
       <c r="E38" s="39" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
@@ -14709,7 +14709,7 @@
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
       <c r="E39" s="39" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
@@ -14721,7 +14721,7 @@
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
       <c r="E40" s="39" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F40" s="39"/>
       <c r="G40" s="39"/>
@@ -14733,7 +14733,7 @@
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="39" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
@@ -14745,7 +14745,7 @@
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
       <c r="E42" s="39" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F42" s="39"/>
       <c r="G42" s="39"/>
@@ -14757,7 +14757,7 @@
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
       <c r="E43" s="39" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39"/>
@@ -14768,16 +14768,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C44" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="39"/>
@@ -14789,7 +14789,7 @@
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
       <c r="E45" s="39" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="39"/>
@@ -14801,7 +14801,7 @@
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
@@ -14813,7 +14813,7 @@
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
       <c r="E47" s="39" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="39"/>
@@ -14825,7 +14825,7 @@
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
       <c r="E48" s="39" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F48" s="39"/>
       <c r="G48" s="39"/>
@@ -14837,7 +14837,7 @@
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
       <c r="E49" s="39" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
@@ -14849,7 +14849,7 @@
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
@@ -14861,7 +14861,7 @@
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
       <c r="E51" s="39" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
@@ -14873,7 +14873,7 @@
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
       <c r="E52" s="39" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
@@ -14885,7 +14885,7 @@
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
       <c r="E53" s="39" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
@@ -14897,7 +14897,7 @@
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="39" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
@@ -14909,7 +14909,7 @@
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="39" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
@@ -14921,7 +14921,7 @@
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
       <c r="E56" s="39" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
@@ -14933,7 +14933,7 @@
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
       <c r="E57" s="39" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
@@ -14945,7 +14945,7 @@
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
       <c r="E58" s="39" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
@@ -14957,7 +14957,7 @@
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
       <c r="E59" s="39" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
@@ -14969,7 +14969,7 @@
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="39" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
@@ -14980,16 +14980,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D61" s="39" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
@@ -15001,7 +15001,7 @@
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
       <c r="E62" s="39" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
@@ -15013,7 +15013,7 @@
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
       <c r="E63" s="39" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="F63" s="39"/>
       <c r="G63" s="39"/>
@@ -15025,7 +15025,7 @@
       <c r="C64" s="39"/>
       <c r="D64" s="39"/>
       <c r="E64" s="39" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="F64" s="39"/>
       <c r="G64" s="39"/>
@@ -15037,7 +15037,7 @@
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
       <c r="E65" s="39" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F65" s="39"/>
       <c r="G65" s="39"/>
@@ -15049,7 +15049,7 @@
       <c r="C66" s="39"/>
       <c r="D66" s="39"/>
       <c r="E66" s="39" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
@@ -15061,7 +15061,7 @@
       <c r="C67" s="39"/>
       <c r="D67" s="39"/>
       <c r="E67" s="39" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F67" s="39"/>
       <c r="G67" s="39"/>
@@ -15073,7 +15073,7 @@
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
       <c r="E68" s="39" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="F68" s="39"/>
       <c r="G68" s="39"/>
@@ -15085,7 +15085,7 @@
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
       <c r="E69" s="39" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F69" s="39"/>
       <c r="G69" s="39"/>
@@ -15097,7 +15097,7 @@
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
       <c r="E70" s="39" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="F70" s="39"/>
       <c r="G70" s="39"/>
@@ -15109,7 +15109,7 @@
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
       <c r="E71" s="39" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F71" s="39"/>
       <c r="G71" s="39"/>
@@ -15121,7 +15121,7 @@
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
       <c r="E72" s="39" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="F72" s="39"/>
       <c r="G72" s="39"/>
@@ -15133,7 +15133,7 @@
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
       <c r="E73" s="39" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F73" s="39"/>
       <c r="G73" s="39"/>
@@ -15145,7 +15145,7 @@
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
       <c r="E74" s="39" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="F74" s="39"/>
       <c r="G74" s="39"/>
@@ -15157,7 +15157,7 @@
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
       <c r="E75" s="39" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F75" s="39"/>
       <c r="G75" s="39"/>
@@ -15169,7 +15169,7 @@
       <c r="C76" s="39"/>
       <c r="D76" s="39"/>
       <c r="E76" s="39" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F76" s="39"/>
       <c r="G76" s="39"/>
@@ -15181,7 +15181,7 @@
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
       <c r="E77" s="39" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="F77" s="39"/>
       <c r="G77" s="39"/>
@@ -15192,16 +15192,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D78" s="39" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
@@ -15213,7 +15213,7 @@
       <c r="C79" s="39"/>
       <c r="D79" s="39"/>
       <c r="E79" s="39" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="F79" s="39"/>
       <c r="G79" s="39"/>
@@ -15225,7 +15225,7 @@
       <c r="C80" s="39"/>
       <c r="D80" s="39"/>
       <c r="E80" s="39" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="F80" s="39"/>
       <c r="G80" s="39"/>
@@ -15237,7 +15237,7 @@
       <c r="C81" s="39"/>
       <c r="D81" s="39"/>
       <c r="E81" s="39" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F81" s="39"/>
       <c r="G81" s="39"/>
@@ -15249,7 +15249,7 @@
       <c r="C82" s="39"/>
       <c r="D82" s="39"/>
       <c r="E82" s="39" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
@@ -15261,7 +15261,7 @@
       <c r="C83" s="39"/>
       <c r="D83" s="39"/>
       <c r="E83" s="39" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="F83" s="39"/>
       <c r="G83" s="39"/>
@@ -15273,7 +15273,7 @@
       <c r="C84" s="39"/>
       <c r="D84" s="39"/>
       <c r="E84" s="39" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F84" s="39"/>
       <c r="G84" s="39"/>
@@ -15285,7 +15285,7 @@
       <c r="C85" s="39"/>
       <c r="D85" s="39"/>
       <c r="E85" s="39" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F85" s="39"/>
       <c r="G85" s="39"/>
@@ -15297,7 +15297,7 @@
       <c r="C86" s="39"/>
       <c r="D86" s="39"/>
       <c r="E86" s="39" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F86" s="39"/>
       <c r="G86" s="39"/>
@@ -15309,7 +15309,7 @@
       <c r="C87" s="39"/>
       <c r="D87" s="39"/>
       <c r="E87" s="39" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F87" s="39"/>
       <c r="G87" s="39"/>
@@ -15321,7 +15321,7 @@
       <c r="C88" s="39"/>
       <c r="D88" s="39"/>
       <c r="E88" s="39" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="F88" s="39"/>
       <c r="G88" s="39"/>
@@ -15333,7 +15333,7 @@
       <c r="C89" s="39"/>
       <c r="D89" s="39"/>
       <c r="E89" s="39" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
@@ -15345,7 +15345,7 @@
       <c r="C90" s="39"/>
       <c r="D90" s="39"/>
       <c r="E90" s="39" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F90" s="39"/>
       <c r="G90" s="39"/>
@@ -15357,7 +15357,7 @@
       <c r="C91" s="39"/>
       <c r="D91" s="39"/>
       <c r="E91" s="39" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="F91" s="39"/>
       <c r="G91" s="39"/>
@@ -15369,7 +15369,7 @@
       <c r="C92" s="39"/>
       <c r="D92" s="39"/>
       <c r="E92" s="39" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="F92" s="39"/>
       <c r="G92" s="39"/>
@@ -15381,7 +15381,7 @@
       <c r="C93" s="39"/>
       <c r="D93" s="39"/>
       <c r="E93" s="39" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="F93" s="39"/>
       <c r="G93" s="39"/>
@@ -15393,7 +15393,7 @@
       <c r="C94" s="39"/>
       <c r="D94" s="39"/>
       <c r="E94" s="39" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F94" s="39"/>
       <c r="G94" s="39"/>
@@ -15404,16 +15404,16 @@
         <v>5</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D95" s="39" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="E95" s="39" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F95" s="39"/>
       <c r="G95" s="39"/>
@@ -15425,7 +15425,7 @@
       <c r="C96" s="39"/>
       <c r="D96" s="39"/>
       <c r="E96" s="39" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F96" s="39"/>
       <c r="G96" s="39"/>
@@ -15437,7 +15437,7 @@
       <c r="C97" s="39"/>
       <c r="D97" s="39"/>
       <c r="E97" s="39" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F97" s="39"/>
       <c r="G97" s="39"/>
@@ -15449,7 +15449,7 @@
       <c r="C98" s="39"/>
       <c r="D98" s="39"/>
       <c r="E98" s="39" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F98" s="39"/>
       <c r="G98" s="39"/>
@@ -15461,7 +15461,7 @@
       <c r="C99" s="39"/>
       <c r="D99" s="39"/>
       <c r="E99" s="39" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F99" s="39"/>
       <c r="G99" s="39"/>
@@ -15473,7 +15473,7 @@
       <c r="C100" s="39"/>
       <c r="D100" s="39"/>
       <c r="E100" s="39" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F100" s="39"/>
       <c r="G100" s="39"/>
@@ -15485,7 +15485,7 @@
       <c r="C101" s="39"/>
       <c r="D101" s="39"/>
       <c r="E101" s="39" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F101" s="39"/>
       <c r="G101" s="39"/>
@@ -15497,7 +15497,7 @@
       <c r="C102" s="39"/>
       <c r="D102" s="39"/>
       <c r="E102" s="39" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F102" s="39"/>
       <c r="G102" s="39"/>
@@ -15509,7 +15509,7 @@
       <c r="C103" s="39"/>
       <c r="D103" s="39"/>
       <c r="E103" s="39" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F103" s="39"/>
       <c r="G103" s="39"/>
@@ -15521,7 +15521,7 @@
       <c r="C104" s="39"/>
       <c r="D104" s="39"/>
       <c r="E104" s="39" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="F104" s="39"/>
       <c r="G104" s="39"/>
@@ -15532,16 +15532,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="39" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D105" s="39" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="E105" s="39" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="F105" s="39"/>
       <c r="G105" s="39"/>
@@ -15552,16 +15552,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="39" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C106" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D106" s="39" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="E106" s="39" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="F106" s="39"/>
       <c r="G106" s="39"/>
@@ -15573,7 +15573,7 @@
       <c r="C107" s="39"/>
       <c r="D107" s="39"/>
       <c r="E107" s="39" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="F107" s="39"/>
       <c r="G107" s="39"/>
@@ -15585,7 +15585,7 @@
       <c r="C108" s="39"/>
       <c r="D108" s="39"/>
       <c r="E108" s="39" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F108" s="39"/>
       <c r="G108" s="39"/>
@@ -15597,7 +15597,7 @@
       <c r="C109" s="39"/>
       <c r="D109" s="39"/>
       <c r="E109" s="39" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F109" s="39"/>
       <c r="G109" s="39"/>
@@ -15609,7 +15609,7 @@
       <c r="C110" s="39"/>
       <c r="D110" s="39"/>
       <c r="E110" s="39" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F110" s="39"/>
       <c r="G110" s="39"/>
@@ -15621,7 +15621,7 @@
       <c r="C111" s="39"/>
       <c r="D111" s="39"/>
       <c r="E111" s="39" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F111" s="39"/>
       <c r="G111" s="39"/>
@@ -15633,7 +15633,7 @@
       <c r="C112" s="39"/>
       <c r="D112" s="39"/>
       <c r="E112" s="39" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F112" s="39"/>
       <c r="G112" s="39"/>
@@ -15645,7 +15645,7 @@
       <c r="C113" s="39"/>
       <c r="D113" s="39"/>
       <c r="E113" s="39" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="F113" s="39"/>
       <c r="G113" s="39"/>
@@ -15657,7 +15657,7 @@
       <c r="C114" s="39"/>
       <c r="D114" s="39"/>
       <c r="E114" s="39" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F114" s="39"/>
       <c r="G114" s="39"/>
@@ -15669,7 +15669,7 @@
       <c r="C115" s="39"/>
       <c r="D115" s="39"/>
       <c r="E115" s="39" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="F115" s="39"/>
       <c r="G115" s="39"/>
@@ -15681,7 +15681,7 @@
       <c r="C116" s="39"/>
       <c r="D116" s="39"/>
       <c r="E116" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="F116" s="39"/>
       <c r="G116" s="39"/>
@@ -15693,7 +15693,7 @@
       <c r="C117" s="39"/>
       <c r="D117" s="39"/>
       <c r="E117" s="39" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F117" s="39"/>
       <c r="G117" s="39"/>
@@ -15705,7 +15705,7 @@
       <c r="C118" s="39"/>
       <c r="D118" s="39"/>
       <c r="E118" s="39" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F118" s="39"/>
       <c r="G118" s="39"/>
@@ -15717,7 +15717,7 @@
       <c r="C119" s="39"/>
       <c r="D119" s="39"/>
       <c r="E119" s="39" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F119" s="39"/>
       <c r="G119" s="39"/>
@@ -15729,7 +15729,7 @@
       <c r="C120" s="39"/>
       <c r="D120" s="39"/>
       <c r="E120" s="39" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F120" s="39"/>
       <c r="G120" s="39"/>
@@ -15741,7 +15741,7 @@
       <c r="C121" s="39"/>
       <c r="D121" s="39"/>
       <c r="E121" s="39" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F121" s="39"/>
       <c r="G121" s="39"/>
@@ -15753,7 +15753,7 @@
       <c r="C122" s="39"/>
       <c r="D122" s="39"/>
       <c r="E122" s="39" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F122" s="39"/>
       <c r="G122" s="39"/>
@@ -15765,7 +15765,7 @@
       <c r="C123" s="39"/>
       <c r="D123" s="39"/>
       <c r="E123" s="39" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F123" s="39"/>
       <c r="G123" s="39"/>
@@ -15777,7 +15777,7 @@
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
       <c r="E124" s="39" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F124" s="39"/>
       <c r="G124" s="39"/>
@@ -15789,7 +15789,7 @@
       <c r="C125" s="39"/>
       <c r="D125" s="39"/>
       <c r="E125" s="39" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F125" s="39"/>
       <c r="G125" s="39"/>
@@ -15801,7 +15801,7 @@
       <c r="C126" s="39"/>
       <c r="D126" s="39"/>
       <c r="E126" s="39" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F126" s="39"/>
       <c r="G126" s="39"/>
@@ -15813,7 +15813,7 @@
       <c r="C127" s="39"/>
       <c r="D127" s="39"/>
       <c r="E127" s="39" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F127" s="39"/>
       <c r="G127" s="39"/>
@@ -15825,7 +15825,7 @@
       <c r="C128" s="39"/>
       <c r="D128" s="39"/>
       <c r="E128" s="39" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="F128" s="39"/>
       <c r="G128" s="39"/>
@@ -15837,7 +15837,7 @@
       <c r="C129" s="39"/>
       <c r="D129" s="39"/>
       <c r="E129" s="39" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="F129" s="39"/>
       <c r="G129" s="39"/>
@@ -15849,7 +15849,7 @@
       <c r="C130" s="39"/>
       <c r="D130" s="39"/>
       <c r="E130" s="39" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F130" s="39"/>
       <c r="G130" s="39"/>
@@ -15861,7 +15861,7 @@
       <c r="C131" s="39"/>
       <c r="D131" s="39"/>
       <c r="E131" s="39" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="F131" s="39"/>
       <c r="G131" s="39"/>
@@ -15873,7 +15873,7 @@
       <c r="C132" s="39"/>
       <c r="D132" s="39"/>
       <c r="E132" s="39" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="F132" s="39"/>
       <c r="G132" s="39"/>
@@ -15885,7 +15885,7 @@
       <c r="C133" s="39"/>
       <c r="D133" s="39"/>
       <c r="E133" s="39" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="F133" s="39"/>
       <c r="G133" s="39"/>
@@ -15897,7 +15897,7 @@
       <c r="C134" s="39"/>
       <c r="D134" s="39"/>
       <c r="E134" s="39" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F134" s="39"/>
       <c r="G134" s="39"/>
@@ -15909,7 +15909,7 @@
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
       <c r="E135" s="39" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="F135" s="39"/>
       <c r="G135" s="39"/>
@@ -15921,7 +15921,7 @@
       <c r="C136" s="39"/>
       <c r="D136" s="39"/>
       <c r="E136" s="39" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="F136" s="39"/>
       <c r="G136" s="39"/>
@@ -15932,16 +15932,16 @@
         <v>5</v>
       </c>
       <c r="B137" s="39" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C137" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D137" s="39" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E137" s="39" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="F137" s="39"/>
       <c r="G137" s="39"/>
@@ -15960,7 +15960,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15979,7 +15979,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="131.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -15987,7 +15987,7 @@
       <c r="E1" s="91"/>
       <c r="F1" s="92"/>
       <c r="G1" s="93" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H1" s="94"/>
       <c r="I1" s="94"/>
@@ -16001,28 +16001,28 @@
         <v>6</v>
       </c>
       <c r="C2" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="44" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="H2" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="I2" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="J2" s="45" t="s">
         <v>306</v>
-      </c>
-      <c r="F2" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="H2" s="44" t="s">
-        <v>309</v>
-      </c>
-      <c r="I2" s="45" t="s">
-        <v>500</v>
-      </c>
-      <c r="J2" s="45" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16030,29 +16030,29 @@
         <v>5</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="G3" s="39" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -16060,29 +16060,29 @@
         <v>5</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C4" s="88" t="s">
+        <v>912</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>902</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>906</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>907</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>911</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>912</v>
       </c>
       <c r="G4" s="39" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="39" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -16104,29 +16104,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D6" s="83" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E6" s="83" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F6" s="83"/>
       <c r="G6" s="83" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="83" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I6" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J6" s="83" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -16134,26 +16134,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D7" s="83" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="83" t="s">
         <v>312</v>
-      </c>
-      <c r="E7" s="83" t="s">
-        <v>316</v>
       </c>
       <c r="F7" s="83"/>
       <c r="G7" s="83" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="83" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="I7" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="J7" s="83"/>
     </row>
@@ -16162,14 +16162,14 @@
         <v>5</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D8" s="83"/>
       <c r="E8" s="83" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F8" s="83"/>
       <c r="G8" s="83" t="b">
@@ -16184,16 +16184,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C9" s="83" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E9" s="83" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F9" s="83"/>
       <c r="G9" s="83" t="b">
@@ -16208,16 +16208,16 @@
         <v>5</v>
       </c>
       <c r="B10" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C10" s="83" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E10" s="83" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F10" s="83"/>
       <c r="G10" s="83" t="b">
@@ -16232,27 +16232,27 @@
         <v>5</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D11" s="83"/>
       <c r="E11" s="83" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F11" s="83" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G11" s="83" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="83"/>
       <c r="I11" s="83" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J11" s="83" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -16260,14 +16260,14 @@
         <v>5</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C12" s="83" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D12" s="83"/>
       <c r="E12" s="83" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F12" s="83"/>
       <c r="G12" s="83" t="b">
@@ -16282,14 +16282,14 @@
         <v>5</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D13" s="83"/>
       <c r="E13" s="83" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F13" s="83"/>
       <c r="G13" s="83" t="b">
@@ -16304,14 +16304,14 @@
         <v>5</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C14" s="83" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D14" s="83"/>
       <c r="E14" s="83" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F14" s="83"/>
       <c r="G14" s="83" t="b">
@@ -16319,7 +16319,7 @@
       </c>
       <c r="H14" s="83"/>
       <c r="I14" s="83" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J14" s="83"/>
     </row>
@@ -16358,7 +16358,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="40" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -16366,7 +16366,7 @@
       <c r="E1" s="91"/>
       <c r="F1" s="92"/>
       <c r="G1" s="90" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H1" s="91"/>
       <c r="I1" s="91"/>
@@ -16409,24 +16409,24 @@
         <v>18</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F3" s="41" t="s">
         <v>21</v>
@@ -16438,7 +16438,7 @@
         <v>21</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J3" s="41" t="s">
         <v>22</v>
@@ -16448,13 +16448,13 @@
     </row>
     <row r="4" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>23</v>
@@ -16472,23 +16472,23 @@
         <v>21</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>26</v>
@@ -16506,10 +16506,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="K5" s="41"/>
       <c r="L5" s="35"/>
@@ -16535,7 +16535,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C7" s="83" t="s">
         <v>19</v>
@@ -16544,7 +16544,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="83" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F7" s="83" t="s">
         <v>24</v>
@@ -16556,16 +16556,16 @@
         <v>21</v>
       </c>
       <c r="I7" s="83" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J7" s="83" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="83" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L7" s="84" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
@@ -16573,10 +16573,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D8" s="83" t="s">
         <v>23</v>
@@ -16594,7 +16594,7 @@
         <v>21</v>
       </c>
       <c r="I8" s="83" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J8" s="83" t="s">
         <v>25</v>
@@ -16607,10 +16607,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D9" s="83" t="s">
         <v>26</v>
@@ -16628,7 +16628,7 @@
         <v>21</v>
       </c>
       <c r="I9" s="83" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J9" s="83" t="s">
         <v>25</v>
@@ -16664,7 +16664,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="48" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B1" s="95"/>
     </row>
@@ -16681,7 +16681,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -16737,7 +16737,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -16770,18 +16770,18 @@
         <v>37</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>38</v>
@@ -16790,20 +16790,20 @@
         <v>41</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>38</v>
@@ -16812,20 +16812,20 @@
         <v>41</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>38</v>
@@ -16834,7 +16834,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
@@ -16856,7 +16856,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C7" s="83" t="s">
         <v>19</v>
@@ -16871,10 +16871,10 @@
         <v>40</v>
       </c>
       <c r="G7" s="83" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H7" s="84" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16882,10 +16882,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D8" s="83" t="s">
         <v>38</v>
@@ -16904,13 +16904,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D9" s="83" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E9" s="83" t="s">
         <v>41</v>
@@ -16961,7 +16961,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="173.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -16971,7 +16971,7 @@
       <c r="G1" s="91"/>
       <c r="H1" s="92"/>
       <c r="I1" s="96" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="J1" s="96"/>
       <c r="K1" s="96"/>
@@ -17036,21 +17036,21 @@
         <v>18</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>53</v>
@@ -17065,10 +17065,10 @@
         <v>38</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>24</v>
@@ -17093,34 +17093,34 @@
     </row>
     <row r="4" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="K4" s="36" t="s">
         <v>24</v>
@@ -17145,34 +17145,34 @@
     </row>
     <row r="5" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F5" s="41" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>24</v>
@@ -17197,16 +17197,16 @@
     </row>
     <row r="6" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="E6" s="41" t="s">
         <v>58</v>
@@ -17221,16 +17221,16 @@
         <v>38</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="K6" s="41" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="41" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M6" s="41" t="s">
         <v>21</v>
@@ -17249,19 +17249,19 @@
     </row>
     <row r="7" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>54</v>
@@ -17273,16 +17273,16 @@
         <v>38</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="K7" s="41" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="41" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M7" s="41" t="s">
         <v>21</v>
@@ -17301,19 +17301,19 @@
     </row>
     <row r="8" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>54</v>
@@ -17325,16 +17325,16 @@
         <v>38</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="K8" s="41" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M8" s="41" t="s">
         <v>21</v>
@@ -17353,34 +17353,34 @@
     </row>
     <row r="9" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F9" s="41" t="s">
         <v>54</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="K9" s="41" t="s">
         <v>24</v>
@@ -17405,19 +17405,19 @@
     </row>
     <row r="10" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F10" s="41" t="s">
         <v>54</v>
@@ -17429,16 +17429,16 @@
         <v>38</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="K10" s="41" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="41" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M10" s="41" t="s">
         <v>21</v>
@@ -17457,19 +17457,19 @@
     </row>
     <row r="11" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F11" s="41" t="s">
         <v>54</v>
@@ -17481,16 +17481,16 @@
         <v>38</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="K11" s="41" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="41" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M11" s="41" t="s">
         <v>21</v>
@@ -17509,19 +17509,19 @@
     </row>
     <row r="12" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>54</v>
@@ -17533,16 +17533,16 @@
         <v>38</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="K12" s="41" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="41" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M12" s="41" t="s">
         <v>21</v>
@@ -17585,13 +17585,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C14" s="83" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E14" s="83" t="s">
         <v>53</v>
@@ -17613,7 +17613,7 @@
         <v>21</v>
       </c>
       <c r="L14" s="86" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M14" s="86" t="s">
         <v>21</v>
@@ -17629,7 +17629,7 @@
       </c>
       <c r="Q14" s="86"/>
       <c r="R14" s="84" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.35">
@@ -17637,16 +17637,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D15" s="83" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F15" s="83" t="s">
         <v>54</v>
@@ -17685,13 +17685,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C16" s="83" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E16" s="83" t="s">
         <v>58</v>
@@ -17733,16 +17733,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E17" s="83" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F17" s="83" t="s">
         <v>54</v>
@@ -17751,7 +17751,7 @@
         <v>60</v>
       </c>
       <c r="H17" s="83" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I17" s="83"/>
       <c r="J17" s="83" t="s">
@@ -17783,16 +17783,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C18" s="83" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D18" s="83" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F18" s="83" t="s">
         <v>54</v>
@@ -17801,11 +17801,11 @@
         <v>60</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I18" s="83"/>
       <c r="J18" s="83" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K18" s="83" t="s">
         <v>24</v>
@@ -17833,16 +17833,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C19" s="83" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D19" s="83" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E19" s="83" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F19" s="83" t="s">
         <v>54</v>
@@ -17851,17 +17851,17 @@
         <v>60</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I19" s="83"/>
       <c r="J19" s="83" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K19" s="83" t="s">
         <v>24</v>
       </c>
       <c r="L19" s="86" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M19" s="86" t="s">
         <v>24</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/AKT7.1-Testing/AKT-Merger/oci_tenancy/SetUpOCI_Via_TF/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D58339-F287-7F4A-ADEC-2FBC00354A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23000" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23000" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -4906,77 +4905,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>v7.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Major Features - Jinja Template, Terraform Upgrade, Events and Notifications, Export of all the components except DBs, New feature support for Groups,Tags, Instances and LBR.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 "Compartment Name" - </t>
     </r>
@@ -6737,11 +6665,83 @@
   <si>
     <t>/fss4</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v7.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CD3 Sheet Format is same as release v7.0
+Added additional components to Groups, Policies, Tags as per CIS compliance
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
@@ -7680,23 +7680,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7732,23 +7715,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7924,22 +7890,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="167.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="167.1796875" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="80" t="s">
-        <v>538</v>
+        <v>915</v>
       </c>
     </row>
   </sheetData>
@@ -7949,27 +7915,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="40" customWidth="1"/>
     <col min="5" max="5" width="16" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
         <v>509</v>
       </c>
@@ -7982,7 +7948,7 @@
       <c r="H1" s="89"/>
       <c r="I1" s="89"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -8021,26 +7987,26 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="40" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="40" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
         <v>510</v>
       </c>
@@ -8061,7 +8027,7 @@
       <c r="P1" s="89"/>
       <c r="Q1" s="89"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -8123,31 +8089,31 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="40" customWidth="1"/>
     <col min="11" max="11" width="19" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
         <v>519</v>
       </c>
@@ -8171,7 +8137,7 @@
       <c r="S1" s="89"/>
       <c r="T1" s="89"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -8233,7 +8199,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
@@ -8241,13 +8207,13 @@
         <v>379</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>860</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>861</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>862</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>419</v>
@@ -8261,7 +8227,7 @@
         <v>420</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
@@ -8274,12 +8240,12 @@
       <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
       <c r="R3" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S3" s="39"/>
       <c r="T3" s="39"/>
     </row>
-    <row r="4" spans="1:20" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
@@ -8287,13 +8253,13 @@
         <v>379</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>419</v>
@@ -8302,7 +8268,7 @@
         <v>82</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I4" s="39" t="s">
         <v>31</v>
@@ -8320,12 +8286,12 @@
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
       <c r="R4" s="39" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="S4" s="39"/>
       <c r="T4" s="39"/>
     </row>
-    <row r="5" spans="1:20" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
@@ -8333,13 +8299,13 @@
         <v>379</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F5" s="39" t="s">
         <v>419</v>
@@ -8348,10 +8314,10 @@
         <v>82</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
@@ -8366,12 +8332,12 @@
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
       <c r="R5" s="39" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="S5" s="39"/>
       <c r="T5" s="39"/>
     </row>
-    <row r="6" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
@@ -8379,13 +8345,13 @@
         <v>379</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>419</v>
@@ -8399,7 +8365,7 @@
         <v>420</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -8412,12 +8378,12 @@
       <c r="P6" s="39"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="39" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="S6" s="39"/>
       <c r="T6" s="39"/>
     </row>
-    <row r="7" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
         <v>5</v>
       </c>
@@ -8425,13 +8391,13 @@
         <v>379</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>419</v>
@@ -8440,10 +8406,10 @@
         <v>82</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
@@ -8458,12 +8424,12 @@
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
       <c r="R7" s="39" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="S7" s="39"/>
       <c r="T7" s="39"/>
     </row>
-    <row r="8" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
@@ -8471,13 +8437,13 @@
         <v>379</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F8" s="39" t="s">
         <v>419</v>
@@ -8486,10 +8452,10 @@
         <v>82</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
@@ -8504,12 +8470,12 @@
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="39" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
     </row>
-    <row r="9" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
@@ -8517,13 +8483,13 @@
         <v>379</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>419</v>
@@ -8537,7 +8503,7 @@
         <v>420</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -8550,12 +8516,12 @@
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
       <c r="R9" s="39" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
     </row>
-    <row r="10" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>5</v>
       </c>
@@ -8563,13 +8529,13 @@
         <v>379</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F10" s="39" t="s">
         <v>419</v>
@@ -8580,10 +8546,10 @@
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
       <c r="J10" s="39" t="s">
+        <v>876</v>
+      </c>
+      <c r="K10" s="39" t="s">
         <v>877</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>878</v>
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
@@ -8596,12 +8562,12 @@
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
       <c r="R10" s="39" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
     </row>
-    <row r="11" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>5</v>
       </c>
@@ -8609,13 +8575,13 @@
         <v>379</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>419</v>
@@ -8624,10 +8590,10 @@
         <v>82</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
@@ -8642,12 +8608,12 @@
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
     </row>
-    <row r="12" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>5</v>
       </c>
@@ -8655,13 +8621,13 @@
         <v>379</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>419</v>
@@ -8670,10 +8636,10 @@
         <v>82</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
@@ -8688,12 +8654,12 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="39" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
     </row>
-    <row r="13" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="39" t="s">
         <v>5</v>
       </c>
@@ -8701,13 +8667,13 @@
         <v>379</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>419</v>
@@ -8721,7 +8687,7 @@
         <v>420</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
@@ -8734,12 +8700,12 @@
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
       <c r="R13" s="39" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="S13" s="39"/>
       <c r="T13" s="39"/>
     </row>
-    <row r="14" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="39" t="s">
         <v>5</v>
       </c>
@@ -8747,13 +8713,13 @@
         <v>379</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>419</v>
@@ -8764,10 +8730,10 @@
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39" t="s">
+        <v>876</v>
+      </c>
+      <c r="K14" s="39" t="s">
         <v>877</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>878</v>
       </c>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
@@ -8780,12 +8746,12 @@
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
       <c r="R14" s="39" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
     </row>
-    <row r="15" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="39" t="s">
         <v>5</v>
       </c>
@@ -8793,13 +8759,13 @@
         <v>379</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>419</v>
@@ -8808,10 +8774,10 @@
         <v>82</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
@@ -8826,12 +8792,12 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
       <c r="R15" s="39" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
     </row>
-    <row r="16" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
         <v>5</v>
       </c>
@@ -8839,13 +8805,13 @@
         <v>379</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F16" s="39" t="s">
         <v>419</v>
@@ -8854,10 +8820,10 @@
         <v>82</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
@@ -8872,12 +8838,12 @@
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="39" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="S16" s="39"/>
       <c r="T16" s="39"/>
     </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="41" t="s">
         <v>4</v>
       </c>
@@ -8901,7 +8867,7 @@
       <c r="S17" s="41"/>
       <c r="T17" s="41"/>
     </row>
-    <row r="18" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="83" t="s">
         <v>5</v>
       </c>
@@ -8942,7 +8908,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="83" t="s">
         <v>5</v>
       </c>
@@ -8984,7 +8950,7 @@
       <c r="Q19" s="86"/>
       <c r="R19" s="84"/>
     </row>
-    <row r="20" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="83" t="s">
         <v>5</v>
       </c>
@@ -9022,7 +8988,7 @@
       <c r="Q20" s="86"/>
       <c r="R20" s="84"/>
     </row>
-    <row r="21" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="83" t="s">
         <v>5</v>
       </c>
@@ -9074,24 +9040,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
         <v>520</v>
       </c>
@@ -9102,7 +9068,7 @@
       <c r="F1" s="89"/>
       <c r="G1" s="89"/>
     </row>
-    <row r="2" spans="1:7" s="48" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="48" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -9125,7 +9091,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -9136,7 +9102,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -9159,7 +9125,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
@@ -9180,7 +9146,7 @@
       </c>
       <c r="G5" s="41"/>
     </row>
-    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
@@ -9210,34 +9176,34 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" style="40" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" style="40" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" style="40" customWidth="1"/>
+    <col min="11" max="11" width="26.81640625" style="40" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="40" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="40" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="97" t="s">
         <v>537</v>
       </c>
@@ -9249,7 +9215,7 @@
       <c r="G1" s="98"/>
       <c r="H1" s="99"/>
       <c r="I1" s="90" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J1" s="91"/>
       <c r="K1" s="91"/>
@@ -9259,7 +9225,7 @@
       <c r="O1" s="91"/>
       <c r="P1" s="92"/>
     </row>
-    <row r="2" spans="1:16" s="48" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="48" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -9297,7 +9263,7 @@
         <v>100</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>101</v>
@@ -9309,7 +9275,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -9329,7 +9295,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="41"/>
     </row>
-    <row r="4" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -9364,7 +9330,7 @@
         <v>107</v>
       </c>
       <c r="L4" s="50" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M4" s="50" t="s">
         <v>393</v>
@@ -9377,7 +9343,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
@@ -9419,7 +9385,7 @@
       </c>
       <c r="P5" s="41"/>
     </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
         <v>5</v>
       </c>
@@ -9461,7 +9427,7 @@
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
     </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>5</v>
       </c>
@@ -9514,29 +9480,29 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
     <col min="2" max="2" width="23" style="40" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="40" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -9548,7 +9514,7 @@
       <c r="I1" s="91"/>
       <c r="J1" s="92"/>
     </row>
-    <row r="2" spans="1:10" s="48" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="48" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -9574,13 +9540,13 @@
         <v>100</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -9594,7 +9560,7 @@
       <c r="I3" s="41"/>
       <c r="J3" s="41"/>
     </row>
-    <row r="4" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -9617,7 +9583,7 @@
         <v>114</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I4" s="50" t="s">
         <v>393</v>
@@ -9626,7 +9592,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
@@ -9664,34 +9630,34 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="40" customWidth="1"/>
     <col min="7" max="7" width="15" style="40" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="40" customWidth="1"/>
     <col min="10" max="10" width="16" style="40" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="40" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="40" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" style="40" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="40" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="40" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="40" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="40" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" style="40" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="110.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="100" t="s">
         <v>527</v>
       </c>
@@ -9714,7 +9680,7 @@
       <c r="P1" s="103"/>
       <c r="Q1" s="103"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -9767,7 +9733,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -9788,7 +9754,7 @@
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
     </row>
-    <row r="4" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -9812,7 +9778,7 @@
         <v>129</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -9827,7 +9793,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="30"/>
       <c r="B5" s="41"/>
       <c r="C5" s="30"/>
@@ -9837,7 +9803,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>130</v>
@@ -9852,7 +9818,7 @@
       <c r="P5" s="41"/>
       <c r="Q5" s="41"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -9861,7 +9827,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>132</v>
@@ -9876,7 +9842,7 @@
       <c r="P6" s="41"/>
       <c r="Q6" s="41"/>
     </row>
-    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
@@ -9898,7 +9864,7 @@
         <v>134</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -9909,7 +9875,7 @@
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
@@ -9931,7 +9897,7 @@
         <v>136</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>137</v>
@@ -9948,7 +9914,7 @@
       </c>
       <c r="Q8" s="41"/>
     </row>
-    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
@@ -9970,7 +9936,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>139</v>
@@ -9985,7 +9951,7 @@
       <c r="P9" s="41"/>
       <c r="Q9" s="41"/>
     </row>
-    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
@@ -10007,7 +9973,7 @@
         <v>141</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -10029,28 +9995,28 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="40" customWidth="1"/>
-    <col min="6" max="6" width="18.83203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" style="40" customWidth="1"/>
     <col min="8" max="8" width="25" style="40" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" style="40" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="40" customWidth="1"/>
-    <col min="13" max="13" width="28.1640625" style="40" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.1796875" style="40" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" style="40" customWidth="1"/>
+    <col min="13" max="13" width="28.1796875" style="40" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="122.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
         <v>511</v>
       </c>
@@ -10070,7 +10036,7 @@
       <c r="O1" s="89"/>
       <c r="P1" s="89"/>
     </row>
-    <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -10120,7 +10086,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>4</v>
       </c>
@@ -10140,7 +10106,7 @@
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
     </row>
-    <row r="4" spans="1:16" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -10184,7 +10150,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -10208,7 +10174,7 @@
       <c r="O5" s="41"/>
       <c r="P5" s="41"/>
     </row>
-    <row r="6" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
@@ -10262,31 +10228,31 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="40" customWidth="1"/>
     <col min="3" max="3" width="11" style="40" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="40" customWidth="1"/>
+    <col min="4" max="5" width="10.81640625" style="40" customWidth="1"/>
     <col min="6" max="6" width="18" style="40" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="40" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="40" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="40" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="40" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" style="40" customWidth="1"/>
-    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" style="40" customWidth="1"/>
+    <col min="10" max="11" width="14.6328125" style="40" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="40" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="40" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="40" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
         <v>534</v>
       </c>
@@ -10311,7 +10277,7 @@
       <c r="T1" s="91"/>
       <c r="U1" s="92"/>
     </row>
-    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
@@ -10376,7 +10342,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -10401,7 +10367,7 @@
       <c r="T3" s="41"/>
       <c r="U3" s="41"/>
     </row>
-    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -10464,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -10507,7 +10473,7 @@
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
     </row>
-    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
@@ -10564,31 +10530,31 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="40" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="40" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="40" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" style="40" customWidth="1"/>
-    <col min="14" max="16" width="13.83203125" style="40" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" style="40" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="40" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" style="40" customWidth="1"/>
+    <col min="14" max="16" width="13.81640625" style="40" customWidth="1"/>
+    <col min="17" max="17" width="21.1796875" style="40" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
         <v>502</v>
       </c>
@@ -10613,7 +10579,7 @@
       <c r="R1" s="104"/>
       <c r="S1" s="105"/>
     </row>
-    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -10672,7 +10638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -10695,7 +10661,7 @@
       <c r="R3" s="41"/>
       <c r="S3" s="41"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -10728,7 +10694,7 @@
       </c>
       <c r="S4" s="41"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -10751,7 +10717,7 @@
       <c r="R5" s="41"/>
       <c r="S5" s="41"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -10774,7 +10740,7 @@
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -10797,7 +10763,7 @@
       <c r="R7" s="41"/>
       <c r="S7" s="41"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -10820,7 +10786,7 @@
       <c r="R8" s="41"/>
       <c r="S8" s="41"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -10847,7 +10813,7 @@
       <c r="R9" s="41"/>
       <c r="S9" s="41"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -10876,7 +10842,7 @@
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -10911,7 +10877,7 @@
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -10946,7 +10912,7 @@
       <c r="R12" s="41"/>
       <c r="S12" s="41"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -10973,7 +10939,7 @@
       <c r="R13" s="41"/>
       <c r="S13" s="41"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -11000,7 +10966,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -11025,7 +10991,7 @@
       <c r="R15" s="41"/>
       <c r="S15" s="41"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
@@ -11052,7 +11018,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
@@ -11077,7 +11043,7 @@
       <c r="R17" s="41"/>
       <c r="S17" s="41"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
@@ -11104,7 +11070,7 @@
       <c r="R18" s="41"/>
       <c r="S18" s="41"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -11125,7 +11091,7 @@
       <c r="R19" s="41"/>
       <c r="S19" s="41"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41" t="s">
@@ -11152,7 +11118,7 @@
       <c r="R20" s="41"/>
       <c r="S20" s="41"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
@@ -11175,7 +11141,7 @@
       <c r="R21" s="41"/>
       <c r="S21" s="41"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="41" t="s">
         <v>5</v>
       </c>
@@ -11206,7 +11172,7 @@
       <c r="R22" s="41"/>
       <c r="S22" s="41"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
@@ -11235,48 +11201,48 @@
     <mergeCell ref="J1:S1"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="7">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576" xr:uid="{00000000-0002-0000-1200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576">
       <formula1>Response_Code</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-1200-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
       <formula1>Action_Values</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1200-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>Attribute_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1200-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>Match_Style</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-1200-000004000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>Header_Size</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576" xr:uid="{00000000-0002-0000-1200-000005000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576">
       <formula1>Allowed_Methods</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="E2" xr:uid="{00000000-0002-0000-1200-000006000000}"/>
+    <dataValidation allowBlank="1" sqref="E2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="48" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="48" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
         <v>504</v>
       </c>
@@ -11285,7 +11251,7 @@
       <c r="D1" s="89"/>
       <c r="E1" s="89"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -11302,37 +11268,37 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>656</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>657</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>658</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>436</v>
       </c>
       <c r="E3" s="41"/>
     </row>
-    <row r="4" spans="1:5" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>658</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>659</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>660</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>436</v>
       </c>
       <c r="E4" s="41"/>
     </row>
-    <row r="5" spans="1:5" s="40" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="40" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
@@ -11340,29 +11306,29 @@
         <v>379</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>436</v>
       </c>
       <c r="E5" s="41"/>
     </row>
-    <row r="6" spans="1:5" s="40" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="40" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
+        <v>661</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>662</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>663</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>436</v>
       </c>
       <c r="E6" s="41"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>4</v>
       </c>
@@ -11371,7 +11337,7 @@
       <c r="D7" s="39"/>
       <c r="E7" s="41"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="83" t="s">
         <v>5</v>
       </c>
@@ -11384,7 +11350,7 @@
       <c r="D8" s="83"/>
       <c r="E8" s="83"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="83" t="s">
         <v>5</v>
       </c>
@@ -11399,7 +11365,7 @@
       </c>
       <c r="E9" s="83"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="83" t="s">
         <v>5</v>
       </c>
@@ -11414,7 +11380,7 @@
       </c>
       <c r="E10" s="83"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="83" t="s">
         <v>5</v>
       </c>
@@ -11427,7 +11393,7 @@
       <c r="D11" s="83"/>
       <c r="E11" s="83"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="83" t="s">
         <v>5</v>
       </c>
@@ -11442,7 +11408,7 @@
       </c>
       <c r="E12" s="83"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="83" t="s">
         <v>5</v>
       </c>
@@ -11457,7 +11423,7 @@
       </c>
       <c r="E13" s="83"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="83" t="s">
         <v>5</v>
       </c>
@@ -11472,7 +11438,7 @@
       </c>
       <c r="E14" s="83"/>
     </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="83" t="s">
         <v>5</v>
       </c>
@@ -11499,22 +11465,22 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="48" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="48" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="106" t="s">
         <v>503</v>
       </c>
@@ -11524,7 +11490,7 @@
       <c r="E1" s="107"/>
       <c r="F1" s="108"/>
     </row>
-    <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -11544,7 +11510,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -11554,7 +11520,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -11574,7 +11540,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -11588,7 +11554,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41" t="s">
@@ -11604,7 +11570,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
@@ -11629,7 +11595,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576" xr:uid="{00000000-0002-0000-1300-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
       <formula1>Match_Style</formula1>
     </dataValidation>
   </dataValidations>
@@ -11638,27 +11604,27 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="40" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="40" customWidth="1"/>
     <col min="9" max="9" width="15" style="40" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="40" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="40" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
         <v>533</v>
       </c>
@@ -11678,7 +11644,7 @@
       <c r="O1" s="89"/>
       <c r="P1" s="89"/>
     </row>
-    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -11728,7 +11694,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -11748,7 +11714,7 @@
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -11790,7 +11756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41" t="s">
@@ -11818,7 +11784,7 @@
       <c r="O5" s="41"/>
       <c r="P5" s="41"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
@@ -11870,24 +11836,24 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>258</v>
       </c>
@@ -11907,7 +11873,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>223</v>
       </c>
@@ -11927,7 +11893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>227</v>
       </c>
@@ -11947,7 +11913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>207</v>
       </c>
@@ -11967,7 +11933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>200</v>
       </c>
@@ -11985,7 +11951,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>220</v>
       </c>
@@ -11998,7 +11964,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>232</v>
       </c>
@@ -12007,7 +11973,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>206</v>
       </c>
@@ -12015,7 +11981,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>211</v>
       </c>
@@ -12023,7 +11989,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
         <v>225</v>
       </c>
@@ -12031,7 +11997,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
         <v>230</v>
       </c>
@@ -12039,153 +12005,153 @@
         <v>272</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="32" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="32" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="32" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="32" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="32" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="32" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="32" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="32" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="32" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="32" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="32" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="32" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="32" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="32" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="32" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="32" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="32" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="32" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="32" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="32" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="32" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="32" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="32" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="32" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="32" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="32" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="32" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="32" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="32" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -12195,28 +12161,28 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="40"/>
+    <col min="3" max="3" width="16.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="40"/>
     <col min="8" max="8" width="11" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="40"/>
+    <col min="9" max="9" width="13.81640625" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="109" t="s">
         <v>528</v>
       </c>
@@ -12229,7 +12195,7 @@
       <c r="H1" s="109"/>
       <c r="I1" s="109"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -12258,7 +12224,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
@@ -12271,7 +12237,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>329</v>
       </c>
@@ -12301,7 +12267,7 @@
       </c>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>329</v>
       </c>
@@ -12339,41 +12305,41 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="40" customWidth="1"/>
     <col min="2" max="2" width="14" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="40" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="40" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="40" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" style="40" customWidth="1"/>
     <col min="9" max="9" width="13" style="40" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="40" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="60" customWidth="1"/>
-    <col min="12" max="13" width="20.5" style="40"/>
-    <col min="14" max="14" width="20.5" style="3"/>
-    <col min="15" max="17" width="20.5" style="40"/>
+    <col min="10" max="10" width="16.453125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="60" customWidth="1"/>
+    <col min="12" max="13" width="20.453125" style="40"/>
+    <col min="14" max="14" width="20.453125" style="3"/>
+    <col min="15" max="17" width="20.453125" style="40"/>
     <col min="18" max="18" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.5" style="40"/>
-    <col min="22" max="22" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="40" customWidth="1"/>
-    <col min="24" max="24" width="20.5" style="40"/>
-    <col min="25" max="25" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.5" style="40"/>
+    <col min="19" max="21" width="20.453125" style="40"/>
+    <col min="22" max="22" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="40" customWidth="1"/>
+    <col min="24" max="24" width="20.453125" style="40"/>
+    <col min="25" max="25" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.453125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="57" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="57" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -12399,7 +12365,7 @@
       <c r="W1" s="91"/>
       <c r="X1" s="92"/>
     </row>
-    <row r="2" spans="1:24" s="73" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="73" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
@@ -12467,13 +12433,13 @@
         <v>456</v>
       </c>
       <c r="W2" s="76" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="X2" s="76" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
@@ -12501,7 +12467,7 @@
       <c r="W3" s="41"/>
       <c r="X3" s="41"/>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
         <v>329</v>
       </c>
@@ -12569,13 +12535,13 @@
         <v>15</v>
       </c>
       <c r="W4" s="41" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X4" s="41" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="58" t="s">
         <v>329</v>
       </c>
@@ -12643,7 +12609,7 @@
         <v>15</v>
       </c>
       <c r="W5" s="41" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="X5" s="41" t="s">
         <v>514</v>
@@ -12654,25 +12620,25 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-1700-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>VM_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1700-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>software_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1700-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1700-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1700-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576" xr:uid="{00000000-0002-0000-1700-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
       <formula1>nchar_set</formula1>
     </dataValidation>
   </dataValidations>
@@ -12682,48 +12648,48 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" style="60" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" style="60" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="40" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="40" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" style="40" customWidth="1"/>
-    <col min="25" max="25" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="40" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" style="40" customWidth="1"/>
+    <col min="25" max="25" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42" style="40" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="40"/>
+    <col min="27" max="27" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="57" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="57" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -12749,7 +12715,7 @@
       <c r="W1" s="91"/>
       <c r="X1" s="92"/>
     </row>
-    <row r="2" spans="1:24" s="73" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="73" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
@@ -12817,13 +12783,13 @@
         <v>456</v>
       </c>
       <c r="W2" s="76" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="X2" s="79" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
@@ -12851,7 +12817,7 @@
       <c r="W3" s="41"/>
       <c r="X3" s="41"/>
     </row>
-    <row r="4" spans="1:24" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
         <v>329</v>
       </c>
@@ -12919,13 +12885,13 @@
         <v>15</v>
       </c>
       <c r="W4" s="41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="X4" s="39" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="58" t="s">
         <v>329</v>
       </c>
@@ -12993,7 +12959,7 @@
         <v>15</v>
       </c>
       <c r="W5" s="82" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X5" s="41"/>
     </row>
@@ -13002,28 +12968,28 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1800-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>software_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-1800-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>bm_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1800-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576 U3:U4" xr:uid="{00000000-0002-0000-1800-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576 U3:U4">
       <formula1>"nchar_set"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5" xr:uid="{00000000-0002-0000-1800-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5">
       <formula1>nchar_set</formula1>
     </dataValidation>
   </dataValidations>
@@ -13033,46 +12999,46 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" style="60" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="40" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="40" customWidth="1"/>
-    <col min="24" max="25" width="14.5" style="40" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.83203125" style="40"/>
+    <col min="19" max="19" width="13.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="40" customWidth="1"/>
+    <col min="24" max="25" width="14.453125" style="40" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="57" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="57" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -13098,7 +13064,7 @@
       <c r="W1" s="91"/>
       <c r="X1" s="92"/>
     </row>
-    <row r="2" spans="1:24" s="73" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="73" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
@@ -13166,13 +13132,13 @@
         <v>456</v>
       </c>
       <c r="W2" s="76" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="X2" s="21" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
@@ -13199,7 +13165,7 @@
       <c r="W3" s="63"/>
       <c r="X3" s="56"/>
     </row>
-    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
         <v>5</v>
       </c>
@@ -13267,13 +13233,13 @@
         <v>10</v>
       </c>
       <c r="W4" s="82" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X4" s="39" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="55"/>
       <c r="B5" s="52"/>
       <c r="C5" s="62"/>
@@ -13284,22 +13250,22 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-1900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>exa_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1900-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1900-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1900-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576" xr:uid="{00000000-0002-0000-1900-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
       <formula1>nchar_set</formula1>
     </dataValidation>
   </dataValidations>
@@ -13309,27 +13275,27 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="40"/>
+    <col min="3" max="3" width="9.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="53" t="s">
         <v>355</v>
       </c>
@@ -13358,7 +13324,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="16" x14ac:dyDescent="0.45">
       <c r="A2" s="41" t="s">
         <v>106</v>
       </c>
@@ -13387,7 +13353,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.45">
       <c r="A3" s="41" t="s">
         <v>356</v>
       </c>
@@ -13410,13 +13376,13 @@
         <v>461</v>
       </c>
       <c r="H3" s="81" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>357</v>
       </c>
@@ -13433,10 +13399,10 @@
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="I4" s="41" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>354</v>
       </c>
@@ -13453,10 +13419,10 @@
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
       <c r="I5" s="41" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>358</v>
       </c>
@@ -13471,10 +13437,10 @@
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
       <c r="I6" s="41" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>341</v>
       </c>
@@ -13489,10 +13455,10 @@
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="I7" s="41" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
@@ -13505,10 +13471,10 @@
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
       <c r="I8" s="41" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41" t="s">
@@ -13521,10 +13487,10 @@
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="I9" s="41" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41" t="s">
@@ -13537,10 +13503,10 @@
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="I10" s="41" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41" t="s">
@@ -13553,10 +13519,10 @@
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="I11" s="41" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41" t="s">
@@ -13567,10 +13533,10 @@
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="I12" s="41" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41" t="s">
@@ -13581,10 +13547,10 @@
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="I13" s="41" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41" t="s">
@@ -13595,477 +13561,477 @@
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="I14" s="41" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I15" s="41" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I15" s="41" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I16" s="41" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I16" s="41" t="s">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="41" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I17" s="41" t="s">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I18" s="41" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I18" s="41" t="s">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I19" s="41" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="41" t="s">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I20" s="41" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I20" s="41" t="s">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I21" s="41" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I21" s="41" t="s">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I22" s="41" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I22" s="41" t="s">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I23" s="41" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I23" s="41" t="s">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I24" s="41" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I24" s="41" t="s">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I25" s="41" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I25" s="41" t="s">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I26" s="41" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I26" s="41" t="s">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I27" s="41" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I27" s="41" t="s">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I28" s="41" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I28" s="41" t="s">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I29" s="41" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I29" s="41" t="s">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I30" s="41" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I30" s="41" t="s">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I31" s="41" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I31" s="41" t="s">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I32" s="41" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I32" s="41" t="s">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I33" s="41" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I33" s="41" t="s">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I34" s="41" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I34" s="41" t="s">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I35" s="41" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I35" s="41" t="s">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I36" s="41" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I36" s="41" t="s">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I37" s="41" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I37" s="41" t="s">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I38" s="41" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I38" s="41" t="s">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I39" s="41" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I39" s="41" t="s">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I40" s="41" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I40" s="41" t="s">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I41" s="41" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I41" s="41" t="s">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I42" s="41" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I42" s="41" t="s">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I43" s="41" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I43" s="41" t="s">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I44" s="41" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I44" s="41" t="s">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I45" s="41" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I45" s="41" t="s">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I46" s="41" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I46" s="41" t="s">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I47" s="41" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I47" s="41" t="s">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I48" s="41" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I48" s="41" t="s">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I49" s="41" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="41" t="s">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I50" s="41" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="41" t="s">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I51" s="41" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="41" t="s">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I52" s="41" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="41" t="s">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I53" s="41" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="41" t="s">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I54" s="41" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="41" t="s">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I55" s="41" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="41" t="s">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I56" s="41" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="41" t="s">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I57" s="41" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="41" t="s">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I58" s="41" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="41" t="s">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I59" s="41" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="41" t="s">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I60" s="41" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="41" t="s">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I61" s="41" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I61" s="41" t="s">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I62" s="41" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I62" s="41" t="s">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I63" s="41" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I63" s="41" t="s">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I64" s="41" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I64" s="41" t="s">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I65" s="41" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I65" s="41" t="s">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I66" s="41" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I66" s="41" t="s">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I67" s="41" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I67" s="41" t="s">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I68" s="41" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I68" s="41" t="s">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I69" s="41" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I69" s="41" t="s">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I70" s="41" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I70" s="41" t="s">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I71" s="41" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I71" s="41" t="s">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I72" s="41" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I72" s="41" t="s">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I73" s="41" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="41" t="s">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I74" s="41" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I74" s="41" t="s">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I75" s="41" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I75" s="41" t="s">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I76" s="41" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I76" s="41" t="s">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I77" s="41" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="41" t="s">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I78" s="41" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="41" t="s">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I79" s="41" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="41" t="s">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I80" s="41" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="41" t="s">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I81" s="41" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I81" s="41" t="s">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I82" s="41" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I82" s="41" t="s">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I83" s="41" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I83" s="41" t="s">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I84" s="41" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I84" s="41" t="s">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I85" s="41" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I85" s="41" t="s">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I86" s="41" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I86" s="41" t="s">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I87" s="41" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I87" s="41" t="s">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I88" s="41" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I88" s="41" t="s">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I89" s="41" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I89" s="41" t="s">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I90" s="41" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I90" s="41" t="s">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I91" s="41" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I91" s="41" t="s">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I92" s="41" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I92" s="41" t="s">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I93" s="41" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I93" s="41" t="s">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I94" s="41" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I94" s="41" t="s">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I95" s="41" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I95" s="41" t="s">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I96" s="41" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I96" s="41" t="s">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I97" s="41" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I97" s="41" t="s">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I98" s="41" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I98" s="41" t="s">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I99" s="41" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I99" s="41" t="s">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I100" s="41" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I100" s="41" t="s">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I101" s="41" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I101" s="41" t="s">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I102" s="41" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I102" s="41" t="s">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I103" s="41" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I103" s="41" t="s">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I104" s="41" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I104" s="41" t="s">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I105" s="41" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I105" s="41" t="s">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I106" s="41" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I106" s="41" t="s">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I107" s="41" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I107" s="41" t="s">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I108" s="41" t="s">
         <v>644</v>
-      </c>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I108" s="41" t="s">
-        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -14075,23 +14041,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="40" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
         <v>505</v>
       </c>
@@ -14100,7 +14066,7 @@
       <c r="D1" s="89"/>
       <c r="E1" s="89"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -14117,98 +14083,98 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>663</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>664</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>665</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="41"/>
     </row>
-    <row r="4" spans="1:5" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>665</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>666</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>667</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="41"/>
     </row>
-    <row r="5" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="39" t="s">
+        <v>667</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>668</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>669</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="41"/>
     </row>
-    <row r="6" spans="1:5" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
+        <v>669</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>670</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>671</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="41"/>
     </row>
-    <row r="7" spans="1:5" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="85" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="85" t="s">
+        <v>671</v>
+      </c>
+      <c r="C7" s="85" t="s">
         <v>672</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>673</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" s="52" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="52" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
+        <v>673</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>674</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>675</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
     </row>
-    <row r="9" spans="1:5" s="52" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="52" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="39" t="s">
+        <v>884</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>885</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>886</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="75" t="s">
         <v>4</v>
       </c>
@@ -14223,25 +14189,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="40" customWidth="1"/>
     <col min="4" max="4" width="16" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="40" customWidth="1"/>
-    <col min="6" max="7" width="28.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="49.36328125" style="40" customWidth="1"/>
+    <col min="6" max="7" width="28.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="48" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="48" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
         <v>506</v>
       </c>
@@ -14253,7 +14219,7 @@
       <c r="G1" s="89"/>
       <c r="H1" s="89"/>
     </row>
-    <row r="2" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -14279,1701 +14245,1701 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="40" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="40" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>887</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>888</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>889</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D4" s="39" t="s">
+        <v>676</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>677</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>678</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
       <c r="E5" s="39" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
     </row>
-    <row r="6" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="39" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
     </row>
-    <row r="7" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
     </row>
-    <row r="9" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="39" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
     </row>
-    <row r="10" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="39" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
     </row>
-    <row r="11" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
     </row>
-    <row r="12" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
     </row>
-    <row r="13" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
     </row>
-    <row r="16" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
     </row>
-    <row r="17" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
     </row>
-    <row r="18" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
     </row>
-    <row r="19" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
     </row>
-    <row r="20" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
     </row>
-    <row r="21" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
     </row>
-    <row r="22" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
     </row>
-    <row r="24" spans="1:8" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
     </row>
-    <row r="25" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
     </row>
-    <row r="26" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
     </row>
-    <row r="27" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
     </row>
-    <row r="28" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
     </row>
-    <row r="29" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="39" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
     </row>
-    <row r="30" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="39" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
     </row>
-    <row r="31" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D32" s="39" t="s">
+        <v>703</v>
+      </c>
+      <c r="E32" s="39" t="s">
         <v>704</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>705</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
     </row>
-    <row r="33" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
     </row>
-    <row r="35" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="39" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
     </row>
-    <row r="36" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
       <c r="E38" s="39" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
       <c r="E39" s="39" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
       <c r="H39" s="39"/>
     </row>
-    <row r="40" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
       <c r="E40" s="39" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F40" s="39"/>
       <c r="G40" s="39"/>
       <c r="H40" s="39"/>
     </row>
-    <row r="41" spans="1:8" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="39" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:8" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
       <c r="E42" s="39" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F42" s="39"/>
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
       <c r="E43" s="39" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39"/>
       <c r="H43" s="39"/>
     </row>
-    <row r="44" spans="1:8" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" s="40" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C44" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D44" s="39" t="s">
+        <v>716</v>
+      </c>
+      <c r="E44" s="39" t="s">
         <v>717</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>718</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="39"/>
       <c r="H44" s="39"/>
     </row>
-    <row r="45" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
       <c r="E45" s="39" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:8" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:8" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
       <c r="E47" s="39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
     </row>
-    <row r="48" spans="1:8" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
       <c r="E48" s="39" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F48" s="39"/>
       <c r="G48" s="39"/>
       <c r="H48" s="39"/>
     </row>
-    <row r="49" spans="1:8" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
       <c r="E49" s="39" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:8" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:8" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
       <c r="E51" s="39" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
     </row>
-    <row r="52" spans="1:8" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
       <c r="E52" s="39" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
     </row>
-    <row r="53" spans="1:8" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
       <c r="E53" s="39" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="39" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="39" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
     </row>
-    <row r="56" spans="1:8" s="40" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" s="40" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
       <c r="E56" s="39" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
     </row>
-    <row r="57" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
       <c r="E57" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
     </row>
-    <row r="58" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
       <c r="E58" s="39" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
       <c r="E59" s="39" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="39" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
     </row>
-    <row r="61" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D61" s="39" t="s">
+        <v>735</v>
+      </c>
+      <c r="E61" s="39" t="s">
         <v>736</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>737</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
     </row>
-    <row r="62" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
       <c r="E62" s="39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
     </row>
-    <row r="63" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
       <c r="E63" s="39" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F63" s="39"/>
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
     </row>
-    <row r="64" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
       <c r="D64" s="39"/>
       <c r="E64" s="39" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F64" s="39"/>
       <c r="G64" s="39"/>
       <c r="H64" s="39"/>
     </row>
-    <row r="65" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
       <c r="E65" s="39" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F65" s="39"/>
       <c r="G65" s="39"/>
       <c r="H65" s="39"/>
     </row>
-    <row r="66" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
       <c r="D66" s="39"/>
       <c r="E66" s="39" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
       <c r="H66" s="39"/>
     </row>
-    <row r="67" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
       <c r="D67" s="39"/>
       <c r="E67" s="39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F67" s="39"/>
       <c r="G67" s="39"/>
       <c r="H67" s="39"/>
     </row>
-    <row r="68" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
       <c r="E68" s="39" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F68" s="39"/>
       <c r="G68" s="39"/>
       <c r="H68" s="39"/>
     </row>
-    <row r="69" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
       <c r="E69" s="39" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F69" s="39"/>
       <c r="G69" s="39"/>
       <c r="H69" s="39"/>
     </row>
-    <row r="70" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
       <c r="E70" s="39" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F70" s="39"/>
       <c r="G70" s="39"/>
       <c r="H70" s="39"/>
     </row>
-    <row r="71" spans="1:8" s="40" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" s="40" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
       <c r="E71" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F71" s="39"/>
       <c r="G71" s="39"/>
       <c r="H71" s="39"/>
     </row>
-    <row r="72" spans="1:8" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
       <c r="E72" s="39" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F72" s="39"/>
       <c r="G72" s="39"/>
       <c r="H72" s="39"/>
     </row>
-    <row r="73" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
       <c r="E73" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F73" s="39"/>
       <c r="G73" s="39"/>
       <c r="H73" s="39"/>
     </row>
-    <row r="74" spans="1:8" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
       <c r="E74" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F74" s="39"/>
       <c r="G74" s="39"/>
       <c r="H74" s="39"/>
     </row>
-    <row r="75" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
       <c r="E75" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F75" s="39"/>
       <c r="G75" s="39"/>
       <c r="H75" s="39"/>
     </row>
-    <row r="76" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
       <c r="D76" s="39"/>
       <c r="E76" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F76" s="39"/>
       <c r="G76" s="39"/>
       <c r="H76" s="39"/>
     </row>
-    <row r="77" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
       <c r="E77" s="39" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F77" s="39"/>
       <c r="G77" s="39"/>
       <c r="H77" s="39"/>
     </row>
-    <row r="78" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C78" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D78" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="E78" s="39" t="s">
         <v>753</v>
-      </c>
-      <c r="E78" s="39" t="s">
-        <v>754</v>
       </c>
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
       <c r="H78" s="39"/>
     </row>
-    <row r="79" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
       <c r="D79" s="39"/>
       <c r="E79" s="39" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F79" s="39"/>
       <c r="G79" s="39"/>
       <c r="H79" s="39"/>
     </row>
-    <row r="80" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
       <c r="D80" s="39"/>
       <c r="E80" s="39" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F80" s="39"/>
       <c r="G80" s="39"/>
       <c r="H80" s="39"/>
     </row>
-    <row r="81" spans="1:8" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
       <c r="D81" s="39"/>
       <c r="E81" s="39" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F81" s="39"/>
       <c r="G81" s="39"/>
       <c r="H81" s="39"/>
     </row>
-    <row r="82" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
       <c r="D82" s="39"/>
       <c r="E82" s="39" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
       <c r="H82" s="39"/>
     </row>
-    <row r="83" spans="1:8" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
       <c r="D83" s="39"/>
       <c r="E83" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F83" s="39"/>
       <c r="G83" s="39"/>
       <c r="H83" s="39"/>
     </row>
-    <row r="84" spans="1:8" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
       <c r="D84" s="39"/>
       <c r="E84" s="39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F84" s="39"/>
       <c r="G84" s="39"/>
       <c r="H84" s="39"/>
     </row>
-    <row r="85" spans="1:8" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
       <c r="D85" s="39"/>
       <c r="E85" s="39" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F85" s="39"/>
       <c r="G85" s="39"/>
       <c r="H85" s="39"/>
     </row>
-    <row r="86" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
       <c r="D86" s="39"/>
       <c r="E86" s="39" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F86" s="39"/>
       <c r="G86" s="39"/>
       <c r="H86" s="39"/>
     </row>
-    <row r="87" spans="1:8" s="40" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" s="40" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
       <c r="D87" s="39"/>
       <c r="E87" s="39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F87" s="39"/>
       <c r="G87" s="39"/>
       <c r="H87" s="39"/>
     </row>
-    <row r="88" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
       <c r="D88" s="39"/>
       <c r="E88" s="39" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F88" s="39"/>
       <c r="G88" s="39"/>
       <c r="H88" s="39"/>
     </row>
-    <row r="89" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
       <c r="D89" s="39"/>
       <c r="E89" s="39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
       <c r="H89" s="39"/>
     </row>
-    <row r="90" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
       <c r="D90" s="39"/>
       <c r="E90" s="39" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F90" s="39"/>
       <c r="G90" s="39"/>
       <c r="H90" s="39"/>
     </row>
-    <row r="91" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
       <c r="D91" s="39"/>
       <c r="E91" s="39" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F91" s="39"/>
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
     </row>
-    <row r="92" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="39"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
       <c r="D92" s="39"/>
       <c r="E92" s="39" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F92" s="39"/>
       <c r="G92" s="39"/>
       <c r="H92" s="39"/>
     </row>
-    <row r="93" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="39"/>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
       <c r="D93" s="39"/>
       <c r="E93" s="39" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F93" s="39"/>
       <c r="G93" s="39"/>
       <c r="H93" s="39"/>
     </row>
-    <row r="94" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="39"/>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
       <c r="D94" s="39"/>
       <c r="E94" s="39" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F94" s="39"/>
       <c r="G94" s="39"/>
       <c r="H94" s="39"/>
     </row>
-    <row r="95" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C95" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D95" s="39" t="s">
+        <v>770</v>
+      </c>
+      <c r="E95" s="39" t="s">
         <v>771</v>
-      </c>
-      <c r="E95" s="39" t="s">
-        <v>772</v>
       </c>
       <c r="F95" s="39"/>
       <c r="G95" s="39"/>
       <c r="H95" s="39"/>
     </row>
-    <row r="96" spans="1:8" s="40" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" s="40" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="39"/>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
       <c r="D96" s="39"/>
       <c r="E96" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F96" s="39"/>
       <c r="G96" s="39"/>
       <c r="H96" s="39"/>
     </row>
-    <row r="97" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="39"/>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
       <c r="D97" s="39"/>
       <c r="E97" s="39" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F97" s="39"/>
       <c r="G97" s="39"/>
       <c r="H97" s="39"/>
     </row>
-    <row r="98" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="39"/>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
       <c r="D98" s="39"/>
       <c r="E98" s="39" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F98" s="39"/>
       <c r="G98" s="39"/>
       <c r="H98" s="39"/>
     </row>
-    <row r="99" spans="1:8" s="40" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" s="40" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="39"/>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
       <c r="D99" s="39"/>
       <c r="E99" s="39" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F99" s="39"/>
       <c r="G99" s="39"/>
       <c r="H99" s="39"/>
     </row>
-    <row r="100" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
       <c r="D100" s="39"/>
       <c r="E100" s="39" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F100" s="39"/>
       <c r="G100" s="39"/>
       <c r="H100" s="39"/>
     </row>
-    <row r="101" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="39"/>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
       <c r="D101" s="39"/>
       <c r="E101" s="39" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F101" s="39"/>
       <c r="G101" s="39"/>
       <c r="H101" s="39"/>
     </row>
-    <row r="102" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="39"/>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>
       <c r="D102" s="39"/>
       <c r="E102" s="39" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F102" s="39"/>
       <c r="G102" s="39"/>
       <c r="H102" s="39"/>
     </row>
-    <row r="103" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="39"/>
       <c r="B103" s="39"/>
       <c r="C103" s="39"/>
       <c r="D103" s="39"/>
       <c r="E103" s="39" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F103" s="39"/>
       <c r="G103" s="39"/>
       <c r="H103" s="39"/>
     </row>
-    <row r="104" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="39"/>
       <c r="B104" s="39"/>
       <c r="C104" s="39"/>
       <c r="D104" s="39"/>
       <c r="E104" s="39" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F104" s="39"/>
       <c r="G104" s="39"/>
       <c r="H104" s="39"/>
     </row>
-    <row r="105" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B105" s="39" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C105" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D105" s="39" t="s">
+        <v>898</v>
+      </c>
+      <c r="E105" s="39" t="s">
         <v>899</v>
-      </c>
-      <c r="E105" s="39" t="s">
-        <v>900</v>
       </c>
       <c r="F105" s="39"/>
       <c r="G105" s="39"/>
       <c r="H105" s="39"/>
     </row>
-    <row r="106" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B106" s="39" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D106" s="39" t="s">
+        <v>781</v>
+      </c>
+      <c r="E106" s="39" t="s">
         <v>782</v>
-      </c>
-      <c r="E106" s="39" t="s">
-        <v>783</v>
       </c>
       <c r="F106" s="39"/>
       <c r="G106" s="39"/>
       <c r="H106" s="39"/>
     </row>
-    <row r="107" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="39"/>
       <c r="B107" s="39"/>
       <c r="C107" s="39"/>
       <c r="D107" s="39"/>
       <c r="E107" s="39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F107" s="39"/>
       <c r="G107" s="39"/>
       <c r="H107" s="39"/>
     </row>
-    <row r="108" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="39"/>
       <c r="B108" s="39"/>
       <c r="C108" s="39"/>
       <c r="D108" s="39"/>
       <c r="E108" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F108" s="39"/>
       <c r="G108" s="39"/>
       <c r="H108" s="39"/>
     </row>
-    <row r="109" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="39"/>
       <c r="B109" s="39"/>
       <c r="C109" s="39"/>
       <c r="D109" s="39"/>
       <c r="E109" s="39" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F109" s="39"/>
       <c r="G109" s="39"/>
       <c r="H109" s="39"/>
     </row>
-    <row r="110" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="39"/>
       <c r="B110" s="39"/>
       <c r="C110" s="39"/>
       <c r="D110" s="39"/>
       <c r="E110" s="39" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F110" s="39"/>
       <c r="G110" s="39"/>
       <c r="H110" s="39"/>
     </row>
-    <row r="111" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="39"/>
       <c r="B111" s="39"/>
       <c r="C111" s="39"/>
       <c r="D111" s="39"/>
       <c r="E111" s="39" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F111" s="39"/>
       <c r="G111" s="39"/>
       <c r="H111" s="39"/>
     </row>
-    <row r="112" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="39"/>
       <c r="B112" s="39"/>
       <c r="C112" s="39"/>
       <c r="D112" s="39"/>
       <c r="E112" s="39" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F112" s="39"/>
       <c r="G112" s="39"/>
       <c r="H112" s="39"/>
     </row>
-    <row r="113" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="39"/>
       <c r="B113" s="39"/>
       <c r="C113" s="39"/>
       <c r="D113" s="39"/>
       <c r="E113" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F113" s="39"/>
       <c r="G113" s="39"/>
       <c r="H113" s="39"/>
     </row>
-    <row r="114" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="39"/>
       <c r="B114" s="39"/>
       <c r="C114" s="39"/>
       <c r="D114" s="39"/>
       <c r="E114" s="39" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F114" s="39"/>
       <c r="G114" s="39"/>
       <c r="H114" s="39"/>
     </row>
-    <row r="115" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="39"/>
       <c r="B115" s="39"/>
       <c r="C115" s="39"/>
       <c r="D115" s="39"/>
       <c r="E115" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F115" s="39"/>
       <c r="G115" s="39"/>
       <c r="H115" s="39"/>
     </row>
-    <row r="116" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="39"/>
       <c r="B116" s="39"/>
       <c r="C116" s="39"/>
       <c r="D116" s="39"/>
       <c r="E116" s="39" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F116" s="39"/>
       <c r="G116" s="39"/>
       <c r="H116" s="39"/>
     </row>
-    <row r="117" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="39"/>
       <c r="B117" s="39"/>
       <c r="C117" s="39"/>
       <c r="D117" s="39"/>
       <c r="E117" s="39" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F117" s="39"/>
       <c r="G117" s="39"/>
       <c r="H117" s="39"/>
     </row>
-    <row r="118" spans="1:8" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="39"/>
       <c r="B118" s="39"/>
       <c r="C118" s="39"/>
       <c r="D118" s="39"/>
       <c r="E118" s="39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F118" s="39"/>
       <c r="G118" s="39"/>
       <c r="H118" s="39"/>
     </row>
-    <row r="119" spans="1:8" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="39"/>
       <c r="B119" s="39"/>
       <c r="C119" s="39"/>
       <c r="D119" s="39"/>
       <c r="E119" s="39" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F119" s="39"/>
       <c r="G119" s="39"/>
       <c r="H119" s="39"/>
     </row>
-    <row r="120" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="39"/>
       <c r="B120" s="39"/>
       <c r="C120" s="39"/>
       <c r="D120" s="39"/>
       <c r="E120" s="39" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F120" s="39"/>
       <c r="G120" s="39"/>
       <c r="H120" s="39"/>
     </row>
-    <row r="121" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="39"/>
       <c r="B121" s="39"/>
       <c r="C121" s="39"/>
       <c r="D121" s="39"/>
       <c r="E121" s="39" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F121" s="39"/>
       <c r="G121" s="39"/>
       <c r="H121" s="39"/>
     </row>
-    <row r="122" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="39"/>
       <c r="B122" s="39"/>
       <c r="C122" s="39"/>
       <c r="D122" s="39"/>
       <c r="E122" s="39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F122" s="39"/>
       <c r="G122" s="39"/>
       <c r="H122" s="39"/>
     </row>
-    <row r="123" spans="1:8" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="39"/>
       <c r="B123" s="39"/>
       <c r="C123" s="39"/>
       <c r="D123" s="39"/>
       <c r="E123" s="39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F123" s="39"/>
       <c r="G123" s="39"/>
       <c r="H123" s="39"/>
     </row>
-    <row r="124" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="39"/>
       <c r="B124" s="39"/>
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
       <c r="E124" s="39" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F124" s="39"/>
       <c r="G124" s="39"/>
       <c r="H124" s="39"/>
     </row>
-    <row r="125" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="39"/>
       <c r="B125" s="39"/>
       <c r="C125" s="39"/>
       <c r="D125" s="39"/>
       <c r="E125" s="39" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F125" s="39"/>
       <c r="G125" s="39"/>
       <c r="H125" s="39"/>
     </row>
-    <row r="126" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="39"/>
       <c r="B126" s="39"/>
       <c r="C126" s="39"/>
       <c r="D126" s="39"/>
       <c r="E126" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F126" s="39"/>
       <c r="G126" s="39"/>
       <c r="H126" s="39"/>
     </row>
-    <row r="127" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="39"/>
       <c r="B127" s="39"/>
       <c r="C127" s="39"/>
       <c r="D127" s="39"/>
       <c r="E127" s="39" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F127" s="39"/>
       <c r="G127" s="39"/>
       <c r="H127" s="39"/>
     </row>
-    <row r="128" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="39"/>
       <c r="B128" s="39"/>
       <c r="C128" s="39"/>
       <c r="D128" s="39"/>
       <c r="E128" s="39" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F128" s="39"/>
       <c r="G128" s="39"/>
       <c r="H128" s="39"/>
     </row>
-    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="39"/>
       <c r="B129" s="39"/>
       <c r="C129" s="39"/>
       <c r="D129" s="39"/>
       <c r="E129" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F129" s="39"/>
       <c r="G129" s="39"/>
       <c r="H129" s="39"/>
     </row>
-    <row r="130" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A130" s="39"/>
       <c r="B130" s="39"/>
       <c r="C130" s="39"/>
       <c r="D130" s="39"/>
       <c r="E130" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F130" s="39"/>
       <c r="G130" s="39"/>
       <c r="H130" s="39"/>
     </row>
-    <row r="131" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="39"/>
       <c r="B131" s="39"/>
       <c r="C131" s="39"/>
       <c r="D131" s="39"/>
       <c r="E131" s="39" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F131" s="39"/>
       <c r="G131" s="39"/>
       <c r="H131" s="39"/>
     </row>
-    <row r="132" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="39"/>
       <c r="B132" s="39"/>
       <c r="C132" s="39"/>
       <c r="D132" s="39"/>
       <c r="E132" s="39" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F132" s="39"/>
       <c r="G132" s="39"/>
       <c r="H132" s="39"/>
     </row>
-    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="39"/>
       <c r="B133" s="39"/>
       <c r="C133" s="39"/>
       <c r="D133" s="39"/>
       <c r="E133" s="39" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F133" s="39"/>
       <c r="G133" s="39"/>
       <c r="H133" s="39"/>
     </row>
-    <row r="134" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="39"/>
       <c r="B134" s="39"/>
       <c r="C134" s="39"/>
       <c r="D134" s="39"/>
       <c r="E134" s="39" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F134" s="39"/>
       <c r="G134" s="39"/>
       <c r="H134" s="39"/>
     </row>
-    <row r="135" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="39"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
       <c r="E135" s="39" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F135" s="39"/>
       <c r="G135" s="39"/>
       <c r="H135" s="39"/>
     </row>
-    <row r="136" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A136" s="39"/>
       <c r="B136" s="39"/>
       <c r="C136" s="39"/>
       <c r="D136" s="39"/>
       <c r="E136" s="39" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F136" s="39"/>
       <c r="G136" s="39"/>
       <c r="H136" s="39"/>
     </row>
-    <row r="137" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A137" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B137" s="39" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C137" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D137" s="39" t="s">
+        <v>814</v>
+      </c>
+      <c r="E137" s="39" t="s">
         <v>815</v>
-      </c>
-      <c r="E137" s="39" t="s">
-        <v>816</v>
       </c>
       <c r="F137" s="39"/>
       <c r="G137" s="39"/>
@@ -15988,30 +15954,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="19.1640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="4"/>
+    <col min="2" max="2" width="19.1796875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" style="40" customWidth="1"/>
     <col min="8" max="8" width="21" style="40" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -16025,7 +15991,7 @@
       <c r="I1" s="94"/>
       <c r="J1" s="95"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
@@ -16057,7 +16023,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="87" t="s">
         <v>5</v>
       </c>
@@ -16065,16 +16031,16 @@
         <v>436</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>900</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>901</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="39" t="s">
         <v>902</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>903</v>
       </c>
       <c r="G3" s="39" t="b">
         <v>1</v>
@@ -16084,10 +16050,10 @@
         <v>436</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="87" t="s">
         <v>5</v>
       </c>
@@ -16095,16 +16061,16 @@
         <v>436</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E4" s="39" t="s">
+        <v>904</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>905</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>906</v>
       </c>
       <c r="G4" s="39" t="b">
         <v>0</v>
@@ -16114,10 +16080,10 @@
         <v>436</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
@@ -16131,7 +16097,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
@@ -16161,7 +16127,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="83" t="s">
         <v>5</v>
       </c>
@@ -16189,7 +16155,7 @@
       </c>
       <c r="J7" s="83"/>
     </row>
-    <row r="8" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="83" t="s">
         <v>5</v>
       </c>
@@ -16211,7 +16177,7 @@
       <c r="I8" s="83"/>
       <c r="J8" s="83"/>
     </row>
-    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="83" t="s">
         <v>5</v>
       </c>
@@ -16235,7 +16201,7 @@
       <c r="I9" s="83"/>
       <c r="J9" s="83"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="83" t="s">
         <v>5</v>
       </c>
@@ -16259,7 +16225,7 @@
       <c r="I10" s="83"/>
       <c r="J10" s="83"/>
     </row>
-    <row r="11" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="83" t="s">
         <v>5</v>
       </c>
@@ -16287,7 +16253,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="83" t="s">
         <v>5</v>
       </c>
@@ -16309,7 +16275,7 @@
       <c r="I12" s="83"/>
       <c r="J12" s="83"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="83" t="s">
         <v>5</v>
       </c>
@@ -16331,7 +16297,7 @@
       <c r="I13" s="83"/>
       <c r="J13" s="83"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="83" t="s">
         <v>5</v>
       </c>
@@ -16366,29 +16332,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="3" width="16.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="40" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="40" customWidth="1"/>
     <col min="9" max="9" width="14" style="40" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="40" customWidth="1"/>
-    <col min="11" max="11" width="26.5" style="40" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" style="40" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="40" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="40" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
         <v>522</v>
       </c>
@@ -16406,7 +16372,7 @@
       <c r="K1" s="91"/>
       <c r="L1" s="92"/>
     </row>
-    <row r="2" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -16444,21 +16410,21 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F3" s="41" t="s">
         <v>21</v>
@@ -16478,15 +16444,15 @@
       <c r="K3" s="41"/>
       <c r="L3" s="39"/>
     </row>
-    <row r="4" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>23</v>
@@ -16504,23 +16470,23 @@
         <v>21</v>
       </c>
       <c r="I4" s="41" t="s">
+        <v>820</v>
+      </c>
+      <c r="J4" s="41" t="s">
         <v>821</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>822</v>
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="35"/>
     </row>
-    <row r="5" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>26</v>
@@ -16538,15 +16504,15 @@
         <v>21</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="K5" s="41"/>
       <c r="L5" s="35"/>
     </row>
-    <row r="6" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>4</v>
       </c>
@@ -16562,7 +16528,7 @@
       <c r="K6" s="41"/>
       <c r="L6" s="35"/>
     </row>
-    <row r="7" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="83" t="s">
         <v>5</v>
       </c>
@@ -16600,7 +16566,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="83" t="s">
         <v>5</v>
       </c>
@@ -16634,7 +16600,7 @@
       <c r="K8" s="83"/>
       <c r="L8" s="83"/>
     </row>
-    <row r="9" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="83" t="s">
         <v>5</v>
       </c>
@@ -16679,28 +16645,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="40" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" style="40" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="40"/>
+    <col min="1" max="1" width="32.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" style="40" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="40" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="48" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="48" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
         <v>500</v>
       </c>
       <c r="B1" s="95"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
@@ -16708,21 +16674,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="41"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -16730,7 +16696,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -16748,26 +16714,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="40" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" style="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
         <v>507</v>
       </c>
@@ -16779,7 +16745,7 @@
       <c r="G1" s="89"/>
       <c r="H1" s="89"/>
     </row>
-    <row r="2" spans="1:8" s="48" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="48" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -16805,15 +16771,15 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>38</v>
@@ -16822,20 +16788,20 @@
         <v>41</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>38</v>
@@ -16844,20 +16810,20 @@
         <v>41</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>38</v>
@@ -16866,12 +16832,12 @@
         <v>41</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
         <v>4</v>
       </c>
@@ -16883,7 +16849,7 @@
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="83" t="s">
         <v>5</v>
       </c>
@@ -16909,7 +16875,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="83" t="s">
         <v>5</v>
       </c>
@@ -16931,7 +16897,7 @@
       <c r="G8" s="83"/>
       <c r="H8" s="83"/>
     </row>
-    <row r="9" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="83" t="s">
         <v>5</v>
       </c>
@@ -16963,35 +16929,35 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.5" style="40" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="40" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="40" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="40" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="40" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="40" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="40" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" style="40" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" style="40" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="40" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="40" customWidth="1"/>
     <col min="17" max="17" width="10" style="40" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
         <v>501</v>
       </c>
@@ -17015,7 +16981,7 @@
       <c r="Q1" s="96"/>
       <c r="R1" s="96"/>
     </row>
-    <row r="2" spans="1:18" s="48" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="48" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -17071,18 +17037,18 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>53</v>
@@ -17097,10 +17063,10 @@
         <v>38</v>
       </c>
       <c r="I3" s="41" t="s">
+        <v>826</v>
+      </c>
+      <c r="J3" s="39" t="s">
         <v>827</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>828</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>24</v>
@@ -17123,36 +17089,36 @@
       <c r="Q3" s="41"/>
       <c r="R3" s="35"/>
     </row>
-    <row r="4" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D4" s="41" t="s">
+        <v>828</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>829</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>830</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="41" t="s">
+        <v>831</v>
+      </c>
+      <c r="J4" s="39" t="s">
         <v>832</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>833</v>
       </c>
       <c r="K4" s="36" t="s">
         <v>24</v>
@@ -17175,18 +17141,18 @@
       <c r="Q4" s="41"/>
       <c r="R4" s="35"/>
     </row>
-    <row r="5" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>409</v>
@@ -17195,16 +17161,16 @@
         <v>54</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="41" t="s">
+        <v>834</v>
+      </c>
+      <c r="J5" s="39" t="s">
         <v>835</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>836</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>24</v>
@@ -17227,18 +17193,18 @@
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
     </row>
-    <row r="6" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B6" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E6" s="41" t="s">
         <v>58</v>
@@ -17253,10 +17219,10 @@
         <v>38</v>
       </c>
       <c r="I6" s="41" t="s">
+        <v>837</v>
+      </c>
+      <c r="J6" s="39" t="s">
         <v>838</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>839</v>
       </c>
       <c r="K6" s="41" t="s">
         <v>24</v>
@@ -17279,21 +17245,21 @@
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
     </row>
-    <row r="7" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B7" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D7" s="41" t="s">
+        <v>839</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>840</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>841</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>54</v>
@@ -17305,10 +17271,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="41" t="s">
+        <v>841</v>
+      </c>
+      <c r="J7" s="39" t="s">
         <v>842</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>843</v>
       </c>
       <c r="K7" s="41" t="s">
         <v>24</v>
@@ -17331,21 +17297,21 @@
       <c r="Q7" s="41"/>
       <c r="R7" s="41"/>
     </row>
-    <row r="8" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D8" s="41" t="s">
+        <v>843</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>844</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>845</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>54</v>
@@ -17357,10 +17323,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="41" t="s">
+        <v>845</v>
+      </c>
+      <c r="J8" s="39" t="s">
         <v>846</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>847</v>
       </c>
       <c r="K8" s="41" t="s">
         <v>24</v>
@@ -17383,18 +17349,18 @@
       <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
     </row>
-    <row r="9" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B9" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>411</v>
@@ -17403,16 +17369,16 @@
         <v>54</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="41" t="s">
+        <v>848</v>
+      </c>
+      <c r="J9" s="39" t="s">
         <v>849</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>850</v>
       </c>
       <c r="K9" s="41" t="s">
         <v>24</v>
@@ -17435,18 +17401,18 @@
       <c r="Q9" s="41"/>
       <c r="R9" s="41"/>
     </row>
-    <row r="10" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>412</v>
@@ -17461,10 +17427,10 @@
         <v>38</v>
       </c>
       <c r="I10" s="41" t="s">
+        <v>851</v>
+      </c>
+      <c r="J10" s="39" t="s">
         <v>852</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>853</v>
       </c>
       <c r="K10" s="41" t="s">
         <v>24</v>
@@ -17487,18 +17453,18 @@
       <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
     </row>
-    <row r="11" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>415</v>
@@ -17513,10 +17479,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="41" t="s">
+        <v>854</v>
+      </c>
+      <c r="J11" s="39" t="s">
         <v>855</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>856</v>
       </c>
       <c r="K11" s="41" t="s">
         <v>24</v>
@@ -17539,21 +17505,21 @@
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
     </row>
-    <row r="12" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D12" s="41" t="s">
+        <v>856</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>857</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>858</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>54</v>
@@ -17565,10 +17531,10 @@
         <v>38</v>
       </c>
       <c r="I12" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="J12" s="39" t="s">
         <v>859</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>860</v>
       </c>
       <c r="K12" s="41" t="s">
         <v>24</v>
@@ -17591,7 +17557,7 @@
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
     </row>
-    <row r="13" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
@@ -17612,7 +17578,7 @@
       <c r="Q13" s="36"/>
       <c r="R13" s="35"/>
     </row>
-    <row r="14" spans="1:18" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="31.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="83" t="s">
         <v>5</v>
       </c>
@@ -17664,7 +17630,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="83" t="s">
         <v>5</v>
       </c>
@@ -17712,7 +17678,7 @@
       <c r="Q15" s="86"/>
       <c r="R15" s="83"/>
     </row>
-    <row r="16" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="83" t="s">
         <v>5</v>
       </c>
@@ -17760,7 +17726,7 @@
       <c r="Q16" s="86"/>
       <c r="R16" s="83"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="83" t="s">
         <v>5</v>
       </c>
@@ -17810,7 +17776,7 @@
       <c r="Q17" s="86"/>
       <c r="R17" s="83"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="83" t="s">
         <v>5</v>
       </c>
@@ -17860,7 +17826,7 @@
       <c r="Q18" s="86"/>
       <c r="R18" s="83"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="83" t="s">
         <v>5</v>
       </c>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -4700,211 +4700,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The Tool Kit does not support Export or Creation of Instances with multiple VNICs currently.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-"Pub Address" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Represents whether public address needs to be assigned to the instance or not(TRUE|FALSE).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"SSH Key Var Name" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Accepts the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key to be pushed to the server. 
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NSGs" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DedicatedVMHost" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leave this field empty if the instance does not need to be launched on dedicated vm host.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Source Details" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- Specify if the instance is to be launched from Image or Boot Volume.
-                                    Format - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>image::&lt;variable containing image ocid&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (or)  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bootVolume::&lt;variable  containing boot volume ocid&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 "Compartment Name" - </t>
     </r>
@@ -6734,6 +6529,211 @@
       <t xml:space="preserve">
 CD3 Sheet Format is same as release v7.0
 Added additional components to Groups, Policies, Tags as per CIS compliance
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Tool Kit does not support Export or Creation of Instances with multiple VNICs currently.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Pub Address" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Represents whether public address needs to be assigned to the instance or not(TRUE|FALSE).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"SSH Key Var Name" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Accepts SSH Key value or the name of the variable defined in variables_&lt;region&gt;.tf file containing SSH key; Multiple keys should be separated by \n
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NSGs" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Accepts comma seperated list of NSG names instance needs to be part of, leave it blank if instance doesnot need to be part of any NSG.
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DedicatedVMHost" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leave this field empty if the instance does not need to be launched on dedicated vm host.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Source Details" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Specify if the instance is to be launched from Image or Boot Volume.
+                                    Format - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image::&lt;variable containing image ocid&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (or)  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bootVolume::&lt;variable  containing boot volume ocid&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -7905,7 +7905,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="80" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
@@ -8207,13 +8207,13 @@
         <v>379</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>859</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>860</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>861</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>419</v>
@@ -8227,7 +8227,7 @@
         <v>420</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
@@ -8240,7 +8240,7 @@
       <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
       <c r="R3" s="39" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="S3" s="39"/>
       <c r="T3" s="39"/>
@@ -8253,13 +8253,13 @@
         <v>379</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>419</v>
@@ -8268,7 +8268,7 @@
         <v>82</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I4" s="39" t="s">
         <v>31</v>
@@ -8286,7 +8286,7 @@
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
       <c r="R4" s="39" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="S4" s="39"/>
       <c r="T4" s="39"/>
@@ -8299,13 +8299,13 @@
         <v>379</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F5" s="39" t="s">
         <v>419</v>
@@ -8314,10 +8314,10 @@
         <v>82</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
@@ -8332,7 +8332,7 @@
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
       <c r="R5" s="39" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="S5" s="39"/>
       <c r="T5" s="39"/>
@@ -8345,13 +8345,13 @@
         <v>379</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>419</v>
@@ -8365,7 +8365,7 @@
         <v>420</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -8378,7 +8378,7 @@
       <c r="P6" s="39"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="39" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="S6" s="39"/>
       <c r="T6" s="39"/>
@@ -8391,13 +8391,13 @@
         <v>379</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>419</v>
@@ -8406,10 +8406,10 @@
         <v>82</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
@@ -8424,7 +8424,7 @@
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
       <c r="R7" s="39" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="S7" s="39"/>
       <c r="T7" s="39"/>
@@ -8437,13 +8437,13 @@
         <v>379</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F8" s="39" t="s">
         <v>419</v>
@@ -8452,10 +8452,10 @@
         <v>82</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
@@ -8470,7 +8470,7 @@
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="39" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
@@ -8483,13 +8483,13 @@
         <v>379</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>419</v>
@@ -8503,7 +8503,7 @@
         <v>420</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -8516,7 +8516,7 @@
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
       <c r="R9" s="39" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
@@ -8529,13 +8529,13 @@
         <v>379</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F10" s="39" t="s">
         <v>419</v>
@@ -8546,10 +8546,10 @@
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
       <c r="J10" s="39" t="s">
+        <v>875</v>
+      </c>
+      <c r="K10" s="39" t="s">
         <v>876</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>877</v>
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
@@ -8562,7 +8562,7 @@
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
       <c r="R10" s="39" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
@@ -8575,13 +8575,13 @@
         <v>379</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>419</v>
@@ -8590,10 +8590,10 @@
         <v>82</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
@@ -8608,7 +8608,7 @@
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
@@ -8621,13 +8621,13 @@
         <v>379</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>419</v>
@@ -8636,10 +8636,10 @@
         <v>82</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
@@ -8654,7 +8654,7 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="39" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
@@ -8667,13 +8667,13 @@
         <v>379</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>419</v>
@@ -8687,7 +8687,7 @@
         <v>420</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
@@ -8700,7 +8700,7 @@
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
       <c r="R13" s="39" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="S13" s="39"/>
       <c r="T13" s="39"/>
@@ -8713,13 +8713,13 @@
         <v>379</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>419</v>
@@ -8730,10 +8730,10 @@
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39" t="s">
+        <v>875</v>
+      </c>
+      <c r="K14" s="39" t="s">
         <v>876</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>877</v>
       </c>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
@@ -8746,7 +8746,7 @@
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
       <c r="R14" s="39" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
@@ -8759,13 +8759,13 @@
         <v>379</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>419</v>
@@ -8774,10 +8774,10 @@
         <v>82</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
@@ -8792,7 +8792,7 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
       <c r="R15" s="39" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
@@ -8805,13 +8805,13 @@
         <v>379</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F16" s="39" t="s">
         <v>419</v>
@@ -8820,10 +8820,10 @@
         <v>82</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
@@ -8838,7 +8838,7 @@
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="39" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="S16" s="39"/>
       <c r="T16" s="39"/>
@@ -9179,8 +9179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9205,7 +9205,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="97" t="s">
-        <v>537</v>
+        <v>915</v>
       </c>
       <c r="B1" s="98"/>
       <c r="C1" s="98"/>
@@ -9215,7 +9215,7 @@
       <c r="G1" s="98"/>
       <c r="H1" s="99"/>
       <c r="I1" s="90" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J1" s="91"/>
       <c r="K1" s="91"/>
@@ -9263,7 +9263,7 @@
         <v>100</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="N2" s="33" t="s">
         <v>101</v>
@@ -9330,7 +9330,7 @@
         <v>107</v>
       </c>
       <c r="L4" s="50" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M4" s="50" t="s">
         <v>393</v>
@@ -9502,7 +9502,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -9540,7 +9540,7 @@
         <v>100</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>491</v>
@@ -9583,7 +9583,7 @@
         <v>114</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I4" s="50" t="s">
         <v>393</v>
@@ -9778,7 +9778,7 @@
         <v>129</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -9803,7 +9803,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>130</v>
@@ -9827,7 +9827,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>132</v>
@@ -9864,7 +9864,7 @@
         <v>134</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -9897,7 +9897,7 @@
         <v>136</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>137</v>
@@ -9936,7 +9936,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>139</v>
@@ -9973,7 +9973,7 @@
         <v>141</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -11273,10 +11273,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>655</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>656</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>657</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>436</v>
@@ -11288,10 +11288,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>657</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>658</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>659</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>436</v>
@@ -11306,7 +11306,7 @@
         <v>379</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>436</v>
@@ -11318,10 +11318,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
+        <v>660</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>661</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>662</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>436</v>
@@ -12339,7 +12339,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="57" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -12433,7 +12433,7 @@
         <v>456</v>
       </c>
       <c r="W2" s="76" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="X2" s="76" t="s">
         <v>491</v>
@@ -12535,7 +12535,7 @@
         <v>15</v>
       </c>
       <c r="W4" s="41" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="X4" s="41" t="s">
         <v>513</v>
@@ -12609,7 +12609,7 @@
         <v>15</v>
       </c>
       <c r="W5" s="41" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="X5" s="41" t="s">
         <v>514</v>
@@ -12689,7 +12689,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="57" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -12783,7 +12783,7 @@
         <v>456</v>
       </c>
       <c r="W2" s="76" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="X2" s="79" t="s">
         <v>491</v>
@@ -12885,7 +12885,7 @@
         <v>15</v>
       </c>
       <c r="W4" s="41" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="X4" s="39" t="s">
         <v>512</v>
@@ -12959,7 +12959,7 @@
         <v>15</v>
       </c>
       <c r="W5" s="82" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="X5" s="41"/>
     </row>
@@ -13038,7 +13038,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="57" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -13132,7 +13132,7 @@
         <v>456</v>
       </c>
       <c r="W2" s="76" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="X2" s="21" t="s">
         <v>491</v>
@@ -13233,7 +13233,7 @@
         <v>10</v>
       </c>
       <c r="W4" s="82" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="X4" s="39" t="s">
         <v>512</v>
@@ -13376,10 +13376,10 @@
         <v>461</v>
       </c>
       <c r="H3" s="81" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -13399,7 +13399,7 @@
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="I4" s="41" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -13419,7 +13419,7 @@
       <c r="F5" s="41"/>
       <c r="G5" s="41"/>
       <c r="I5" s="41" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -13437,7 +13437,7 @@
       <c r="F6" s="41"/>
       <c r="G6" s="41"/>
       <c r="I6" s="41" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -13455,7 +13455,7 @@
       <c r="F7" s="41"/>
       <c r="G7" s="41"/>
       <c r="I7" s="41" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -13471,7 +13471,7 @@
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
       <c r="I8" s="41" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -13487,7 +13487,7 @@
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
       <c r="I9" s="41" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -13503,7 +13503,7 @@
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="I10" s="41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -13519,7 +13519,7 @@
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
       <c r="I11" s="41" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -13533,7 +13533,7 @@
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="I12" s="41" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -13547,7 +13547,7 @@
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="I13" s="41" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -13561,477 +13561,477 @@
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="I14" s="41" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I15" s="41" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I16" s="41" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I17" s="41" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I18" s="41" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19" s="41" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I20" s="41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I21" s="41" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I22" s="41" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I23" s="41" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I24" s="41" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I25" s="41" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I26" s="41" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I27" s="41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I28" s="41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I29" s="41" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I30" s="41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I31" s="41" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I32" s="41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I33" s="41" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I34" s="41" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I35" s="41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I36" s="41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I37" s="41" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I38" s="41" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I39" s="41" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I40" s="41" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="41" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I41" s="41" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I42" s="41" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="43" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I43" s="41" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I44" s="41" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I45" s="41" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I46" s="41" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I47" s="41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="48" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I48" s="41" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I49" s="41" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="50" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I50" s="41" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="51" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I51" s="41" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="52" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I52" s="41" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="53" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I53" s="41" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="54" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I54" s="41" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="55" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I55" s="41" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="56" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I56" s="41" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="57" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I57" s="41" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="58" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I58" s="41" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="59" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I59" s="41" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="60" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I60" s="41" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="61" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I61" s="41" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="62" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I62" s="41" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I63" s="41" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="64" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I64" s="41" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I65" s="41" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I66" s="41" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67" s="41" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I68" s="41" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I69" s="41" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I70" s="41" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I71" s="41" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I72" s="41" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I73" s="41" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I74" s="41" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I75" s="41" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I76" s="41" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I77" s="41" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I78" s="41" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I79" s="41" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I80" s="41" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I81" s="41" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I82" s="41" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I83" s="41" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I84" s="41" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I85" s="41" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="86" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I86" s="41" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="87" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I87" s="41" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="88" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I88" s="41" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="89" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I89" s="41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="90" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I90" s="41" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="91" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I91" s="41" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="92" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I92" s="41" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="93" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I93" s="41" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="94" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I94" s="41" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="95" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I95" s="41" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="96" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I96" s="41" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="97" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I97" s="41" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="98" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I98" s="41" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="99" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I99" s="41" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I100" s="41" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="101" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I101" s="41" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="102" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I102" s="41" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="103" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I103" s="41" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="104" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I104" s="41" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="105" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I105" s="41" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="106" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I106" s="41" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="107" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I107" s="41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="108" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I108" s="41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -14088,10 +14088,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="39" t="s">
+        <v>662</v>
+      </c>
+      <c r="C3" s="39" t="s">
         <v>663</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>664</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="41"/>
@@ -14101,10 +14101,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="39" t="s">
+        <v>664</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>665</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>666</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="41"/>
@@ -14114,10 +14114,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="39" t="s">
+        <v>666</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>667</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>668</v>
       </c>
       <c r="D5" s="39"/>
       <c r="E5" s="41"/>
@@ -14127,10 +14127,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
+        <v>668</v>
+      </c>
+      <c r="C6" s="39" t="s">
         <v>669</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>670</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="41"/>
@@ -14140,10 +14140,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="85" t="s">
+        <v>670</v>
+      </c>
+      <c r="C7" s="85" t="s">
         <v>671</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>672</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -14153,10 +14153,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="39" t="s">
+        <v>672</v>
+      </c>
+      <c r="C8" s="39" t="s">
         <v>673</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>674</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
@@ -14166,10 +14166,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="39" t="s">
+        <v>883</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>884</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>885</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
@@ -14250,16 +14250,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>886</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>887</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>888</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -14270,16 +14270,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D4" s="39" t="s">
+        <v>675</v>
+      </c>
+      <c r="E4" s="39" t="s">
         <v>676</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>677</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -14291,7 +14291,7 @@
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
       <c r="E5" s="39" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -14303,7 +14303,7 @@
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="39" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -14315,7 +14315,7 @@
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -14327,7 +14327,7 @@
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
@@ -14339,7 +14339,7 @@
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="39" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
@@ -14351,7 +14351,7 @@
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="39" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
@@ -14363,7 +14363,7 @@
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
@@ -14375,7 +14375,7 @@
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
@@ -14387,7 +14387,7 @@
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
@@ -14399,7 +14399,7 @@
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
@@ -14411,7 +14411,7 @@
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
@@ -14423,7 +14423,7 @@
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
@@ -14435,7 +14435,7 @@
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -14447,7 +14447,7 @@
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
@@ -14459,7 +14459,7 @@
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
@@ -14471,7 +14471,7 @@
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
@@ -14483,7 +14483,7 @@
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
@@ -14495,7 +14495,7 @@
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
@@ -14507,7 +14507,7 @@
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
@@ -14519,7 +14519,7 @@
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
@@ -14531,7 +14531,7 @@
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
@@ -14543,7 +14543,7 @@
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
@@ -14555,7 +14555,7 @@
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -14567,7 +14567,7 @@
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
@@ -14579,7 +14579,7 @@
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="39" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -14591,7 +14591,7 @@
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="39" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
@@ -14603,7 +14603,7 @@
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
@@ -14614,16 +14614,16 @@
         <v>5</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D32" s="39" t="s">
+        <v>702</v>
+      </c>
+      <c r="E32" s="39" t="s">
         <v>703</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>704</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
@@ -14635,7 +14635,7 @@
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
@@ -14647,7 +14647,7 @@
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
@@ -14659,7 +14659,7 @@
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="39" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
@@ -14671,7 +14671,7 @@
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
@@ -14683,7 +14683,7 @@
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
@@ -14695,7 +14695,7 @@
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
       <c r="E38" s="39" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
@@ -14707,7 +14707,7 @@
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
       <c r="E39" s="39" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
@@ -14719,7 +14719,7 @@
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
       <c r="E40" s="39" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F40" s="39"/>
       <c r="G40" s="39"/>
@@ -14731,7 +14731,7 @@
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="39" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
@@ -14743,7 +14743,7 @@
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
       <c r="E42" s="39" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F42" s="39"/>
       <c r="G42" s="39"/>
@@ -14755,7 +14755,7 @@
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
       <c r="E43" s="39" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39"/>
@@ -14766,16 +14766,16 @@
         <v>5</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C44" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D44" s="39" t="s">
+        <v>715</v>
+      </c>
+      <c r="E44" s="39" t="s">
         <v>716</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>717</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="39"/>
@@ -14787,7 +14787,7 @@
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
       <c r="E45" s="39" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="39"/>
@@ -14799,7 +14799,7 @@
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
@@ -14811,7 +14811,7 @@
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
       <c r="E47" s="39" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="39"/>
@@ -14823,7 +14823,7 @@
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
       <c r="E48" s="39" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F48" s="39"/>
       <c r="G48" s="39"/>
@@ -14835,7 +14835,7 @@
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
       <c r="E49" s="39" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
@@ -14847,7 +14847,7 @@
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
@@ -14859,7 +14859,7 @@
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
       <c r="E51" s="39" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
@@ -14871,7 +14871,7 @@
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
       <c r="E52" s="39" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
@@ -14883,7 +14883,7 @@
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
       <c r="E53" s="39" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
@@ -14895,7 +14895,7 @@
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="39" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
@@ -14907,7 +14907,7 @@
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="39" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
@@ -14919,7 +14919,7 @@
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
       <c r="E56" s="39" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
@@ -14931,7 +14931,7 @@
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
       <c r="E57" s="39" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
@@ -14943,7 +14943,7 @@
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
       <c r="E58" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
@@ -14955,7 +14955,7 @@
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
       <c r="E59" s="39" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
@@ -14967,7 +14967,7 @@
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="39" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
@@ -14978,16 +14978,16 @@
         <v>5</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D61" s="39" t="s">
+        <v>734</v>
+      </c>
+      <c r="E61" s="39" t="s">
         <v>735</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>736</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
@@ -14999,7 +14999,7 @@
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
       <c r="E62" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
@@ -15011,7 +15011,7 @@
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
       <c r="E63" s="39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F63" s="39"/>
       <c r="G63" s="39"/>
@@ -15023,7 +15023,7 @@
       <c r="C64" s="39"/>
       <c r="D64" s="39"/>
       <c r="E64" s="39" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F64" s="39"/>
       <c r="G64" s="39"/>
@@ -15035,7 +15035,7 @@
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
       <c r="E65" s="39" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F65" s="39"/>
       <c r="G65" s="39"/>
@@ -15047,7 +15047,7 @@
       <c r="C66" s="39"/>
       <c r="D66" s="39"/>
       <c r="E66" s="39" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
@@ -15059,7 +15059,7 @@
       <c r="C67" s="39"/>
       <c r="D67" s="39"/>
       <c r="E67" s="39" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F67" s="39"/>
       <c r="G67" s="39"/>
@@ -15071,7 +15071,7 @@
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
       <c r="E68" s="39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F68" s="39"/>
       <c r="G68" s="39"/>
@@ -15083,7 +15083,7 @@
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
       <c r="E69" s="39" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F69" s="39"/>
       <c r="G69" s="39"/>
@@ -15095,7 +15095,7 @@
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
       <c r="E70" s="39" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F70" s="39"/>
       <c r="G70" s="39"/>
@@ -15107,7 +15107,7 @@
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
       <c r="E71" s="39" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F71" s="39"/>
       <c r="G71" s="39"/>
@@ -15119,7 +15119,7 @@
       <c r="C72" s="39"/>
       <c r="D72" s="39"/>
       <c r="E72" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F72" s="39"/>
       <c r="G72" s="39"/>
@@ -15131,7 +15131,7 @@
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
       <c r="E73" s="39" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F73" s="39"/>
       <c r="G73" s="39"/>
@@ -15143,7 +15143,7 @@
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
       <c r="E74" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F74" s="39"/>
       <c r="G74" s="39"/>
@@ -15155,7 +15155,7 @@
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
       <c r="E75" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F75" s="39"/>
       <c r="G75" s="39"/>
@@ -15167,7 +15167,7 @@
       <c r="C76" s="39"/>
       <c r="D76" s="39"/>
       <c r="E76" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F76" s="39"/>
       <c r="G76" s="39"/>
@@ -15179,7 +15179,7 @@
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
       <c r="E77" s="39" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F77" s="39"/>
       <c r="G77" s="39"/>
@@ -15190,16 +15190,16 @@
         <v>5</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C78" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D78" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="E78" s="39" t="s">
         <v>752</v>
-      </c>
-      <c r="E78" s="39" t="s">
-        <v>753</v>
       </c>
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
@@ -15211,7 +15211,7 @@
       <c r="C79" s="39"/>
       <c r="D79" s="39"/>
       <c r="E79" s="39" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F79" s="39"/>
       <c r="G79" s="39"/>
@@ -15223,7 +15223,7 @@
       <c r="C80" s="39"/>
       <c r="D80" s="39"/>
       <c r="E80" s="39" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F80" s="39"/>
       <c r="G80" s="39"/>
@@ -15235,7 +15235,7 @@
       <c r="C81" s="39"/>
       <c r="D81" s="39"/>
       <c r="E81" s="39" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F81" s="39"/>
       <c r="G81" s="39"/>
@@ -15247,7 +15247,7 @@
       <c r="C82" s="39"/>
       <c r="D82" s="39"/>
       <c r="E82" s="39" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
@@ -15259,7 +15259,7 @@
       <c r="C83" s="39"/>
       <c r="D83" s="39"/>
       <c r="E83" s="39" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F83" s="39"/>
       <c r="G83" s="39"/>
@@ -15271,7 +15271,7 @@
       <c r="C84" s="39"/>
       <c r="D84" s="39"/>
       <c r="E84" s="39" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="F84" s="39"/>
       <c r="G84" s="39"/>
@@ -15283,7 +15283,7 @@
       <c r="C85" s="39"/>
       <c r="D85" s="39"/>
       <c r="E85" s="39" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F85" s="39"/>
       <c r="G85" s="39"/>
@@ -15295,7 +15295,7 @@
       <c r="C86" s="39"/>
       <c r="D86" s="39"/>
       <c r="E86" s="39" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F86" s="39"/>
       <c r="G86" s="39"/>
@@ -15307,7 +15307,7 @@
       <c r="C87" s="39"/>
       <c r="D87" s="39"/>
       <c r="E87" s="39" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F87" s="39"/>
       <c r="G87" s="39"/>
@@ -15319,7 +15319,7 @@
       <c r="C88" s="39"/>
       <c r="D88" s="39"/>
       <c r="E88" s="39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F88" s="39"/>
       <c r="G88" s="39"/>
@@ -15331,7 +15331,7 @@
       <c r="C89" s="39"/>
       <c r="D89" s="39"/>
       <c r="E89" s="39" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
@@ -15343,7 +15343,7 @@
       <c r="C90" s="39"/>
       <c r="D90" s="39"/>
       <c r="E90" s="39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F90" s="39"/>
       <c r="G90" s="39"/>
@@ -15355,7 +15355,7 @@
       <c r="C91" s="39"/>
       <c r="D91" s="39"/>
       <c r="E91" s="39" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F91" s="39"/>
       <c r="G91" s="39"/>
@@ -15367,7 +15367,7 @@
       <c r="C92" s="39"/>
       <c r="D92" s="39"/>
       <c r="E92" s="39" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F92" s="39"/>
       <c r="G92" s="39"/>
@@ -15379,7 +15379,7 @@
       <c r="C93" s="39"/>
       <c r="D93" s="39"/>
       <c r="E93" s="39" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F93" s="39"/>
       <c r="G93" s="39"/>
@@ -15391,7 +15391,7 @@
       <c r="C94" s="39"/>
       <c r="D94" s="39"/>
       <c r="E94" s="39" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F94" s="39"/>
       <c r="G94" s="39"/>
@@ -15402,16 +15402,16 @@
         <v>5</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C95" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D95" s="39" t="s">
+        <v>769</v>
+      </c>
+      <c r="E95" s="39" t="s">
         <v>770</v>
-      </c>
-      <c r="E95" s="39" t="s">
-        <v>771</v>
       </c>
       <c r="F95" s="39"/>
       <c r="G95" s="39"/>
@@ -15423,7 +15423,7 @@
       <c r="C96" s="39"/>
       <c r="D96" s="39"/>
       <c r="E96" s="39" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F96" s="39"/>
       <c r="G96" s="39"/>
@@ -15435,7 +15435,7 @@
       <c r="C97" s="39"/>
       <c r="D97" s="39"/>
       <c r="E97" s="39" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F97" s="39"/>
       <c r="G97" s="39"/>
@@ -15447,7 +15447,7 @@
       <c r="C98" s="39"/>
       <c r="D98" s="39"/>
       <c r="E98" s="39" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F98" s="39"/>
       <c r="G98" s="39"/>
@@ -15459,7 +15459,7 @@
       <c r="C99" s="39"/>
       <c r="D99" s="39"/>
       <c r="E99" s="39" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F99" s="39"/>
       <c r="G99" s="39"/>
@@ -15471,7 +15471,7 @@
       <c r="C100" s="39"/>
       <c r="D100" s="39"/>
       <c r="E100" s="39" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F100" s="39"/>
       <c r="G100" s="39"/>
@@ -15483,7 +15483,7 @@
       <c r="C101" s="39"/>
       <c r="D101" s="39"/>
       <c r="E101" s="39" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F101" s="39"/>
       <c r="G101" s="39"/>
@@ -15495,7 +15495,7 @@
       <c r="C102" s="39"/>
       <c r="D102" s="39"/>
       <c r="E102" s="39" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F102" s="39"/>
       <c r="G102" s="39"/>
@@ -15507,7 +15507,7 @@
       <c r="C103" s="39"/>
       <c r="D103" s="39"/>
       <c r="E103" s="39" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F103" s="39"/>
       <c r="G103" s="39"/>
@@ -15519,7 +15519,7 @@
       <c r="C104" s="39"/>
       <c r="D104" s="39"/>
       <c r="E104" s="39" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F104" s="39"/>
       <c r="G104" s="39"/>
@@ -15530,16 +15530,16 @@
         <v>5</v>
       </c>
       <c r="B105" s="39" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C105" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D105" s="39" t="s">
+        <v>897</v>
+      </c>
+      <c r="E105" s="39" t="s">
         <v>898</v>
-      </c>
-      <c r="E105" s="39" t="s">
-        <v>899</v>
       </c>
       <c r="F105" s="39"/>
       <c r="G105" s="39"/>
@@ -15550,16 +15550,16 @@
         <v>5</v>
       </c>
       <c r="B106" s="39" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D106" s="39" t="s">
+        <v>780</v>
+      </c>
+      <c r="E106" s="39" t="s">
         <v>781</v>
-      </c>
-      <c r="E106" s="39" t="s">
-        <v>782</v>
       </c>
       <c r="F106" s="39"/>
       <c r="G106" s="39"/>
@@ -15571,7 +15571,7 @@
       <c r="C107" s="39"/>
       <c r="D107" s="39"/>
       <c r="E107" s="39" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F107" s="39"/>
       <c r="G107" s="39"/>
@@ -15583,7 +15583,7 @@
       <c r="C108" s="39"/>
       <c r="D108" s="39"/>
       <c r="E108" s="39" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F108" s="39"/>
       <c r="G108" s="39"/>
@@ -15595,7 +15595,7 @@
       <c r="C109" s="39"/>
       <c r="D109" s="39"/>
       <c r="E109" s="39" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F109" s="39"/>
       <c r="G109" s="39"/>
@@ -15607,7 +15607,7 @@
       <c r="C110" s="39"/>
       <c r="D110" s="39"/>
       <c r="E110" s="39" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F110" s="39"/>
       <c r="G110" s="39"/>
@@ -15619,7 +15619,7 @@
       <c r="C111" s="39"/>
       <c r="D111" s="39"/>
       <c r="E111" s="39" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F111" s="39"/>
       <c r="G111" s="39"/>
@@ -15631,7 +15631,7 @@
       <c r="C112" s="39"/>
       <c r="D112" s="39"/>
       <c r="E112" s="39" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F112" s="39"/>
       <c r="G112" s="39"/>
@@ -15643,7 +15643,7 @@
       <c r="C113" s="39"/>
       <c r="D113" s="39"/>
       <c r="E113" s="39" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F113" s="39"/>
       <c r="G113" s="39"/>
@@ -15655,7 +15655,7 @@
       <c r="C114" s="39"/>
       <c r="D114" s="39"/>
       <c r="E114" s="39" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F114" s="39"/>
       <c r="G114" s="39"/>
@@ -15667,7 +15667,7 @@
       <c r="C115" s="39"/>
       <c r="D115" s="39"/>
       <c r="E115" s="39" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F115" s="39"/>
       <c r="G115" s="39"/>
@@ -15679,7 +15679,7 @@
       <c r="C116" s="39"/>
       <c r="D116" s="39"/>
       <c r="E116" s="39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F116" s="39"/>
       <c r="G116" s="39"/>
@@ -15691,7 +15691,7 @@
       <c r="C117" s="39"/>
       <c r="D117" s="39"/>
       <c r="E117" s="39" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F117" s="39"/>
       <c r="G117" s="39"/>
@@ -15703,7 +15703,7 @@
       <c r="C118" s="39"/>
       <c r="D118" s="39"/>
       <c r="E118" s="39" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F118" s="39"/>
       <c r="G118" s="39"/>
@@ -15715,7 +15715,7 @@
       <c r="C119" s="39"/>
       <c r="D119" s="39"/>
       <c r="E119" s="39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F119" s="39"/>
       <c r="G119" s="39"/>
@@ -15727,7 +15727,7 @@
       <c r="C120" s="39"/>
       <c r="D120" s="39"/>
       <c r="E120" s="39" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F120" s="39"/>
       <c r="G120" s="39"/>
@@ -15739,7 +15739,7 @@
       <c r="C121" s="39"/>
       <c r="D121" s="39"/>
       <c r="E121" s="39" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F121" s="39"/>
       <c r="G121" s="39"/>
@@ -15751,7 +15751,7 @@
       <c r="C122" s="39"/>
       <c r="D122" s="39"/>
       <c r="E122" s="39" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F122" s="39"/>
       <c r="G122" s="39"/>
@@ -15763,7 +15763,7 @@
       <c r="C123" s="39"/>
       <c r="D123" s="39"/>
       <c r="E123" s="39" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F123" s="39"/>
       <c r="G123" s="39"/>
@@ -15775,7 +15775,7 @@
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
       <c r="E124" s="39" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F124" s="39"/>
       <c r="G124" s="39"/>
@@ -15787,7 +15787,7 @@
       <c r="C125" s="39"/>
       <c r="D125" s="39"/>
       <c r="E125" s="39" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F125" s="39"/>
       <c r="G125" s="39"/>
@@ -15799,7 +15799,7 @@
       <c r="C126" s="39"/>
       <c r="D126" s="39"/>
       <c r="E126" s="39" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F126" s="39"/>
       <c r="G126" s="39"/>
@@ -15811,7 +15811,7 @@
       <c r="C127" s="39"/>
       <c r="D127" s="39"/>
       <c r="E127" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F127" s="39"/>
       <c r="G127" s="39"/>
@@ -15823,7 +15823,7 @@
       <c r="C128" s="39"/>
       <c r="D128" s="39"/>
       <c r="E128" s="39" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F128" s="39"/>
       <c r="G128" s="39"/>
@@ -15835,7 +15835,7 @@
       <c r="C129" s="39"/>
       <c r="D129" s="39"/>
       <c r="E129" s="39" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F129" s="39"/>
       <c r="G129" s="39"/>
@@ -15847,7 +15847,7 @@
       <c r="C130" s="39"/>
       <c r="D130" s="39"/>
       <c r="E130" s="39" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F130" s="39"/>
       <c r="G130" s="39"/>
@@ -15859,7 +15859,7 @@
       <c r="C131" s="39"/>
       <c r="D131" s="39"/>
       <c r="E131" s="39" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F131" s="39"/>
       <c r="G131" s="39"/>
@@ -15871,7 +15871,7 @@
       <c r="C132" s="39"/>
       <c r="D132" s="39"/>
       <c r="E132" s="39" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F132" s="39"/>
       <c r="G132" s="39"/>
@@ -15883,7 +15883,7 @@
       <c r="C133" s="39"/>
       <c r="D133" s="39"/>
       <c r="E133" s="39" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F133" s="39"/>
       <c r="G133" s="39"/>
@@ -15895,7 +15895,7 @@
       <c r="C134" s="39"/>
       <c r="D134" s="39"/>
       <c r="E134" s="39" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F134" s="39"/>
       <c r="G134" s="39"/>
@@ -15907,7 +15907,7 @@
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
       <c r="E135" s="39" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F135" s="39"/>
       <c r="G135" s="39"/>
@@ -15919,7 +15919,7 @@
       <c r="C136" s="39"/>
       <c r="D136" s="39"/>
       <c r="E136" s="39" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F136" s="39"/>
       <c r="G136" s="39"/>
@@ -15930,16 +15930,16 @@
         <v>5</v>
       </c>
       <c r="B137" s="39" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C137" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D137" s="39" t="s">
+        <v>813</v>
+      </c>
+      <c r="E137" s="39" t="s">
         <v>814</v>
-      </c>
-      <c r="E137" s="39" t="s">
-        <v>815</v>
       </c>
       <c r="F137" s="39"/>
       <c r="G137" s="39"/>
@@ -15977,7 +15977,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="90" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -16031,16 +16031,16 @@
         <v>436</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>899</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>900</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="39" t="s">
         <v>901</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>902</v>
       </c>
       <c r="G3" s="39" t="b">
         <v>1</v>
@@ -16050,7 +16050,7 @@
         <v>436</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -16061,16 +16061,16 @@
         <v>436</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E4" s="39" t="s">
+        <v>903</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>904</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>905</v>
       </c>
       <c r="G4" s="39" t="b">
         <v>0</v>
@@ -16080,7 +16080,7 @@
         <v>436</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -16412,19 +16412,19 @@
     </row>
     <row r="3" spans="1:12" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F3" s="41" t="s">
         <v>21</v>
@@ -16446,13 +16446,13 @@
     </row>
     <row r="4" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>23</v>
@@ -16470,23 +16470,23 @@
         <v>21</v>
       </c>
       <c r="I4" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="J4" s="41" t="s">
         <v>820</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>821</v>
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>26</v>
@@ -16504,10 +16504,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="K5" s="41"/>
       <c r="L5" s="35"/>
@@ -16679,7 +16679,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -16773,13 +16773,13 @@
     </row>
     <row r="3" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>38</v>
@@ -16788,20 +16788,20 @@
         <v>41</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>38</v>
@@ -16810,20 +16810,20 @@
         <v>41</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>38</v>
@@ -16832,7 +16832,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
@@ -17039,16 +17039,16 @@
     </row>
     <row r="3" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>53</v>
@@ -17063,10 +17063,10 @@
         <v>38</v>
       </c>
       <c r="I3" s="41" t="s">
+        <v>825</v>
+      </c>
+      <c r="J3" s="39" t="s">
         <v>826</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>827</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>24</v>
@@ -17091,34 +17091,34 @@
     </row>
     <row r="4" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D4" s="41" t="s">
+        <v>827</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>828</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>829</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="41" t="s">
+        <v>830</v>
+      </c>
+      <c r="J4" s="39" t="s">
         <v>831</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>832</v>
       </c>
       <c r="K4" s="36" t="s">
         <v>24</v>
@@ -17143,16 +17143,16 @@
     </row>
     <row r="5" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>409</v>
@@ -17161,16 +17161,16 @@
         <v>54</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="41" t="s">
+        <v>833</v>
+      </c>
+      <c r="J5" s="39" t="s">
         <v>834</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>835</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>24</v>
@@ -17195,16 +17195,16 @@
     </row>
     <row r="6" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B6" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E6" s="41" t="s">
         <v>58</v>
@@ -17219,10 +17219,10 @@
         <v>38</v>
       </c>
       <c r="I6" s="41" t="s">
+        <v>836</v>
+      </c>
+      <c r="J6" s="39" t="s">
         <v>837</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>838</v>
       </c>
       <c r="K6" s="41" t="s">
         <v>24</v>
@@ -17247,19 +17247,19 @@
     </row>
     <row r="7" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B7" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D7" s="41" t="s">
+        <v>838</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>839</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>840</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>54</v>
@@ -17271,10 +17271,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="41" t="s">
+        <v>840</v>
+      </c>
+      <c r="J7" s="39" t="s">
         <v>841</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>842</v>
       </c>
       <c r="K7" s="41" t="s">
         <v>24</v>
@@ -17299,19 +17299,19 @@
     </row>
     <row r="8" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D8" s="41" t="s">
+        <v>842</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>843</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>844</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>54</v>
@@ -17323,10 +17323,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="41" t="s">
+        <v>844</v>
+      </c>
+      <c r="J8" s="39" t="s">
         <v>845</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>846</v>
       </c>
       <c r="K8" s="41" t="s">
         <v>24</v>
@@ -17351,16 +17351,16 @@
     </row>
     <row r="9" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B9" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>411</v>
@@ -17369,16 +17369,16 @@
         <v>54</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="41" t="s">
+        <v>847</v>
+      </c>
+      <c r="J9" s="39" t="s">
         <v>848</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>849</v>
       </c>
       <c r="K9" s="41" t="s">
         <v>24</v>
@@ -17403,16 +17403,16 @@
     </row>
     <row r="10" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>412</v>
@@ -17427,10 +17427,10 @@
         <v>38</v>
       </c>
       <c r="I10" s="41" t="s">
+        <v>850</v>
+      </c>
+      <c r="J10" s="39" t="s">
         <v>851</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>852</v>
       </c>
       <c r="K10" s="41" t="s">
         <v>24</v>
@@ -17455,16 +17455,16 @@
     </row>
     <row r="11" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>415</v>
@@ -17479,10 +17479,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="41" t="s">
+        <v>853</v>
+      </c>
+      <c r="J11" s="39" t="s">
         <v>854</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>855</v>
       </c>
       <c r="K11" s="41" t="s">
         <v>24</v>
@@ -17507,19 +17507,19 @@
     </row>
     <row r="12" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D12" s="41" t="s">
+        <v>855</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>856</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>857</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>54</v>
@@ -17531,10 +17531,10 @@
         <v>38</v>
       </c>
       <c r="I12" s="41" t="s">
+        <v>857</v>
+      </c>
+      <c r="J12" s="39" t="s">
         <v>858</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>859</v>
       </c>
       <c r="K12" s="41" t="s">
         <v>24</v>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -46,7 +46,6 @@
     <externalReference r:id="rId30"/>
     <externalReference r:id="rId31"/>
     <externalReference r:id="rId32"/>
-    <externalReference r:id="rId33"/>
   </externalReferences>
   <definedNames>
     <definedName name="Action_Values" localSheetId="20">'Rule Set Dropdown'!$A$2:$A$12</definedName>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="929">
   <si>
     <t>Region</t>
   </si>
@@ -6810,6 +6809,18 @@
                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
                                 Example: Operations.CostCenter=01;Users.Name=user01
 </t>
+  </si>
+  <si>
+    <t>DRG_ATTACHMENT_TYPE::VCN::1</t>
+  </si>
+  <si>
+    <t>VCN::hub-vcn</t>
+  </si>
+  <si>
+    <t>hub-vcn-RT</t>
+  </si>
+  <si>
+    <t>hub-vcn-RD</t>
   </si>
 </sst>
 </file>
@@ -9225,75 +9236,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Release-Info"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="DRGv2"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="DRGRouteRulesinOCI"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVols"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DB_System_VM"/>
-      <sheetName val="DB_System_BM"/>
-      <sheetName val="DB_System_EXA"/>
-      <sheetName val="Rule Set Dropdown"/>
-      <sheetName val="Database_Dropdown"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -20884,7 +20826,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20935,13 +20877,27 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="A3" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>817</v>
+      </c>
+      <c r="D3" s="39" t="s">
+        <v>926</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>927</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>928</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="94.5" customHeight="1">
       <c r="A4" s="39"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Policies" sheetId="4" r:id="rId4"/>
     <sheet name="Tags" sheetId="22" r:id="rId5"/>
     <sheet name="VCNs" sheetId="5" r:id="rId6"/>
-    <sheet name="DRGv2" sheetId="28" r:id="rId7"/>
+    <sheet name="DRGs" sheetId="28" r:id="rId7"/>
     <sheet name="VCN Info" sheetId="6" r:id="rId8"/>
     <sheet name="DHCP" sheetId="7" r:id="rId9"/>
     <sheet name="Subnets" sheetId="8" r:id="rId10"/>
@@ -6696,77 +6696,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">v8.0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Added new sheets - DRGv2 and DRGRouteRulesinOCI
-</t>
-    </r>
-  </si>
-  <si>
     <t>DRG Name</t>
   </si>
   <si>
@@ -6780,12 +6709,6 @@
   </si>
   <si>
     <t>Import DRG Route Distribution Statements</t>
-  </si>
-  <si>
-    <t>DRG Route Rules will be exported here
-"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                                Example: Operations.CostCenter=01;Users.Name=user01</t>
   </si>
   <si>
     <t>Next Hop Attachment</t>
@@ -6821,6 +6744,83 @@
   </si>
   <si>
     <t>hub-vcn-RD</t>
+  </si>
+  <si>
+    <t>DRG Route Rules will be exported here for DRGv2.
+"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                                Example: Operations.CostCenter=01;Users.Name=user01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v8.0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9526,7 +9526,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -9537,7 +9537,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="80" t="s">
-        <v>915</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>
@@ -10508,8 +10508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K118"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10530,7 +10530,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
       <c r="A1" s="92" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -10550,25 +10550,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D2" s="33" t="s">
+        <v>917</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>918</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>919</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>63</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>491</v>
@@ -20844,7 +20844,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="206.5" customHeight="1">
       <c r="A1" s="92" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -20861,19 +20861,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="89" t="s">
+        <v>915</v>
+      </c>
+      <c r="D2" s="89" t="s">
         <v>916</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="E2" s="89" t="s">
         <v>917</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="F2" s="90" t="s">
         <v>918</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="G2" s="91" t="s">
         <v>919</v>
-      </c>
-      <c r="G2" s="91" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" customHeight="1">
@@ -20887,16 +20887,16 @@
         <v>817</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>924</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>925</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>926</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>927</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>928</v>
-      </c>
       <c r="G3" s="39" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="94.5" customHeight="1">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -6717,10 +6717,100 @@
     <t>Route Type</t>
   </si>
   <si>
+    <t>DRG_ATTACHMENT_TYPE::VCN::1</t>
+  </si>
+  <si>
+    <t>VCN::hub-vcn</t>
+  </si>
+  <si>
+    <t>hub-vcn-RT</t>
+  </si>
+  <si>
+    <t>hub-vcn-RD</t>
+  </si>
+  <si>
+    <t>DRG Route Rules will be exported here for DRGv2.
+"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                                Example: Operations.CostCenter=01;Users.Name=user01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v8.0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
+</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 Columns Region, Compartment Name, DRG Name, Attached To are mandatory.
 Leave columns DRG RT Name,  Import DRG Route Distribution Name and Import DRG Route Distribution Statements empty to use Autogenerated ones.
 Compartment Name specifies compartment where DRG has to be created. DRG Attachment is created in same compartment as target VCN, IPSEC or RPC by default.
+Leave column Attached To empty if only DRG Route Table or DRG Import Route Distribution is to be created for the DRG.
 "Import DRG Route Distribution Statements" - Valid format: &lt;matchtype&gt;::&lt;type|ocid&gt;::&lt;priority&gt;  Multiple statements are seperated by newline(\n is not supported)
  eg: ALL::::1
        DRG_ATTACHMENT_TYPE::VCN::2
@@ -6732,95 +6822,6 @@
                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
                                 Example: Operations.CostCenter=01;Users.Name=user01
 </t>
-  </si>
-  <si>
-    <t>DRG_ATTACHMENT_TYPE::VCN::1</t>
-  </si>
-  <si>
-    <t>VCN::hub-vcn</t>
-  </si>
-  <si>
-    <t>hub-vcn-RT</t>
-  </si>
-  <si>
-    <t>hub-vcn-RD</t>
-  </si>
-  <si>
-    <t>DRG Route Rules will be exported here for DRGv2.
-"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                                Example: Operations.CostCenter=01;Users.Name=user01</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">v8.0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
-</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -9537,7 +9538,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="80" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
   </sheetData>
@@ -10530,7 +10531,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
       <c r="A1" s="92" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -20826,7 +20827,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20844,7 +20845,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="206.5" customHeight="1">
       <c r="A1" s="92" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -20887,16 +20888,16 @@
         <v>817</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>923</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>924</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="39" t="s">
         <v>925</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>926</v>
-      </c>
       <c r="G3" s="39" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="94.5" customHeight="1">

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="930">
   <si>
     <t>Region</t>
   </si>
@@ -6807,21 +6807,28 @@
   </si>
   <si>
     <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
-Columns Region, Compartment Name, DRG Name, Attached To are mandatory.
-Leave columns DRG RT Name,  Import DRG Route Distribution Name and Import DRG Route Distribution Statements empty to use Autogenerated ones.
-Compartment Name specifies compartment where DRG has to be created. DRG Attachment is created in same compartment as target VCN, IPSEC or RPC by default.
-Leave column Attached To empty if only DRG Route Table or DRG Import Route Distribution is to be created for the DRG.
+- Columns Region, Compartment Name, DRG Name are mandatory.
+- Leave columns DRG RT Name,  Import DRG Route Distribution Name and Import DRG   Route Distribution Statements empty to use Autogenerated ones.
+- Compartment Name specifies compartment where DRG has to be created. DRG Attachment is created in same compartment as target VCN, IPSEC or RPC by default.
+- Leave column Attached To empty if only DRG Route Table or DRG Import Route Distribution is to be created for the DRG.
+"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+  </si>
+  <si>
+    <t>"Attached To" - Valid format:
+VCN::&lt;vcn_name&gt;
+IPSEC_TUNNEL::&lt;OCID&gt;
+VIRTUAL_CIRCUIT::&lt;OCID&gt;
+REMOTE_PEERING_CONNECTION::&lt;OCID&gt;
 "Import DRG Route Distribution Statements" - Valid format: &lt;matchtype&gt;::&lt;type|ocid&gt;::&lt;priority&gt;  Multiple statements are seperated by newline(\n is not supported)
  eg: ALL::::1
        DRG_ATTACHMENT_TYPE::VCN::2
        DRG_ATTACHMENT_TYPE::IPSEC_TUNNEL::2
        DRG_ATTACHMENT_TYPE::REMOTE_PEERING_CONNECTION::2
        DRG_ATTACHMENT_TYPE::VIRTUAL_CIRCUIT::2
-       DRG_ATTACHMENT_ID::&lt;OCID&gt;::3
-"Defined Tags" - Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                                Example: Operations.CostCenter=01;Users.Name=user01
-</t>
+       DRG_ATTACHMENT_ID::&lt;OCID&gt;::3</t>
   </si>
 </sst>
 </file>
@@ -7328,7 +7335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7560,8 +7567,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -9587,18 +9592,18 @@
       <c r="F1" s="94"/>
       <c r="G1" s="94"/>
       <c r="H1" s="95"/>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="99" t="s">
         <v>508</v>
       </c>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
     </row>
     <row r="2" spans="1:18" s="48" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -13382,16 +13387,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="100" t="s">
         <v>914</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="102"/>
       <c r="I1" s="93" t="s">
         <v>646</v>
       </c>
@@ -13836,27 +13841,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="103" t="s">
         <v>527</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="108" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="106" t="s">
         <v>521</v>
       </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -14986,15 +14991,15 @@
       <c r="J1" s="96" t="s">
         <v>530</v>
       </c>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="110"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="108"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -15659,14 +15664,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="48" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="109" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -16361,17 +16366,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="112" t="s">
         <v>528</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
@@ -20827,7 +20832,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20843,16 +20848,18 @@
     <col min="19" max="16384" width="8.7265625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="206.5" customHeight="1">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:7" ht="222" customHeight="1">
+      <c r="A1" s="93" t="s">
         <v>928</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="100"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="93" t="s">
+        <v>929</v>
+      </c>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="89" t="s">
@@ -21144,8 +21151,9 @@
       <c r="G30" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -6819,9 +6819,6 @@
   <si>
     <t>"Attached To" - Valid format:
 VCN::&lt;vcn_name&gt;
-IPSEC_TUNNEL::&lt;OCID&gt;
-VIRTUAL_CIRCUIT::&lt;OCID&gt;
-REMOTE_PEERING_CONNECTION::&lt;OCID&gt;
 "Import DRG Route Distribution Statements" - Valid format: &lt;matchtype&gt;::&lt;type|ocid&gt;::&lt;priority&gt;  Multiple statements are seperated by newline(\n is not supported)
  eg: ALL::::1
        DRG_ATTACHMENT_TYPE::VCN::2

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="948">
   <si>
     <t>Region</t>
   </si>
@@ -5840,9 +5840,6 @@
     <t>Allow group AppDevAdmins to read instance-images in tenancy</t>
   </si>
   <si>
-    <t>Allow group AppDevAdmins to manage repos in tenancy</t>
-  </si>
-  <si>
     <t>Allow group AppDevAdmins to manage orm-stacks in compartment AppDev</t>
   </si>
   <si>
@@ -6005,21 +6002,9 @@
     <t>Policy allowing IAMAdmins group to manage IAM resources in tenancy, except changing Administrators group assignments.</t>
   </si>
   <si>
-    <t>Allow group IAMAdmins to manage users in tenancy</t>
-  </si>
-  <si>
     <t>Allow group IAMAdmins to inspect groups in tenancy</t>
   </si>
   <si>
-    <t>Allow group IAMAdmins to manage groups in tenancy where target.group.name != 'Administrators'</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to inspect policies in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage policies in tenancy where target.policy.name != 'Tenant Admin Policy'</t>
-  </si>
-  <si>
     <t>Allow group IAMAdmins to manage dynamic-groups in tenancy</t>
   </si>
   <si>
@@ -6029,9 +6014,6 @@
     <t>Allow group IAMAdmins to manage authentication-policies in tenancy</t>
   </si>
   <si>
-    <t>Allow group IAMAdmins to manage identity-providers in tenancy</t>
-  </si>
-  <si>
     <t>Allow group IAMAdmins to manage network-sources in tenancy</t>
   </si>
   <si>
@@ -6041,9 +6023,6 @@
     <t>Allow group IAMAdmins to manage tag-namespaces in tenancy</t>
   </si>
   <si>
-    <t>Allow group IAMAdmins to manage credentials in tenancy</t>
-  </si>
-  <si>
     <t>Allow group IAMAdmins to manage orm-stacks in tenancy</t>
   </si>
   <si>
@@ -6098,12 +6077,6 @@
     <t>Allow group SecurityAdmins to manage instance-family in compartment Security</t>
   </si>
   <si>
-    <t>Allow group SecurityAdmins to manage policies in tenancy where all {target.policy.name != 'Tenant Admin Policy', target.policy.name != 'IAMAdmins-Policy'}</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage policies in compartment Security</t>
-  </si>
-  <si>
     <t>Allow group SecurityAdmins to manage vaults in compartment Security</t>
   </si>
   <si>
@@ -6116,9 +6089,6 @@
     <t>Allow group SecurityAdmins to manage logging-family in compartment Security</t>
   </si>
   <si>
-    <t>Allow group SecurityAdmins to manage cloudevents-rules in compartment Security</t>
-  </si>
-  <si>
     <t>Allow group SecurityAdmins to manage serviceconnectors in compartment Security</t>
   </si>
   <si>
@@ -6185,15 +6155,6 @@
     <t>Allow group SecurityAdmins to manage orm-config-source-providers in compartment Security</t>
   </si>
   <si>
-    <t>CrossTenancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allows Security Auditors to Read Stuff in my tenancy </t>
-  </si>
-  <si>
-    <t>Endorse group Administrators to read all-resources in any-tenancy</t>
-  </si>
-  <si>
     <t>London</t>
   </si>
   <si>
@@ -6429,9 +6390,6 @@
   </si>
   <si>
     <t>Allow Group DatabaseAdmins to read audit-events in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow Group IAMAdmins to read audit-events in tenancy</t>
   </si>
   <si>
     <t>Allow Group NetworkAdmins to read audit-events in compartment Network</t>
@@ -6826,6 +6784,102 @@
        DRG_ATTACHMENT_TYPE::REMOTE_PEERING_CONNECTION::2
        DRG_ATTACHMENT_TYPE::VIRTUAL_CIRCUIT::2
        DRG_ATTACHMENT_ID::&lt;OCID&gt;::3</t>
+  </si>
+  <si>
+    <t>CredAdmins</t>
+  </si>
+  <si>
+    <t>Group responsible for managing users credentials in the tenancy.</t>
+  </si>
+  <si>
+    <t>Allow group AnnouncementReaders to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to manage instance-images in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to manage repos in compartment AppDev</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to read repos in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group AppDevAdmins to read vss-family in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow Group AppDevAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group Auditors to read users in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group Auditors to read vss-family in tenancy</t>
+  </si>
+  <si>
+    <t>CredentialAdmins-Policy</t>
+  </si>
+  <si>
+    <t>Policy for Credential Admins Group</t>
+  </si>
+  <si>
+    <t>Allow group CredAdmins to inspect users in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group CredAdmins to inspect groups in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group CredAdmins to manage users in tenancy  where any {request.operation = 'ListApiKeys',request.operation = 'ListAuthTokens',request.operation = 'ListCustomerSecretKeys',request.operation = 'UploadApiKey',request.operation = 'DeleteApiKey',request.operation = 'UpdateAuthToken',request.operation = 'CreateAuthToken',request.operation = 'DeleteAuthToken',request.operation = 'CreateSecretKey',request.operation = 'UpdateCustomerSecretKey',request.operation = 'DeleteCustomerSecretKey',request.operation = 'UpdateUserCapabilities'}</t>
+  </si>
+  <si>
+    <t>Allow group CredAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group DatabaseAdmins to read vss-family in compartment Database</t>
+  </si>
+  <si>
+    <t>Allow Group DatabaseAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to manage policies in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to inspect users in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to manage groups in tenancy where all {target.group.name != 'Administrators', target.group.name != 'CredAdmins'}</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to inspect identity-providers in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to manage identity-providers in tenancy where any {request.operation = 'AddIdpGroupMapping', request.operation = 'DeleteIdpGroupMapping'}</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to manage quota in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to read audit-events in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group IAMAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>Allow Group NetworkAdmins to read vss-family in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group NetworkAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to manage repos in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to manage vss-family in compartment Security</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to manage cloudevents-rules in tenancy</t>
+  </si>
+  <si>
+    <t>Allow group SecurityAdmins to use cloud-shell in tenancy</t>
   </si>
 </sst>
 </file>
@@ -7332,7 +7386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7605,6 +7659,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9540,7 +9597,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="80" t="s">
-        <v>927</v>
+        <v>913</v>
       </c>
     </row>
   </sheetData>
@@ -9660,16 +9717,16 @@
     </row>
     <row r="3" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1">
       <c r="A3" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>53</v>
@@ -9684,10 +9741,10 @@
         <v>38</v>
       </c>
       <c r="I3" s="41" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>24</v>
@@ -9712,34 +9769,34 @@
     </row>
     <row r="4" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1">
       <c r="A4" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="K4" s="36" t="s">
         <v>24</v>
@@ -9764,16 +9821,16 @@
     </row>
     <row r="5" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>409</v>
@@ -9782,16 +9839,16 @@
         <v>54</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>24</v>
@@ -9816,16 +9873,16 @@
     </row>
     <row r="6" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B6" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="E6" s="41" t="s">
         <v>58</v>
@@ -9840,10 +9897,10 @@
         <v>38</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="K6" s="41" t="s">
         <v>24</v>
@@ -9868,19 +9925,19 @@
     </row>
     <row r="7" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B7" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>54</v>
@@ -9892,10 +9949,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="K7" s="41" t="s">
         <v>24</v>
@@ -9920,19 +9977,19 @@
     </row>
     <row r="8" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>54</v>
@@ -9944,10 +10001,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="K8" s="41" t="s">
         <v>24</v>
@@ -9972,16 +10029,16 @@
     </row>
     <row r="9" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B9" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>411</v>
@@ -9990,16 +10047,16 @@
         <v>54</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="K9" s="41" t="s">
         <v>24</v>
@@ -10024,16 +10081,16 @@
     </row>
     <row r="10" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A10" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>412</v>
@@ -10048,10 +10105,10 @@
         <v>38</v>
       </c>
       <c r="I10" s="41" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="K10" s="41" t="s">
         <v>24</v>
@@ -10076,16 +10133,16 @@
     </row>
     <row r="11" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A11" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>415</v>
@@ -10100,10 +10157,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="41" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="J11" s="39" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="K11" s="41" t="s">
         <v>24</v>
@@ -10128,19 +10185,19 @@
     </row>
     <row r="12" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A12" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>54</v>
@@ -10152,10 +10209,10 @@
         <v>38</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="K12" s="41" t="s">
         <v>24</v>
@@ -10533,7 +10590,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
       <c r="A1" s="92" t="s">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="B1" s="92"/>
       <c r="C1" s="92"/>
@@ -10553,25 +10610,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>63</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>921</v>
+        <v>907</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>491</v>
@@ -12387,13 +12444,13 @@
         <v>379</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>419</v>
@@ -12407,7 +12464,7 @@
         <v>420</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
@@ -12420,7 +12477,7 @@
       <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
       <c r="R3" s="39" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="S3" s="39"/>
       <c r="T3" s="39"/>
@@ -12433,13 +12490,13 @@
         <v>379</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>419</v>
@@ -12448,7 +12505,7 @@
         <v>82</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="I4" s="39" t="s">
         <v>31</v>
@@ -12466,7 +12523,7 @@
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
       <c r="R4" s="39" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="S4" s="39"/>
       <c r="T4" s="39"/>
@@ -12479,13 +12536,13 @@
         <v>379</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F5" s="39" t="s">
         <v>419</v>
@@ -12494,10 +12551,10 @@
         <v>82</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
@@ -12512,7 +12569,7 @@
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
       <c r="R5" s="39" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="S5" s="39"/>
       <c r="T5" s="39"/>
@@ -12525,13 +12582,13 @@
         <v>379</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>419</v>
@@ -12545,7 +12602,7 @@
         <v>420</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -12558,7 +12615,7 @@
       <c r="P6" s="39"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="39" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="S6" s="39"/>
       <c r="T6" s="39"/>
@@ -12571,13 +12628,13 @@
         <v>379</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>419</v>
@@ -12586,10 +12643,10 @@
         <v>82</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
@@ -12604,7 +12661,7 @@
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
       <c r="R7" s="39" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="S7" s="39"/>
       <c r="T7" s="39"/>
@@ -12617,13 +12674,13 @@
         <v>379</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F8" s="39" t="s">
         <v>419</v>
@@ -12632,10 +12689,10 @@
         <v>82</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
@@ -12650,7 +12707,7 @@
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="39" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
@@ -12663,13 +12720,13 @@
         <v>379</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>419</v>
@@ -12683,7 +12740,7 @@
         <v>420</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -12696,7 +12753,7 @@
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
       <c r="R9" s="39" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
@@ -12709,13 +12766,13 @@
         <v>379</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="F10" s="39" t="s">
         <v>419</v>
@@ -12726,10 +12783,10 @@
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
       <c r="J10" s="39" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
@@ -12742,7 +12799,7 @@
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
       <c r="R10" s="39" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
@@ -12755,13 +12812,13 @@
         <v>379</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>419</v>
@@ -12770,10 +12827,10 @@
         <v>82</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
@@ -12788,7 +12845,7 @@
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
@@ -12801,13 +12858,13 @@
         <v>379</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>419</v>
@@ -12816,10 +12873,10 @@
         <v>82</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
@@ -12834,7 +12891,7 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="39" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
@@ -12847,13 +12904,13 @@
         <v>379</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>419</v>
@@ -12867,7 +12924,7 @@
         <v>420</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
@@ -12880,7 +12937,7 @@
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
       <c r="R13" s="39" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="S13" s="39"/>
       <c r="T13" s="39"/>
@@ -12893,13 +12950,13 @@
         <v>379</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>419</v>
@@ -12910,10 +12967,10 @@
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="K14" s="39" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
@@ -12926,7 +12983,7 @@
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
       <c r="R14" s="39" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
@@ -12939,13 +12996,13 @@
         <v>379</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>419</v>
@@ -12954,10 +13011,10 @@
         <v>82</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
@@ -12972,7 +13029,7 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
       <c r="R15" s="39" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
@@ -12985,13 +13042,13 @@
         <v>379</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="F16" s="39" t="s">
         <v>419</v>
@@ -13000,10 +13057,10 @@
         <v>82</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
@@ -13018,7 +13075,7 @@
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="39" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="S16" s="39"/>
       <c r="T16" s="39"/>
@@ -13385,7 +13442,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1">
       <c r="A1" s="100" t="s">
-        <v>914</v>
+        <v>900</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -13958,7 +14015,7 @@
         <v>129</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -13983,7 +14040,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>130</v>
@@ -14007,7 +14064,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>910</v>
+        <v>896</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>132</v>
@@ -14044,7 +14101,7 @@
         <v>134</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -14077,7 +14134,7 @@
         <v>136</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>137</v>
@@ -14116,7 +14173,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>912</v>
+        <v>898</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>139</v>
@@ -14153,7 +14210,7 @@
         <v>141</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>913</v>
+        <v>899</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -18222,10 +18279,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -18346,16 +18403,29 @@
         <v>5</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="75" t="s">
+    <row r="10" spans="1:5" s="52" customFormat="1" ht="28" customHeight="1">
+      <c r="A10" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>916</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>917</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="75" t="s">
         <v>4</v>
       </c>
     </row>
@@ -18370,10 +18440,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -18381,10 +18451,11 @@
     <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
     <col min="2" max="2" width="17.1796875" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.36328125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="16" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="40" customWidth="1"/>
     <col min="5" max="5" width="49.36328125" style="40" customWidth="1"/>
     <col min="6" max="7" width="28.453125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6328125" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" style="40" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="48" customFormat="1" ht="102.75" customHeight="1">
@@ -18425,1705 +18496,1907 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="40" customFormat="1" ht="61" customHeight="1">
+    <row r="3" spans="1:8" ht="69.5" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
-      <c r="A4" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>674</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>675</v>
-      </c>
+    <row r="4" spans="1:8" ht="69.5" customHeight="1">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="39" t="s">
-        <v>676</v>
+        <v>918</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+    <row r="5" spans="1:8" ht="102.5" customHeight="1">
+      <c r="A5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>674</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>675</v>
+      </c>
       <c r="E5" s="39" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
     </row>
-    <row r="6" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="6" spans="1:8" ht="29" customHeight="1">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
       <c r="E6" s="39" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
     </row>
-    <row r="7" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="7" spans="1:8" ht="29" customHeight="1">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="8" spans="1:8" ht="29" customHeight="1">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
     </row>
-    <row r="9" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="9" spans="1:8" ht="29" customHeight="1">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
       <c r="E9" s="39" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
     </row>
-    <row r="10" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="10" spans="1:8" ht="29" customHeight="1">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
       <c r="E10" s="39" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
     </row>
-    <row r="11" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="11" spans="1:8" ht="29" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
     </row>
-    <row r="12" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="12" spans="1:8" ht="29" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
     </row>
-    <row r="13" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="13" spans="1:8" ht="29" customHeight="1">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="14" spans="1:8" ht="29" customHeight="1">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="15" spans="1:8" ht="29" customHeight="1">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
     </row>
-    <row r="16" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="16" spans="1:8" ht="29" customHeight="1">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
     </row>
-    <row r="17" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="17" spans="1:8" ht="29" customHeight="1">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
     </row>
-    <row r="18" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="18" spans="1:8" ht="29" customHeight="1">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
     </row>
-    <row r="19" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="19" spans="1:8" ht="29" customHeight="1">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
     </row>
-    <row r="20" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="20" spans="1:8" ht="29" customHeight="1">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
     </row>
-    <row r="21" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="21" spans="1:8" ht="29" customHeight="1">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39" t="s">
-        <v>888</v>
+        <v>692</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
     </row>
-    <row r="22" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="22" spans="1:8" ht="29">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="23" spans="1:8" ht="29" customHeight="1">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39" t="s">
-        <v>693</v>
+        <v>876</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
     </row>
-    <row r="24" spans="1:8" s="40" customFormat="1" ht="29">
+    <row r="24" spans="1:8" ht="29" customHeight="1">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
     </row>
-    <row r="25" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="25" spans="1:8" ht="29" customHeight="1">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
     </row>
-    <row r="26" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="26" spans="1:8" ht="29" customHeight="1">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
     </row>
-    <row r="27" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="27" spans="1:8" ht="29" customHeight="1">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39" t="s">
-        <v>697</v>
+        <v>919</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
     </row>
-    <row r="28" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1">
+    <row r="28" spans="1:8" ht="29" customHeight="1">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
     </row>
-    <row r="29" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="29" spans="1:8" ht="29">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="39" t="s">
-        <v>699</v>
+        <v>920</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
     </row>
-    <row r="30" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="30" spans="1:8">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="39" t="s">
-        <v>700</v>
+        <v>921</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
     </row>
-    <row r="31" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1">
+    <row r="31" spans="1:8" ht="29" customHeight="1">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39" t="s">
-        <v>890</v>
+        <v>697</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1">
-      <c r="A32" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>701</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>702</v>
-      </c>
+    <row r="32" spans="1:8" ht="29" customHeight="1">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="39" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
     </row>
-    <row r="33" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="33" spans="1:8" ht="29" customHeight="1">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="34" spans="1:8" ht="29">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39" t="s">
-        <v>705</v>
+        <v>877</v>
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
     </row>
-    <row r="35" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="35" spans="1:8" ht="29">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="39" t="s">
-        <v>706</v>
+        <v>922</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
     </row>
-    <row r="36" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="36" spans="1:8">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39" t="s">
-        <v>707</v>
+        <v>923</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
+    <row r="37" spans="1:8" ht="43.5" customHeight="1">
+      <c r="A37" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>700</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>701</v>
+      </c>
       <c r="E37" s="39" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="38" spans="1:8" ht="29" customHeight="1">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
       <c r="E38" s="39" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="39" spans="1:8" ht="29" customHeight="1">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
       <c r="D39" s="39"/>
       <c r="E39" s="39" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="39"/>
       <c r="H39" s="39"/>
     </row>
-    <row r="40" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="40" spans="1:8" ht="43.5" customHeight="1">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
       <c r="E40" s="39" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F40" s="39"/>
       <c r="G40" s="39"/>
       <c r="H40" s="39"/>
     </row>
-    <row r="41" spans="1:8" s="40" customFormat="1" ht="29">
+    <row r="41" spans="1:8" ht="43.5" customHeight="1">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
       <c r="D41" s="39"/>
       <c r="E41" s="39" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F41" s="39"/>
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:8" s="40" customFormat="1">
+    <row r="42" spans="1:8" ht="29" customHeight="1">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
       <c r="D42" s="39"/>
       <c r="E42" s="39" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F42" s="39"/>
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="43" spans="1:8" ht="29" customHeight="1">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
       <c r="D43" s="39"/>
       <c r="E43" s="39" t="s">
-        <v>891</v>
+        <v>708</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39"/>
       <c r="H43" s="39"/>
     </row>
-    <row r="44" spans="1:8" s="40" customFormat="1" ht="58">
-      <c r="A44" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>714</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>715</v>
-      </c>
+    <row r="44" spans="1:8" ht="29" customHeight="1">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="39" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="F44" s="39"/>
       <c r="G44" s="39"/>
       <c r="H44" s="39"/>
     </row>
-    <row r="45" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="45" spans="1:8" ht="29" customHeight="1">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
       <c r="D45" s="39"/>
       <c r="E45" s="39" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:8" s="40" customFormat="1">
+    <row r="46" spans="1:8" ht="29" customHeight="1">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
       <c r="D46" s="39"/>
       <c r="E46" s="39" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="F46" s="39"/>
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:8" s="40" customFormat="1">
+    <row r="47" spans="1:8" ht="29" customHeight="1">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
       <c r="D47" s="39"/>
       <c r="E47" s="39" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F47" s="39"/>
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
     </row>
-    <row r="48" spans="1:8" s="40" customFormat="1" ht="29">
+    <row r="48" spans="1:8">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
       <c r="E48" s="39" t="s">
-        <v>720</v>
+        <v>878</v>
       </c>
       <c r="F48" s="39"/>
       <c r="G48" s="39"/>
       <c r="H48" s="39"/>
     </row>
-    <row r="49" spans="1:8" s="40" customFormat="1" ht="29">
+    <row r="49" spans="1:8">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
       <c r="E49" s="39" t="s">
-        <v>721</v>
+        <v>924</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:8" s="40" customFormat="1" ht="29">
+    <row r="50" spans="1:8">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39" t="s">
-        <v>722</v>
+        <v>925</v>
       </c>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:8" s="40" customFormat="1" ht="29">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
+    <row r="51" spans="1:8" ht="29">
+      <c r="A51" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>926</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>927</v>
+      </c>
       <c r="E51" s="39" t="s">
-        <v>723</v>
+        <v>928</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
     </row>
-    <row r="52" spans="1:8" s="40" customFormat="1" ht="29">
+    <row r="52" spans="1:8">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
       <c r="E52" s="39" t="s">
-        <v>724</v>
+        <v>929</v>
       </c>
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
     </row>
-    <row r="53" spans="1:8" s="40" customFormat="1">
+    <row r="53" spans="1:8" ht="203">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
       <c r="E53" s="39" t="s">
-        <v>725</v>
+        <v>930</v>
       </c>
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="54" spans="1:8">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="39" t="s">
-        <v>726</v>
+        <v>931</v>
       </c>
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+    <row r="55" spans="1:8" ht="29" customHeight="1">
+      <c r="A55" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>713</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>714</v>
+      </c>
       <c r="E55" s="39" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="F55" s="39"/>
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
     </row>
-    <row r="56" spans="1:8" s="40" customFormat="1" ht="87" customHeight="1">
+    <row r="56" spans="1:8" ht="29" customHeight="1">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
       <c r="D56" s="39"/>
       <c r="E56" s="39" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="F56" s="39"/>
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
     </row>
-    <row r="57" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="57" spans="1:8">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
       <c r="E57" s="39" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
     </row>
-    <row r="58" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="58" spans="1:8">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
       <c r="E58" s="39" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="F58" s="39"/>
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="59" spans="1:8" ht="29" customHeight="1">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
       <c r="E59" s="39" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="F59" s="39"/>
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="60" spans="1:8" ht="29">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
       <c r="D60" s="39"/>
       <c r="E60" s="39" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="F60" s="39"/>
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
     </row>
-    <row r="61" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
-      <c r="A61" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="39" t="s">
-        <v>733</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>734</v>
-      </c>
+    <row r="61" spans="1:8" ht="29" customHeight="1">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
       <c r="E61" s="39" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
     </row>
-    <row r="62" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="62" spans="1:8" ht="29">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
       <c r="D62" s="39"/>
       <c r="E62" s="39" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="F62" s="39"/>
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
     </row>
-    <row r="63" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="63" spans="1:8" ht="29">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
       <c r="E63" s="39" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="F63" s="39"/>
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
     </row>
-    <row r="64" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="64" spans="1:8">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
       <c r="D64" s="39"/>
       <c r="E64" s="39" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="F64" s="39"/>
       <c r="G64" s="39"/>
       <c r="H64" s="39"/>
     </row>
-    <row r="65" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="65" spans="1:8" ht="29">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
       <c r="E65" s="39" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="F65" s="39"/>
       <c r="G65" s="39"/>
       <c r="H65" s="39"/>
     </row>
-    <row r="66" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="66" spans="1:8">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
       <c r="D66" s="39"/>
       <c r="E66" s="39" t="s">
-        <v>892</v>
+        <v>726</v>
       </c>
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
       <c r="H66" s="39"/>
     </row>
-    <row r="67" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="67" spans="1:8">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
       <c r="D67" s="39"/>
       <c r="E67" s="39" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="F67" s="39"/>
       <c r="G67" s="39"/>
       <c r="H67" s="39"/>
     </row>
-    <row r="68" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="68" spans="1:8">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
       <c r="E68" s="39" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="F68" s="39"/>
       <c r="G68" s="39"/>
       <c r="H68" s="39"/>
     </row>
-    <row r="69" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="69" spans="1:8" ht="29">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
       <c r="E69" s="39" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="F69" s="39"/>
       <c r="G69" s="39"/>
       <c r="H69" s="39"/>
     </row>
-    <row r="70" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="70" spans="1:8" ht="29" customHeight="1">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
       <c r="D70" s="39"/>
       <c r="E70" s="39" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="F70" s="39"/>
       <c r="G70" s="39"/>
       <c r="H70" s="39"/>
     </row>
-    <row r="71" spans="1:8" s="40" customFormat="1" ht="101.5" customHeight="1">
+    <row r="71" spans="1:8" ht="29" customHeight="1">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
       <c r="E71" s="39" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="F71" s="39"/>
       <c r="G71" s="39"/>
       <c r="H71" s="39"/>
     </row>
-    <row r="72" spans="1:8" s="40" customFormat="1" ht="29">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="39"/>
+    <row r="72" spans="1:8" ht="87" customHeight="1">
+      <c r="A72" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D72" s="39" t="s">
+        <v>733</v>
+      </c>
       <c r="E72" s="39" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="F72" s="39"/>
       <c r="G72" s="39"/>
       <c r="H72" s="39"/>
     </row>
-    <row r="73" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="73" spans="1:8" ht="29" customHeight="1">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
       <c r="E73" s="39" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="F73" s="39"/>
       <c r="G73" s="39"/>
       <c r="H73" s="39"/>
     </row>
-    <row r="74" spans="1:8" s="40" customFormat="1" ht="29">
+    <row r="74" spans="1:8" ht="29" customHeight="1">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
       <c r="D74" s="39"/>
       <c r="E74" s="39" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="F74" s="39"/>
       <c r="G74" s="39"/>
       <c r="H74" s="39"/>
     </row>
-    <row r="75" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="75" spans="1:8" ht="29" customHeight="1">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
       <c r="E75" s="39" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="F75" s="39"/>
       <c r="G75" s="39"/>
       <c r="H75" s="39"/>
     </row>
-    <row r="76" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="76" spans="1:8" ht="29" customHeight="1">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
       <c r="D76" s="39"/>
       <c r="E76" s="39" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="F76" s="39"/>
       <c r="G76" s="39"/>
       <c r="H76" s="39"/>
     </row>
-    <row r="77" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="77" spans="1:8" ht="29">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
       <c r="E77" s="39" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="F77" s="39"/>
       <c r="G77" s="39"/>
       <c r="H77" s="39"/>
     </row>
-    <row r="78" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
-      <c r="A78" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" s="39" t="s">
-        <v>750</v>
-      </c>
-      <c r="C78" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="D78" s="39" t="s">
-        <v>751</v>
-      </c>
+    <row r="78" spans="1:8" ht="29" customHeight="1">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
       <c r="E78" s="39" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="F78" s="39"/>
       <c r="G78" s="39"/>
       <c r="H78" s="39"/>
     </row>
-    <row r="79" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="79" spans="1:8" ht="29" customHeight="1">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
       <c r="D79" s="39"/>
       <c r="E79" s="39" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="F79" s="39"/>
       <c r="G79" s="39"/>
       <c r="H79" s="39"/>
     </row>
-    <row r="80" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="80" spans="1:8" ht="29" customHeight="1">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
       <c r="D80" s="39"/>
       <c r="E80" s="39" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="F80" s="39"/>
       <c r="G80" s="39"/>
       <c r="H80" s="39"/>
     </row>
-    <row r="81" spans="1:8" s="40" customFormat="1">
+    <row r="81" spans="1:8" ht="29" customHeight="1">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
       <c r="D81" s="39"/>
       <c r="E81" s="39" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="F81" s="39"/>
       <c r="G81" s="39"/>
       <c r="H81" s="39"/>
     </row>
-    <row r="82" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="82" spans="1:8" ht="29" customHeight="1">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
       <c r="D82" s="39"/>
       <c r="E82" s="39" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="F82" s="39"/>
       <c r="G82" s="39"/>
       <c r="H82" s="39"/>
     </row>
-    <row r="83" spans="1:8" s="40" customFormat="1" ht="29">
+    <row r="83" spans="1:8" ht="29" customHeight="1">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
       <c r="D83" s="39"/>
       <c r="E83" s="39" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="F83" s="39"/>
       <c r="G83" s="39"/>
       <c r="H83" s="39"/>
     </row>
-    <row r="84" spans="1:8" s="40" customFormat="1" ht="29">
+    <row r="84" spans="1:8" ht="29" customHeight="1">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
       <c r="D84" s="39"/>
       <c r="E84" s="39" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="F84" s="39"/>
       <c r="G84" s="39"/>
       <c r="H84" s="39"/>
     </row>
-    <row r="85" spans="1:8" s="40" customFormat="1" ht="29">
+    <row r="85" spans="1:8" ht="29" customHeight="1">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
       <c r="D85" s="39"/>
       <c r="E85" s="39" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="F85" s="39"/>
       <c r="G85" s="39"/>
       <c r="H85" s="39"/>
     </row>
-    <row r="86" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="86" spans="1:8" ht="29" customHeight="1">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
       <c r="D86" s="39"/>
       <c r="E86" s="39" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="F86" s="39"/>
       <c r="G86" s="39"/>
       <c r="H86" s="39"/>
     </row>
-    <row r="87" spans="1:8" s="40" customFormat="1" ht="101.5" customHeight="1">
+    <row r="87" spans="1:8" ht="29" customHeight="1">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
       <c r="D87" s="39"/>
       <c r="E87" s="39" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="F87" s="39"/>
       <c r="G87" s="39"/>
       <c r="H87" s="39"/>
     </row>
-    <row r="88" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="88" spans="1:8" ht="29">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
       <c r="D88" s="39"/>
       <c r="E88" s="39" t="s">
-        <v>762</v>
+        <v>880</v>
       </c>
       <c r="F88" s="39"/>
       <c r="G88" s="39"/>
       <c r="H88" s="39"/>
     </row>
-    <row r="89" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="89" spans="1:8" ht="29">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
       <c r="D89" s="39"/>
       <c r="E89" s="39" t="s">
-        <v>763</v>
+        <v>932</v>
       </c>
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
       <c r="H89" s="39"/>
     </row>
-    <row r="90" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="90" spans="1:8" ht="29">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
       <c r="D90" s="39"/>
       <c r="E90" s="39" t="s">
-        <v>764</v>
+        <v>933</v>
       </c>
       <c r="F90" s="39"/>
       <c r="G90" s="39"/>
       <c r="H90" s="39"/>
     </row>
-    <row r="91" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
-      <c r="A91" s="39"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
+    <row r="91" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A91" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="39" t="s">
+        <v>749</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D91" s="39" t="s">
+        <v>750</v>
+      </c>
       <c r="E91" s="39" t="s">
-        <v>765</v>
+        <v>934</v>
       </c>
       <c r="F91" s="39"/>
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
     </row>
-    <row r="92" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="92" spans="1:8" ht="29">
       <c r="A92" s="39"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
       <c r="D92" s="39"/>
       <c r="E92" s="39" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="F92" s="39"/>
       <c r="G92" s="39"/>
       <c r="H92" s="39"/>
     </row>
-    <row r="93" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="93" spans="1:8" ht="29" customHeight="1">
       <c r="A93" s="39"/>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
       <c r="D93" s="39"/>
       <c r="E93" s="39" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="F93" s="39"/>
       <c r="G93" s="39"/>
       <c r="H93" s="39"/>
     </row>
-    <row r="94" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="94" spans="1:8" ht="29">
       <c r="A94" s="39"/>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
       <c r="D94" s="39"/>
       <c r="E94" s="39" t="s">
-        <v>894</v>
+        <v>757</v>
       </c>
       <c r="F94" s="39"/>
       <c r="G94" s="39"/>
       <c r="H94" s="39"/>
     </row>
-    <row r="95" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
-      <c r="A95" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" s="39" t="s">
-        <v>768</v>
-      </c>
-      <c r="C95" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="D95" s="39" t="s">
-        <v>769</v>
-      </c>
+    <row r="95" spans="1:8" ht="29" customHeight="1">
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
       <c r="E95" s="39" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="F95" s="39"/>
       <c r="G95" s="39"/>
       <c r="H95" s="39"/>
     </row>
-    <row r="96" spans="1:8" s="40" customFormat="1" ht="58" customHeight="1">
+    <row r="96" spans="1:8" ht="29" customHeight="1">
       <c r="A96" s="39"/>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
       <c r="D96" s="39"/>
       <c r="E96" s="39" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="F96" s="39"/>
       <c r="G96" s="39"/>
       <c r="H96" s="39"/>
     </row>
-    <row r="97" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="97" spans="1:8" ht="29" customHeight="1">
       <c r="A97" s="39"/>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
       <c r="D97" s="39"/>
       <c r="E97" s="39" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="F97" s="39"/>
       <c r="G97" s="39"/>
       <c r="H97" s="39"/>
     </row>
-    <row r="98" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="98" spans="1:8" ht="29" customHeight="1">
       <c r="A98" s="39"/>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
       <c r="D98" s="39"/>
       <c r="E98" s="39" t="s">
-        <v>773</v>
+        <v>935</v>
       </c>
       <c r="F98" s="39"/>
       <c r="G98" s="39"/>
       <c r="H98" s="39"/>
     </row>
-    <row r="99" spans="1:8" s="40" customFormat="1" ht="101.5" customHeight="1">
+    <row r="99" spans="1:8" ht="29" customHeight="1">
       <c r="A99" s="39"/>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
       <c r="D99" s="39"/>
       <c r="E99" s="39" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="F99" s="39"/>
       <c r="G99" s="39"/>
       <c r="H99" s="39"/>
     </row>
-    <row r="100" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="100" spans="1:8" ht="29" customHeight="1">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
       <c r="D100" s="39"/>
       <c r="E100" s="39" t="s">
-        <v>775</v>
+        <v>936</v>
       </c>
       <c r="F100" s="39"/>
       <c r="G100" s="39"/>
       <c r="H100" s="39"/>
     </row>
-    <row r="101" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1">
+    <row r="101" spans="1:8" ht="29">
       <c r="A101" s="39"/>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
       <c r="D101" s="39"/>
       <c r="E101" s="39" t="s">
-        <v>776</v>
+        <v>937</v>
       </c>
       <c r="F101" s="39"/>
       <c r="G101" s="39"/>
       <c r="H101" s="39"/>
     </row>
-    <row r="102" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="102" spans="1:8" ht="29" customHeight="1">
       <c r="A102" s="39"/>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>
       <c r="D102" s="39"/>
       <c r="E102" s="39" t="s">
-        <v>777</v>
+        <v>938</v>
       </c>
       <c r="F102" s="39"/>
       <c r="G102" s="39"/>
       <c r="H102" s="39"/>
     </row>
-    <row r="103" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="103" spans="1:8" ht="29">
       <c r="A103" s="39"/>
       <c r="B103" s="39"/>
       <c r="C103" s="39"/>
       <c r="D103" s="39"/>
       <c r="E103" s="39" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="F103" s="39"/>
       <c r="G103" s="39"/>
       <c r="H103" s="39"/>
     </row>
-    <row r="104" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="104" spans="1:8" ht="29">
       <c r="A104" s="39"/>
       <c r="B104" s="39"/>
       <c r="C104" s="39"/>
       <c r="D104" s="39"/>
       <c r="E104" s="39" t="s">
-        <v>895</v>
+        <v>754</v>
       </c>
       <c r="F104" s="39"/>
       <c r="G104" s="39"/>
       <c r="H104" s="39"/>
     </row>
-    <row r="105" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
-      <c r="A105" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" s="39" t="s">
-        <v>896</v>
-      </c>
-      <c r="C105" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="D105" s="39" t="s">
-        <v>897</v>
-      </c>
+    <row r="105" spans="1:8" ht="29">
+      <c r="A105" s="39"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
       <c r="E105" s="39" t="s">
-        <v>898</v>
+        <v>755</v>
       </c>
       <c r="F105" s="39"/>
       <c r="G105" s="39"/>
       <c r="H105" s="39"/>
     </row>
-    <row r="106" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
-      <c r="A106" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" s="39" t="s">
-        <v>779</v>
-      </c>
-      <c r="C106" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="D106" s="39" t="s">
-        <v>780</v>
-      </c>
+    <row r="106" spans="1:8" ht="29" customHeight="1">
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
       <c r="E106" s="39" t="s">
-        <v>781</v>
+        <v>939</v>
       </c>
       <c r="F106" s="39"/>
       <c r="G106" s="39"/>
       <c r="H106" s="39"/>
     </row>
-    <row r="107" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="107" spans="1:8">
       <c r="A107" s="39"/>
       <c r="B107" s="39"/>
       <c r="C107" s="39"/>
       <c r="D107" s="39"/>
       <c r="E107" s="39" t="s">
-        <v>782</v>
+        <v>940</v>
       </c>
       <c r="F107" s="39"/>
       <c r="G107" s="39"/>
       <c r="H107" s="39"/>
     </row>
-    <row r="108" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="108" spans="1:8">
       <c r="A108" s="39"/>
       <c r="B108" s="39"/>
       <c r="C108" s="39"/>
       <c r="D108" s="39"/>
       <c r="E108" s="39" t="s">
-        <v>783</v>
+        <v>941</v>
       </c>
       <c r="F108" s="39"/>
       <c r="G108" s="39"/>
       <c r="H108" s="39"/>
     </row>
-    <row r="109" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
-      <c r="A109" s="39"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
+    <row r="109" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A109" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="39" t="s">
+        <v>761</v>
+      </c>
+      <c r="C109" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D109" s="39" t="s">
+        <v>762</v>
+      </c>
       <c r="E109" s="39" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="F109" s="39"/>
       <c r="G109" s="39"/>
       <c r="H109" s="39"/>
     </row>
-    <row r="110" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="110" spans="1:8" ht="29" customHeight="1">
       <c r="A110" s="39"/>
       <c r="B110" s="39"/>
       <c r="C110" s="39"/>
       <c r="D110" s="39"/>
       <c r="E110" s="39" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="F110" s="39"/>
       <c r="G110" s="39"/>
       <c r="H110" s="39"/>
     </row>
-    <row r="111" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="111" spans="1:8" ht="29" customHeight="1">
       <c r="A111" s="39"/>
       <c r="B111" s="39"/>
       <c r="C111" s="39"/>
       <c r="D111" s="39"/>
       <c r="E111" s="39" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="F111" s="39"/>
       <c r="G111" s="39"/>
       <c r="H111" s="39"/>
     </row>
-    <row r="112" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="112" spans="1:8" ht="29" customHeight="1">
       <c r="A112" s="39"/>
       <c r="B112" s="39"/>
       <c r="C112" s="39"/>
       <c r="D112" s="39"/>
       <c r="E112" s="39" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="F112" s="39"/>
       <c r="G112" s="39"/>
       <c r="H112" s="39"/>
     </row>
-    <row r="113" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="113" spans="1:8" ht="29" customHeight="1">
       <c r="A113" s="39"/>
       <c r="B113" s="39"/>
       <c r="C113" s="39"/>
       <c r="D113" s="39"/>
       <c r="E113" s="39" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="F113" s="39"/>
       <c r="G113" s="39"/>
       <c r="H113" s="39"/>
     </row>
-    <row r="114" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="114" spans="1:8" ht="29" customHeight="1">
       <c r="A114" s="39"/>
       <c r="B114" s="39"/>
       <c r="C114" s="39"/>
       <c r="D114" s="39"/>
       <c r="E114" s="39" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="F114" s="39"/>
       <c r="G114" s="39"/>
       <c r="H114" s="39"/>
     </row>
-    <row r="115" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="115" spans="1:8" ht="29" customHeight="1">
       <c r="A115" s="39"/>
       <c r="B115" s="39"/>
       <c r="C115" s="39"/>
       <c r="D115" s="39"/>
       <c r="E115" s="39" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="F115" s="39"/>
       <c r="G115" s="39"/>
       <c r="H115" s="39"/>
     </row>
-    <row r="116" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="116" spans="1:8" ht="29" customHeight="1">
       <c r="A116" s="39"/>
       <c r="B116" s="39"/>
       <c r="C116" s="39"/>
       <c r="D116" s="39"/>
       <c r="E116" s="39" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="F116" s="39"/>
       <c r="G116" s="39"/>
       <c r="H116" s="39"/>
     </row>
-    <row r="117" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="117" spans="1:8" ht="29" customHeight="1">
       <c r="A117" s="39"/>
       <c r="B117" s="39"/>
       <c r="C117" s="39"/>
       <c r="D117" s="39"/>
       <c r="E117" s="39" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
       <c r="F117" s="39"/>
       <c r="G117" s="39"/>
       <c r="H117" s="39"/>
     </row>
-    <row r="118" spans="1:8" s="40" customFormat="1" ht="29">
+    <row r="118" spans="1:8" ht="29">
       <c r="A118" s="39"/>
       <c r="B118" s="39"/>
       <c r="C118" s="39"/>
       <c r="D118" s="39"/>
       <c r="E118" s="39" t="s">
-        <v>793</v>
+        <v>881</v>
       </c>
       <c r="F118" s="39"/>
       <c r="G118" s="39"/>
       <c r="H118" s="39"/>
     </row>
-    <row r="119" spans="1:8" s="40" customFormat="1" ht="29">
+    <row r="119" spans="1:8" ht="29">
       <c r="A119" s="39"/>
       <c r="B119" s="39"/>
       <c r="C119" s="39"/>
       <c r="D119" s="39"/>
       <c r="E119" s="39" t="s">
-        <v>794</v>
+        <v>942</v>
       </c>
       <c r="F119" s="39"/>
       <c r="G119" s="39"/>
       <c r="H119" s="39"/>
     </row>
-    <row r="120" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="120" spans="1:8" ht="29">
       <c r="A120" s="39"/>
       <c r="B120" s="39"/>
       <c r="C120" s="39"/>
       <c r="D120" s="39"/>
       <c r="E120" s="39" t="s">
-        <v>795</v>
+        <v>943</v>
       </c>
       <c r="F120" s="39"/>
       <c r="G120" s="39"/>
       <c r="H120" s="39"/>
     </row>
-    <row r="121" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
-      <c r="A121" s="39"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
-      <c r="D121" s="39"/>
+    <row r="121" spans="1:8" ht="72.5">
+      <c r="A121" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="C121" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D121" s="39" t="s">
+        <v>883</v>
+      </c>
       <c r="E121" s="39" t="s">
-        <v>796</v>
+        <v>884</v>
       </c>
       <c r="F121" s="39"/>
       <c r="G121" s="39"/>
       <c r="H121" s="39"/>
     </row>
-    <row r="122" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
-      <c r="A122" s="39"/>
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
-      <c r="D122" s="39"/>
+    <row r="122" spans="1:8" ht="101.5" customHeight="1">
+      <c r="A122" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="113" t="s">
+        <v>772</v>
+      </c>
+      <c r="C122" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D122" s="39" t="s">
+        <v>773</v>
+      </c>
       <c r="E122" s="39" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F122" s="39"/>
       <c r="G122" s="39"/>
       <c r="H122" s="39"/>
     </row>
-    <row r="123" spans="1:8" s="40" customFormat="1" ht="29">
+    <row r="123" spans="1:8" ht="29" customHeight="1">
       <c r="A123" s="39"/>
       <c r="B123" s="39"/>
       <c r="C123" s="39"/>
       <c r="D123" s="39"/>
       <c r="E123" s="39" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F123" s="39"/>
       <c r="G123" s="39"/>
       <c r="H123" s="39"/>
     </row>
-    <row r="124" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="124" spans="1:8" ht="43.5" customHeight="1">
       <c r="A124" s="39"/>
       <c r="B124" s="39"/>
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
       <c r="E124" s="39" t="s">
-        <v>799</v>
+        <v>944</v>
       </c>
       <c r="F124" s="39"/>
       <c r="G124" s="39"/>
       <c r="H124" s="39"/>
     </row>
-    <row r="125" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="125" spans="1:8" ht="29" customHeight="1">
       <c r="A125" s="39"/>
       <c r="B125" s="39"/>
       <c r="C125" s="39"/>
       <c r="D125" s="39"/>
       <c r="E125" s="39" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="F125" s="39"/>
       <c r="G125" s="39"/>
       <c r="H125" s="39"/>
     </row>
-    <row r="126" spans="1:8" s="40" customFormat="1" ht="29" customHeight="1">
+    <row r="126" spans="1:8" ht="29" customHeight="1">
       <c r="A126" s="39"/>
       <c r="B126" s="39"/>
       <c r="C126" s="39"/>
       <c r="D126" s="39"/>
       <c r="E126" s="39" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F126" s="39"/>
       <c r="G126" s="39"/>
       <c r="H126" s="39"/>
     </row>
-    <row r="127" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1">
+    <row r="127" spans="1:8" ht="29" customHeight="1">
       <c r="A127" s="39"/>
       <c r="B127" s="39"/>
       <c r="C127" s="39"/>
       <c r="D127" s="39"/>
       <c r="E127" s="39" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="F127" s="39"/>
       <c r="G127" s="39"/>
       <c r="H127" s="39"/>
     </row>
-    <row r="128" spans="1:8" ht="29">
+    <row r="128" spans="1:8" ht="29" customHeight="1">
       <c r="A128" s="39"/>
       <c r="B128" s="39"/>
       <c r="C128" s="39"/>
       <c r="D128" s="39"/>
       <c r="E128" s="39" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F128" s="39"/>
       <c r="G128" s="39"/>
       <c r="H128" s="39"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" ht="29" customHeight="1">
       <c r="A129" s="39"/>
       <c r="B129" s="39"/>
       <c r="C129" s="39"/>
       <c r="D129" s="39"/>
       <c r="E129" s="39" t="s">
-        <v>804</v>
+        <v>774</v>
       </c>
       <c r="F129" s="39"/>
       <c r="G129" s="39"/>
       <c r="H129" s="39"/>
     </row>
-    <row r="130" spans="1:8" ht="29">
+    <row r="130" spans="1:8" ht="29" customHeight="1">
       <c r="A130" s="39"/>
       <c r="B130" s="39"/>
       <c r="C130" s="39"/>
       <c r="D130" s="39"/>
       <c r="E130" s="39" t="s">
-        <v>805</v>
+        <v>775</v>
       </c>
       <c r="F130" s="39"/>
       <c r="G130" s="39"/>
       <c r="H130" s="39"/>
     </row>
-    <row r="131" spans="1:8" ht="29">
+    <row r="131" spans="1:8" ht="29" customHeight="1">
       <c r="A131" s="39"/>
       <c r="B131" s="39"/>
       <c r="C131" s="39"/>
       <c r="D131" s="39"/>
       <c r="E131" s="39" t="s">
-        <v>806</v>
+        <v>776</v>
       </c>
       <c r="F131" s="39"/>
       <c r="G131" s="39"/>
       <c r="H131" s="39"/>
     </row>
-    <row r="132" spans="1:8" ht="29">
+    <row r="132" spans="1:8" ht="29" customHeight="1">
       <c r="A132" s="39"/>
       <c r="B132" s="39"/>
       <c r="C132" s="39"/>
       <c r="D132" s="39"/>
       <c r="E132" s="39" t="s">
-        <v>807</v>
+        <v>777</v>
       </c>
       <c r="F132" s="39"/>
       <c r="G132" s="39"/>
       <c r="H132" s="39"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" ht="29" customHeight="1">
       <c r="A133" s="39"/>
       <c r="B133" s="39"/>
       <c r="C133" s="39"/>
       <c r="D133" s="39"/>
       <c r="E133" s="39" t="s">
-        <v>808</v>
+        <v>778</v>
       </c>
       <c r="F133" s="39"/>
       <c r="G133" s="39"/>
       <c r="H133" s="39"/>
     </row>
-    <row r="134" spans="1:8" ht="29">
+    <row r="134" spans="1:8" ht="29" customHeight="1">
       <c r="A134" s="39"/>
       <c r="B134" s="39"/>
       <c r="C134" s="39"/>
       <c r="D134" s="39"/>
       <c r="E134" s="39" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
       <c r="F134" s="39"/>
       <c r="G134" s="39"/>
       <c r="H134" s="39"/>
     </row>
-    <row r="135" spans="1:8" ht="29">
+    <row r="135" spans="1:8" ht="29" customHeight="1">
       <c r="A135" s="39"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
       <c r="D135" s="39"/>
       <c r="E135" s="39" t="s">
-        <v>810</v>
+        <v>780</v>
       </c>
       <c r="F135" s="39"/>
       <c r="G135" s="39"/>
       <c r="H135" s="39"/>
     </row>
-    <row r="136" spans="1:8" ht="29">
+    <row r="136" spans="1:8" ht="29" customHeight="1">
       <c r="A136" s="39"/>
       <c r="B136" s="39"/>
       <c r="C136" s="39"/>
       <c r="D136" s="39"/>
       <c r="E136" s="39" t="s">
-        <v>811</v>
+        <v>781</v>
       </c>
       <c r="F136" s="39"/>
       <c r="G136" s="39"/>
       <c r="H136" s="39"/>
     </row>
-    <row r="137" spans="1:8" ht="58">
-      <c r="A137" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B137" s="39" t="s">
-        <v>812</v>
-      </c>
-      <c r="C137" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="D137" s="39" t="s">
-        <v>813</v>
-      </c>
+    <row r="137" spans="1:8" ht="29" customHeight="1">
+      <c r="A137" s="39"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="39" t="s">
-        <v>814</v>
+        <v>782</v>
       </c>
       <c r="F137" s="39"/>
       <c r="G137" s="39"/>
       <c r="H137" s="39"/>
+    </row>
+    <row r="138" spans="1:8" ht="29" customHeight="1">
+      <c r="A138" s="39"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="39" t="s">
+        <v>783</v>
+      </c>
+      <c r="F138" s="39"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="39"/>
+    </row>
+    <row r="139" spans="1:8" ht="29" customHeight="1">
+      <c r="A139" s="39"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39" t="s">
+        <v>784</v>
+      </c>
+      <c r="F139" s="39"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="39"/>
+    </row>
+    <row r="140" spans="1:8" ht="29" customHeight="1">
+      <c r="A140" s="39"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="39"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="39" t="s">
+        <v>785</v>
+      </c>
+      <c r="F140" s="39"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="39"/>
+    </row>
+    <row r="141" spans="1:8" ht="29" customHeight="1">
+      <c r="A141" s="39"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="39"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="39" t="s">
+        <v>786</v>
+      </c>
+      <c r="F141" s="39"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="39"/>
+    </row>
+    <row r="142" spans="1:8" ht="29" customHeight="1">
+      <c r="A142" s="39"/>
+      <c r="B142" s="39"/>
+      <c r="C142" s="39"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="39" t="s">
+        <v>787</v>
+      </c>
+      <c r="F142" s="39"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="39"/>
+    </row>
+    <row r="143" spans="1:8" ht="29" customHeight="1">
+      <c r="A143" s="39"/>
+      <c r="B143" s="39"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="F143" s="39"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="39"/>
+    </row>
+    <row r="144" spans="1:8" ht="29">
+      <c r="A144" s="39"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="39"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="39" t="s">
+        <v>789</v>
+      </c>
+      <c r="F144" s="39"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="39"/>
+    </row>
+    <row r="145" spans="1:8" ht="29">
+      <c r="A145" s="39"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="39"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="39" t="s">
+        <v>799</v>
+      </c>
+      <c r="F145" s="39"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="39"/>
+    </row>
+    <row r="146" spans="1:8" ht="29" customHeight="1">
+      <c r="A146" s="39"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="39"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="39" t="s">
+        <v>800</v>
+      </c>
+      <c r="F146" s="39"/>
+      <c r="G146" s="39"/>
+      <c r="H146" s="39"/>
+    </row>
+    <row r="147" spans="1:8" ht="29" customHeight="1">
+      <c r="A147" s="39"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="39"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="39" t="s">
+        <v>801</v>
+      </c>
+      <c r="F147" s="39"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="39"/>
+    </row>
+    <row r="148" spans="1:8" ht="29" customHeight="1">
+      <c r="A148" s="39"/>
+      <c r="B148" s="39"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="39" t="s">
+        <v>945</v>
+      </c>
+      <c r="F148" s="39"/>
+      <c r="G148" s="39"/>
+      <c r="H148" s="39"/>
+    </row>
+    <row r="149" spans="1:8" ht="29">
+      <c r="A149" s="39"/>
+      <c r="B149" s="39"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="39" t="s">
+        <v>946</v>
+      </c>
+      <c r="F149" s="39"/>
+      <c r="G149" s="39"/>
+      <c r="H149" s="39"/>
+    </row>
+    <row r="150" spans="1:8" ht="29" customHeight="1">
+      <c r="A150" s="39"/>
+      <c r="B150" s="39"/>
+      <c r="C150" s="39"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="39" t="s">
+        <v>792</v>
+      </c>
+      <c r="F150" s="39"/>
+      <c r="G150" s="39"/>
+      <c r="H150" s="39"/>
+    </row>
+    <row r="151" spans="1:8" ht="29" customHeight="1">
+      <c r="A151" s="39"/>
+      <c r="B151" s="39"/>
+      <c r="C151" s="39"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="39" t="s">
+        <v>794</v>
+      </c>
+      <c r="F151" s="39"/>
+      <c r="G151" s="39"/>
+      <c r="H151" s="39"/>
+    </row>
+    <row r="152" spans="1:8" ht="29" customHeight="1">
+      <c r="A152" s="39"/>
+      <c r="B152" s="39"/>
+      <c r="C152" s="39"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="39" t="s">
+        <v>795</v>
+      </c>
+      <c r="F152" s="39"/>
+      <c r="G152" s="39"/>
+      <c r="H152" s="39"/>
+    </row>
+    <row r="153" spans="1:8" ht="29" customHeight="1">
+      <c r="A153" s="39"/>
+      <c r="B153" s="39"/>
+      <c r="C153" s="39"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="39" t="s">
+        <v>947</v>
+      </c>
+      <c r="F153" s="39"/>
+      <c r="G153" s="39"/>
+      <c r="H153" s="39"/>
+    </row>
+    <row r="154" spans="1:8" ht="60" customHeight="1">
+      <c r="A154" s="39"/>
+      <c r="B154" s="39"/>
+      <c r="C154" s="39"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="39"/>
+      <c r="F154" s="39"/>
+      <c r="G154" s="39"/>
+      <c r="H154" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -20211,16 +20484,16 @@
         <v>436</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="G3" s="39" t="b">
         <v>1</v>
@@ -20230,7 +20503,7 @@
         <v>436</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="40" customFormat="1" ht="29">
@@ -20241,16 +20514,16 @@
         <v>436</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>909</v>
+        <v>895</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="G4" s="39" t="b">
         <v>0</v>
@@ -20260,7 +20533,7 @@
         <v>436</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20592,19 +20865,19 @@
     </row>
     <row r="3" spans="1:12" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A3" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="F3" s="41" t="s">
         <v>21</v>
@@ -20626,13 +20899,13 @@
     </row>
     <row r="4" spans="1:12" s="37" customFormat="1">
       <c r="A4" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>23</v>
@@ -20650,23 +20923,23 @@
         <v>21</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" s="37" customFormat="1">
       <c r="A5" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>26</v>
@@ -20684,10 +20957,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="K5" s="41"/>
       <c r="L5" s="35"/>
@@ -20847,14 +21120,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="222" customHeight="1">
       <c r="A1" s="93" t="s">
-        <v>928</v>
+        <v>914</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
       <c r="E1" s="94"/>
       <c r="F1" s="93" t="s">
-        <v>929</v>
+        <v>915</v>
       </c>
       <c r="G1" s="94"/>
     </row>
@@ -20866,19 +21139,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="89" t="s">
-        <v>915</v>
+        <v>901</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>916</v>
+        <v>902</v>
       </c>
       <c r="E2" s="89" t="s">
-        <v>917</v>
+        <v>903</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>919</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" customHeight="1">
@@ -20889,19 +21162,19 @@
         <v>379</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>924</v>
+        <v>910</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>925</v>
+        <v>911</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>922</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="94.5" customHeight="1">
@@ -21192,7 +21465,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -21286,13 +21559,13 @@
     </row>
     <row r="3" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A3" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>38</v>
@@ -21301,20 +21574,20 @@
         <v>41</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A4" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>38</v>
@@ -21323,20 +21596,20 @@
         <v>41</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A5" s="41" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>38</v>
@@ -21345,7 +21618,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>908</v>
+        <v>894</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="947">
   <si>
     <t>Region</t>
   </si>
@@ -6153,9 +6153,6 @@
   </si>
   <si>
     <t>Allow group SecurityAdmins to manage orm-config-source-providers in compartment Security</t>
-  </si>
-  <si>
-    <t>London</t>
   </si>
   <si>
     <t>hub-vcn</t>
@@ -7386,7 +7383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7597,6 +7594,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7659,9 +7660,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9597,7 +9595,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="80" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -9636,28 +9634,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>501</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="99" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="101" t="s">
         <v>508</v>
       </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+      <c r="O1" s="101"/>
+      <c r="P1" s="101"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
     </row>
     <row r="2" spans="1:18" s="48" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -9717,16 +9715,16 @@
     </row>
     <row r="3" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1">
       <c r="A3" s="41" t="s">
-        <v>802</v>
+        <v>329</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>53</v>
@@ -9741,10 +9739,10 @@
         <v>38</v>
       </c>
       <c r="I3" s="41" t="s">
+        <v>811</v>
+      </c>
+      <c r="J3" s="39" t="s">
         <v>812</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>813</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>24</v>
@@ -9769,34 +9767,34 @@
     </row>
     <row r="4" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1">
       <c r="A4" s="41" t="s">
-        <v>802</v>
+        <v>329</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D4" s="41" t="s">
+        <v>813</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>814</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>815</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="41" t="s">
+        <v>816</v>
+      </c>
+      <c r="J4" s="39" t="s">
         <v>817</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>818</v>
       </c>
       <c r="K4" s="36" t="s">
         <v>24</v>
@@ -9821,16 +9819,16 @@
     </row>
     <row r="5" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="41" t="s">
-        <v>802</v>
+        <v>329</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E5" s="41" t="s">
         <v>409</v>
@@ -9839,16 +9837,16 @@
         <v>54</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H5" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="41" t="s">
+        <v>819</v>
+      </c>
+      <c r="J5" s="39" t="s">
         <v>820</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>821</v>
       </c>
       <c r="K5" s="41" t="s">
         <v>24</v>
@@ -9873,16 +9871,16 @@
     </row>
     <row r="6" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="41" t="s">
-        <v>802</v>
+        <v>329</v>
       </c>
       <c r="B6" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E6" s="41" t="s">
         <v>58</v>
@@ -9897,10 +9895,10 @@
         <v>38</v>
       </c>
       <c r="I6" s="41" t="s">
+        <v>822</v>
+      </c>
+      <c r="J6" s="39" t="s">
         <v>823</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>824</v>
       </c>
       <c r="K6" s="41" t="s">
         <v>24</v>
@@ -9925,19 +9923,19 @@
     </row>
     <row r="7" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="41" t="s">
-        <v>802</v>
+        <v>329</v>
       </c>
       <c r="B7" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D7" s="41" t="s">
+        <v>824</v>
+      </c>
+      <c r="E7" s="41" t="s">
         <v>825</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>826</v>
       </c>
       <c r="F7" s="41" t="s">
         <v>54</v>
@@ -9949,10 +9947,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="41" t="s">
+        <v>826</v>
+      </c>
+      <c r="J7" s="39" t="s">
         <v>827</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>828</v>
       </c>
       <c r="K7" s="41" t="s">
         <v>24</v>
@@ -9977,19 +9975,19 @@
     </row>
     <row r="8" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="41" t="s">
-        <v>802</v>
+        <v>329</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D8" s="41" t="s">
+        <v>828</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>829</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>830</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>54</v>
@@ -10001,10 +9999,10 @@
         <v>38</v>
       </c>
       <c r="I8" s="41" t="s">
+        <v>830</v>
+      </c>
+      <c r="J8" s="39" t="s">
         <v>831</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>832</v>
       </c>
       <c r="K8" s="41" t="s">
         <v>24</v>
@@ -10029,16 +10027,16 @@
     </row>
     <row r="9" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="41" t="s">
-        <v>802</v>
+        <v>329</v>
       </c>
       <c r="B9" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>411</v>
@@ -10047,16 +10045,16 @@
         <v>54</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="41" t="s">
+        <v>833</v>
+      </c>
+      <c r="J9" s="39" t="s">
         <v>834</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>835</v>
       </c>
       <c r="K9" s="41" t="s">
         <v>24</v>
@@ -10081,16 +10079,16 @@
     </row>
     <row r="10" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A10" s="41" t="s">
-        <v>802</v>
+        <v>329</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>412</v>
@@ -10105,10 +10103,10 @@
         <v>38</v>
       </c>
       <c r="I10" s="41" t="s">
+        <v>836</v>
+      </c>
+      <c r="J10" s="39" t="s">
         <v>837</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>838</v>
       </c>
       <c r="K10" s="41" t="s">
         <v>24</v>
@@ -10133,16 +10131,16 @@
     </row>
     <row r="11" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A11" s="41" t="s">
-        <v>802</v>
+        <v>329</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E11" s="41" t="s">
         <v>415</v>
@@ -10157,10 +10155,10 @@
         <v>38</v>
       </c>
       <c r="I11" s="41" t="s">
+        <v>839</v>
+      </c>
+      <c r="J11" s="39" t="s">
         <v>840</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>841</v>
       </c>
       <c r="K11" s="41" t="s">
         <v>24</v>
@@ -10185,19 +10183,19 @@
     </row>
     <row r="12" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A12" s="41" t="s">
-        <v>802</v>
+        <v>329</v>
       </c>
       <c r="B12" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D12" s="41" t="s">
+        <v>841</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>842</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>843</v>
       </c>
       <c r="F12" s="41" t="s">
         <v>54</v>
@@ -10209,10 +10207,10 @@
         <v>38</v>
       </c>
       <c r="I12" s="41" t="s">
+        <v>843</v>
+      </c>
+      <c r="J12" s="39" t="s">
         <v>844</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>845</v>
       </c>
       <c r="K12" s="41" t="s">
         <v>24</v>
@@ -10589,18 +10587,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="92" t="s">
-        <v>912</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
+      <c r="A1" s="94" t="s">
+        <v>911</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1">
       <c r="A2" s="33" t="s">
@@ -10610,25 +10608,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D2" s="33" t="s">
+        <v>902</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>903</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>904</v>
       </c>
       <c r="F2" s="33" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>63</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="J2" s="33" t="s">
         <v>491</v>
@@ -12173,17 +12171,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
@@ -12244,25 +12242,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>510</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
@@ -12330,7 +12328,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -12351,28 +12349,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>519</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
-      <c r="Q1" s="92"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="92"/>
-      <c r="T1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="94"/>
+      <c r="S1" s="94"/>
+      <c r="T1" s="94"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="14" t="s">
@@ -12438,19 +12436,19 @@
     </row>
     <row r="3" spans="1:20" s="40" customFormat="1" ht="29" customHeight="1">
       <c r="A3" s="39" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="B3" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>845</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>846</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>847</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>419</v>
@@ -12464,7 +12462,7 @@
         <v>420</v>
       </c>
       <c r="K3" s="39" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
@@ -12477,26 +12475,26 @@
       <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
       <c r="R3" s="39" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="S3" s="39"/>
       <c r="T3" s="39"/>
     </row>
     <row r="4" spans="1:20" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A4" s="39" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F4" s="39" t="s">
         <v>419</v>
@@ -12505,7 +12503,7 @@
         <v>82</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I4" s="39" t="s">
         <v>31</v>
@@ -12523,26 +12521,26 @@
       <c r="P4" s="39"/>
       <c r="Q4" s="39"/>
       <c r="R4" s="39" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="S4" s="39"/>
       <c r="T4" s="39"/>
     </row>
     <row r="5" spans="1:20" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A5" s="39" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="B5" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F5" s="39" t="s">
         <v>419</v>
@@ -12551,10 +12549,10 @@
         <v>82</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J5" s="39"/>
       <c r="K5" s="39"/>
@@ -12569,26 +12567,26 @@
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
       <c r="R5" s="39" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="S5" s="39"/>
       <c r="T5" s="39"/>
     </row>
     <row r="6" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A6" s="39" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="B6" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>419</v>
@@ -12602,7 +12600,7 @@
         <v>420</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -12615,26 +12613,26 @@
       <c r="P6" s="39"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="39" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="S6" s="39"/>
       <c r="T6" s="39"/>
     </row>
     <row r="7" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A7" s="39" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="B7" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>419</v>
@@ -12643,10 +12641,10 @@
         <v>82</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
@@ -12661,26 +12659,26 @@
       <c r="P7" s="39"/>
       <c r="Q7" s="39"/>
       <c r="R7" s="39" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="S7" s="39"/>
       <c r="T7" s="39"/>
     </row>
     <row r="8" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A8" s="39" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="B8" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F8" s="39" t="s">
         <v>419</v>
@@ -12689,10 +12687,10 @@
         <v>82</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
@@ -12707,26 +12705,26 @@
       <c r="P8" s="39"/>
       <c r="Q8" s="39"/>
       <c r="R8" s="39" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
     </row>
     <row r="9" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A9" s="39" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="B9" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F9" s="39" t="s">
         <v>419</v>
@@ -12740,7 +12738,7 @@
         <v>420</v>
       </c>
       <c r="K9" s="39" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L9" s="39"/>
       <c r="M9" s="39"/>
@@ -12753,26 +12751,26 @@
       <c r="P9" s="39"/>
       <c r="Q9" s="39"/>
       <c r="R9" s="39" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
     </row>
     <row r="10" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A10" s="39" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F10" s="39" t="s">
         <v>419</v>
@@ -12783,10 +12781,10 @@
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
       <c r="J10" s="39" t="s">
+        <v>861</v>
+      </c>
+      <c r="K10" s="39" t="s">
         <v>862</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>863</v>
       </c>
       <c r="L10" s="39"/>
       <c r="M10" s="39"/>
@@ -12799,26 +12797,26 @@
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
       <c r="R10" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
     </row>
     <row r="11" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A11" s="39" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="B11" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F11" s="39" t="s">
         <v>419</v>
@@ -12827,10 +12825,10 @@
         <v>82</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
@@ -12845,26 +12843,26 @@
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
     </row>
     <row r="12" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A12" s="39" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>419</v>
@@ -12873,10 +12871,10 @@
         <v>82</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="39"/>
@@ -12891,26 +12889,26 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="39" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
     </row>
     <row r="13" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A13" s="39" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="B13" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F13" s="39" t="s">
         <v>419</v>
@@ -12924,7 +12922,7 @@
         <v>420</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
@@ -12937,26 +12935,26 @@
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
       <c r="R13" s="39" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="S13" s="39"/>
       <c r="T13" s="39"/>
     </row>
     <row r="14" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A14" s="39" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="B14" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>419</v>
@@ -12967,10 +12965,10 @@
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
       <c r="J14" s="39" t="s">
+        <v>861</v>
+      </c>
+      <c r="K14" s="39" t="s">
         <v>862</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>863</v>
       </c>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
@@ -12983,26 +12981,26 @@
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
       <c r="R14" s="39" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
     </row>
     <row r="15" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A15" s="39" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="B15" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F15" s="39" t="s">
         <v>419</v>
@@ -13011,10 +13009,10 @@
         <v>82</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
@@ -13029,26 +13027,26 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
       <c r="R15" s="39" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
     </row>
     <row r="16" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A16" s="39" t="s">
-        <v>5</v>
+        <v>329</v>
       </c>
       <c r="B16" s="39" t="s">
         <v>379</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F16" s="39" t="s">
         <v>419</v>
@@ -13057,10 +13055,10 @@
         <v>82</v>
       </c>
       <c r="H16" s="39" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J16" s="39"/>
       <c r="K16" s="39"/>
@@ -13075,7 +13073,7 @@
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="39" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="S16" s="39"/>
       <c r="T16" s="39"/>
@@ -13295,15 +13293,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>520</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
     </row>
     <row r="2" spans="1:7" s="48" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="33" t="s">
@@ -13441,26 +13439,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1">
-      <c r="A1" s="100" t="s">
-        <v>900</v>
-      </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="93" t="s">
+      <c r="A1" s="102" t="s">
+        <v>899</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="95" t="s">
         <v>646</v>
       </c>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="95"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="97"/>
     </row>
     <row r="2" spans="1:16" s="48" customFormat="1" ht="52.25" customHeight="1">
       <c r="A2" s="33" t="s">
@@ -13738,18 +13736,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>647</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
     </row>
     <row r="2" spans="1:10" s="48" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -13895,27 +13893,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>527</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="106" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -14015,7 +14013,7 @@
         <v>129</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -14040,7 +14038,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J5" s="30" t="s">
         <v>130</v>
@@ -14064,7 +14062,7 @@
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="30" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="J6" s="30" t="s">
         <v>132</v>
@@ -14101,7 +14099,7 @@
         <v>134</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -14134,7 +14132,7 @@
         <v>136</v>
       </c>
       <c r="I8" s="30" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J8" s="30" t="s">
         <v>137</v>
@@ -14173,7 +14171,7 @@
         <v>136</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J9" s="30" t="s">
         <v>139</v>
@@ -14210,7 +14208,7 @@
         <v>141</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
@@ -14254,24 +14252,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="122.5" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>511</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="43.25" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -14482,13 +14480,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="48" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="33" t="s">
@@ -14729,29 +14727,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="87.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>534</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="97"/>
     </row>
     <row r="2" spans="1:21" ht="58.25" customHeight="1">
       <c r="A2" s="42" t="s">
@@ -15031,29 +15029,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="96" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="98" t="s">
         <v>530</v>
       </c>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="108"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="110"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -15718,14 +15716,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="48" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="111" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="113"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="21" t="s">
@@ -15862,24 +15860,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="88.25" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" ht="46.25" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -16420,17 +16418,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>528</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
@@ -16575,32 +16573,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="57" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>652</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="2" spans="1:24" s="73" customFormat="1" ht="43.5">
       <c r="A2" s="76" t="s">
@@ -16925,32 +16923,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="57" customFormat="1" ht="133.25" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>653</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="2" spans="1:24" s="73" customFormat="1" ht="29">
       <c r="A2" s="76" t="s">
@@ -17274,32 +17272,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="57" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="94"/>
-      <c r="V1" s="94"/>
-      <c r="W1" s="94"/>
-      <c r="X1" s="95"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="97"/>
     </row>
     <row r="2" spans="1:24" s="73" customFormat="1" ht="29">
       <c r="A2" s="76" t="s">
@@ -18295,13 +18293,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="48" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>505</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
@@ -18403,10 +18401,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="39" t="s">
+        <v>869</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>870</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>871</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
@@ -18416,10 +18414,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="39" t="s">
+        <v>915</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>916</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>917</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
@@ -18459,16 +18457,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="48" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>506</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" s="48" customFormat="1">
       <c r="A2" s="7" t="s">
@@ -18501,16 +18499,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>872</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>873</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>874</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -18522,7 +18520,7 @@
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -18746,7 +18744,7 @@
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
@@ -18758,7 +18756,7 @@
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
@@ -18806,7 +18804,7 @@
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -18830,7 +18828,7 @@
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="39" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -18842,7 +18840,7 @@
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="39" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
@@ -18890,7 +18888,7 @@
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="39"/>
@@ -18902,7 +18900,7 @@
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="39" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
@@ -18914,7 +18912,7 @@
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
@@ -19066,7 +19064,7 @@
       <c r="C48" s="39"/>
       <c r="D48" s="39"/>
       <c r="E48" s="39" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F48" s="39"/>
       <c r="G48" s="39"/>
@@ -19078,7 +19076,7 @@
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
       <c r="E49" s="39" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
@@ -19090,7 +19088,7 @@
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
@@ -19101,16 +19099,16 @@
         <v>5</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C51" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D51" s="39" t="s">
+        <v>926</v>
+      </c>
+      <c r="E51" s="39" t="s">
         <v>927</v>
-      </c>
-      <c r="E51" s="39" t="s">
-        <v>928</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
@@ -19122,7 +19120,7 @@
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
       <c r="E52" s="39" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
@@ -19134,7 +19132,7 @@
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
       <c r="E53" s="39" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
@@ -19146,7 +19144,7 @@
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="39" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
@@ -19438,7 +19436,7 @@
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
       <c r="E77" s="39" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F77" s="39"/>
       <c r="G77" s="39"/>
@@ -19570,7 +19568,7 @@
       <c r="C88" s="39"/>
       <c r="D88" s="39"/>
       <c r="E88" s="39" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F88" s="39"/>
       <c r="G88" s="39"/>
@@ -19582,7 +19580,7 @@
       <c r="C89" s="39"/>
       <c r="D89" s="39"/>
       <c r="E89" s="39" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
@@ -19594,7 +19592,7 @@
       <c r="C90" s="39"/>
       <c r="D90" s="39"/>
       <c r="E90" s="39" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F90" s="39"/>
       <c r="G90" s="39"/>
@@ -19614,7 +19612,7 @@
         <v>750</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F91" s="39"/>
       <c r="G91" s="39"/>
@@ -19698,7 +19696,7 @@
       <c r="C98" s="39"/>
       <c r="D98" s="39"/>
       <c r="E98" s="39" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F98" s="39"/>
       <c r="G98" s="39"/>
@@ -19722,7 +19720,7 @@
       <c r="C100" s="39"/>
       <c r="D100" s="39"/>
       <c r="E100" s="39" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F100" s="39"/>
       <c r="G100" s="39"/>
@@ -19734,7 +19732,7 @@
       <c r="C101" s="39"/>
       <c r="D101" s="39"/>
       <c r="E101" s="39" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F101" s="39"/>
       <c r="G101" s="39"/>
@@ -19746,7 +19744,7 @@
       <c r="C102" s="39"/>
       <c r="D102" s="39"/>
       <c r="E102" s="39" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F102" s="39"/>
       <c r="G102" s="39"/>
@@ -19794,7 +19792,7 @@
       <c r="C106" s="39"/>
       <c r="D106" s="39"/>
       <c r="E106" s="39" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F106" s="39"/>
       <c r="G106" s="39"/>
@@ -19806,7 +19804,7 @@
       <c r="C107" s="39"/>
       <c r="D107" s="39"/>
       <c r="E107" s="39" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F107" s="39"/>
       <c r="G107" s="39"/>
@@ -19818,7 +19816,7 @@
       <c r="C108" s="39"/>
       <c r="D108" s="39"/>
       <c r="E108" s="39" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F108" s="39"/>
       <c r="G108" s="39"/>
@@ -19946,7 +19944,7 @@
       <c r="C118" s="39"/>
       <c r="D118" s="39"/>
       <c r="E118" s="39" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F118" s="39"/>
       <c r="G118" s="39"/>
@@ -19958,7 +19956,7 @@
       <c r="C119" s="39"/>
       <c r="D119" s="39"/>
       <c r="E119" s="39" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F119" s="39"/>
       <c r="G119" s="39"/>
@@ -19970,7 +19968,7 @@
       <c r="C120" s="39"/>
       <c r="D120" s="39"/>
       <c r="E120" s="39" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F120" s="39"/>
       <c r="G120" s="39"/>
@@ -19981,16 +19979,16 @@
         <v>5</v>
       </c>
       <c r="B121" s="39" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C121" s="39" t="s">
         <v>436</v>
       </c>
       <c r="D121" s="39" t="s">
+        <v>882</v>
+      </c>
+      <c r="E121" s="39" t="s">
         <v>883</v>
-      </c>
-      <c r="E121" s="39" t="s">
-        <v>884</v>
       </c>
       <c r="F121" s="39"/>
       <c r="G121" s="39"/>
@@ -20000,7 +19998,7 @@
       <c r="A122" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B122" s="113" t="s">
+      <c r="B122" s="92" t="s">
         <v>772</v>
       </c>
       <c r="C122" s="39" t="s">
@@ -20034,7 +20032,7 @@
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
       <c r="E124" s="39" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F124" s="39"/>
       <c r="G124" s="39"/>
@@ -20322,7 +20320,7 @@
       <c r="C148" s="39"/>
       <c r="D148" s="39"/>
       <c r="E148" s="39" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F148" s="39"/>
       <c r="G148" s="39"/>
@@ -20334,7 +20332,7 @@
       <c r="C149" s="39"/>
       <c r="D149" s="39"/>
       <c r="E149" s="39" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F149" s="39"/>
       <c r="G149" s="39"/>
@@ -20382,7 +20380,7 @@
       <c r="C153" s="39"/>
       <c r="D153" s="39"/>
       <c r="E153" s="39" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F153" s="39"/>
       <c r="G153" s="39"/>
@@ -20429,20 +20427,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98" t="s">
         <v>536</v>
       </c>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="98"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="45" t="s">
@@ -20484,16 +20482,16 @@
         <v>436</v>
       </c>
       <c r="C3" s="88" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>884</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>885</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="39" t="s">
         <v>886</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>887</v>
       </c>
       <c r="G3" s="39" t="b">
         <v>1</v>
@@ -20503,7 +20501,7 @@
         <v>436</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="40" customFormat="1" ht="29">
@@ -20514,16 +20512,16 @@
         <v>436</v>
       </c>
       <c r="C4" s="88" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E4" s="39" t="s">
+        <v>888</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>889</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>890</v>
       </c>
       <c r="G4" s="39" t="b">
         <v>0</v>
@@ -20533,7 +20531,7 @@
         <v>436</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -20789,7 +20787,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -20808,22 +20806,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="40" customFormat="1" ht="187.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
         <v>522</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="93" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="95" t="s">
         <v>523</v>
       </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="95"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="97"/>
     </row>
     <row r="2" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="8" t="s">
@@ -20863,21 +20861,21 @@
         <v>491</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="40" customFormat="1" ht="28.75" customHeight="1">
-      <c r="A3" s="41" t="s">
-        <v>802</v>
+    <row r="3" spans="1:12" s="40" customFormat="1">
+      <c r="A3" s="39" t="s">
+        <v>329</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F3" s="41" t="s">
         <v>21</v>
@@ -20898,14 +20896,14 @@
       <c r="L3" s="39"/>
     </row>
     <row r="4" spans="1:12" s="37" customFormat="1">
-      <c r="A4" s="41" t="s">
-        <v>802</v>
+      <c r="A4" s="39" t="s">
+        <v>329</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>23</v>
@@ -20923,23 +20921,23 @@
         <v>21</v>
       </c>
       <c r="I4" s="41" t="s">
+        <v>805</v>
+      </c>
+      <c r="J4" s="41" t="s">
         <v>806</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>807</v>
       </c>
       <c r="K4" s="41"/>
       <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12" s="37" customFormat="1">
-      <c r="A5" s="41" t="s">
-        <v>802</v>
+      <c r="A5" s="39" t="s">
+        <v>329</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>26</v>
@@ -20957,10 +20955,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K5" s="41"/>
       <c r="L5" s="35"/>
@@ -21102,7 +21100,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21119,17 +21117,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="222" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="95" t="s">
+        <v>913</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="95" t="s">
         <v>914</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="93" t="s">
-        <v>915</v>
-      </c>
-      <c r="G1" s="94"/>
+      <c r="G1" s="96"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="89" t="s">
@@ -21139,19 +21137,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="89" t="s">
+        <v>900</v>
+      </c>
+      <c r="D2" s="89" t="s">
         <v>901</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="E2" s="89" t="s">
         <v>902</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="F2" s="90" t="s">
         <v>903</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="G2" s="91" t="s">
         <v>904</v>
-      </c>
-      <c r="G2" s="91" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" customHeight="1">
@@ -21162,23 +21160,25 @@
         <v>379</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D3" s="39" t="s">
+        <v>908</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>909</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="F3" s="39" t="s">
         <v>910</v>
       </c>
-      <c r="F3" s="39" t="s">
-        <v>911</v>
-      </c>
       <c r="G3" s="39" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="94.5" customHeight="1">
-      <c r="A4" s="39"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -21186,7 +21186,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" ht="94.5" customHeight="1">
+    <row r="5" spans="1:7">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -21195,25 +21195,25 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:7" ht="77" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-    </row>
-    <row r="8" spans="1:7" ht="94.5" customHeight="1">
+    <row r="6" spans="1:7" s="93" customFormat="1">
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+    </row>
+    <row r="7" spans="1:7" s="93" customFormat="1">
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -21447,10 +21447,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="48" customFormat="1" ht="121.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>500</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="100"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -21465,7 +21465,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -21504,7 +21504,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F5"/>
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -21520,16 +21520,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>507</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" s="48" customFormat="1" ht="43.25" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -21558,14 +21558,14 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1">
-      <c r="A3" s="41" t="s">
-        <v>802</v>
+      <c r="A3" s="39" t="s">
+        <v>329</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>38</v>
@@ -21574,20 +21574,20 @@
         <v>41</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="39"/>
     </row>
     <row r="4" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1">
-      <c r="A4" s="41" t="s">
-        <v>802</v>
+      <c r="A4" s="39" t="s">
+        <v>329</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>38</v>
@@ -21596,20 +21596,20 @@
         <v>41</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1">
-      <c r="A5" s="41" t="s">
-        <v>802</v>
+      <c r="A5" s="39" t="s">
+        <v>329</v>
       </c>
       <c r="B5" s="41" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>38</v>
@@ -21618,7 +21618,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/AKT7.1-Testing/AKT-Merger/oci_tenancy/SetUpOCI_Via_TF/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tenancy\SetUpOCI_Via_TF\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A923F0E-157B-C84E-9CA4-4A015FE20946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23000" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23000" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -6889,11 +6888,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9377,23 +9376,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -9429,23 +9411,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9621,20 +9586,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="167.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="167.1796875" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15" thickBot="1"/>
+    <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="80" t="s">
         <v>910</v>
       </c>
@@ -9646,35 +9611,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.5" style="40" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="40" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="40" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="40" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="40" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="40" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.453125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" style="40" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="40" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" style="40" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" style="40" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="40" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="40" customWidth="1"/>
     <col min="17" max="17" width="10" style="40" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="173.5" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>499</v>
       </c>
@@ -9698,7 +9663,7 @@
       <c r="Q1" s="101"/>
       <c r="R1" s="101"/>
     </row>
-    <row r="2" spans="1:18" s="48" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="48" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -9754,7 +9719,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1">
       <c r="A3" s="41" t="s">
         <v>327</v>
       </c>
@@ -9806,7 +9771,7 @@
       <c r="Q3" s="41"/>
       <c r="R3" s="35"/>
     </row>
-    <row r="4" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1">
       <c r="A4" s="41" t="s">
         <v>327</v>
       </c>
@@ -9858,7 +9823,7 @@
       <c r="Q4" s="41"/>
       <c r="R4" s="35"/>
     </row>
-    <row r="5" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="41" t="s">
         <v>327</v>
       </c>
@@ -9910,7 +9875,7 @@
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
     </row>
-    <row r="6" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>327</v>
       </c>
@@ -9962,7 +9927,7 @@
       <c r="Q6" s="41"/>
       <c r="R6" s="41"/>
     </row>
-    <row r="7" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A7" s="41" t="s">
         <v>327</v>
       </c>
@@ -10014,7 +9979,7 @@
       <c r="Q7" s="41"/>
       <c r="R7" s="41"/>
     </row>
-    <row r="8" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A8" s="41" t="s">
         <v>327</v>
       </c>
@@ -10066,7 +10031,7 @@
       <c r="Q8" s="41"/>
       <c r="R8" s="41"/>
     </row>
-    <row r="9" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="40" customFormat="1" ht="27" customHeight="1">
       <c r="A9" s="41" t="s">
         <v>327</v>
       </c>
@@ -10118,7 +10083,7 @@
       <c r="Q9" s="41"/>
       <c r="R9" s="41"/>
     </row>
-    <row r="10" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A10" s="41" t="s">
         <v>327</v>
       </c>
@@ -10170,7 +10135,7 @@
       <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
     </row>
-    <row r="11" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A11" s="41" t="s">
         <v>327</v>
       </c>
@@ -10222,7 +10187,7 @@
       <c r="Q11" s="41"/>
       <c r="R11" s="41"/>
     </row>
-    <row r="12" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A12" s="41" t="s">
         <v>327</v>
       </c>
@@ -10274,7 +10239,7 @@
       <c r="Q12" s="41"/>
       <c r="R12" s="41"/>
     </row>
-    <row r="13" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" s="37" customFormat="1" ht="25.25" customHeight="1">
       <c r="A13" s="35" t="s">
         <v>4</v>
       </c>
@@ -10295,7 +10260,7 @@
       <c r="Q13" s="36"/>
       <c r="R13" s="35"/>
     </row>
-    <row r="14" spans="1:18" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="31.75" customHeight="1">
       <c r="A14" s="83" t="s">
         <v>5</v>
       </c>
@@ -10347,7 +10312,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="83" t="s">
         <v>5</v>
       </c>
@@ -10395,7 +10360,7 @@
       <c r="Q15" s="86"/>
       <c r="R15" s="83"/>
     </row>
-    <row r="16" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="28.75" customHeight="1">
       <c r="A16" s="83" t="s">
         <v>5</v>
       </c>
@@ -10443,7 +10408,7 @@
       <c r="Q16" s="86"/>
       <c r="R16" s="83"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18">
       <c r="A17" s="83" t="s">
         <v>5</v>
       </c>
@@ -10493,7 +10458,7 @@
       <c r="Q17" s="86"/>
       <c r="R17" s="83"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" s="83" t="s">
         <v>5</v>
       </c>
@@ -10543,7 +10508,7 @@
       <c r="Q18" s="86"/>
       <c r="R18" s="83"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" s="83" t="s">
         <v>5</v>
       </c>
@@ -10604,30 +10569,30 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" style="40" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="40" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="40"/>
+    <col min="1" max="1" width="8.6328125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.36328125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6328125" style="40" customWidth="1"/>
+    <col min="12" max="16384" width="8.6328125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="63" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>909</v>
       </c>
@@ -10641,7 +10606,7 @@
       <c r="I1" s="94"/>
       <c r="J1" s="94"/>
     </row>
-    <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="29" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -10674,7 +10639,7 @@
       </c>
       <c r="K2" s="73"/>
     </row>
-    <row r="3" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="58" customHeight="1">
       <c r="A3" s="39"/>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
@@ -10687,7 +10652,7 @@
       <c r="J3" s="39"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="58" customHeight="1">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -10700,7 +10665,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="58" customHeight="1">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -10713,7 +10678,7 @@
       <c r="J5" s="39"/>
       <c r="K5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="58" customHeight="1">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -10726,7 +10691,7 @@
       <c r="J6" s="39"/>
       <c r="K6" s="41"/>
     </row>
-    <row r="7" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="58" customHeight="1">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -10739,7 +10704,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="58" customHeight="1">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -10752,7 +10717,7 @@
       <c r="J8" s="39"/>
       <c r="K8" s="41"/>
     </row>
-    <row r="9" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="58" customHeight="1">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -10765,7 +10730,7 @@
       <c r="J9" s="39"/>
       <c r="K9" s="41"/>
     </row>
-    <row r="10" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="58" customHeight="1">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -10778,7 +10743,7 @@
       <c r="J10" s="39"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="58" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -10791,7 +10756,7 @@
       <c r="J11" s="39"/>
       <c r="K11" s="41"/>
     </row>
-    <row r="12" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="58" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -10804,7 +10769,7 @@
       <c r="J12" s="39"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="58" customHeight="1">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -10817,7 +10782,7 @@
       <c r="J13" s="39"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="58" customHeight="1">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -10830,7 +10795,7 @@
       <c r="J14" s="39"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="58" customHeight="1">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -10843,7 +10808,7 @@
       <c r="J15" s="39"/>
       <c r="K15" s="41"/>
     </row>
-    <row r="16" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="58" customHeight="1">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -10856,7 +10821,7 @@
       <c r="J16" s="39"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="58" customHeight="1">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -10869,7 +10834,7 @@
       <c r="J17" s="39"/>
       <c r="K17" s="41"/>
     </row>
-    <row r="18" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="29" customHeight="1">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -10882,7 +10847,7 @@
       <c r="J18" s="39"/>
       <c r="K18" s="41"/>
     </row>
-    <row r="19" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="29" customHeight="1">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -10895,7 +10860,7 @@
       <c r="J19" s="39"/>
       <c r="K19" s="41"/>
     </row>
-    <row r="20" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="29" customHeight="1">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -10908,7 +10873,7 @@
       <c r="J20" s="39"/>
       <c r="K20" s="41"/>
     </row>
-    <row r="21" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="58" customHeight="1">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -10921,7 +10886,7 @@
       <c r="J21" s="39"/>
       <c r="K21" s="41"/>
     </row>
-    <row r="22" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="58" customHeight="1">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -10934,7 +10899,7 @@
       <c r="J22" s="39"/>
       <c r="K22" s="41"/>
     </row>
-    <row r="23" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="58" customHeight="1">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -10947,7 +10912,7 @@
       <c r="J23" s="39"/>
       <c r="K23" s="41"/>
     </row>
-    <row r="24" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="58" customHeight="1">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -10960,7 +10925,7 @@
       <c r="J24" s="39"/>
       <c r="K24" s="41"/>
     </row>
-    <row r="25" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="58" customHeight="1">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -10973,7 +10938,7 @@
       <c r="J25" s="39"/>
       <c r="K25" s="41"/>
     </row>
-    <row r="26" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="58" customHeight="1">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -10986,7 +10951,7 @@
       <c r="J26" s="39"/>
       <c r="K26" s="41"/>
     </row>
-    <row r="27" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="58" customHeight="1">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -10999,7 +10964,7 @@
       <c r="J27" s="39"/>
       <c r="K27" s="41"/>
     </row>
-    <row r="28" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="58" customHeight="1">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -11012,7 +10977,7 @@
       <c r="J28" s="39"/>
       <c r="K28" s="41"/>
     </row>
-    <row r="29" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="58" customHeight="1">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -11025,7 +10990,7 @@
       <c r="J29" s="39"/>
       <c r="K29" s="41"/>
     </row>
-    <row r="30" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="58" customHeight="1">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -11038,7 +11003,7 @@
       <c r="J30" s="39"/>
       <c r="K30" s="41"/>
     </row>
-    <row r="31" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="58" customHeight="1">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -11051,7 +11016,7 @@
       <c r="J31" s="39"/>
       <c r="K31" s="41"/>
     </row>
-    <row r="32" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="58" customHeight="1">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -11064,7 +11029,7 @@
       <c r="J32" s="39"/>
       <c r="K32" s="41"/>
     </row>
-    <row r="33" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="58" customHeight="1">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
@@ -11077,7 +11042,7 @@
       <c r="J33" s="39"/>
       <c r="K33" s="41"/>
     </row>
-    <row r="34" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="58" customHeight="1">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -11090,7 +11055,7 @@
       <c r="J34" s="39"/>
       <c r="K34" s="41"/>
     </row>
-    <row r="35" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="58" customHeight="1">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
@@ -11103,7 +11068,7 @@
       <c r="J35" s="39"/>
       <c r="K35" s="41"/>
     </row>
-    <row r="36" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="58" customHeight="1">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
@@ -11116,7 +11081,7 @@
       <c r="J36" s="39"/>
       <c r="K36" s="41"/>
     </row>
-    <row r="37" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="58" customHeight="1">
       <c r="A37" s="39"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
@@ -11129,7 +11094,7 @@
       <c r="J37" s="39"/>
       <c r="K37" s="41"/>
     </row>
-    <row r="38" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="58" customHeight="1">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -11142,7 +11107,7 @@
       <c r="J38" s="39"/>
       <c r="K38" s="41"/>
     </row>
-    <row r="39" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="58" customHeight="1">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -11155,7 +11120,7 @@
       <c r="J39" s="39"/>
       <c r="K39" s="41"/>
     </row>
-    <row r="40" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="58" customHeight="1">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
@@ -11168,7 +11133,7 @@
       <c r="J40" s="39"/>
       <c r="K40" s="41"/>
     </row>
-    <row r="41" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="58" customHeight="1">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -11181,7 +11146,7 @@
       <c r="J41" s="39"/>
       <c r="K41" s="41"/>
     </row>
-    <row r="42" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="58" customHeight="1">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -11194,7 +11159,7 @@
       <c r="J42" s="39"/>
       <c r="K42" s="41"/>
     </row>
-    <row r="43" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="58" customHeight="1">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -11207,7 +11172,7 @@
       <c r="J43" s="39"/>
       <c r="K43" s="41"/>
     </row>
-    <row r="44" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="58" customHeight="1">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -11220,7 +11185,7 @@
       <c r="J44" s="39"/>
       <c r="K44" s="41"/>
     </row>
-    <row r="45" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="58" customHeight="1">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -11233,7 +11198,7 @@
       <c r="J45" s="39"/>
       <c r="K45" s="41"/>
     </row>
-    <row r="46" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="58" customHeight="1">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -11246,7 +11211,7 @@
       <c r="J46" s="39"/>
       <c r="K46" s="41"/>
     </row>
-    <row r="47" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="58" customHeight="1">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -11259,7 +11224,7 @@
       <c r="J47" s="39"/>
       <c r="K47" s="41"/>
     </row>
-    <row r="48" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="58" customHeight="1">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -11272,7 +11237,7 @@
       <c r="J48" s="39"/>
       <c r="K48" s="41"/>
     </row>
-    <row r="49" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="58" customHeight="1">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -11285,7 +11250,7 @@
       <c r="J49" s="39"/>
       <c r="K49" s="41"/>
     </row>
-    <row r="50" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="58" customHeight="1">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -11298,7 +11263,7 @@
       <c r="J50" s="39"/>
       <c r="K50" s="41"/>
     </row>
-    <row r="51" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="58" customHeight="1">
       <c r="A51" s="39"/>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -11311,7 +11276,7 @@
       <c r="J51" s="39"/>
       <c r="K51" s="41"/>
     </row>
-    <row r="52" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="58" customHeight="1">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -11324,7 +11289,7 @@
       <c r="J52" s="39"/>
       <c r="K52" s="41"/>
     </row>
-    <row r="53" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="58" customHeight="1">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -11337,7 +11302,7 @@
       <c r="J53" s="39"/>
       <c r="K53" s="41"/>
     </row>
-    <row r="54" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="58" customHeight="1">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -11350,7 +11315,7 @@
       <c r="J54" s="39"/>
       <c r="K54" s="41"/>
     </row>
-    <row r="55" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="58" customHeight="1">
       <c r="A55" s="39"/>
       <c r="B55" s="39"/>
       <c r="C55" s="39"/>
@@ -11363,7 +11328,7 @@
       <c r="J55" s="39"/>
       <c r="K55" s="41"/>
     </row>
-    <row r="56" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="58" customHeight="1">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -11376,7 +11341,7 @@
       <c r="J56" s="39"/>
       <c r="K56" s="41"/>
     </row>
-    <row r="57" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="58" customHeight="1">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -11389,7 +11354,7 @@
       <c r="J57" s="39"/>
       <c r="K57" s="41"/>
     </row>
-    <row r="58" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="58" customHeight="1">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -11402,7 +11367,7 @@
       <c r="J58" s="39"/>
       <c r="K58" s="41"/>
     </row>
-    <row r="59" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="58" customHeight="1">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -11415,7 +11380,7 @@
       <c r="J59" s="39"/>
       <c r="K59" s="41"/>
     </row>
-    <row r="60" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="58" customHeight="1">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -11428,7 +11393,7 @@
       <c r="J60" s="39"/>
       <c r="K60" s="41"/>
     </row>
-    <row r="61" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="58" customHeight="1">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -11441,7 +11406,7 @@
       <c r="J61" s="39"/>
       <c r="K61" s="41"/>
     </row>
-    <row r="62" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="58" customHeight="1">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -11454,7 +11419,7 @@
       <c r="J62" s="39"/>
       <c r="K62" s="41"/>
     </row>
-    <row r="63" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="58" customHeight="1">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -11467,7 +11432,7 @@
       <c r="J63" s="39"/>
       <c r="K63" s="41"/>
     </row>
-    <row r="64" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="58" customHeight="1">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -11480,7 +11445,7 @@
       <c r="J64" s="39"/>
       <c r="K64" s="41"/>
     </row>
-    <row r="65" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="58" customHeight="1">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -11493,7 +11458,7 @@
       <c r="J65" s="39"/>
       <c r="K65" s="41"/>
     </row>
-    <row r="66" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="58" customHeight="1">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -11506,7 +11471,7 @@
       <c r="J66" s="39"/>
       <c r="K66" s="41"/>
     </row>
-    <row r="67" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="58" customHeight="1">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -11519,7 +11484,7 @@
       <c r="J67" s="39"/>
       <c r="K67" s="41"/>
     </row>
-    <row r="68" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="58" customHeight="1">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -11532,7 +11497,7 @@
       <c r="J68" s="39"/>
       <c r="K68" s="41"/>
     </row>
-    <row r="69" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="58" customHeight="1">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
@@ -11545,7 +11510,7 @@
       <c r="J69" s="39"/>
       <c r="K69" s="41"/>
     </row>
-    <row r="70" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="58" customHeight="1">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -11558,7 +11523,7 @@
       <c r="J70" s="39"/>
       <c r="K70" s="41"/>
     </row>
-    <row r="71" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="58" customHeight="1">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -11571,7 +11536,7 @@
       <c r="J71" s="39"/>
       <c r="K71" s="41"/>
     </row>
-    <row r="72" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="58" customHeight="1">
       <c r="A72" s="39"/>
       <c r="B72" s="39"/>
       <c r="C72" s="39"/>
@@ -11584,7 +11549,7 @@
       <c r="J72" s="39"/>
       <c r="K72" s="41"/>
     </row>
-    <row r="73" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="58" customHeight="1">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -11597,7 +11562,7 @@
       <c r="J73" s="39"/>
       <c r="K73" s="41"/>
     </row>
-    <row r="74" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="58" customHeight="1">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
@@ -11610,7 +11575,7 @@
       <c r="J74" s="39"/>
       <c r="K74" s="41"/>
     </row>
-    <row r="75" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="58" customHeight="1">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -11623,7 +11588,7 @@
       <c r="J75" s="39"/>
       <c r="K75" s="41"/>
     </row>
-    <row r="76" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="58" customHeight="1">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -11636,7 +11601,7 @@
       <c r="J76" s="39"/>
       <c r="K76" s="41"/>
     </row>
-    <row r="77" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="58" customHeight="1">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -11649,7 +11614,7 @@
       <c r="J77" s="39"/>
       <c r="K77" s="41"/>
     </row>
-    <row r="78" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="58" customHeight="1">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -11662,7 +11627,7 @@
       <c r="J78" s="39"/>
       <c r="K78" s="41"/>
     </row>
-    <row r="79" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="58" customHeight="1">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -11675,7 +11640,7 @@
       <c r="J79" s="39"/>
       <c r="K79" s="41"/>
     </row>
-    <row r="80" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="58" customHeight="1">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -11688,7 +11653,7 @@
       <c r="J80" s="39"/>
       <c r="K80" s="41"/>
     </row>
-    <row r="81" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="58" customHeight="1">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -11701,7 +11666,7 @@
       <c r="J81" s="39"/>
       <c r="K81" s="41"/>
     </row>
-    <row r="82" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="58" customHeight="1">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -11714,7 +11679,7 @@
       <c r="J82" s="39"/>
       <c r="K82" s="41"/>
     </row>
-    <row r="83" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="58" customHeight="1">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -11727,7 +11692,7 @@
       <c r="J83" s="39"/>
       <c r="K83" s="41"/>
     </row>
-    <row r="84" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="58" customHeight="1">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -11740,7 +11705,7 @@
       <c r="J84" s="39"/>
       <c r="K84" s="41"/>
     </row>
-    <row r="85" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="58" customHeight="1">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -11753,7 +11718,7 @@
       <c r="J85" s="39"/>
       <c r="K85" s="41"/>
     </row>
-    <row r="86" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="58" customHeight="1">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -11766,7 +11731,7 @@
       <c r="J86" s="39"/>
       <c r="K86" s="41"/>
     </row>
-    <row r="87" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="58" customHeight="1">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -11779,7 +11744,7 @@
       <c r="J87" s="39"/>
       <c r="K87" s="41"/>
     </row>
-    <row r="88" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="58" customHeight="1">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -11792,7 +11757,7 @@
       <c r="J88" s="39"/>
       <c r="K88" s="41"/>
     </row>
-    <row r="89" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="58" customHeight="1">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -11805,7 +11770,7 @@
       <c r="J89" s="39"/>
       <c r="K89" s="41"/>
     </row>
-    <row r="90" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="58" customHeight="1">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -11818,7 +11783,7 @@
       <c r="J90" s="39"/>
       <c r="K90" s="41"/>
     </row>
-    <row r="91" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="58" customHeight="1">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
       <c r="C91" s="39"/>
@@ -11831,7 +11796,7 @@
       <c r="J91" s="39"/>
       <c r="K91" s="41"/>
     </row>
-    <row r="92" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="58" customHeight="1">
       <c r="A92" s="39"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -11844,7 +11809,7 @@
       <c r="J92" s="39"/>
       <c r="K92" s="41"/>
     </row>
-    <row r="93" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="58" customHeight="1">
       <c r="A93" s="39"/>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
@@ -11857,7 +11822,7 @@
       <c r="J93" s="39"/>
       <c r="K93" s="41"/>
     </row>
-    <row r="94" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="58" customHeight="1">
       <c r="A94" s="39"/>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
@@ -11870,7 +11835,7 @@
       <c r="J94" s="39"/>
       <c r="K94" s="41"/>
     </row>
-    <row r="95" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="58" customHeight="1">
       <c r="A95" s="39"/>
       <c r="B95" s="39"/>
       <c r="C95" s="39"/>
@@ -11883,7 +11848,7 @@
       <c r="J95" s="39"/>
       <c r="K95" s="41"/>
     </row>
-    <row r="96" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="58" customHeight="1">
       <c r="A96" s="39"/>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
@@ -11896,7 +11861,7 @@
       <c r="J96" s="39"/>
       <c r="K96" s="41"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11">
       <c r="A97" s="39"/>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
@@ -11909,7 +11874,7 @@
       <c r="J97" s="39"/>
       <c r="K97" s="41"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11">
       <c r="A98" s="39"/>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
@@ -11922,7 +11887,7 @@
       <c r="J98" s="39"/>
       <c r="K98" s="41"/>
     </row>
-    <row r="99" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="29" customHeight="1">
       <c r="A99" s="39"/>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
@@ -11935,7 +11900,7 @@
       <c r="J99" s="39"/>
       <c r="K99" s="41"/>
     </row>
-    <row r="100" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="29" customHeight="1">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
@@ -11948,7 +11913,7 @@
       <c r="J100" s="39"/>
       <c r="K100" s="41"/>
     </row>
-    <row r="101" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="29" customHeight="1">
       <c r="A101" s="39"/>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
@@ -11961,7 +11926,7 @@
       <c r="J101" s="39"/>
       <c r="K101" s="41"/>
     </row>
-    <row r="102" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="29" customHeight="1">
       <c r="A102" s="39"/>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>
@@ -11974,7 +11939,7 @@
       <c r="J102" s="39"/>
       <c r="K102" s="41"/>
     </row>
-    <row r="103" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="29" customHeight="1">
       <c r="A103" s="39"/>
       <c r="B103" s="39"/>
       <c r="C103" s="39"/>
@@ -11987,7 +11952,7 @@
       <c r="J103" s="39"/>
       <c r="K103" s="41"/>
     </row>
-    <row r="104" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="29" customHeight="1">
       <c r="A104" s="39"/>
       <c r="B104" s="39"/>
       <c r="C104" s="39"/>
@@ -12000,7 +11965,7 @@
       <c r="J104" s="39"/>
       <c r="K104" s="41"/>
     </row>
-    <row r="105" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="29" customHeight="1">
       <c r="A105" s="39"/>
       <c r="B105" s="39"/>
       <c r="C105" s="39"/>
@@ -12013,7 +11978,7 @@
       <c r="J105" s="39"/>
       <c r="K105" s="41"/>
     </row>
-    <row r="106" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="29" customHeight="1">
       <c r="A106" s="39"/>
       <c r="B106" s="39"/>
       <c r="C106" s="39"/>
@@ -12026,7 +11991,7 @@
       <c r="J106" s="39"/>
       <c r="K106" s="41"/>
     </row>
-    <row r="107" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="29" customHeight="1">
       <c r="A107" s="39"/>
       <c r="B107" s="39"/>
       <c r="C107" s="39"/>
@@ -12039,7 +12004,7 @@
       <c r="J107" s="39"/>
       <c r="K107" s="41"/>
     </row>
-    <row r="108" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="29" customHeight="1">
       <c r="A108" s="39"/>
       <c r="B108" s="39"/>
       <c r="C108" s="39"/>
@@ -12052,7 +12017,7 @@
       <c r="J108" s="39"/>
       <c r="K108" s="41"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11">
       <c r="A109" s="39"/>
       <c r="B109" s="39"/>
       <c r="C109" s="39"/>
@@ -12065,7 +12030,7 @@
       <c r="J109" s="39"/>
       <c r="K109" s="41"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11">
       <c r="A110" s="39"/>
       <c r="B110" s="39"/>
       <c r="C110" s="39"/>
@@ -12078,7 +12043,7 @@
       <c r="J110" s="39"/>
       <c r="K110" s="41"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11">
       <c r="A111" s="39"/>
       <c r="B111" s="39"/>
       <c r="C111" s="39"/>
@@ -12091,7 +12056,7 @@
       <c r="J111" s="39"/>
       <c r="K111" s="41"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11">
       <c r="A112" s="39"/>
       <c r="B112" s="39"/>
       <c r="C112" s="39"/>
@@ -12104,7 +12069,7 @@
       <c r="J112" s="39"/>
       <c r="K112" s="41"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11">
       <c r="A113" s="39"/>
       <c r="B113" s="39"/>
       <c r="C113" s="39"/>
@@ -12117,7 +12082,7 @@
       <c r="J113" s="39"/>
       <c r="K113" s="41"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11">
       <c r="A114" s="39"/>
       <c r="B114" s="39"/>
       <c r="C114" s="39"/>
@@ -12130,7 +12095,7 @@
       <c r="J114" s="39"/>
       <c r="K114" s="41"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11">
       <c r="A115" s="39"/>
       <c r="B115" s="39"/>
       <c r="C115" s="39"/>
@@ -12143,7 +12108,7 @@
       <c r="J115" s="39"/>
       <c r="K115" s="41"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11">
       <c r="A116" s="39"/>
       <c r="B116" s="39"/>
       <c r="C116" s="39"/>
@@ -12156,7 +12121,7 @@
       <c r="J116" s="39"/>
       <c r="K116" s="41"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11">
       <c r="A117" s="39"/>
       <c r="B117" s="39"/>
       <c r="C117" s="39"/>
@@ -12169,7 +12134,7 @@
       <c r="J117" s="39"/>
       <c r="K117" s="41"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11">
       <c r="A118" s="39"/>
       <c r="B118" s="39"/>
       <c r="C118" s="39"/>
@@ -12191,27 +12156,27 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="40" customWidth="1"/>
     <col min="5" max="5" width="16" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="31.81640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="63" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>507</v>
       </c>
@@ -12224,7 +12189,7 @@
       <c r="H1" s="94"/>
       <c r="I1" s="94"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -12263,26 +12228,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.1640625" style="40" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="33.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="40" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="60" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>508</v>
       </c>
@@ -12303,7 +12268,7 @@
       <c r="P1" s="94"/>
       <c r="Q1" s="94"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -12365,31 +12330,31 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.81640625" style="40" customWidth="1"/>
     <col min="11" max="11" width="19" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="118.75" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>517</v>
       </c>
@@ -12413,7 +12378,7 @@
       <c r="S1" s="94"/>
       <c r="T1" s="94"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -12475,7 +12440,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="40" customFormat="1" ht="29" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>327</v>
       </c>
@@ -12521,7 +12486,7 @@
       <c r="S3" s="39"/>
       <c r="T3" s="39"/>
     </row>
-    <row r="4" spans="1:20" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>327</v>
       </c>
@@ -12567,7 +12532,7 @@
       <c r="S4" s="39"/>
       <c r="T4" s="39"/>
     </row>
-    <row r="5" spans="1:20" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>327</v>
       </c>
@@ -12613,7 +12578,7 @@
       <c r="S5" s="39"/>
       <c r="T5" s="39"/>
     </row>
-    <row r="6" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A6" s="39" t="s">
         <v>327</v>
       </c>
@@ -12659,7 +12624,7 @@
       <c r="S6" s="39"/>
       <c r="T6" s="39"/>
     </row>
-    <row r="7" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A7" s="39" t="s">
         <v>327</v>
       </c>
@@ -12705,7 +12670,7 @@
       <c r="S7" s="39"/>
       <c r="T7" s="39"/>
     </row>
-    <row r="8" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A8" s="39" t="s">
         <v>327</v>
       </c>
@@ -12751,7 +12716,7 @@
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
     </row>
-    <row r="9" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A9" s="39" t="s">
         <v>327</v>
       </c>
@@ -12797,7 +12762,7 @@
       <c r="S9" s="39"/>
       <c r="T9" s="39"/>
     </row>
-    <row r="10" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A10" s="39" t="s">
         <v>327</v>
       </c>
@@ -12843,7 +12808,7 @@
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
     </row>
-    <row r="11" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A11" s="39" t="s">
         <v>327</v>
       </c>
@@ -12889,7 +12854,7 @@
       <c r="S11" s="39"/>
       <c r="T11" s="39"/>
     </row>
-    <row r="12" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A12" s="39" t="s">
         <v>327</v>
       </c>
@@ -12935,7 +12900,7 @@
       <c r="S12" s="39"/>
       <c r="T12" s="39"/>
     </row>
-    <row r="13" spans="1:20" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="40" customFormat="1" ht="29">
       <c r="A13" s="39" t="s">
         <v>327</v>
       </c>
@@ -12981,7 +12946,7 @@
       <c r="S13" s="39"/>
       <c r="T13" s="39"/>
     </row>
-    <row r="14" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A14" s="39" t="s">
         <v>327</v>
       </c>
@@ -13027,7 +12992,7 @@
       <c r="S14" s="39"/>
       <c r="T14" s="39"/>
     </row>
-    <row r="15" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A15" s="39" t="s">
         <v>327</v>
       </c>
@@ -13073,7 +13038,7 @@
       <c r="S15" s="39"/>
       <c r="T15" s="39"/>
     </row>
-    <row r="16" spans="1:20" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="40" customFormat="1" ht="43.5">
       <c r="A16" s="39" t="s">
         <v>327</v>
       </c>
@@ -13119,7 +13084,7 @@
       <c r="S16" s="39"/>
       <c r="T16" s="39"/>
     </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="18.75" customHeight="1">
       <c r="A17" s="41" t="s">
         <v>4</v>
       </c>
@@ -13143,7 +13108,7 @@
       <c r="S17" s="41"/>
       <c r="T17" s="41"/>
     </row>
-    <row r="18" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1">
       <c r="A18" s="83" t="s">
         <v>5</v>
       </c>
@@ -13184,7 +13149,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1">
       <c r="A19" s="83" t="s">
         <v>5</v>
       </c>
@@ -13226,7 +13191,7 @@
       <c r="Q19" s="86"/>
       <c r="R19" s="84"/>
     </row>
-    <row r="20" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1">
       <c r="A20" s="83" t="s">
         <v>5</v>
       </c>
@@ -13264,7 +13229,7 @@
       <c r="Q20" s="86"/>
       <c r="R20" s="84"/>
     </row>
-    <row r="21" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="40" customFormat="1" ht="31.75" customHeight="1">
       <c r="A21" s="83" t="s">
         <v>5</v>
       </c>
@@ -13316,24 +13281,24 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="72.75" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>518</v>
       </c>
@@ -13344,7 +13309,7 @@
       <c r="F1" s="94"/>
       <c r="G1" s="94"/>
     </row>
-    <row r="2" spans="1:7" s="48" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="48" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -13367,7 +13332,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.75" customHeight="1">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -13378,7 +13343,7 @@
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
     </row>
-    <row r="4" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="36" customHeight="1">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -13401,7 +13366,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.75" customHeight="1">
       <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
@@ -13422,7 +13387,7 @@
       </c>
       <c r="G5" s="41"/>
     </row>
-    <row r="6" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.75" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
@@ -13452,34 +13417,34 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="26.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.1640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" style="40" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" style="40" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="24.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="18.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.81640625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" style="40" customWidth="1"/>
+    <col min="11" max="11" width="26.81640625" style="40" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="40" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" style="40" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="117" customHeight="1">
       <c r="A1" s="102" t="s">
         <v>897</v>
       </c>
@@ -13501,7 +13466,7 @@
       <c r="O1" s="96"/>
       <c r="P1" s="97"/>
     </row>
-    <row r="2" spans="1:16" s="48" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="48" customFormat="1" ht="52.25" customHeight="1">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -13551,7 +13516,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="28.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -13571,7 +13536,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="41"/>
     </row>
-    <row r="4" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="58">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -13619,7 +13584,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
@@ -13661,7 +13626,7 @@
       </c>
       <c r="P5" s="41"/>
     </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="15.5">
       <c r="A6" s="50" t="s">
         <v>5</v>
       </c>
@@ -13703,7 +13668,7 @@
       <c r="O6" s="41"/>
       <c r="P6" s="41"/>
     </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="15.5">
       <c r="A7" s="50" t="s">
         <v>5</v>
       </c>
@@ -13756,27 +13721,27 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
     <col min="2" max="2" width="23" style="40" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="26.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="40" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="26.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="114.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>645</v>
       </c>
@@ -13790,7 +13755,7 @@
       <c r="I1" s="96"/>
       <c r="J1" s="97"/>
     </row>
-    <row r="2" spans="1:10" s="48" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="48" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -13822,7 +13787,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="31.75" customHeight="1">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -13836,7 +13801,7 @@
       <c r="I3" s="41"/>
       <c r="J3" s="41"/>
     </row>
-    <row r="4" spans="1:10" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="31.75" customHeight="1">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -13868,7 +13833,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="28.75" customHeight="1">
       <c r="A5" s="41" t="s">
         <v>5</v>
       </c>
@@ -13906,34 +13871,34 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="40" customWidth="1"/>
     <col min="7" max="7" width="15" style="40" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="8.36328125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" style="40" customWidth="1"/>
     <col min="10" max="10" width="16" style="40" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="7.83203125" style="40" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="40" customWidth="1"/>
-    <col min="14" max="14" width="17.1640625" style="40" customWidth="1"/>
-    <col min="15" max="15" width="15.6640625" style="40" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" style="40" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" style="40" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" style="40" customWidth="1"/>
+    <col min="14" max="14" width="17.1796875" style="40" customWidth="1"/>
+    <col min="15" max="15" width="15.6328125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="18.81640625" customWidth="1"/>
+    <col min="17" max="17" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="110.5" customHeight="1">
       <c r="A1" s="105" t="s">
         <v>525</v>
       </c>
@@ -13956,7 +13921,7 @@
       <c r="P1" s="108"/>
       <c r="Q1" s="108"/>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -14009,7 +13974,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -14030,7 +13995,7 @@
       <c r="P3" s="41"/>
       <c r="Q3" s="41"/>
     </row>
-    <row r="4" spans="1:17" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="57.75" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
@@ -14069,7 +14034,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="30"/>
       <c r="B5" s="41"/>
       <c r="C5" s="30"/>
@@ -14094,7 +14059,7 @@
       <c r="P5" s="41"/>
       <c r="Q5" s="41"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="30"/>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -14118,7 +14083,7 @@
       <c r="P6" s="41"/>
       <c r="Q6" s="41"/>
     </row>
-    <row r="7" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="28.75" customHeight="1">
       <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
@@ -14151,7 +14116,7 @@
       <c r="P7" s="41"/>
       <c r="Q7" s="41"/>
     </row>
-    <row r="8" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="28.75" customHeight="1">
       <c r="A8" s="30" t="s">
         <v>5</v>
       </c>
@@ -14190,7 +14155,7 @@
       </c>
       <c r="Q8" s="41"/>
     </row>
-    <row r="9" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="28.75" customHeight="1">
       <c r="A9" s="30" t="s">
         <v>5</v>
       </c>
@@ -14227,7 +14192,7 @@
       <c r="P9" s="41"/>
       <c r="Q9" s="41"/>
     </row>
-    <row r="10" spans="1:17" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="28.75" customHeight="1">
       <c r="A10" s="30" t="s">
         <v>5</v>
       </c>
@@ -14271,28 +14236,28 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="40" customWidth="1"/>
-    <col min="4" max="6" width="16.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="40" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="40" customWidth="1"/>
+    <col min="4" max="6" width="16.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" style="40" customWidth="1"/>
     <col min="10" max="10" width="25" style="40" customWidth="1"/>
-    <col min="11" max="11" width="31.1640625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="40" customWidth="1"/>
-    <col min="15" max="15" width="28.1640625" style="40" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="31.1796875" style="40" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" style="40" customWidth="1"/>
+    <col min="15" max="15" width="28.1796875" style="40" customWidth="1"/>
+    <col min="16" max="16" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="122.5" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>509</v>
       </c>
@@ -14314,7 +14279,7 @@
       <c r="Q1" s="94"/>
       <c r="R1" s="94"/>
     </row>
-    <row r="2" spans="1:18" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="56.5" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -14370,7 +14335,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="43.25" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>4</v>
       </c>
@@ -14392,7 +14357,7 @@
       <c r="Q3" s="41"/>
       <c r="R3" s="41"/>
     </row>
-    <row r="4" spans="1:18" ht="65.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="65.5" customHeight="1">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -14442,7 +14407,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="37.25" customHeight="1">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -14468,7 +14433,7 @@
       <c r="Q5" s="41"/>
       <c r="R5" s="41"/>
     </row>
-    <row r="6" spans="1:18" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="43.25" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
@@ -14524,23 +14489,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.453125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="48" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="48" customFormat="1" ht="108" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>502</v>
       </c>
@@ -14549,7 +14514,7 @@
       <c r="D1" s="94"/>
       <c r="E1" s="94"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -14566,7 +14531,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="40" customFormat="1" ht="43.5" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
@@ -14581,7 +14546,7 @@
       </c>
       <c r="E3" s="41"/>
     </row>
-    <row r="4" spans="1:5" s="40" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="40" customFormat="1" ht="29" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
@@ -14596,7 +14561,7 @@
       </c>
       <c r="E4" s="41"/>
     </row>
-    <row r="5" spans="1:5" s="40" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
@@ -14611,7 +14576,7 @@
       </c>
       <c r="E5" s="41"/>
     </row>
-    <row r="6" spans="1:5" s="40" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="40" customFormat="1" ht="28.5" customHeight="1">
       <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
@@ -14626,7 +14591,7 @@
       </c>
       <c r="E6" s="41"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="41" t="s">
         <v>4</v>
       </c>
@@ -14635,7 +14600,7 @@
       <c r="D7" s="39"/>
       <c r="E7" s="41"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="83" t="s">
         <v>5</v>
       </c>
@@ -14648,7 +14613,7 @@
       <c r="D8" s="83"/>
       <c r="E8" s="83"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="83" t="s">
         <v>5</v>
       </c>
@@ -14663,7 +14628,7 @@
       </c>
       <c r="E9" s="83"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="83" t="s">
         <v>5</v>
       </c>
@@ -14678,7 +14643,7 @@
       </c>
       <c r="E10" s="83"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="83" t="s">
         <v>5</v>
       </c>
@@ -14691,7 +14656,7 @@
       <c r="D11" s="83"/>
       <c r="E11" s="83"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="83" t="s">
         <v>5</v>
       </c>
@@ -14706,7 +14671,7 @@
       </c>
       <c r="E12" s="83"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="83" t="s">
         <v>5</v>
       </c>
@@ -14721,7 +14686,7 @@
       </c>
       <c r="E13" s="83"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="83" t="s">
         <v>5</v>
       </c>
@@ -14736,7 +14701,7 @@
       </c>
       <c r="E14" s="83"/>
     </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="29">
       <c r="A15" s="83" t="s">
         <v>5</v>
       </c>
@@ -14763,31 +14728,31 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" style="40" customWidth="1"/>
     <col min="3" max="3" width="11" style="40" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="40" customWidth="1"/>
+    <col min="4" max="5" width="10.81640625" style="40" customWidth="1"/>
     <col min="6" max="6" width="18" style="40" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" style="40" customWidth="1"/>
-    <col min="10" max="11" width="14.6640625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="40" customWidth="1"/>
-    <col min="14" max="14" width="23.6640625" style="40" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" style="40" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" style="40" customWidth="1"/>
-    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="18.81640625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" style="40" customWidth="1"/>
+    <col min="10" max="11" width="14.6328125" style="40" customWidth="1"/>
+    <col min="12" max="12" width="14.36328125" style="40" customWidth="1"/>
+    <col min="14" max="14" width="23.6328125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="12.6328125" style="40" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" style="40" customWidth="1"/>
+    <col min="21" max="21" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="87.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>532</v>
       </c>
@@ -14812,7 +14777,7 @@
       <c r="T1" s="96"/>
       <c r="U1" s="97"/>
     </row>
-    <row r="2" spans="1:21" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="58.25" customHeight="1">
       <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
@@ -14877,7 +14842,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -14902,7 +14867,7 @@
       <c r="T3" s="41"/>
       <c r="U3" s="41"/>
     </row>
-    <row r="4" spans="1:21" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="43.25" customHeight="1">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -14965,7 +14930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -15008,7 +14973,7 @@
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
     </row>
-    <row r="6" spans="1:21" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="28.75" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
@@ -15065,31 +15030,31 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="8.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="27.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="40" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="40" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="40" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" style="40" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" style="40" customWidth="1"/>
-    <col min="14" max="16" width="13.83203125" style="40" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" style="40" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="19.1796875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="13.1796875" style="40" customWidth="1"/>
+    <col min="13" max="13" width="15.1796875" style="40" customWidth="1"/>
+    <col min="14" max="16" width="13.81640625" style="40" customWidth="1"/>
+    <col min="17" max="17" width="21.1796875" style="40" customWidth="1"/>
+    <col min="18" max="18" width="17.1796875" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="115.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>500</v>
       </c>
@@ -15114,7 +15079,7 @@
       <c r="R1" s="109"/>
       <c r="S1" s="110"/>
     </row>
-    <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -15173,7 +15138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="21.75" customHeight="1">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -15196,7 +15161,7 @@
       <c r="R3" s="41"/>
       <c r="S3" s="41"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -15229,7 +15194,7 @@
       </c>
       <c r="S4" s="41"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -15252,7 +15217,7 @@
       <c r="R5" s="41"/>
       <c r="S5" s="41"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -15275,7 +15240,7 @@
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="41"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
@@ -15298,7 +15263,7 @@
       <c r="R7" s="41"/>
       <c r="S7" s="41"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -15321,7 +15286,7 @@
       <c r="R8" s="41"/>
       <c r="S8" s="41"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -15348,7 +15313,7 @@
       <c r="R9" s="41"/>
       <c r="S9" s="41"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -15377,7 +15342,7 @@
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
@@ -15412,7 +15377,7 @@
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -15447,7 +15412,7 @@
       <c r="R12" s="41"/>
       <c r="S12" s="41"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41"/>
@@ -15474,7 +15439,7 @@
       <c r="R13" s="41"/>
       <c r="S13" s="41"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -15501,7 +15466,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="41"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
@@ -15526,7 +15491,7 @@
       <c r="R15" s="41"/>
       <c r="S15" s="41"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
@@ -15553,7 +15518,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
@@ -15578,7 +15543,7 @@
       <c r="R17" s="41"/>
       <c r="S17" s="41"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" s="41"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
@@ -15605,7 +15570,7 @@
       <c r="R18" s="41"/>
       <c r="S18" s="41"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -15626,7 +15591,7 @@
       <c r="R19" s="41"/>
       <c r="S19" s="41"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" s="41"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41" t="s">
@@ -15653,7 +15618,7 @@
       <c r="R20" s="41"/>
       <c r="S20" s="41"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" s="41"/>
       <c r="B21" s="41"/>
       <c r="C21" s="41"/>
@@ -15676,7 +15641,7 @@
       <c r="R21" s="41"/>
       <c r="S21" s="41"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" s="41" t="s">
         <v>5</v>
       </c>
@@ -15707,7 +15672,7 @@
       <c r="R22" s="41"/>
       <c r="S22" s="41"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" s="41"/>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
@@ -15736,47 +15701,47 @@
     <mergeCell ref="J1:S1"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="7">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576" xr:uid="{00000000-0002-0000-1400-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P3 P5:P1048576">
       <formula1>Response_Code</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{00000000-0002-0000-1400-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
       <formula1>Action_Values</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1400-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>Attribute_Names</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1400-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>Match_Style</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-1400-000004000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>Header_Size</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576" xr:uid="{00000000-0002-0000-1400-000005000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E3:E1048576">
       <formula1>Allowed_Methods</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="E2" xr:uid="{00000000-0002-0000-1400-000006000000}"/>
+    <dataValidation allowBlank="1" sqref="E2"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="15.33203125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="40" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="28.6328125" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="48" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="48" customFormat="1" ht="44.5" customHeight="1">
       <c r="A1" s="111" t="s">
         <v>501</v>
       </c>
@@ -15786,7 +15751,7 @@
       <c r="E1" s="112"/>
       <c r="F1" s="113"/>
     </row>
-    <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -15806,7 +15771,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -15816,7 +15781,7 @@
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -15836,7 +15801,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -15850,7 +15815,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41" t="s">
@@ -15866,7 +15831,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="41" t="s">
         <v>5</v>
       </c>
@@ -15891,7 +15856,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576" xr:uid="{00000000-0002-0000-1500-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F1 F3:F1048576">
       <formula1>Match_Style</formula1>
     </dataValidation>
   </dataValidations>
@@ -15900,27 +15865,27 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="9.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="40" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="40" customWidth="1"/>
     <col min="9" max="9" width="15" style="40" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" style="40" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.1796875" style="40" customWidth="1"/>
+    <col min="16" max="16" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="88.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="88.25" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>531</v>
       </c>
@@ -15940,7 +15905,7 @@
       <c r="O1" s="94"/>
       <c r="P1" s="94"/>
     </row>
-    <row r="2" spans="1:16" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="46.25" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -15990,7 +15955,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -16010,7 +15975,7 @@
       <c r="O3" s="41"/>
       <c r="P3" s="41"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -16052,7 +16017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41" t="s">
@@ -16080,7 +16045,7 @@
       <c r="O5" s="41"/>
       <c r="P5" s="41"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="41" t="s">
         <v>5</v>
       </c>
@@ -16132,24 +16097,24 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="28.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="28.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="17.6328125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="28.75" customHeight="1">
       <c r="A1" s="17" t="s">
         <v>256</v>
       </c>
@@ -16169,7 +16134,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="28.75" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>221</v>
       </c>
@@ -16189,7 +16154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="28.75" customHeight="1">
       <c r="A3" s="18" t="s">
         <v>225</v>
       </c>
@@ -16209,7 +16174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="28.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>205</v>
       </c>
@@ -16229,7 +16194,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>198</v>
       </c>
@@ -16247,7 +16212,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="28.75" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>218</v>
       </c>
@@ -16260,7 +16225,7 @@
       </c>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28.75" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>230</v>
       </c>
@@ -16269,7 +16234,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="28.75" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>204</v>
       </c>
@@ -16277,7 +16242,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="28.75" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>209</v>
       </c>
@@ -16285,7 +16250,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="28.75" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>223</v>
       </c>
@@ -16293,7 +16258,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="28.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>228</v>
       </c>
@@ -16301,153 +16266,153 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="28.75" customHeight="1">
       <c r="A12" s="19"/>
       <c r="B12" s="32" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="28.75" customHeight="1">
       <c r="B13" s="32" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="28.75" customHeight="1">
       <c r="B14" s="32" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="28.75" customHeight="1">
       <c r="B15" s="32" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="28.75" customHeight="1">
       <c r="B16" s="32" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="28.75" customHeight="1">
       <c r="B17" s="32" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="28.75" customHeight="1">
       <c r="B18" s="32" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="28.75" customHeight="1">
       <c r="B19" s="32" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="28.75" customHeight="1">
       <c r="B20" s="32" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="28.75" customHeight="1">
       <c r="B21" s="32" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="28.75" customHeight="1">
       <c r="B22" s="32" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="28.75" customHeight="1">
       <c r="B23" s="32" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="28.75" customHeight="1">
       <c r="B24" s="32" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" ht="28.75" customHeight="1">
       <c r="B25" s="32" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:2" ht="28.75" customHeight="1">
       <c r="B26" s="32" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" ht="28.75" customHeight="1">
       <c r="B27" s="32" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" ht="28.75" customHeight="1">
       <c r="B28" s="32" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" ht="28.75" customHeight="1">
       <c r="B29" s="32" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" ht="28.75" customHeight="1">
       <c r="B30" s="32" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" ht="28.75" customHeight="1">
       <c r="B31" s="32" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" ht="28.75" customHeight="1">
       <c r="B32" s="32" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="33" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="28.75" customHeight="1">
       <c r="B33" s="32" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="28.75" customHeight="1">
       <c r="B34" s="32" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="28.75" customHeight="1">
       <c r="B35" s="32" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" ht="28.75" customHeight="1">
       <c r="B36" s="32" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" ht="28.75" customHeight="1">
       <c r="B37" s="32" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" ht="28.75" customHeight="1">
       <c r="B38" s="32" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" ht="28.75" customHeight="1">
       <c r="B39" s="32" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" ht="28.75" customHeight="1">
       <c r="B40" s="32" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="41" spans="2:2" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" ht="28.75" customHeight="1">
       <c r="B41" s="10"/>
     </row>
   </sheetData>
@@ -16457,28 +16422,28 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="40"/>
+    <col min="3" max="3" width="16.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.81640625" style="40"/>
     <col min="8" max="8" width="11" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="40"/>
+    <col min="9" max="9" width="13.81640625" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="114" customHeight="1">
       <c r="A1" s="114" t="s">
         <v>526</v>
       </c>
@@ -16491,7 +16456,7 @@
       <c r="H1" s="114"/>
       <c r="I1" s="114"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -16520,7 +16485,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="56" t="s">
         <v>4</v>
       </c>
@@ -16533,7 +16498,7 @@
       <c r="H3" s="41"/>
       <c r="I3" s="41"/>
     </row>
-    <row r="4" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="58">
       <c r="A4" s="41" t="s">
         <v>327</v>
       </c>
@@ -16563,7 +16528,7 @@
       </c>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="41" t="s">
         <v>327</v>
       </c>
@@ -16601,39 +16566,39 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="10.1796875" style="40" customWidth="1"/>
     <col min="2" max="2" width="14" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="40" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="40" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="40" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="40" customWidth="1"/>
-    <col min="8" max="8" width="27.5" style="40" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" style="40" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" style="40" customWidth="1"/>
     <col min="9" max="9" width="13" style="40" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="40" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="60" customWidth="1"/>
-    <col min="12" max="13" width="20.5" style="40"/>
-    <col min="14" max="14" width="20.5" style="3"/>
-    <col min="15" max="17" width="20.5" style="40"/>
+    <col min="10" max="10" width="16.453125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="14.36328125" style="60" customWidth="1"/>
+    <col min="12" max="13" width="20.453125" style="40"/>
+    <col min="14" max="14" width="20.453125" style="3"/>
+    <col min="15" max="17" width="20.453125" style="40"/>
     <col min="18" max="18" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.5" style="40"/>
-    <col min="22" max="22" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="40" customWidth="1"/>
-    <col min="24" max="24" width="20.5" style="40"/>
-    <col min="25" max="25" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="20.5" style="40"/>
+    <col min="19" max="21" width="20.453125" style="40"/>
+    <col min="22" max="22" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="40" customWidth="1"/>
+    <col min="24" max="24" width="20.453125" style="40"/>
+    <col min="25" max="25" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="20.453125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="57" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="57" customFormat="1" ht="135.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>650</v>
       </c>
@@ -16661,7 +16626,7 @@
       <c r="W1" s="96"/>
       <c r="X1" s="97"/>
     </row>
-    <row r="2" spans="1:24" s="73" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="73" customFormat="1" ht="43.5">
       <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
@@ -16735,7 +16700,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
@@ -16763,7 +16728,7 @@
       <c r="W3" s="41"/>
       <c r="X3" s="41"/>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24">
       <c r="A4" s="58" t="s">
         <v>327</v>
       </c>
@@ -16837,7 +16802,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="58" t="s">
         <v>327</v>
       </c>
@@ -16916,25 +16881,25 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1900-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-1900-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>VM_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1900-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>software_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1900-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1900-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1900-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576" xr:uid="{00000000-0002-0000-1900-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
       <formula1>nchar_set</formula1>
     </dataValidation>
   </dataValidations>
@@ -16944,46 +16909,46 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" style="60" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" style="60" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="40" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="40" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" style="40" customWidth="1"/>
-    <col min="25" max="25" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="40" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" style="40" customWidth="1"/>
+    <col min="25" max="25" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="42" style="40" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.83203125" style="40"/>
+    <col min="27" max="27" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="57" customFormat="1" ht="133.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="57" customFormat="1" ht="133.25" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>651</v>
       </c>
@@ -17011,7 +16976,7 @@
       <c r="W1" s="96"/>
       <c r="X1" s="97"/>
     </row>
-    <row r="2" spans="1:24" s="73" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="73" customFormat="1" ht="29">
       <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
@@ -17085,7 +17050,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24">
       <c r="A3" s="50" t="s">
         <v>4</v>
       </c>
@@ -17113,7 +17078,7 @@
       <c r="W3" s="41"/>
       <c r="X3" s="41"/>
     </row>
-    <row r="4" spans="1:24" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="58">
       <c r="A4" s="58" t="s">
         <v>327</v>
       </c>
@@ -17187,7 +17152,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="58" t="s">
         <v>327</v>
       </c>
@@ -17264,28 +17229,28 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1A00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1A00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1A00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-1A00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576">
       <formula1>software_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-1A00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576">
       <formula1>bm_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1A00-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576 U3:U4" xr:uid="{00000000-0002-0000-1A00-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576 U3:U4">
       <formula1>"nchar_set"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5" xr:uid="{00000000-0002-0000-1A00-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5">
       <formula1>nchar_set</formula1>
     </dataValidation>
   </dataValidations>
@@ -17295,44 +17260,44 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.453125" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" style="60" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" style="60" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.36328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" style="40" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.1640625" style="40" customWidth="1"/>
-    <col min="24" max="25" width="14.5" style="40" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.83203125" style="40"/>
+    <col min="19" max="19" width="13.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.1796875" style="40" customWidth="1"/>
+    <col min="24" max="25" width="14.453125" style="40" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="57" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="57" customFormat="1" ht="195" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>652</v>
       </c>
@@ -17360,7 +17325,7 @@
       <c r="W1" s="96"/>
       <c r="X1" s="97"/>
     </row>
-    <row r="2" spans="1:24" s="73" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="73" customFormat="1" ht="29">
       <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
@@ -17434,7 +17399,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="67" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="67" customFormat="1">
       <c r="A3" s="64" t="s">
         <v>4</v>
       </c>
@@ -17461,7 +17426,7 @@
       <c r="W3" s="63"/>
       <c r="X3" s="56"/>
     </row>
-    <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="14.5" customHeight="1">
       <c r="A4" s="58" t="s">
         <v>5</v>
       </c>
@@ -17535,7 +17500,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24">
       <c r="A5" s="55"/>
       <c r="B5" s="52"/>
       <c r="C5" s="62"/>
@@ -17546,22 +17511,22 @@
     <mergeCell ref="A1:X1"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-1B00-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576">
       <formula1>exa_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576" xr:uid="{00000000-0002-0000-1B00-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576" xr:uid="{00000000-0002-0000-1B00-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-1B00-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576" xr:uid="{00000000-0002-0000-1B00-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576" xr:uid="{00000000-0002-0000-1B00-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U1048576">
       <formula1>nchar_set</formula1>
     </dataValidation>
   </dataValidations>
@@ -17571,27 +17536,27 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="40"/>
+    <col min="3" max="3" width="9.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="53" t="s">
         <v>353</v>
       </c>
@@ -17620,7 +17585,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="41" t="s">
         <v>106</v>
       </c>
@@ -17649,7 +17614,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="41" t="s">
         <v>354</v>
       </c>
@@ -17678,7 +17643,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="41" t="s">
         <v>355</v>
       </c>
@@ -17698,7 +17663,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="41" t="s">
         <v>352</v>
       </c>
@@ -17718,7 +17683,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="41" t="s">
         <v>356</v>
       </c>
@@ -17736,7 +17701,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="41" t="s">
         <v>339</v>
       </c>
@@ -17754,7 +17719,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
@@ -17770,7 +17735,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="41"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41" t="s">
@@ -17786,7 +17751,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="41"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41" t="s">
@@ -17802,7 +17767,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="41"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41" t="s">
@@ -17818,7 +17783,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="41"/>
       <c r="B12" s="41"/>
       <c r="C12" s="41" t="s">
@@ -17832,7 +17797,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="41"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41" t="s">
@@ -17846,7 +17811,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41" t="s">
@@ -17860,472 +17825,472 @@
         <v>547</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="I15" s="41" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="I16" s="41" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="9:9">
       <c r="I17" s="41" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:9">
       <c r="I18" s="41" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="9:9">
       <c r="I19" s="41" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="9:9">
       <c r="I20" s="41" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="9:9">
       <c r="I21" s="41" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="9:9">
       <c r="I22" s="41" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="9:9">
       <c r="I23" s="41" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="9:9">
       <c r="I24" s="41" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="9:9">
       <c r="I25" s="41" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="9:9">
       <c r="I26" s="41" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="9:9">
       <c r="I27" s="41" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="9:9">
       <c r="I28" s="41" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="9:9">
       <c r="I29" s="41" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="9:9">
       <c r="I30" s="41" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="9:9">
       <c r="I31" s="41" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="9:9">
       <c r="I32" s="41" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:9">
       <c r="I33" s="41" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:9">
       <c r="I34" s="41" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:9">
       <c r="I35" s="41" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:9">
       <c r="I36" s="41" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:9">
       <c r="I37" s="41" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:9">
       <c r="I38" s="41" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="9:9">
       <c r="I39" s="41" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="9:9">
       <c r="I40" s="41" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="9:9">
       <c r="I41" s="41" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="9:9">
       <c r="I42" s="41" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="9:9">
       <c r="I43" s="41" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="9:9">
       <c r="I44" s="41" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="9:9">
       <c r="I45" s="41" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="9:9">
       <c r="I46" s="41" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="9:9">
       <c r="I47" s="41" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="9:9">
       <c r="I48" s="41" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:9">
       <c r="I49" s="41" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:9">
       <c r="I50" s="41" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:9">
       <c r="I51" s="41" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="9:9">
       <c r="I52" s="41" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="9:9">
       <c r="I53" s="41" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="9:9">
       <c r="I54" s="41" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="9:9">
       <c r="I55" s="41" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:9">
       <c r="I56" s="41" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="9:9">
       <c r="I57" s="41" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="9:9">
       <c r="I58" s="41" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="9:9">
       <c r="I59" s="41" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="9:9">
       <c r="I60" s="41" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="9:9">
       <c r="I61" s="41" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="9:9">
       <c r="I62" s="41" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="9:9">
       <c r="I63" s="41" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="9:9">
       <c r="I64" s="41" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="9:9">
       <c r="I65" s="41" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="9:9">
       <c r="I66" s="41" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="9:9">
       <c r="I67" s="41" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="9:9">
       <c r="I68" s="41" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="9:9">
       <c r="I69" s="41" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="9:9">
       <c r="I70" s="41" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="9:9">
       <c r="I71" s="41" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="9:9">
       <c r="I72" s="41" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="9:9">
       <c r="I73" s="41" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="9:9">
       <c r="I74" s="41" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="9:9">
       <c r="I75" s="41" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="9:9">
       <c r="I76" s="41" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="9:9">
       <c r="I77" s="41" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="9:9">
       <c r="I78" s="41" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="9:9">
       <c r="I79" s="41" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="9:9">
       <c r="I80" s="41" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="9:9">
       <c r="I81" s="41" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="9:9">
       <c r="I82" s="41" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="9:9">
       <c r="I83" s="41" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="9:9">
       <c r="I84" s="41" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="9:9">
       <c r="I85" s="41" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="9:9">
       <c r="I86" s="41" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="9:9">
       <c r="I87" s="41" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="9:9">
       <c r="I88" s="41" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="9:9">
       <c r="I89" s="41" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="9:9">
       <c r="I90" s="41" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="9:9">
       <c r="I91" s="41" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="9:9">
       <c r="I92" s="41" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="9:9">
       <c r="I93" s="41" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="9:9">
       <c r="I94" s="41" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="9:9">
       <c r="I95" s="41" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="9:9">
       <c r="I96" s="41" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="9:9">
       <c r="I97" s="41" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="9:9">
       <c r="I98" s="41" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="9:9">
       <c r="I99" s="41" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="9:9">
       <c r="I100" s="41" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="9:9">
       <c r="I101" s="41" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="9:9">
       <c r="I102" s="41" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="9:9">
       <c r="I103" s="41" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="9:9">
       <c r="I104" s="41" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="9:9">
       <c r="I105" s="41" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="9:9">
       <c r="I106" s="41" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="9:9">
       <c r="I107" s="41" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="9:9">
       <c r="I108" s="41" t="s">
         <v>641</v>
       </c>
@@ -18337,23 +18302,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="40" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="31.36328125" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="48" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="48" customFormat="1" ht="105.75" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>503</v>
       </c>
@@ -18362,7 +18327,7 @@
       <c r="D1" s="94"/>
       <c r="E1" s="94"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -18379,7 +18344,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="40" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="40" customFormat="1" ht="43.5">
       <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
@@ -18392,7 +18357,7 @@
       <c r="D3" s="39"/>
       <c r="E3" s="41"/>
     </row>
-    <row r="4" spans="1:5" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="40" customFormat="1" ht="29">
       <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
@@ -18405,7 +18370,7 @@
       <c r="D4" s="39"/>
       <c r="E4" s="41"/>
     </row>
-    <row r="5" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="40" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
@@ -18418,7 +18383,7 @@
       <c r="D5" s="39"/>
       <c r="E5" s="41"/>
     </row>
-    <row r="6" spans="1:5" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="40" customFormat="1" ht="29">
       <c r="A6" s="39" t="s">
         <v>5</v>
       </c>
@@ -18431,7 +18396,7 @@
       <c r="D6" s="39"/>
       <c r="E6" s="41"/>
     </row>
-    <row r="7" spans="1:5" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="40" customFormat="1" ht="43.5">
       <c r="A7" s="85" t="s">
         <v>5</v>
       </c>
@@ -18444,7 +18409,7 @@
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
     </row>
-    <row r="8" spans="1:5" s="52" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="52" customFormat="1" ht="16" customHeight="1">
       <c r="A8" s="39" t="s">
         <v>5</v>
       </c>
@@ -18457,7 +18422,7 @@
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
     </row>
-    <row r="9" spans="1:5" s="52" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" s="52" customFormat="1" ht="28" customHeight="1">
       <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
@@ -18470,7 +18435,7 @@
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
     </row>
-    <row r="10" spans="1:5" s="52" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="52" customFormat="1" ht="28" customHeight="1">
       <c r="A10" s="39" t="s">
         <v>5</v>
       </c>
@@ -18483,7 +18448,7 @@
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="75" t="s">
         <v>4</v>
       </c>
@@ -18498,26 +18463,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView topLeftCell="A136" workbookViewId="0">
       <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="40" customWidth="1"/>
-    <col min="6" max="7" width="28.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="40" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="40"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.36328125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="49.36328125" style="40" customWidth="1"/>
+    <col min="6" max="7" width="28.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" style="40" customWidth="1"/>
+    <col min="9" max="16384" width="8.81640625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="48" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="48" customFormat="1" ht="102.75" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>504</v>
       </c>
@@ -18529,7 +18494,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="48" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -18555,7 +18520,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="69.5" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
@@ -18575,7 +18540,7 @@
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="69.5" customHeight="1">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
@@ -18587,7 +18552,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:8" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="102.5" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
@@ -18607,7 +18572,7 @@
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
     </row>
-    <row r="6" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="29" customHeight="1">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -18619,7 +18584,7 @@
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
     </row>
-    <row r="7" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="29" customHeight="1">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -18631,7 +18596,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="29" customHeight="1">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -18643,7 +18608,7 @@
       <c r="G8" s="39"/>
       <c r="H8" s="39"/>
     </row>
-    <row r="9" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="29" customHeight="1">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -18655,7 +18620,7 @@
       <c r="G9" s="39"/>
       <c r="H9" s="39"/>
     </row>
-    <row r="10" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="29" customHeight="1">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -18667,7 +18632,7 @@
       <c r="G10" s="39"/>
       <c r="H10" s="39"/>
     </row>
-    <row r="11" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="29" customHeight="1">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -18679,7 +18644,7 @@
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
     </row>
-    <row r="12" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="29" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -18691,7 +18656,7 @@
       <c r="G12" s="39"/>
       <c r="H12" s="39"/>
     </row>
-    <row r="13" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="29" customHeight="1">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -18703,7 +18668,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="29" customHeight="1">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -18715,7 +18680,7 @@
       <c r="G14" s="39"/>
       <c r="H14" s="39"/>
     </row>
-    <row r="15" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="29" customHeight="1">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -18727,7 +18692,7 @@
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
     </row>
-    <row r="16" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="29" customHeight="1">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -18739,7 +18704,7 @@
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
     </row>
-    <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="29" customHeight="1">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -18751,7 +18716,7 @@
       <c r="G17" s="39"/>
       <c r="H17" s="39"/>
     </row>
-    <row r="18" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="29" customHeight="1">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -18763,7 +18728,7 @@
       <c r="G18" s="39"/>
       <c r="H18" s="39"/>
     </row>
-    <row r="19" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="29" customHeight="1">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -18775,7 +18740,7 @@
       <c r="G19" s="39"/>
       <c r="H19" s="39"/>
     </row>
-    <row r="20" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="29" customHeight="1">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -18787,7 +18752,7 @@
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
     </row>
-    <row r="21" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="29" customHeight="1">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -18799,7 +18764,7 @@
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
     </row>
-    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="29">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -18811,7 +18776,7 @@
       <c r="G22" s="39"/>
       <c r="H22" s="39"/>
     </row>
-    <row r="23" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="29" customHeight="1">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -18823,7 +18788,7 @@
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
     </row>
-    <row r="24" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="29" customHeight="1">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -18835,7 +18800,7 @@
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
     </row>
-    <row r="25" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="29" customHeight="1">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -18847,7 +18812,7 @@
       <c r="G25" s="39"/>
       <c r="H25" s="39"/>
     </row>
-    <row r="26" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="29" customHeight="1">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -18859,7 +18824,7 @@
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
     </row>
-    <row r="27" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="29" customHeight="1">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -18871,7 +18836,7 @@
       <c r="G27" s="39"/>
       <c r="H27" s="39"/>
     </row>
-    <row r="28" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="29" customHeight="1">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -18883,7 +18848,7 @@
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
     </row>
-    <row r="29" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="29">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -18895,7 +18860,7 @@
       <c r="G29" s="39"/>
       <c r="H29" s="39"/>
     </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -18907,7 +18872,7 @@
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
     </row>
-    <row r="31" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="29" customHeight="1">
       <c r="A31" s="39"/>
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
@@ -18919,7 +18884,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="29" customHeight="1">
       <c r="A32" s="39"/>
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
@@ -18931,7 +18896,7 @@
       <c r="G32" s="39"/>
       <c r="H32" s="39"/>
     </row>
-    <row r="33" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="29" customHeight="1">
       <c r="A33" s="39"/>
       <c r="B33" s="39"/>
       <c r="C33" s="39"/>
@@ -18943,7 +18908,7 @@
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
     </row>
-    <row r="34" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="29">
       <c r="A34" s="39"/>
       <c r="B34" s="39"/>
       <c r="C34" s="39"/>
@@ -18955,7 +18920,7 @@
       <c r="G34" s="39"/>
       <c r="H34" s="39"/>
     </row>
-    <row r="35" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="29">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
       <c r="C35" s="39"/>
@@ -18967,7 +18932,7 @@
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
     </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="39"/>
       <c r="B36" s="39"/>
       <c r="C36" s="39"/>
@@ -18979,7 +18944,7 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="43.5" customHeight="1">
       <c r="A37" s="39" t="s">
         <v>5</v>
       </c>
@@ -18999,7 +18964,7 @@
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="29" customHeight="1">
       <c r="A38" s="39"/>
       <c r="B38" s="39"/>
       <c r="C38" s="39"/>
@@ -19011,7 +18976,7 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="29" customHeight="1">
       <c r="A39" s="39"/>
       <c r="B39" s="39"/>
       <c r="C39" s="39"/>
@@ -19023,7 +18988,7 @@
       <c r="G39" s="39"/>
       <c r="H39" s="39"/>
     </row>
-    <row r="40" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="43.5" customHeight="1">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="39"/>
@@ -19035,7 +19000,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="39"/>
     </row>
-    <row r="41" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="43.5" customHeight="1">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
       <c r="C41" s="39"/>
@@ -19047,7 +19012,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="29" customHeight="1">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -19059,7 +19024,7 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="29" customHeight="1">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
       <c r="C43" s="39"/>
@@ -19071,7 +19036,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="39"/>
     </row>
-    <row r="44" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="29" customHeight="1">
       <c r="A44" s="39"/>
       <c r="B44" s="39"/>
       <c r="C44" s="39"/>
@@ -19083,7 +19048,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="39"/>
     </row>
-    <row r="45" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="29" customHeight="1">
       <c r="A45" s="39"/>
       <c r="B45" s="39"/>
       <c r="C45" s="39"/>
@@ -19095,7 +19060,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="29" customHeight="1">
       <c r="A46" s="39"/>
       <c r="B46" s="39"/>
       <c r="C46" s="39"/>
@@ -19107,7 +19072,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="29" customHeight="1">
       <c r="A47" s="39"/>
       <c r="B47" s="39"/>
       <c r="C47" s="39"/>
@@ -19119,7 +19084,7 @@
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
     </row>
-    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="39"/>
@@ -19131,7 +19096,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="39"/>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="39"/>
       <c r="B49" s="39"/>
       <c r="C49" s="39"/>
@@ -19143,7 +19108,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="39"/>
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
@@ -19155,7 +19120,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="29">
       <c r="A51" s="39" t="s">
         <v>5</v>
       </c>
@@ -19175,7 +19140,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
     </row>
-    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="39"/>
       <c r="B52" s="39"/>
       <c r="C52" s="39"/>
@@ -19187,7 +19152,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
     </row>
-    <row r="53" spans="1:8" ht="208" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="203">
       <c r="A53" s="39"/>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -19199,7 +19164,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="39"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
@@ -19211,7 +19176,7 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="29" customHeight="1">
       <c r="A55" s="39" t="s">
         <v>5</v>
       </c>
@@ -19231,7 +19196,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
     </row>
-    <row r="56" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="29" customHeight="1">
       <c r="A56" s="39"/>
       <c r="B56" s="39"/>
       <c r="C56" s="39"/>
@@ -19243,7 +19208,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
     </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="39"/>
       <c r="B57" s="39"/>
       <c r="C57" s="39"/>
@@ -19255,7 +19220,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
     </row>
-    <row r="58" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="39"/>
       <c r="B58" s="39"/>
       <c r="C58" s="39"/>
@@ -19267,7 +19232,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="29" customHeight="1">
       <c r="A59" s="39"/>
       <c r="B59" s="39"/>
       <c r="C59" s="39"/>
@@ -19279,7 +19244,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="29">
       <c r="A60" s="39"/>
       <c r="B60" s="39"/>
       <c r="C60" s="39"/>
@@ -19291,7 +19256,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
     </row>
-    <row r="61" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="29" customHeight="1">
       <c r="A61" s="39"/>
       <c r="B61" s="39"/>
       <c r="C61" s="39"/>
@@ -19303,7 +19268,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
     </row>
-    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="29">
       <c r="A62" s="39"/>
       <c r="B62" s="39"/>
       <c r="C62" s="39"/>
@@ -19315,7 +19280,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
     </row>
-    <row r="63" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="29">
       <c r="A63" s="39"/>
       <c r="B63" s="39"/>
       <c r="C63" s="39"/>
@@ -19327,7 +19292,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
     </row>
-    <row r="64" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="39"/>
       <c r="B64" s="39"/>
       <c r="C64" s="39"/>
@@ -19339,7 +19304,7 @@
       <c r="G64" s="39"/>
       <c r="H64" s="39"/>
     </row>
-    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="29">
       <c r="A65" s="39"/>
       <c r="B65" s="39"/>
       <c r="C65" s="39"/>
@@ -19351,7 +19316,7 @@
       <c r="G65" s="39"/>
       <c r="H65" s="39"/>
     </row>
-    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="39"/>
@@ -19363,7 +19328,7 @@
       <c r="G66" s="39"/>
       <c r="H66" s="39"/>
     </row>
-    <row r="67" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="39"/>
       <c r="B67" s="39"/>
       <c r="C67" s="39"/>
@@ -19375,7 +19340,7 @@
       <c r="G67" s="39"/>
       <c r="H67" s="39"/>
     </row>
-    <row r="68" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="39"/>
@@ -19387,7 +19352,7 @@
       <c r="G68" s="39"/>
       <c r="H68" s="39"/>
     </row>
-    <row r="69" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="29">
       <c r="A69" s="39"/>
       <c r="B69" s="39"/>
       <c r="C69" s="39"/>
@@ -19399,7 +19364,7 @@
       <c r="G69" s="39"/>
       <c r="H69" s="39"/>
     </row>
-    <row r="70" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="29" customHeight="1">
       <c r="A70" s="39"/>
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -19411,7 +19376,7 @@
       <c r="G70" s="39"/>
       <c r="H70" s="39"/>
     </row>
-    <row r="71" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="29" customHeight="1">
       <c r="A71" s="39"/>
       <c r="B71" s="39"/>
       <c r="C71" s="39"/>
@@ -19423,7 +19388,7 @@
       <c r="G71" s="39"/>
       <c r="H71" s="39"/>
     </row>
-    <row r="72" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="87" customHeight="1">
       <c r="A72" s="39" t="s">
         <v>5</v>
       </c>
@@ -19443,7 +19408,7 @@
       <c r="G72" s="39"/>
       <c r="H72" s="39"/>
     </row>
-    <row r="73" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="29" customHeight="1">
       <c r="A73" s="39"/>
       <c r="B73" s="39"/>
       <c r="C73" s="39"/>
@@ -19455,7 +19420,7 @@
       <c r="G73" s="39"/>
       <c r="H73" s="39"/>
     </row>
-    <row r="74" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="29" customHeight="1">
       <c r="A74" s="39"/>
       <c r="B74" s="39"/>
       <c r="C74" s="39"/>
@@ -19467,7 +19432,7 @@
       <c r="G74" s="39"/>
       <c r="H74" s="39"/>
     </row>
-    <row r="75" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="29" customHeight="1">
       <c r="A75" s="39"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
@@ -19479,7 +19444,7 @@
       <c r="G75" s="39"/>
       <c r="H75" s="39"/>
     </row>
-    <row r="76" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="29" customHeight="1">
       <c r="A76" s="39"/>
       <c r="B76" s="39"/>
       <c r="C76" s="39"/>
@@ -19491,7 +19456,7 @@
       <c r="G76" s="39"/>
       <c r="H76" s="39"/>
     </row>
-    <row r="77" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="29">
       <c r="A77" s="39"/>
       <c r="B77" s="39"/>
       <c r="C77" s="39"/>
@@ -19503,7 +19468,7 @@
       <c r="G77" s="39"/>
       <c r="H77" s="39"/>
     </row>
-    <row r="78" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="29" customHeight="1">
       <c r="A78" s="39"/>
       <c r="B78" s="39"/>
       <c r="C78" s="39"/>
@@ -19515,7 +19480,7 @@
       <c r="G78" s="39"/>
       <c r="H78" s="39"/>
     </row>
-    <row r="79" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="29" customHeight="1">
       <c r="A79" s="39"/>
       <c r="B79" s="39"/>
       <c r="C79" s="39"/>
@@ -19527,7 +19492,7 @@
       <c r="G79" s="39"/>
       <c r="H79" s="39"/>
     </row>
-    <row r="80" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="29" customHeight="1">
       <c r="A80" s="39"/>
       <c r="B80" s="39"/>
       <c r="C80" s="39"/>
@@ -19539,7 +19504,7 @@
       <c r="G80" s="39"/>
       <c r="H80" s="39"/>
     </row>
-    <row r="81" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="29" customHeight="1">
       <c r="A81" s="39"/>
       <c r="B81" s="39"/>
       <c r="C81" s="39"/>
@@ -19551,7 +19516,7 @@
       <c r="G81" s="39"/>
       <c r="H81" s="39"/>
     </row>
-    <row r="82" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="29" customHeight="1">
       <c r="A82" s="39"/>
       <c r="B82" s="39"/>
       <c r="C82" s="39"/>
@@ -19563,7 +19528,7 @@
       <c r="G82" s="39"/>
       <c r="H82" s="39"/>
     </row>
-    <row r="83" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="29" customHeight="1">
       <c r="A83" s="39"/>
       <c r="B83" s="39"/>
       <c r="C83" s="39"/>
@@ -19575,7 +19540,7 @@
       <c r="G83" s="39"/>
       <c r="H83" s="39"/>
     </row>
-    <row r="84" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="29" customHeight="1">
       <c r="A84" s="39"/>
       <c r="B84" s="39"/>
       <c r="C84" s="39"/>
@@ -19587,7 +19552,7 @@
       <c r="G84" s="39"/>
       <c r="H84" s="39"/>
     </row>
-    <row r="85" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="29" customHeight="1">
       <c r="A85" s="39"/>
       <c r="B85" s="39"/>
       <c r="C85" s="39"/>
@@ -19599,7 +19564,7 @@
       <c r="G85" s="39"/>
       <c r="H85" s="39"/>
     </row>
-    <row r="86" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="29" customHeight="1">
       <c r="A86" s="39"/>
       <c r="B86" s="39"/>
       <c r="C86" s="39"/>
@@ -19611,7 +19576,7 @@
       <c r="G86" s="39"/>
       <c r="H86" s="39"/>
     </row>
-    <row r="87" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="29" customHeight="1">
       <c r="A87" s="39"/>
       <c r="B87" s="39"/>
       <c r="C87" s="39"/>
@@ -19623,7 +19588,7 @@
       <c r="G87" s="39"/>
       <c r="H87" s="39"/>
     </row>
-    <row r="88" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="29">
       <c r="A88" s="39"/>
       <c r="B88" s="39"/>
       <c r="C88" s="39"/>
@@ -19635,7 +19600,7 @@
       <c r="G88" s="39"/>
       <c r="H88" s="39"/>
     </row>
-    <row r="89" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="29">
       <c r="A89" s="39"/>
       <c r="B89" s="39"/>
       <c r="C89" s="39"/>
@@ -19647,7 +19612,7 @@
       <c r="G89" s="39"/>
       <c r="H89" s="39"/>
     </row>
-    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="29">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="C90" s="39"/>
@@ -19659,7 +19624,7 @@
       <c r="G90" s="39"/>
       <c r="H90" s="39"/>
     </row>
-    <row r="91" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="101.5" customHeight="1">
       <c r="A91" s="39" t="s">
         <v>5</v>
       </c>
@@ -19679,7 +19644,7 @@
       <c r="G91" s="39"/>
       <c r="H91" s="39"/>
     </row>
-    <row r="92" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="29">
       <c r="A92" s="39"/>
       <c r="B92" s="39"/>
       <c r="C92" s="39"/>
@@ -19691,7 +19656,7 @@
       <c r="G92" s="39"/>
       <c r="H92" s="39"/>
     </row>
-    <row r="93" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="29" customHeight="1">
       <c r="A93" s="39"/>
       <c r="B93" s="39"/>
       <c r="C93" s="39"/>
@@ -19703,7 +19668,7 @@
       <c r="G93" s="39"/>
       <c r="H93" s="39"/>
     </row>
-    <row r="94" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="29">
       <c r="A94" s="39"/>
       <c r="B94" s="39"/>
       <c r="C94" s="39"/>
@@ -19715,7 +19680,7 @@
       <c r="G94" s="39"/>
       <c r="H94" s="39"/>
     </row>
-    <row r="95" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="29" customHeight="1">
       <c r="A95" s="39"/>
       <c r="B95" s="39"/>
       <c r="C95" s="39"/>
@@ -19727,7 +19692,7 @@
       <c r="G95" s="39"/>
       <c r="H95" s="39"/>
     </row>
-    <row r="96" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="29" customHeight="1">
       <c r="A96" s="39"/>
       <c r="B96" s="39"/>
       <c r="C96" s="39"/>
@@ -19739,7 +19704,7 @@
       <c r="G96" s="39"/>
       <c r="H96" s="39"/>
     </row>
-    <row r="97" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="29" customHeight="1">
       <c r="A97" s="39"/>
       <c r="B97" s="39"/>
       <c r="C97" s="39"/>
@@ -19751,7 +19716,7 @@
       <c r="G97" s="39"/>
       <c r="H97" s="39"/>
     </row>
-    <row r="98" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="29" customHeight="1">
       <c r="A98" s="39"/>
       <c r="B98" s="39"/>
       <c r="C98" s="39"/>
@@ -19763,7 +19728,7 @@
       <c r="G98" s="39"/>
       <c r="H98" s="39"/>
     </row>
-    <row r="99" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="29" customHeight="1">
       <c r="A99" s="39"/>
       <c r="B99" s="39"/>
       <c r="C99" s="39"/>
@@ -19775,7 +19740,7 @@
       <c r="G99" s="39"/>
       <c r="H99" s="39"/>
     </row>
-    <row r="100" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="29" customHeight="1">
       <c r="A100" s="39"/>
       <c r="B100" s="39"/>
       <c r="C100" s="39"/>
@@ -19787,7 +19752,7 @@
       <c r="G100" s="39"/>
       <c r="H100" s="39"/>
     </row>
-    <row r="101" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="29">
       <c r="A101" s="39"/>
       <c r="B101" s="39"/>
       <c r="C101" s="39"/>
@@ -19799,7 +19764,7 @@
       <c r="G101" s="39"/>
       <c r="H101" s="39"/>
     </row>
-    <row r="102" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="29" customHeight="1">
       <c r="A102" s="39"/>
       <c r="B102" s="39"/>
       <c r="C102" s="39"/>
@@ -19811,7 +19776,7 @@
       <c r="G102" s="39"/>
       <c r="H102" s="39"/>
     </row>
-    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="29">
       <c r="A103" s="39"/>
       <c r="B103" s="39"/>
       <c r="C103" s="39"/>
@@ -19823,7 +19788,7 @@
       <c r="G103" s="39"/>
       <c r="H103" s="39"/>
     </row>
-    <row r="104" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="29">
       <c r="A104" s="39"/>
       <c r="B104" s="39"/>
       <c r="C104" s="39"/>
@@ -19835,7 +19800,7 @@
       <c r="G104" s="39"/>
       <c r="H104" s="39"/>
     </row>
-    <row r="105" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="29">
       <c r="A105" s="39"/>
       <c r="B105" s="39"/>
       <c r="C105" s="39"/>
@@ -19847,7 +19812,7 @@
       <c r="G105" s="39"/>
       <c r="H105" s="39"/>
     </row>
-    <row r="106" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="29" customHeight="1">
       <c r="A106" s="39"/>
       <c r="B106" s="39"/>
       <c r="C106" s="39"/>
@@ -19859,7 +19824,7 @@
       <c r="G106" s="39"/>
       <c r="H106" s="39"/>
     </row>
-    <row r="107" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="39"/>
       <c r="B107" s="39"/>
       <c r="C107" s="39"/>
@@ -19871,7 +19836,7 @@
       <c r="G107" s="39"/>
       <c r="H107" s="39"/>
     </row>
-    <row r="108" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="39"/>
       <c r="B108" s="39"/>
       <c r="C108" s="39"/>
@@ -19883,7 +19848,7 @@
       <c r="G108" s="39"/>
       <c r="H108" s="39"/>
     </row>
-    <row r="109" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="101.5" customHeight="1">
       <c r="A109" s="39" t="s">
         <v>5</v>
       </c>
@@ -19903,7 +19868,7 @@
       <c r="G109" s="39"/>
       <c r="H109" s="39"/>
     </row>
-    <row r="110" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="29" customHeight="1">
       <c r="A110" s="39"/>
       <c r="B110" s="39"/>
       <c r="C110" s="39"/>
@@ -19915,7 +19880,7 @@
       <c r="G110" s="39"/>
       <c r="H110" s="39"/>
     </row>
-    <row r="111" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="29" customHeight="1">
       <c r="A111" s="39"/>
       <c r="B111" s="39"/>
       <c r="C111" s="39"/>
@@ -19927,7 +19892,7 @@
       <c r="G111" s="39"/>
       <c r="H111" s="39"/>
     </row>
-    <row r="112" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="29" customHeight="1">
       <c r="A112" s="39"/>
       <c r="B112" s="39"/>
       <c r="C112" s="39"/>
@@ -19939,7 +19904,7 @@
       <c r="G112" s="39"/>
       <c r="H112" s="39"/>
     </row>
-    <row r="113" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="29" customHeight="1">
       <c r="A113" s="39"/>
       <c r="B113" s="39"/>
       <c r="C113" s="39"/>
@@ -19951,7 +19916,7 @@
       <c r="G113" s="39"/>
       <c r="H113" s="39"/>
     </row>
-    <row r="114" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="29" customHeight="1">
       <c r="A114" s="39"/>
       <c r="B114" s="39"/>
       <c r="C114" s="39"/>
@@ -19963,7 +19928,7 @@
       <c r="G114" s="39"/>
       <c r="H114" s="39"/>
     </row>
-    <row r="115" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="29" customHeight="1">
       <c r="A115" s="39"/>
       <c r="B115" s="39"/>
       <c r="C115" s="39"/>
@@ -19975,7 +19940,7 @@
       <c r="G115" s="39"/>
       <c r="H115" s="39"/>
     </row>
-    <row r="116" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="29" customHeight="1">
       <c r="A116" s="39"/>
       <c r="B116" s="39"/>
       <c r="C116" s="39"/>
@@ -19987,7 +19952,7 @@
       <c r="G116" s="39"/>
       <c r="H116" s="39"/>
     </row>
-    <row r="117" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="29" customHeight="1">
       <c r="A117" s="39"/>
       <c r="B117" s="39"/>
       <c r="C117" s="39"/>
@@ -19999,7 +19964,7 @@
       <c r="G117" s="39"/>
       <c r="H117" s="39"/>
     </row>
-    <row r="118" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="29">
       <c r="A118" s="39"/>
       <c r="B118" s="39"/>
       <c r="C118" s="39"/>
@@ -20011,7 +19976,7 @@
       <c r="G118" s="39"/>
       <c r="H118" s="39"/>
     </row>
-    <row r="119" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="29">
       <c r="A119" s="39"/>
       <c r="B119" s="39"/>
       <c r="C119" s="39"/>
@@ -20023,7 +19988,7 @@
       <c r="G119" s="39"/>
       <c r="H119" s="39"/>
     </row>
-    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="29">
       <c r="A120" s="39"/>
       <c r="B120" s="39"/>
       <c r="C120" s="39"/>
@@ -20035,7 +20000,7 @@
       <c r="G120" s="39"/>
       <c r="H120" s="39"/>
     </row>
-    <row r="121" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="72.5">
       <c r="A121" s="39" t="s">
         <v>5</v>
       </c>
@@ -20055,7 +20020,7 @@
       <c r="G121" s="39"/>
       <c r="H121" s="39"/>
     </row>
-    <row r="122" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="101.5" customHeight="1">
       <c r="A122" s="39" t="s">
         <v>5</v>
       </c>
@@ -20075,7 +20040,7 @@
       <c r="G122" s="39"/>
       <c r="H122" s="39"/>
     </row>
-    <row r="123" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="29" customHeight="1">
       <c r="A123" s="39"/>
       <c r="B123" s="39"/>
       <c r="C123" s="39"/>
@@ -20087,7 +20052,7 @@
       <c r="G123" s="39"/>
       <c r="H123" s="39"/>
     </row>
-    <row r="124" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="43.5" customHeight="1">
       <c r="A124" s="39"/>
       <c r="B124" s="39"/>
       <c r="C124" s="39"/>
@@ -20099,7 +20064,7 @@
       <c r="G124" s="39"/>
       <c r="H124" s="39"/>
     </row>
-    <row r="125" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="29" customHeight="1">
       <c r="A125" s="39"/>
       <c r="B125" s="39"/>
       <c r="C125" s="39"/>
@@ -20111,7 +20076,7 @@
       <c r="G125" s="39"/>
       <c r="H125" s="39"/>
     </row>
-    <row r="126" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="29" customHeight="1">
       <c r="A126" s="39"/>
       <c r="B126" s="39"/>
       <c r="C126" s="39"/>
@@ -20123,7 +20088,7 @@
       <c r="G126" s="39"/>
       <c r="H126" s="39"/>
     </row>
-    <row r="127" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="29" customHeight="1">
       <c r="A127" s="39"/>
       <c r="B127" s="39"/>
       <c r="C127" s="39"/>
@@ -20135,7 +20100,7 @@
       <c r="G127" s="39"/>
       <c r="H127" s="39"/>
     </row>
-    <row r="128" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="29" customHeight="1">
       <c r="A128" s="39"/>
       <c r="B128" s="39"/>
       <c r="C128" s="39"/>
@@ -20147,7 +20112,7 @@
       <c r="G128" s="39"/>
       <c r="H128" s="39"/>
     </row>
-    <row r="129" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="29" customHeight="1">
       <c r="A129" s="39"/>
       <c r="B129" s="39"/>
       <c r="C129" s="39"/>
@@ -20159,7 +20124,7 @@
       <c r="G129" s="39"/>
       <c r="H129" s="39"/>
     </row>
-    <row r="130" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" ht="29" customHeight="1">
       <c r="A130" s="39"/>
       <c r="B130" s="39"/>
       <c r="C130" s="39"/>
@@ -20171,7 +20136,7 @@
       <c r="G130" s="39"/>
       <c r="H130" s="39"/>
     </row>
-    <row r="131" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" ht="29" customHeight="1">
       <c r="A131" s="39"/>
       <c r="B131" s="39"/>
       <c r="C131" s="39"/>
@@ -20183,7 +20148,7 @@
       <c r="G131" s="39"/>
       <c r="H131" s="39"/>
     </row>
-    <row r="132" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="29" customHeight="1">
       <c r="A132" s="39"/>
       <c r="B132" s="39"/>
       <c r="C132" s="39"/>
@@ -20195,7 +20160,7 @@
       <c r="G132" s="39"/>
       <c r="H132" s="39"/>
     </row>
-    <row r="133" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="29" customHeight="1">
       <c r="A133" s="39"/>
       <c r="B133" s="39"/>
       <c r="C133" s="39"/>
@@ -20207,7 +20172,7 @@
       <c r="G133" s="39"/>
       <c r="H133" s="39"/>
     </row>
-    <row r="134" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="29" customHeight="1">
       <c r="A134" s="39"/>
       <c r="B134" s="39"/>
       <c r="C134" s="39"/>
@@ -20219,7 +20184,7 @@
       <c r="G134" s="39"/>
       <c r="H134" s="39"/>
     </row>
-    <row r="135" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" ht="29" customHeight="1">
       <c r="A135" s="39"/>
       <c r="B135" s="39"/>
       <c r="C135" s="39"/>
@@ -20231,7 +20196,7 @@
       <c r="G135" s="39"/>
       <c r="H135" s="39"/>
     </row>
-    <row r="136" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" ht="29" customHeight="1">
       <c r="A136" s="39"/>
       <c r="B136" s="39"/>
       <c r="C136" s="39"/>
@@ -20243,7 +20208,7 @@
       <c r="G136" s="39"/>
       <c r="H136" s="39"/>
     </row>
-    <row r="137" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" ht="29" customHeight="1">
       <c r="A137" s="39"/>
       <c r="B137" s="39"/>
       <c r="C137" s="39"/>
@@ -20255,7 +20220,7 @@
       <c r="G137" s="39"/>
       <c r="H137" s="39"/>
     </row>
-    <row r="138" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" ht="29" customHeight="1">
       <c r="A138" s="39"/>
       <c r="B138" s="39"/>
       <c r="C138" s="39"/>
@@ -20267,7 +20232,7 @@
       <c r="G138" s="39"/>
       <c r="H138" s="39"/>
     </row>
-    <row r="139" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" ht="29" customHeight="1">
       <c r="A139" s="39"/>
       <c r="B139" s="39"/>
       <c r="C139" s="39"/>
@@ -20279,7 +20244,7 @@
       <c r="G139" s="39"/>
       <c r="H139" s="39"/>
     </row>
-    <row r="140" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" ht="29" customHeight="1">
       <c r="A140" s="39"/>
       <c r="B140" s="39"/>
       <c r="C140" s="39"/>
@@ -20291,7 +20256,7 @@
       <c r="G140" s="39"/>
       <c r="H140" s="39"/>
     </row>
-    <row r="141" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="29" customHeight="1">
       <c r="A141" s="39"/>
       <c r="B141" s="39"/>
       <c r="C141" s="39"/>
@@ -20303,7 +20268,7 @@
       <c r="G141" s="39"/>
       <c r="H141" s="39"/>
     </row>
-    <row r="142" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="29" customHeight="1">
       <c r="A142" s="39"/>
       <c r="B142" s="39"/>
       <c r="C142" s="39"/>
@@ -20315,7 +20280,7 @@
       <c r="G142" s="39"/>
       <c r="H142" s="39"/>
     </row>
-    <row r="143" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="29" customHeight="1">
       <c r="A143" s="39"/>
       <c r="B143" s="39"/>
       <c r="C143" s="39"/>
@@ -20327,7 +20292,7 @@
       <c r="G143" s="39"/>
       <c r="H143" s="39"/>
     </row>
-    <row r="144" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" ht="29">
       <c r="A144" s="39"/>
       <c r="B144" s="39"/>
       <c r="C144" s="39"/>
@@ -20339,7 +20304,7 @@
       <c r="G144" s="39"/>
       <c r="H144" s="39"/>
     </row>
-    <row r="145" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="29">
       <c r="A145" s="39"/>
       <c r="B145" s="39"/>
       <c r="C145" s="39"/>
@@ -20351,7 +20316,7 @@
       <c r="G145" s="39"/>
       <c r="H145" s="39"/>
     </row>
-    <row r="146" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="29" customHeight="1">
       <c r="A146" s="39"/>
       <c r="B146" s="39"/>
       <c r="C146" s="39"/>
@@ -20363,7 +20328,7 @@
       <c r="G146" s="39"/>
       <c r="H146" s="39"/>
     </row>
-    <row r="147" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="29" customHeight="1">
       <c r="A147" s="39"/>
       <c r="B147" s="39"/>
       <c r="C147" s="39"/>
@@ -20375,7 +20340,7 @@
       <c r="G147" s="39"/>
       <c r="H147" s="39"/>
     </row>
-    <row r="148" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" ht="29" customHeight="1">
       <c r="A148" s="39"/>
       <c r="B148" s="39"/>
       <c r="C148" s="39"/>
@@ -20387,7 +20352,7 @@
       <c r="G148" s="39"/>
       <c r="H148" s="39"/>
     </row>
-    <row r="149" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" ht="29">
       <c r="A149" s="39"/>
       <c r="B149" s="39"/>
       <c r="C149" s="39"/>
@@ -20399,7 +20364,7 @@
       <c r="G149" s="39"/>
       <c r="H149" s="39"/>
     </row>
-    <row r="150" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="29" customHeight="1">
       <c r="A150" s="39"/>
       <c r="B150" s="39"/>
       <c r="C150" s="39"/>
@@ -20411,7 +20376,7 @@
       <c r="G150" s="39"/>
       <c r="H150" s="39"/>
     </row>
-    <row r="151" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="29" customHeight="1">
       <c r="A151" s="39"/>
       <c r="B151" s="39"/>
       <c r="C151" s="39"/>
@@ -20423,7 +20388,7 @@
       <c r="G151" s="39"/>
       <c r="H151" s="39"/>
     </row>
-    <row r="152" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" ht="29" customHeight="1">
       <c r="A152" s="39"/>
       <c r="B152" s="39"/>
       <c r="C152" s="39"/>
@@ -20435,7 +20400,7 @@
       <c r="G152" s="39"/>
       <c r="H152" s="39"/>
     </row>
-    <row r="153" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" ht="29" customHeight="1">
       <c r="A153" s="39"/>
       <c r="B153" s="39"/>
       <c r="C153" s="39"/>
@@ -20447,7 +20412,7 @@
       <c r="G153" s="39"/>
       <c r="H153" s="39"/>
     </row>
-    <row r="154" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="60" customHeight="1">
       <c r="A154" s="39"/>
       <c r="B154" s="39"/>
       <c r="C154" s="39"/>
@@ -20466,28 +20431,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="19.1640625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="4"/>
+    <col min="2" max="2" width="19.1796875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="20.36328125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" style="40" customWidth="1"/>
     <col min="8" max="8" width="21" style="40" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6328125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="131.5" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>535</v>
       </c>
@@ -20503,7 +20468,7 @@
       <c r="I1" s="99"/>
       <c r="J1" s="100"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
@@ -20535,7 +20500,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A3" s="87" t="s">
         <v>5</v>
       </c>
@@ -20565,7 +20530,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="40" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="40" customFormat="1" ht="29">
       <c r="A4" s="87" t="s">
         <v>5</v>
       </c>
@@ -20595,7 +20560,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
@@ -20609,7 +20574,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="47"/>
     </row>
-    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="28.75" customHeight="1">
       <c r="A6" s="83" t="s">
         <v>5</v>
       </c>
@@ -20639,7 +20604,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="83" t="s">
         <v>5</v>
       </c>
@@ -20667,7 +20632,7 @@
       </c>
       <c r="J7" s="83"/>
     </row>
-    <row r="8" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="28.75" customHeight="1">
       <c r="A8" s="83" t="s">
         <v>5</v>
       </c>
@@ -20689,7 +20654,7 @@
       <c r="I8" s="83"/>
       <c r="J8" s="83"/>
     </row>
-    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="28.75" customHeight="1">
       <c r="A9" s="83" t="s">
         <v>5</v>
       </c>
@@ -20713,7 +20678,7 @@
       <c r="I9" s="83"/>
       <c r="J9" s="83"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="83" t="s">
         <v>5</v>
       </c>
@@ -20737,7 +20702,7 @@
       <c r="I10" s="83"/>
       <c r="J10" s="83"/>
     </row>
-    <row r="11" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="28.75" customHeight="1">
       <c r="A11" s="83" t="s">
         <v>5</v>
       </c>
@@ -20765,7 +20730,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="83" t="s">
         <v>5</v>
       </c>
@@ -20787,7 +20752,7 @@
       <c r="I12" s="83"/>
       <c r="J12" s="83"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="83" t="s">
         <v>5</v>
       </c>
@@ -20809,7 +20774,7 @@
       <c r="I13" s="83"/>
       <c r="J13" s="83"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="83" t="s">
         <v>5</v>
       </c>
@@ -20844,29 +20809,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="40" customWidth="1"/>
-    <col min="2" max="3" width="16.5" style="40" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="40" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="40" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="40" customWidth="1"/>
+    <col min="2" max="3" width="16.453125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="40" customWidth="1"/>
     <col min="9" max="9" width="14" style="40" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="40" customWidth="1"/>
-    <col min="11" max="11" width="26.5" style="40" customWidth="1"/>
+    <col min="10" max="10" width="22.453125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="26.453125" style="40" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="40" customFormat="1" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="40" customFormat="1" ht="187.75" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>520</v>
       </c>
@@ -20884,7 +20849,7 @@
       <c r="K1" s="96"/>
       <c r="L1" s="97"/>
     </row>
-    <row r="2" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -20922,7 +20887,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="40" customFormat="1">
       <c r="A3" s="39" t="s">
         <v>327</v>
       </c>
@@ -20956,7 +20921,7 @@
       <c r="K3" s="41"/>
       <c r="L3" s="39"/>
     </row>
-    <row r="4" spans="1:12" s="37" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="37" customFormat="1">
       <c r="A4" s="39" t="s">
         <v>327</v>
       </c>
@@ -20990,7 +20955,7 @@
       <c r="K4" s="41"/>
       <c r="L4" s="35"/>
     </row>
-    <row r="5" spans="1:12" s="37" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="37" customFormat="1">
       <c r="A5" s="39" t="s">
         <v>327</v>
       </c>
@@ -21024,7 +20989,7 @@
       <c r="K5" s="41"/>
       <c r="L5" s="35"/>
     </row>
-    <row r="6" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="37" customFormat="1">
       <c r="A6" s="41" t="s">
         <v>4</v>
       </c>
@@ -21040,7 +21005,7 @@
       <c r="K6" s="41"/>
       <c r="L6" s="35"/>
     </row>
-    <row r="7" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="28.75" customHeight="1">
       <c r="A7" s="83" t="s">
         <v>5</v>
       </c>
@@ -21078,7 +21043,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="37" customFormat="1">
       <c r="A8" s="83" t="s">
         <v>5</v>
       </c>
@@ -21112,7 +21077,7 @@
       <c r="K8" s="83"/>
       <c r="L8" s="83"/>
     </row>
-    <row r="9" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="37" customFormat="1">
       <c r="A9" s="83" t="s">
         <v>5</v>
       </c>
@@ -21157,27 +21122,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="40" customWidth="1"/>
     <col min="2" max="2" width="18" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.1640625" style="40" customWidth="1"/>
-    <col min="8" max="18" width="8.6640625" style="40" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="40"/>
+    <col min="3" max="3" width="9.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" style="40" customWidth="1"/>
+    <col min="5" max="5" width="23.36328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.1796875" style="40" customWidth="1"/>
+    <col min="8" max="18" width="8.6328125" style="40" customWidth="1"/>
+    <col min="19" max="16384" width="8.6328125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="222" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="222" customHeight="1">
       <c r="A1" s="95" t="s">
         <v>911</v>
       </c>
@@ -21190,7 +21155,7 @@
       </c>
       <c r="G1" s="96"/>
     </row>
-    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="89" t="s">
         <v>0</v>
       </c>
@@ -21213,7 +21178,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="29" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>327</v>
       </c>
@@ -21236,7 +21201,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="39" t="s">
         <v>4</v>
       </c>
@@ -21247,7 +21212,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -21256,7 +21221,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="93" customFormat="1">
       <c r="A6" s="75"/>
       <c r="B6" s="75"/>
       <c r="C6" s="75"/>
@@ -21265,7 +21230,7 @@
       <c r="F6" s="75"/>
       <c r="G6" s="75"/>
     </row>
-    <row r="7" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="93" customFormat="1">
       <c r="A7" s="75"/>
       <c r="B7" s="75"/>
       <c r="C7" s="75"/>
@@ -21274,7 +21239,7 @@
       <c r="F7" s="75"/>
       <c r="G7" s="75"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="39"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
@@ -21283,7 +21248,7 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -21292,7 +21257,7 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="39"/>
       <c r="B10" s="39"/>
       <c r="C10" s="39"/>
@@ -21301,7 +21266,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="39"/>
       <c r="B11" s="39"/>
       <c r="C11" s="39"/>
@@ -21310,7 +21275,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="39"/>
       <c r="B12" s="39"/>
       <c r="C12" s="39"/>
@@ -21319,7 +21284,7 @@
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="39"/>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -21328,7 +21293,7 @@
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -21337,7 +21302,7 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="39"/>
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
@@ -21346,7 +21311,7 @@
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="39"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
@@ -21355,7 +21320,7 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="39"/>
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
@@ -21364,7 +21329,7 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -21373,7 +21338,7 @@
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -21382,7 +21347,7 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -21391,7 +21356,7 @@
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="39"/>
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
@@ -21400,7 +21365,7 @@
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
@@ -21409,7 +21374,7 @@
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -21418,7 +21383,7 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
@@ -21427,7 +21392,7 @@
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="39"/>
       <c r="B25" s="39"/>
       <c r="C25" s="39"/>
@@ -21436,7 +21401,7 @@
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="39"/>
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
@@ -21445,7 +21410,7 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="39"/>
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
@@ -21454,7 +21419,7 @@
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="39"/>
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
@@ -21463,7 +21428,7 @@
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="39"/>
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
@@ -21472,7 +21437,7 @@
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="39"/>
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
@@ -21492,28 +21457,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="40" customWidth="1"/>
-    <col min="3" max="10" width="9.1640625" style="40" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="40"/>
+    <col min="1" max="1" width="32.1796875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" style="40" customWidth="1"/>
+    <col min="3" max="10" width="9.1796875" style="40" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="48" customFormat="1" ht="121.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="48" customFormat="1" ht="121.75" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>498</v>
       </c>
       <c r="B1" s="100"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
         <v>27</v>
       </c>
@@ -21521,7 +21486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -21529,13 +21494,13 @@
         <v>807</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="41"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
@@ -21543,7 +21508,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
@@ -21561,26 +21526,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="40" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.81640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.453125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" style="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="103.75" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>505</v>
       </c>
@@ -21592,7 +21557,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:8" s="48" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="48" customFormat="1" ht="43.25" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -21618,7 +21583,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>327</v>
       </c>
@@ -21640,7 +21605,7 @@
       <c r="G3" s="41"/>
       <c r="H3" s="39"/>
     </row>
-    <row r="4" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>327</v>
       </c>
@@ -21662,7 +21627,7 @@
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
     </row>
-    <row r="5" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="40" customFormat="1" ht="28.75" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>327</v>
       </c>
@@ -21684,7 +21649,7 @@
       <c r="G5" s="41"/>
       <c r="H5" s="41"/>
     </row>
-    <row r="6" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="28.75" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>4</v>
       </c>
@@ -21696,7 +21661,7 @@
       <c r="G6" s="41"/>
       <c r="H6" s="41"/>
     </row>
-    <row r="7" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="28.75" customHeight="1">
       <c r="A7" s="83" t="s">
         <v>5</v>
       </c>
@@ -21722,7 +21687,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="28.75" customHeight="1">
       <c r="A8" s="83" t="s">
         <v>5</v>
       </c>
@@ -21744,7 +21709,7 @@
       <c r="G8" s="83"/>
       <c r="H8" s="83"/>
     </row>
-    <row r="9" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="28.75" customHeight="1">
       <c r="A9" s="83" t="s">
         <v>5</v>
       </c>

--- a/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tenancy/SetUpOCI_Via_TF/example/CD3-HubSpoke-template.xlsx
@@ -6684,77 +6684,6 @@
                                 Example: Operations.CostCenter=01;Users.Name=user01</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">v8.0
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;).
 - Columns Region, Compartment Name, DRG Name are mandatory.
 - Leave columns DRG RT Name,  Import DRG Route Distribution Name and Import DRG   Route Distribution Statements empty to use Autogenerated ones.
@@ -6883,6 +6812,77 @@
   </si>
   <si>
     <t>flexible</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v8.0.2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Added new sheets - DRGs and DRGRouteRulesinOCI
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9601,7 +9601,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="80" t="s">
-        <v>910</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -14290,13 +14290,13 @@
         <v>142</v>
       </c>
       <c r="D2" s="21" t="s">
+        <v>944</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>945</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>946</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>947</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>143</v>
@@ -14368,7 +14368,7 @@
         <v>429</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E4" s="41">
         <v>100</v>
@@ -18440,10 +18440,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="39" t="s">
+        <v>912</v>
+      </c>
+      <c r="C10" s="39" t="s">
         <v>913</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>914</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39"/>
@@ -18546,7 +18546,7 @@
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
       <c r="E4" s="39" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -18830,7 +18830,7 @@
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -18854,7 +18854,7 @@
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="39" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
@@ -18866,7 +18866,7 @@
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="39" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
@@ -18926,7 +18926,7 @@
       <c r="C35" s="39"/>
       <c r="D35" s="39"/>
       <c r="E35" s="39" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
@@ -18938,7 +18938,7 @@
       <c r="C36" s="39"/>
       <c r="D36" s="39"/>
       <c r="E36" s="39" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
@@ -19102,7 +19102,7 @@
       <c r="C49" s="39"/>
       <c r="D49" s="39"/>
       <c r="E49" s="39" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="39"/>
@@ -19114,7 +19114,7 @@
       <c r="C50" s="39"/>
       <c r="D50" s="39"/>
       <c r="E50" s="39" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
@@ -19125,16 +19125,16 @@
         <v>5</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C51" s="39" t="s">
         <v>434</v>
       </c>
       <c r="D51" s="39" t="s">
+        <v>923</v>
+      </c>
+      <c r="E51" s="39" t="s">
         <v>924</v>
-      </c>
-      <c r="E51" s="39" t="s">
-        <v>925</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="39"/>
@@ -19146,7 +19146,7 @@
       <c r="C52" s="39"/>
       <c r="D52" s="39"/>
       <c r="E52" s="39" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F52" s="39"/>
       <c r="G52" s="39"/>
@@ -19158,7 +19158,7 @@
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
       <c r="E53" s="39" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
@@ -19170,7 +19170,7 @@
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
       <c r="E54" s="39" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F54" s="39"/>
       <c r="G54" s="39"/>
@@ -19606,7 +19606,7 @@
       <c r="C89" s="39"/>
       <c r="D89" s="39"/>
       <c r="E89" s="39" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F89" s="39"/>
       <c r="G89" s="39"/>
@@ -19618,7 +19618,7 @@
       <c r="C90" s="39"/>
       <c r="D90" s="39"/>
       <c r="E90" s="39" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F90" s="39"/>
       <c r="G90" s="39"/>
@@ -19638,7 +19638,7 @@
         <v>748</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F91" s="39"/>
       <c r="G91" s="39"/>
@@ -19722,7 +19722,7 @@
       <c r="C98" s="39"/>
       <c r="D98" s="39"/>
       <c r="E98" s="39" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F98" s="39"/>
       <c r="G98" s="39"/>
@@ -19746,7 +19746,7 @@
       <c r="C100" s="39"/>
       <c r="D100" s="39"/>
       <c r="E100" s="39" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F100" s="39"/>
       <c r="G100" s="39"/>
@@ -19758,7 +19758,7 @@
       <c r="C101" s="39"/>
       <c r="D101" s="39"/>
       <c r="E101" s="39" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F101" s="39"/>
       <c r="G101" s="39"/>
@@ -19770,7 +19770,7 @@
       <c r="C102" s="39"/>
       <c r="D102" s="39"/>
       <c r="E102" s="39" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F102" s="39"/>
       <c r="G102" s="39"/>
@@ -19818,7 +19818,7 @@
       <c r="C106" s="39"/>
       <c r="D106" s="39"/>
       <c r="E106" s="39" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F106" s="39"/>
       <c r="G106" s="39"/>
@@ -19830,7 +19830,7 @@
       <c r="C107" s="39"/>
       <c r="D107" s="39"/>
       <c r="E107" s="39" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F107" s="39"/>
       <c r="G107" s="39"/>
@@ -19842,7 +19842,7 @@
       <c r="C108" s="39"/>
       <c r="D108" s="39"/>
       <c r="E108" s="39" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F108" s="39"/>
       <c r="G108" s="39"/>
@@ -19982,7 +19982,7 @@
       <c r="C119" s="39"/>
       <c r="D119" s="39"/>
       <c r="E119" s="39" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F119" s="39"/>
       <c r="G119" s="39"/>
@@ -19994,7 +19994,7 @@
       <c r="C120" s="39"/>
       <c r="D120" s="39"/>
       <c r="E120" s="39" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F120" s="39"/>
       <c r="G120" s="39"/>
@@ -20058,7 +20058,7 @@
       <c r="C124" s="39"/>
       <c r="D124" s="39"/>
       <c r="E124" s="39" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F124" s="39"/>
       <c r="G124" s="39"/>
@@ -20346,7 +20346,7 @@
       <c r="C148" s="39"/>
       <c r="D148" s="39"/>
       <c r="E148" s="39" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F148" s="39"/>
       <c r="G148" s="39"/>
@@ -20358,7 +20358,7 @@
       <c r="C149" s="39"/>
       <c r="D149" s="39"/>
       <c r="E149" s="39" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F149" s="39"/>
       <c r="G149" s="39"/>
@@ -20406,7 +20406,7 @@
       <c r="C153" s="39"/>
       <c r="D153" s="39"/>
       <c r="E153" s="39" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F153" s="39"/>
       <c r="G153" s="39"/>
@@ -21144,14 +21144,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="222" customHeight="1">
       <c r="A1" s="95" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
       <c r="D1" s="96"/>
       <c r="E1" s="96"/>
       <c r="F1" s="95" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="G1" s="96"/>
     </row>
